--- a/MS_PowerShell.xlsx
+++ b/MS_PowerShell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\personalNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDFE81A-994B-433B-8818-27F18940887A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF10065-C097-4B30-9B01-A66DBD4A5DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cmd" sheetId="1" r:id="rId1"/>
@@ -3591,35 +3591,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3627,41 +3610,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3670,28 +3633,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -3713,6 +3663,56 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4052,7 +4052,7 @@
   <dimension ref="A3:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4196,240 +4196,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="16" t="s">
         <v>547</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16" t="s">
         <v>548</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="21" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="20" t="s">
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
@@ -4437,7 +4437,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="17" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4480,100 +4480,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="J1" s="27" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="J1" s="18" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="J2" s="31" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="J2" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="21" t="s">
         <v>550</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
       <c r="J3" s="5" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="21" t="s">
         <v>552</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
       <c r="J4" s="5" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="20" t="s">
         <v>554</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
       <c r="J6" s="5" t="s">
         <v>555</v>
       </c>
@@ -4585,18 +4585,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="21" t="s">
         <v>556</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
       <c r="J7" s="5" t="s">
         <v>52</v>
       </c>
@@ -4605,28 +4605,28 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
       <c r="J9" s="5" t="s">
         <v>56</v>
       </c>
@@ -4635,81 +4635,81 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
       <c r="J10" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
       <c r="U11" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="21" t="s">
         <v>557</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="21" t="s">
         <v>559</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="J14" s="33" t="s">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="J14" s="24" t="s">
         <v>67</v>
       </c>
       <c r="U14" s="5" t="s">
@@ -4717,18 +4717,18 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="21" t="s">
         <v>560</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
       <c r="J15" s="4" t="s">
         <v>70</v>
       </c>
@@ -4737,14 +4737,14 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
       <c r="J16" s="4" t="s">
         <v>72</v>
       </c>
@@ -4756,16 +4756,16 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
       <c r="J17" s="4" t="s">
         <v>76</v>
       </c>
@@ -4774,73 +4774,73 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="26"/>
+      <c r="B22" s="73"/>
       <c r="U22" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="35" t="s">
+      <c r="B24" s="73"/>
+      <c r="C24" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="35" t="s">
+      <c r="D24" s="73"/>
+      <c r="E24" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="35" t="s">
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="I24" s="26"/>
+      <c r="I24" s="73"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="36" t="s">
+      <c r="B25" s="68"/>
+      <c r="C25" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="36" t="s">
+      <c r="D25" s="68"/>
+      <c r="E25" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="36" t="s">
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="I25" s="7"/>
+      <c r="I25" s="68"/>
       <c r="U25" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="D27" s="37" t="s">
+      <c r="B27" s="73"/>
+      <c r="D27" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="K27" s="34" t="s">
+      <c r="E27" s="73"/>
+      <c r="K27" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="L27" s="26"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -4849,672 +4849,672 @@
       <c r="D28" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="K28" s="31" t="s">
+      <c r="K28" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="L28" s="17" t="s">
+      <c r="L28" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="K29" s="17" t="s">
+      <c r="K29" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K30" s="17" t="s">
+      <c r="K30" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
     </row>
     <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
+      <c r="B31" s="73"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
     </row>
     <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="K32" s="31" t="s">
+      <c r="K32" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="31" t="s">
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K33" s="17" t="s">
+      <c r="K33" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="17" t="s">
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K34" s="17" t="s">
+      <c r="K34" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
+      <c r="B35" s="73"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="K36" s="31" t="s">
+      <c r="K36" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="31" t="s">
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="K37" s="17" t="s">
+      <c r="K37" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="17" t="s">
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="9" t="s">
         <v>566</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="K39" s="38" t="s">
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="K39" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="L39" s="7"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
+      <c r="L39" s="68"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="K40" s="17" t="s">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="K40" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
     </row>
     <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
     </row>
     <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="K42" s="31" t="s">
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="K42" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
     </row>
     <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="K43" s="17" t="s">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="K43" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
     </row>
     <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
     </row>
     <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="K46" s="39" t="s">
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="K46" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="L46" s="14"/>
+      <c r="L46" s="11"/>
       <c r="N46" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="14"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="11"/>
       <c r="N47" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="K48" s="39" t="s">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="K48" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="L48" s="14"/>
+      <c r="L48" s="11"/>
       <c r="N48" s="5" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="17" t="s">
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="14"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="42" t="s">
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="11"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="M49" s="43" t="s">
+      <c r="M49" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="N49" s="7"/>
-      <c r="O49" s="44" t="s">
+      <c r="N49" s="68"/>
+      <c r="O49" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="P49" s="45"/>
-      <c r="R49" s="13"/>
+      <c r="P49" s="30"/>
+      <c r="R49" s="10"/>
       <c r="U49" s="5"/>
-      <c r="W49" s="14"/>
-      <c r="X49" s="14"/>
-      <c r="Y49" s="14"/>
-      <c r="Z49" s="14"/>
-      <c r="AA49" s="14"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="41" t="s">
+      <c r="A50" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="17" t="s">
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="14"/>
-      <c r="K50" s="46"/>
-      <c r="R50" s="13"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="11"/>
+      <c r="K50" s="31"/>
+      <c r="R50" s="10"/>
       <c r="U50" s="5"/>
-      <c r="W50" s="14"/>
-      <c r="X50" s="14"/>
-      <c r="Y50" s="14"/>
-      <c r="Z50" s="14"/>
-      <c r="AA50" s="14"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="17" t="s">
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="14"/>
-      <c r="K51" s="39" t="s">
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="11"/>
+      <c r="K51" s="25" t="s">
         <v>128</v>
       </c>
       <c r="N51" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="R51" s="13"/>
+      <c r="R51" s="10"/>
       <c r="U51" s="5"/>
-      <c r="W51" s="14"/>
-      <c r="X51" s="14"/>
-      <c r="Y51" s="14"/>
-      <c r="Z51" s="14"/>
-      <c r="AA51" s="14"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="13"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
       <c r="U52" s="5"/>
-      <c r="W52" s="14"/>
-      <c r="X52" s="14"/>
-      <c r="Y52" s="14"/>
-      <c r="Z52" s="14"/>
-      <c r="AA52" s="14"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="11"/>
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="17" t="s">
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="13"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
       <c r="U53" s="5"/>
-      <c r="W53" s="14"/>
-      <c r="X53" s="14"/>
-      <c r="Y53" s="14"/>
-      <c r="Z53" s="14"/>
-      <c r="AA53" s="14"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
     </row>
     <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="17" t="s">
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="Q54" s="13"/>
-      <c r="R54" s="13"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
       <c r="U54" s="5"/>
-      <c r="W54" s="14"/>
-      <c r="X54" s="14"/>
-      <c r="Y54" s="14"/>
-      <c r="Z54" s="14"/>
-      <c r="AA54" s="14"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="11"/>
     </row>
     <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="13"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
       <c r="U55" s="5"/>
-      <c r="W55" s="14"/>
-      <c r="X55" s="14"/>
-      <c r="Y55" s="14"/>
-      <c r="Z55" s="14"/>
-      <c r="AA55" s="14"/>
+      <c r="W55" s="11"/>
+      <c r="X55" s="11"/>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="11"/>
+      <c r="AA55" s="11"/>
     </row>
     <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="13"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
       <c r="U56" s="5"/>
-      <c r="W56" s="14"/>
-      <c r="X56" s="14"/>
-      <c r="Y56" s="14"/>
-      <c r="Z56" s="14"/>
-      <c r="AA56" s="14"/>
+      <c r="W56" s="11"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="11"/>
     </row>
     <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="G57" s="48" t="s">
+      <c r="B57" s="73"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="73"/>
+      <c r="G57" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="13"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="73"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
       <c r="U57" s="5"/>
-      <c r="W57" s="14"/>
-      <c r="X57" s="14"/>
-      <c r="Y57" s="14"/>
-      <c r="Z57" s="14"/>
-      <c r="AA57" s="14"/>
+      <c r="W57" s="11"/>
+      <c r="X57" s="11"/>
+      <c r="Y57" s="11"/>
+      <c r="Z57" s="11"/>
+      <c r="AA57" s="11"/>
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="31" t="s">
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="H58" s="10"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="31" t="s">
+      <c r="H58" s="8"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="M58" s="10"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="13"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="10"/>
       <c r="U58" s="5"/>
-      <c r="W58" s="14"/>
-      <c r="X58" s="14"/>
-      <c r="Y58" s="14"/>
-      <c r="Z58" s="14"/>
-      <c r="AA58" s="14"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="11"/>
+      <c r="AA58" s="11"/>
     </row>
     <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="50" t="s">
+      <c r="A59" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="20" t="s">
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="16" t="s">
         <v>573</v>
       </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="20" t="s">
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="13"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="10"/>
       <c r="U59" s="5"/>
-      <c r="W59" s="14"/>
-      <c r="X59" s="14"/>
-      <c r="Y59" s="14"/>
-      <c r="Z59" s="14"/>
-      <c r="AA59" s="14"/>
+      <c r="W59" s="11"/>
+      <c r="X59" s="11"/>
+      <c r="Y59" s="11"/>
+      <c r="Z59" s="11"/>
+      <c r="AA59" s="11"/>
     </row>
     <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="20" t="s">
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="20" t="s">
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="13"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="15"/>
+      <c r="R60" s="10"/>
       <c r="U60" s="5"/>
-      <c r="W60" s="14"/>
-      <c r="X60" s="14"/>
-      <c r="Y60" s="14"/>
-      <c r="Z60" s="14"/>
-      <c r="AA60" s="14"/>
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
+      <c r="Y60" s="11"/>
+      <c r="Z60" s="11"/>
+      <c r="AA60" s="11"/>
     </row>
     <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B61" s="49"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="20" t="s">
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="13"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="10"/>
       <c r="U61" s="5"/>
-      <c r="W61" s="14"/>
-      <c r="X61" s="14"/>
-      <c r="Y61" s="14"/>
-      <c r="Z61" s="14"/>
-      <c r="AA61" s="14"/>
+      <c r="W61" s="11"/>
+      <c r="X61" s="11"/>
+      <c r="Y61" s="11"/>
+      <c r="Z61" s="11"/>
+      <c r="AA61" s="11"/>
     </row>
     <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="50" t="s">
+      <c r="A62" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="51" t="s">
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="M62" s="26"/>
-      <c r="N62" s="26"/>
-      <c r="O62" s="26"/>
-      <c r="P62" s="26"/>
-      <c r="Q62" s="26"/>
-      <c r="R62" s="13"/>
+      <c r="M62" s="73"/>
+      <c r="N62" s="73"/>
+      <c r="O62" s="73"/>
+      <c r="P62" s="73"/>
+      <c r="Q62" s="73"/>
+      <c r="R62" s="10"/>
       <c r="U62" s="5"/>
-      <c r="W62" s="14"/>
-      <c r="X62" s="14"/>
-      <c r="Y62" s="14"/>
-      <c r="Z62" s="14"/>
-      <c r="AA62" s="14"/>
+      <c r="W62" s="11"/>
+      <c r="X62" s="11"/>
+      <c r="Y62" s="11"/>
+      <c r="Z62" s="11"/>
+      <c r="AA62" s="11"/>
     </row>
     <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="50" t="s">
+      <c r="A63" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B63" s="49"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="52" t="s">
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
       <c r="L63" s="4" t="s">
         <v>147</v>
       </c>
@@ -5524,65 +5524,65 @@
       <c r="P63" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="Q63" s="13"/>
-      <c r="R63" s="13"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
       <c r="U63" s="5"/>
-      <c r="W63" s="14"/>
-      <c r="X63" s="14"/>
-      <c r="Y63" s="14"/>
-      <c r="Z63" s="14"/>
-      <c r="AA63" s="14"/>
+      <c r="W63" s="11"/>
+      <c r="X63" s="11"/>
+      <c r="Y63" s="11"/>
+      <c r="Z63" s="11"/>
+      <c r="AA63" s="11"/>
     </row>
     <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="53" t="s">
+      <c r="A64" s="32"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="31" t="s">
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="M64" s="10"/>
-      <c r="N64" s="11" t="s">
+      <c r="M64" s="8"/>
+      <c r="N64" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="O64" s="10"/>
-      <c r="P64" s="31" t="s">
+      <c r="O64" s="8"/>
+      <c r="P64" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="13"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="10"/>
       <c r="U64" s="5"/>
-      <c r="W64" s="14"/>
-      <c r="X64" s="14"/>
-      <c r="Y64" s="14"/>
-      <c r="Z64" s="14"/>
-      <c r="AA64" s="14"/>
+      <c r="W64" s="11"/>
+      <c r="X64" s="11"/>
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="11"/>
+      <c r="AA64" s="11"/>
     </row>
     <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
-      <c r="B65" s="54" t="s">
+      <c r="A65" s="32"/>
+      <c r="B65" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="20" t="s">
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
       <c r="L65" s="4" t="s">
         <v>156</v>
       </c>
@@ -5592,65 +5592,65 @@
       <c r="P65" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="Q65" s="13"/>
-      <c r="R65" s="13"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
       <c r="U65" s="5"/>
-      <c r="W65" s="14"/>
-      <c r="X65" s="14"/>
-      <c r="Y65" s="14"/>
-      <c r="Z65" s="14"/>
-      <c r="AA65" s="14"/>
+      <c r="W65" s="11"/>
+      <c r="X65" s="11"/>
+      <c r="Y65" s="11"/>
+      <c r="Z65" s="11"/>
+      <c r="AA65" s="11"/>
     </row>
     <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
-      <c r="B66" s="55" t="s">
+      <c r="A66" s="32"/>
+      <c r="B66" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="56" t="s">
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="31" t="s">
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="M66" s="10"/>
-      <c r="N66" s="11" t="s">
+      <c r="M66" s="8"/>
+      <c r="N66" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="O66" s="10"/>
-      <c r="P66" s="31" t="s">
+      <c r="O66" s="8"/>
+      <c r="P66" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="Q66" s="11"/>
-      <c r="R66" s="13"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="10"/>
       <c r="U66" s="5"/>
-      <c r="W66" s="14"/>
-      <c r="X66" s="14"/>
-      <c r="Y66" s="14"/>
-      <c r="Z66" s="14"/>
-      <c r="AA66" s="14"/>
+      <c r="W66" s="11"/>
+      <c r="X66" s="11"/>
+      <c r="Y66" s="11"/>
+      <c r="Z66" s="11"/>
+      <c r="AA66" s="11"/>
     </row>
     <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
-      <c r="B67" s="50" t="s">
+      <c r="A67" s="32"/>
+      <c r="B67" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
       <c r="L67" s="4" t="s">
         <v>165</v>
       </c>
@@ -5660,65 +5660,65 @@
       <c r="P67" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="Q67" s="13"/>
-      <c r="R67" s="13"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
       <c r="U67" s="5"/>
-      <c r="W67" s="14"/>
-      <c r="X67" s="14"/>
-      <c r="Y67" s="14"/>
-      <c r="Z67" s="14"/>
-      <c r="AA67" s="14"/>
+      <c r="W67" s="11"/>
+      <c r="X67" s="11"/>
+      <c r="Y67" s="11"/>
+      <c r="Z67" s="11"/>
+      <c r="AA67" s="11"/>
     </row>
     <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="49"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="53" t="s">
+      <c r="A68" s="32"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="31" t="s">
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="M68" s="10"/>
-      <c r="N68" s="11" t="s">
+      <c r="M68" s="8"/>
+      <c r="N68" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="O68" s="10"/>
-      <c r="P68" s="31" t="s">
+      <c r="O68" s="8"/>
+      <c r="P68" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="Q68" s="11"/>
-      <c r="R68" s="13"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="10"/>
       <c r="U68" s="5"/>
-      <c r="W68" s="14"/>
-      <c r="X68" s="14"/>
-      <c r="Y68" s="14"/>
-      <c r="Z68" s="14"/>
-      <c r="AA68" s="14"/>
+      <c r="W68" s="11"/>
+      <c r="X68" s="11"/>
+      <c r="Y68" s="11"/>
+      <c r="Z68" s="11"/>
+      <c r="AA68" s="11"/>
     </row>
     <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
-      <c r="B69" s="55" t="s">
+      <c r="A69" s="32"/>
+      <c r="B69" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="20" t="s">
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
       <c r="L69" s="4" t="s">
         <v>174</v>
       </c>
@@ -5728,601 +5728,601 @@
       <c r="P69" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="Q69" s="13"/>
-      <c r="R69" s="13"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
       <c r="U69" s="5"/>
-      <c r="W69" s="14"/>
-      <c r="X69" s="14"/>
-      <c r="Y69" s="14"/>
-      <c r="Z69" s="14"/>
-      <c r="AA69" s="14"/>
+      <c r="W69" s="11"/>
+      <c r="X69" s="11"/>
+      <c r="Y69" s="11"/>
+      <c r="Z69" s="11"/>
+      <c r="AA69" s="11"/>
     </row>
     <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
-      <c r="B70" s="50" t="s">
+      <c r="A70" s="32"/>
+      <c r="B70" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="56" t="s">
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="19"/>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="19"/>
-      <c r="R70" s="13"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="10"/>
       <c r="U70" s="5"/>
-      <c r="W70" s="14"/>
-      <c r="X70" s="14"/>
-      <c r="Y70" s="14"/>
-      <c r="Z70" s="14"/>
-      <c r="AA70" s="14"/>
+      <c r="W70" s="11"/>
+      <c r="X70" s="11"/>
+      <c r="Y70" s="11"/>
+      <c r="Z70" s="11"/>
+      <c r="AA70" s="11"/>
     </row>
     <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="49"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="57" t="s">
+      <c r="A71" s="32"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="M71" s="19"/>
-      <c r="N71" s="19"/>
-      <c r="O71" s="19" t="s">
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="19"/>
-      <c r="R71" s="13"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="10"/>
       <c r="U71" s="5"/>
-      <c r="W71" s="14"/>
-      <c r="X71" s="14"/>
-      <c r="Y71" s="14"/>
-      <c r="Z71" s="14"/>
-      <c r="AA71" s="14"/>
+      <c r="W71" s="11"/>
+      <c r="X71" s="11"/>
+      <c r="Y71" s="11"/>
+      <c r="Z71" s="11"/>
+      <c r="AA71" s="11"/>
     </row>
     <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
-      <c r="B72" s="55" t="s">
+      <c r="A72" s="32"/>
+      <c r="B72" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="49"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="53" t="s">
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19" t="s">
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
-      <c r="O72" s="20" t="s">
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="19"/>
-      <c r="R72" s="13"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="10"/>
       <c r="U72" s="5"/>
-      <c r="W72" s="14"/>
-      <c r="X72" s="14"/>
-      <c r="Y72" s="14"/>
-      <c r="Z72" s="14"/>
-      <c r="AA72" s="14"/>
+      <c r="W72" s="11"/>
+      <c r="X72" s="11"/>
+      <c r="Y72" s="11"/>
+      <c r="Z72" s="11"/>
+      <c r="AA72" s="11"/>
     </row>
     <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="49"/>
-      <c r="B73" s="50" t="s">
+      <c r="A73" s="32"/>
+      <c r="B73" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="20" t="s">
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
-      <c r="O73" s="19"/>
-      <c r="P73" s="19"/>
-      <c r="Q73" s="19"/>
-      <c r="R73" s="13"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="10"/>
       <c r="U73" s="5"/>
-      <c r="W73" s="14"/>
-      <c r="X73" s="14"/>
-      <c r="Y73" s="14"/>
-      <c r="Z73" s="14"/>
-      <c r="AA73" s="14"/>
+      <c r="W73" s="11"/>
+      <c r="X73" s="11"/>
+      <c r="Y73" s="11"/>
+      <c r="Z73" s="11"/>
+      <c r="AA73" s="11"/>
     </row>
     <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="50"/>
-      <c r="B74" s="49"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="49"/>
-      <c r="E74" s="49"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="56" t="s">
+      <c r="A74" s="33"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="53" t="s">
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="M74" s="19"/>
-      <c r="N74" s="19"/>
-      <c r="O74" s="19" t="s">
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="P74" s="19"/>
-      <c r="Q74" s="19"/>
-      <c r="R74" s="13"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="10"/>
       <c r="U74" s="5"/>
-      <c r="W74" s="14"/>
-      <c r="X74" s="14"/>
-      <c r="Y74" s="14"/>
-      <c r="Z74" s="14"/>
-      <c r="AA74" s="14"/>
+      <c r="W74" s="11"/>
+      <c r="X74" s="11"/>
+      <c r="Y74" s="11"/>
+      <c r="Z74" s="11"/>
+      <c r="AA74" s="11"/>
     </row>
     <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="55" t="s">
+      <c r="A75" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="49"/>
-      <c r="C75" s="50" t="s">
+      <c r="B75" s="32"/>
+      <c r="C75" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="D75" s="49"/>
-      <c r="E75" s="49"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19" t="s">
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="M75" s="19"/>
-      <c r="N75" s="19"/>
-      <c r="O75" s="20" t="s">
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="P75" s="19"/>
-      <c r="Q75" s="19"/>
-      <c r="R75" s="13"/>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="10"/>
       <c r="U75" s="5"/>
-      <c r="W75" s="14"/>
-      <c r="X75" s="14"/>
-      <c r="Y75" s="14"/>
-      <c r="Z75" s="14"/>
-      <c r="AA75" s="14"/>
+      <c r="W75" s="11"/>
+      <c r="X75" s="11"/>
+      <c r="Y75" s="11"/>
+      <c r="Z75" s="11"/>
+      <c r="AA75" s="11"/>
     </row>
     <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="55" t="s">
+      <c r="A76" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="B76" s="49"/>
-      <c r="C76" s="50" t="s">
+      <c r="B76" s="32"/>
+      <c r="C76" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="D76" s="49"/>
-      <c r="E76" s="49"/>
-      <c r="G76" s="53" t="s">
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+      <c r="G76" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="20" t="s">
+      <c r="H76" s="15"/>
+      <c r="I76" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="19"/>
-      <c r="M76" s="19"/>
-      <c r="N76" s="19"/>
-      <c r="O76" s="19"/>
-      <c r="P76" s="19"/>
-      <c r="Q76" s="19"/>
-      <c r="R76" s="13"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="10"/>
       <c r="U76" s="5"/>
-      <c r="W76" s="14"/>
-      <c r="X76" s="14"/>
-      <c r="Y76" s="14"/>
-      <c r="Z76" s="14"/>
-      <c r="AA76" s="14"/>
+      <c r="W76" s="11"/>
+      <c r="X76" s="11"/>
+      <c r="Y76" s="11"/>
+      <c r="Z76" s="11"/>
+      <c r="AA76" s="11"/>
     </row>
     <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="50"/>
-      <c r="B77" s="49"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="57" t="s">
+      <c r="A77" s="33"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="M77" s="57"/>
-      <c r="N77" s="57"/>
-      <c r="O77" s="19"/>
-      <c r="P77" s="19"/>
-      <c r="Q77" s="19"/>
-      <c r="R77" s="13"/>
+      <c r="M77" s="39"/>
+      <c r="N77" s="39"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="10"/>
       <c r="U77" s="5"/>
-      <c r="W77" s="14"/>
-      <c r="X77" s="14"/>
-      <c r="Y77" s="14"/>
-      <c r="Z77" s="14"/>
-      <c r="AA77" s="14"/>
+      <c r="W77" s="11"/>
+      <c r="X77" s="11"/>
+      <c r="Y77" s="11"/>
+      <c r="Z77" s="11"/>
+      <c r="AA77" s="11"/>
     </row>
     <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="19"/>
-      <c r="M78" s="19" t="s">
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="N78" s="19"/>
-      <c r="O78" s="19"/>
-      <c r="P78" s="19"/>
-      <c r="Q78" s="19"/>
-      <c r="R78" s="13"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="10"/>
       <c r="U78" s="5"/>
-      <c r="W78" s="14"/>
-      <c r="X78" s="14"/>
-      <c r="Y78" s="14"/>
-      <c r="Z78" s="14"/>
-      <c r="AA78" s="14"/>
+      <c r="W78" s="11"/>
+      <c r="X78" s="11"/>
+      <c r="Y78" s="11"/>
+      <c r="Z78" s="11"/>
+      <c r="AA78" s="11"/>
     </row>
     <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
-      <c r="M79" s="19" t="s">
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="N79" s="19"/>
-      <c r="O79" s="19"/>
-      <c r="P79" s="19"/>
-      <c r="Q79" s="19"/>
-      <c r="R79" s="13"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="10"/>
       <c r="U79" s="5"/>
-      <c r="W79" s="14"/>
-      <c r="X79" s="14"/>
-      <c r="Y79" s="14"/>
-      <c r="Z79" s="14"/>
-      <c r="AA79" s="14"/>
+      <c r="W79" s="11"/>
+      <c r="X79" s="11"/>
+      <c r="Y79" s="11"/>
+      <c r="Z79" s="11"/>
+      <c r="AA79" s="11"/>
     </row>
     <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L80" s="19"/>
-      <c r="M80" s="19" t="s">
+      <c r="L80" s="15"/>
+      <c r="M80" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="N80" s="19"/>
-      <c r="O80" s="19"/>
-      <c r="P80" s="19"/>
-      <c r="Q80" s="19"/>
-      <c r="R80" s="13"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="10"/>
       <c r="U80" s="5"/>
-      <c r="W80" s="14"/>
-      <c r="X80" s="14"/>
-      <c r="Y80" s="14"/>
-      <c r="Z80" s="14"/>
-      <c r="AA80" s="14"/>
+      <c r="W80" s="11"/>
+      <c r="X80" s="11"/>
+      <c r="Y80" s="11"/>
+      <c r="Z80" s="11"/>
+      <c r="AA80" s="11"/>
     </row>
     <row r="81" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L81" s="19"/>
-      <c r="M81" s="19" t="s">
+      <c r="L81" s="15"/>
+      <c r="M81" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="N81" s="19"/>
-      <c r="O81" s="19"/>
-      <c r="P81" s="19"/>
-      <c r="Q81" s="19"/>
-      <c r="R81" s="13"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15"/>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="10"/>
       <c r="U81" s="5"/>
-      <c r="W81" s="14"/>
-      <c r="X81" s="14"/>
-      <c r="Y81" s="14"/>
-      <c r="Z81" s="14"/>
-      <c r="AA81" s="14"/>
+      <c r="W81" s="11"/>
+      <c r="X81" s="11"/>
+      <c r="Y81" s="11"/>
+      <c r="Z81" s="11"/>
+      <c r="AA81" s="11"/>
     </row>
     <row r="82" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L82" s="19"/>
-      <c r="M82" s="19"/>
-      <c r="N82" s="19"/>
-      <c r="O82" s="19"/>
-      <c r="P82" s="19"/>
-      <c r="Q82" s="19"/>
-      <c r="R82" s="13"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="10"/>
       <c r="U82" s="5"/>
-      <c r="W82" s="14"/>
-      <c r="X82" s="14"/>
-      <c r="Y82" s="14"/>
-      <c r="Z82" s="14"/>
-      <c r="AA82" s="14"/>
+      <c r="W82" s="11"/>
+      <c r="X82" s="11"/>
+      <c r="Y82" s="11"/>
+      <c r="Z82" s="11"/>
+      <c r="AA82" s="11"/>
     </row>
     <row r="83" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L83" s="10"/>
-      <c r="M83" s="11" t="s">
+      <c r="L83" s="8"/>
+      <c r="M83" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="N83" s="10"/>
-      <c r="O83" s="10"/>
-      <c r="P83" s="10"/>
-      <c r="Q83" s="10"/>
-      <c r="R83" s="13"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="8"/>
+      <c r="P83" s="8"/>
+      <c r="Q83" s="8"/>
+      <c r="R83" s="10"/>
       <c r="U83" s="5"/>
-      <c r="W83" s="14"/>
-      <c r="X83" s="14"/>
-      <c r="Y83" s="14"/>
-      <c r="Z83" s="14"/>
-      <c r="AA83" s="14"/>
+      <c r="W83" s="11"/>
+      <c r="X83" s="11"/>
+      <c r="Y83" s="11"/>
+      <c r="Z83" s="11"/>
+      <c r="AA83" s="11"/>
     </row>
     <row r="84" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L84" s="10"/>
-      <c r="M84" s="31" t="s">
+      <c r="L84" s="8"/>
+      <c r="M84" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="N84" s="10"/>
-      <c r="O84" s="10"/>
-      <c r="P84" s="10"/>
-      <c r="Q84" s="10"/>
-      <c r="R84" s="13"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="8"/>
+      <c r="Q84" s="8"/>
+      <c r="R84" s="10"/>
       <c r="U84" s="5"/>
-      <c r="W84" s="14"/>
-      <c r="X84" s="14"/>
-      <c r="Y84" s="14"/>
-      <c r="Z84" s="14"/>
-      <c r="AA84" s="14"/>
+      <c r="W84" s="11"/>
+      <c r="X84" s="11"/>
+      <c r="Y84" s="11"/>
+      <c r="Z84" s="11"/>
+      <c r="AA84" s="11"/>
     </row>
     <row r="85" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L85" s="10"/>
-      <c r="M85" s="11" t="s">
+      <c r="L85" s="8"/>
+      <c r="M85" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="N85" s="10"/>
-      <c r="O85" s="10"/>
-      <c r="P85" s="10"/>
-      <c r="Q85" s="10"/>
-      <c r="R85" s="13"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="8"/>
+      <c r="P85" s="8"/>
+      <c r="Q85" s="8"/>
+      <c r="R85" s="10"/>
       <c r="U85" s="5"/>
-      <c r="W85" s="14"/>
-      <c r="X85" s="14"/>
-      <c r="Y85" s="14"/>
-      <c r="Z85" s="14"/>
-      <c r="AA85" s="14"/>
+      <c r="W85" s="11"/>
+      <c r="X85" s="11"/>
+      <c r="Y85" s="11"/>
+      <c r="Z85" s="11"/>
+      <c r="AA85" s="11"/>
     </row>
     <row r="86" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L86" s="10"/>
-      <c r="M86" s="31" t="s">
+      <c r="L86" s="8"/>
+      <c r="M86" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="N86" s="10"/>
-      <c r="O86" s="10"/>
-      <c r="P86" s="10"/>
-      <c r="Q86" s="10"/>
+      <c r="N86" s="8"/>
+      <c r="O86" s="8"/>
+      <c r="P86" s="8"/>
+      <c r="Q86" s="8"/>
       <c r="U86" s="5"/>
-      <c r="W86" s="14"/>
-      <c r="X86" s="14"/>
-      <c r="Y86" s="14"/>
-      <c r="Z86" s="14"/>
-      <c r="AA86" s="14"/>
+      <c r="W86" s="11"/>
+      <c r="X86" s="11"/>
+      <c r="Y86" s="11"/>
+      <c r="Z86" s="11"/>
+      <c r="AA86" s="11"/>
     </row>
     <row r="87" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L87" s="10"/>
-      <c r="M87" s="11" t="s">
+      <c r="L87" s="8"/>
+      <c r="M87" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="N87" s="10"/>
-      <c r="O87" s="10"/>
-      <c r="P87" s="10"/>
-      <c r="Q87" s="10"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
+      <c r="Q87" s="8"/>
       <c r="U87" s="5"/>
-      <c r="W87" s="14"/>
-      <c r="X87" s="14"/>
-      <c r="Y87" s="14"/>
-      <c r="Z87" s="14"/>
-      <c r="AA87" s="14"/>
+      <c r="W87" s="11"/>
+      <c r="X87" s="11"/>
+      <c r="Y87" s="11"/>
+      <c r="Z87" s="11"/>
+      <c r="AA87" s="11"/>
     </row>
     <row r="88" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L88" s="19"/>
-      <c r="M88" s="19"/>
-      <c r="N88" s="19"/>
-      <c r="O88" s="19"/>
-      <c r="P88" s="19"/>
-      <c r="Q88" s="19"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+      <c r="O88" s="15"/>
+      <c r="P88" s="15"/>
+      <c r="Q88" s="15"/>
       <c r="U88" s="5"/>
-      <c r="W88" s="14"/>
-      <c r="X88" s="14"/>
-      <c r="Y88" s="14"/>
-      <c r="Z88" s="14"/>
-      <c r="AA88" s="14"/>
+      <c r="W88" s="11"/>
+      <c r="X88" s="11"/>
+      <c r="Y88" s="11"/>
+      <c r="Z88" s="11"/>
+      <c r="AA88" s="11"/>
     </row>
     <row r="89" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L89" s="53" t="s">
+      <c r="L89" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="M89" s="19"/>
-      <c r="N89" s="19"/>
-      <c r="O89" s="20" t="s">
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="P89" s="19"/>
-      <c r="Q89" s="19"/>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="15"/>
       <c r="U89" s="5"/>
-      <c r="W89" s="14"/>
-      <c r="X89" s="14"/>
-      <c r="Y89" s="14"/>
-      <c r="Z89" s="14"/>
-      <c r="AA89" s="14"/>
+      <c r="W89" s="11"/>
+      <c r="X89" s="11"/>
+      <c r="Y89" s="11"/>
+      <c r="Z89" s="11"/>
+      <c r="AA89" s="11"/>
     </row>
     <row r="90" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L90" s="53" t="s">
+      <c r="L90" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="M90" s="19"/>
-      <c r="N90" s="19"/>
-      <c r="O90" s="20" t="s">
+      <c r="M90" s="15"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="P90" s="19"/>
-      <c r="Q90" s="19"/>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="15"/>
       <c r="U90" s="5"/>
-      <c r="W90" s="14"/>
-      <c r="X90" s="14"/>
-      <c r="Y90" s="14"/>
-      <c r="Z90" s="14"/>
-      <c r="AA90" s="14"/>
+      <c r="W90" s="11"/>
+      <c r="X90" s="11"/>
+      <c r="Y90" s="11"/>
+      <c r="Z90" s="11"/>
+      <c r="AA90" s="11"/>
     </row>
     <row r="91" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L91" s="53" t="s">
+      <c r="L91" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="M91" s="19"/>
-      <c r="N91" s="19"/>
-      <c r="O91" s="20" t="s">
+      <c r="M91" s="15"/>
+      <c r="N91" s="15"/>
+      <c r="O91" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="P91" s="19"/>
-      <c r="Q91" s="19"/>
-      <c r="R91" s="13"/>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="10"/>
       <c r="U91" s="5"/>
-      <c r="W91" s="14"/>
-      <c r="X91" s="14"/>
-      <c r="Y91" s="14"/>
-      <c r="Z91" s="14"/>
-      <c r="AA91" s="14"/>
+      <c r="W91" s="11"/>
+      <c r="X91" s="11"/>
+      <c r="Y91" s="11"/>
+      <c r="Z91" s="11"/>
+      <c r="AA91" s="11"/>
     </row>
     <row r="92" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R92" s="13"/>
+      <c r="R92" s="10"/>
       <c r="U92" s="5"/>
-      <c r="W92" s="14"/>
-      <c r="X92" s="14"/>
-      <c r="Y92" s="14"/>
-      <c r="Z92" s="14"/>
-      <c r="AA92" s="14"/>
+      <c r="W92" s="11"/>
+      <c r="X92" s="11"/>
+      <c r="Y92" s="11"/>
+      <c r="Z92" s="11"/>
+      <c r="AA92" s="11"/>
     </row>
     <row r="93" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R93" s="13"/>
+      <c r="R93" s="10"/>
       <c r="U93" s="5"/>
-      <c r="W93" s="14"/>
-      <c r="X93" s="14"/>
-      <c r="Y93" s="14"/>
-      <c r="Z93" s="14"/>
-      <c r="AA93" s="14"/>
+      <c r="W93" s="11"/>
+      <c r="X93" s="11"/>
+      <c r="Y93" s="11"/>
+      <c r="Z93" s="11"/>
+      <c r="AA93" s="11"/>
     </row>
     <row r="94" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R94" s="13"/>
+      <c r="R94" s="10"/>
       <c r="U94" s="5"/>
-      <c r="W94" s="14"/>
-      <c r="X94" s="14"/>
-      <c r="Y94" s="14"/>
-      <c r="Z94" s="14"/>
-      <c r="AA94" s="14"/>
+      <c r="W94" s="11"/>
+      <c r="X94" s="11"/>
+      <c r="Y94" s="11"/>
+      <c r="Z94" s="11"/>
+      <c r="AA94" s="11"/>
     </row>
     <row r="95" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R95" s="13"/>
+      <c r="R95" s="10"/>
       <c r="U95" s="5"/>
-      <c r="W95" s="14"/>
-      <c r="X95" s="14"/>
-      <c r="Y95" s="14"/>
-      <c r="Z95" s="14"/>
-      <c r="AA95" s="14"/>
+      <c r="W95" s="11"/>
+      <c r="X95" s="11"/>
+      <c r="Y95" s="11"/>
+      <c r="Z95" s="11"/>
+      <c r="AA95" s="11"/>
     </row>
     <row r="96" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R96" s="13"/>
+      <c r="R96" s="10"/>
       <c r="U96" s="5"/>
-      <c r="W96" s="14"/>
-      <c r="X96" s="14"/>
-      <c r="Y96" s="14"/>
-      <c r="Z96" s="14"/>
-      <c r="AA96" s="14"/>
+      <c r="W96" s="11"/>
+      <c r="X96" s="11"/>
+      <c r="Y96" s="11"/>
+      <c r="Z96" s="11"/>
+      <c r="AA96" s="11"/>
     </row>
     <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="58" t="s">
+      <c r="A97" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="B97" s="26"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="14"/>
-      <c r="N97" s="14"/>
-      <c r="O97" s="14"/>
-      <c r="P97" s="14"/>
-      <c r="Q97" s="14"/>
-      <c r="R97" s="13"/>
+      <c r="B97" s="73"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+      <c r="Q97" s="11"/>
+      <c r="R97" s="10"/>
       <c r="U97" s="5"/>
-      <c r="W97" s="14"/>
-      <c r="X97" s="14"/>
-      <c r="Y97" s="14"/>
-      <c r="Z97" s="14"/>
-      <c r="AA97" s="14"/>
+      <c r="W97" s="11"/>
+      <c r="X97" s="11"/>
+      <c r="Y97" s="11"/>
+      <c r="Z97" s="11"/>
+      <c r="AA97" s="11"/>
     </row>
     <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="59" t="s">
+      <c r="A98" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="B98" s="60"/>
-      <c r="E98" s="59" t="s">
+      <c r="B98" s="41"/>
+      <c r="E98" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="F98" s="60"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="14"/>
-      <c r="K98" s="14"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="14"/>
-      <c r="N98" s="14"/>
-      <c r="O98" s="14"/>
-      <c r="P98" s="14"/>
-      <c r="Q98" s="14"/>
-      <c r="R98" s="13"/>
+      <c r="F98" s="41"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+      <c r="Q98" s="11"/>
+      <c r="R98" s="10"/>
       <c r="U98" s="5"/>
-      <c r="W98" s="14"/>
-      <c r="X98" s="14"/>
-      <c r="Y98" s="14"/>
-      <c r="Z98" s="14"/>
-      <c r="AA98" s="14"/>
+      <c r="W98" s="11"/>
+      <c r="X98" s="11"/>
+      <c r="Y98" s="11"/>
+      <c r="Z98" s="11"/>
+      <c r="AA98" s="11"/>
     </row>
     <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -6331,77 +6331,77 @@
       <c r="E99" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="14"/>
-      <c r="K99" s="14"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="14"/>
-      <c r="N99" s="14"/>
-      <c r="O99" s="14"/>
-      <c r="P99" s="14"/>
-      <c r="Q99" s="14"/>
-      <c r="R99" s="13"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="11"/>
+      <c r="P99" s="11"/>
+      <c r="Q99" s="11"/>
+      <c r="R99" s="10"/>
       <c r="U99" s="5"/>
-      <c r="W99" s="14"/>
-      <c r="X99" s="14"/>
-      <c r="Y99" s="14"/>
-      <c r="Z99" s="14"/>
-      <c r="AA99" s="14"/>
+      <c r="W99" s="11"/>
+      <c r="X99" s="11"/>
+      <c r="Y99" s="11"/>
+      <c r="Z99" s="11"/>
+      <c r="AA99" s="11"/>
     </row>
     <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="14"/>
-      <c r="K100" s="14"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="14"/>
-      <c r="N100" s="14"/>
-      <c r="O100" s="14"/>
-      <c r="P100" s="14"/>
-      <c r="Q100" s="14"/>
-      <c r="R100" s="13"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
+      <c r="O100" s="11"/>
+      <c r="P100" s="11"/>
+      <c r="Q100" s="11"/>
+      <c r="R100" s="10"/>
       <c r="U100" s="5"/>
-      <c r="W100" s="14"/>
-      <c r="X100" s="14"/>
-      <c r="Y100" s="14"/>
-      <c r="Z100" s="14"/>
-      <c r="AA100" s="14"/>
+      <c r="W100" s="11"/>
+      <c r="X100" s="11"/>
+      <c r="Y100" s="11"/>
+      <c r="Z100" s="11"/>
+      <c r="AA100" s="11"/>
     </row>
     <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="31" t="s">
+      <c r="A101" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C101" s="10"/>
-      <c r="E101" s="61" t="s">
+      <c r="C101" s="8"/>
+      <c r="E101" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="F101" s="11" t="s">
+      <c r="F101" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="G101" s="10"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="14"/>
-      <c r="K101" s="14"/>
-      <c r="M101" s="14"/>
-      <c r="N101" s="14"/>
-      <c r="O101" s="14"/>
-      <c r="P101" s="14"/>
-      <c r="Q101" s="14"/>
-      <c r="R101" s="13"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+      <c r="O101" s="11"/>
+      <c r="P101" s="11"/>
+      <c r="Q101" s="11"/>
+      <c r="R101" s="10"/>
       <c r="U101" s="5"/>
-      <c r="W101" s="14"/>
-      <c r="X101" s="14"/>
-      <c r="Y101" s="14"/>
-      <c r="Z101" s="14"/>
-      <c r="AA101" s="14"/>
+      <c r="W101" s="11"/>
+      <c r="X101" s="11"/>
+      <c r="Y101" s="11"/>
+      <c r="Z101" s="11"/>
+      <c r="AA101" s="11"/>
     </row>
     <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
@@ -6410,61 +6410,61 @@
       <c r="B102" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E102" s="62" t="s">
+      <c r="E102" s="43" t="s">
         <v>223</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G102" s="14"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
-      <c r="J102" s="14"/>
-      <c r="K102" s="14"/>
-      <c r="M102" s="14"/>
-      <c r="N102" s="14"/>
-      <c r="O102" s="14"/>
-      <c r="P102" s="14"/>
-      <c r="Q102" s="14"/>
-      <c r="R102" s="13"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+      <c r="O102" s="11"/>
+      <c r="P102" s="11"/>
+      <c r="Q102" s="11"/>
+      <c r="R102" s="10"/>
       <c r="U102" s="5"/>
-      <c r="W102" s="14"/>
-      <c r="X102" s="14"/>
-      <c r="Y102" s="14"/>
-      <c r="Z102" s="14"/>
-      <c r="AA102" s="14"/>
+      <c r="W102" s="11"/>
+      <c r="X102" s="11"/>
+      <c r="Y102" s="11"/>
+      <c r="Z102" s="11"/>
+      <c r="AA102" s="11"/>
     </row>
     <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="31" t="s">
+      <c r="A103" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C103" s="10"/>
-      <c r="E103" s="61" t="s">
+      <c r="C103" s="8"/>
+      <c r="E103" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="F103" s="11" t="s">
+      <c r="F103" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="G103" s="10"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="14"/>
-      <c r="K103" s="14"/>
-      <c r="M103" s="14"/>
-      <c r="N103" s="14"/>
-      <c r="O103" s="14"/>
-      <c r="P103" s="14"/>
-      <c r="Q103" s="14"/>
-      <c r="R103" s="13"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11"/>
+      <c r="M103" s="11"/>
+      <c r="N103" s="11"/>
+      <c r="O103" s="11"/>
+      <c r="P103" s="11"/>
+      <c r="Q103" s="11"/>
+      <c r="R103" s="10"/>
       <c r="U103" s="5"/>
-      <c r="W103" s="14"/>
-      <c r="X103" s="14"/>
-      <c r="Y103" s="14"/>
-      <c r="Z103" s="14"/>
-      <c r="AA103" s="14"/>
+      <c r="W103" s="11"/>
+      <c r="X103" s="11"/>
+      <c r="Y103" s="11"/>
+      <c r="Z103" s="11"/>
+      <c r="AA103" s="11"/>
     </row>
     <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
@@ -6473,213 +6473,213 @@
       <c r="B104" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="E104" s="62" t="s">
+      <c r="E104" s="43" t="s">
         <v>231</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="14"/>
-      <c r="K104" s="14"/>
-      <c r="L104" s="14"/>
-      <c r="M104" s="14"/>
-      <c r="N104" s="14"/>
-      <c r="O104" s="14"/>
-      <c r="P104" s="14"/>
-      <c r="Q104" s="14"/>
-      <c r="R104" s="13"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
+      <c r="O104" s="11"/>
+      <c r="P104" s="11"/>
+      <c r="Q104" s="11"/>
+      <c r="R104" s="10"/>
       <c r="U104" s="5"/>
-      <c r="W104" s="14"/>
-      <c r="X104" s="14"/>
-      <c r="Y104" s="14"/>
-      <c r="Z104" s="14"/>
-      <c r="AA104" s="14"/>
+      <c r="W104" s="11"/>
+      <c r="X104" s="11"/>
+      <c r="Y104" s="11"/>
+      <c r="Z104" s="11"/>
+      <c r="AA104" s="11"/>
     </row>
     <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="31" t="s">
+      <c r="A105" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C105" s="10"/>
-      <c r="E105" s="61" t="s">
+      <c r="C105" s="8"/>
+      <c r="E105" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="F105" s="11" t="s">
+      <c r="F105" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="G105" s="10"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="14"/>
-      <c r="K105" s="14"/>
-      <c r="L105" s="14"/>
-      <c r="M105" s="14"/>
-      <c r="N105" s="14"/>
-      <c r="O105" s="14"/>
-      <c r="P105" s="14"/>
-      <c r="Q105" s="14"/>
-      <c r="R105" s="13"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="11"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="11"/>
+      <c r="N105" s="11"/>
+      <c r="O105" s="11"/>
+      <c r="P105" s="11"/>
+      <c r="Q105" s="11"/>
+      <c r="R105" s="10"/>
       <c r="U105" s="5"/>
-      <c r="W105" s="14"/>
-      <c r="X105" s="14"/>
-      <c r="Y105" s="14"/>
-      <c r="Z105" s="14"/>
-      <c r="AA105" s="14"/>
+      <c r="W105" s="11"/>
+      <c r="X105" s="11"/>
+      <c r="Y105" s="11"/>
+      <c r="Z105" s="11"/>
+      <c r="AA105" s="11"/>
     </row>
     <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
-      <c r="E106" s="62" t="s">
+      <c r="E106" s="43" t="s">
         <v>237</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G106" s="14"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="14"/>
-      <c r="J106" s="14"/>
-      <c r="K106" s="14"/>
-      <c r="L106" s="14"/>
-      <c r="M106" s="14"/>
-      <c r="N106" s="14"/>
-      <c r="O106" s="14"/>
-      <c r="P106" s="14"/>
-      <c r="Q106" s="14"/>
-      <c r="R106" s="13"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="11"/>
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
+      <c r="N106" s="11"/>
+      <c r="O106" s="11"/>
+      <c r="P106" s="11"/>
+      <c r="Q106" s="11"/>
+      <c r="R106" s="10"/>
       <c r="U106" s="5"/>
-      <c r="W106" s="14"/>
-      <c r="X106" s="14"/>
-      <c r="Y106" s="14"/>
-      <c r="Z106" s="14"/>
-      <c r="AA106" s="14"/>
+      <c r="W106" s="11"/>
+      <c r="X106" s="11"/>
+      <c r="Y106" s="11"/>
+      <c r="Z106" s="11"/>
+      <c r="AA106" s="11"/>
     </row>
     <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="14"/>
-      <c r="J107" s="14"/>
-      <c r="K107" s="14"/>
-      <c r="L107" s="14"/>
-      <c r="M107" s="14"/>
-      <c r="N107" s="14"/>
-      <c r="O107" s="14"/>
-      <c r="P107" s="14"/>
-      <c r="Q107" s="14"/>
-      <c r="R107" s="13"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
+      <c r="O107" s="11"/>
+      <c r="P107" s="11"/>
+      <c r="Q107" s="11"/>
+      <c r="R107" s="10"/>
       <c r="U107" s="5"/>
-      <c r="W107" s="14"/>
-      <c r="X107" s="14"/>
-      <c r="Y107" s="14"/>
-      <c r="Z107" s="14"/>
-      <c r="AA107" s="14"/>
+      <c r="W107" s="11"/>
+      <c r="X107" s="11"/>
+      <c r="Y107" s="11"/>
+      <c r="Z107" s="11"/>
+      <c r="AA107" s="11"/>
     </row>
     <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="59" t="s">
+      <c r="A108" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="B108" s="60"/>
-      <c r="G108" s="59" t="s">
+      <c r="B108" s="41"/>
+      <c r="G108" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="H108" s="60"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="14"/>
-      <c r="K108" s="14"/>
-      <c r="L108" s="14"/>
-      <c r="M108" s="14"/>
-      <c r="N108" s="14"/>
-      <c r="O108" s="14"/>
-      <c r="P108" s="14"/>
-      <c r="Q108" s="14"/>
-      <c r="R108" s="13"/>
+      <c r="H108" s="41"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="11"/>
+      <c r="L108" s="11"/>
+      <c r="M108" s="11"/>
+      <c r="N108" s="11"/>
+      <c r="O108" s="11"/>
+      <c r="P108" s="11"/>
+      <c r="Q108" s="11"/>
+      <c r="R108" s="10"/>
       <c r="U108" s="5"/>
-      <c r="W108" s="14"/>
-      <c r="X108" s="14"/>
-      <c r="Y108" s="14"/>
-      <c r="Z108" s="14"/>
-      <c r="AA108" s="14"/>
+      <c r="W108" s="11"/>
+      <c r="X108" s="11"/>
+      <c r="Y108" s="11"/>
+      <c r="Z108" s="11"/>
+      <c r="AA108" s="11"/>
     </row>
     <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="L109" s="14"/>
-      <c r="M109" s="14"/>
-      <c r="N109" s="14"/>
-      <c r="O109" s="14"/>
-      <c r="P109" s="14"/>
-      <c r="Q109" s="14"/>
-      <c r="R109" s="13"/>
+      <c r="L109" s="11"/>
+      <c r="M109" s="11"/>
+      <c r="N109" s="11"/>
+      <c r="O109" s="11"/>
+      <c r="P109" s="11"/>
+      <c r="Q109" s="11"/>
+      <c r="R109" s="10"/>
       <c r="U109" s="5"/>
-      <c r="W109" s="14"/>
-      <c r="X109" s="14"/>
-      <c r="Y109" s="14"/>
-      <c r="Z109" s="14"/>
-      <c r="AA109" s="14"/>
+      <c r="W109" s="11"/>
+      <c r="X109" s="11"/>
+      <c r="Y109" s="11"/>
+      <c r="Z109" s="11"/>
+      <c r="AA109" s="11"/>
     </row>
     <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
-      <c r="G110" s="31" t="s">
+      <c r="G110" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="H110" s="11" t="s">
+      <c r="H110" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="I110" s="10"/>
-      <c r="J110" s="10"/>
-      <c r="K110" s="10"/>
-      <c r="L110" s="10"/>
-      <c r="M110" s="14"/>
-      <c r="N110" s="14"/>
-      <c r="O110" s="14"/>
-      <c r="P110" s="14"/>
-      <c r="Q110" s="14"/>
-      <c r="R110" s="13"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
+      <c r="O110" s="11"/>
+      <c r="P110" s="11"/>
+      <c r="Q110" s="11"/>
+      <c r="R110" s="10"/>
       <c r="U110" s="5"/>
-      <c r="W110" s="14"/>
-      <c r="X110" s="14"/>
-      <c r="Y110" s="14"/>
-      <c r="Z110" s="14"/>
-      <c r="AA110" s="14"/>
+      <c r="W110" s="11"/>
+      <c r="X110" s="11"/>
+      <c r="Y110" s="11"/>
+      <c r="Z110" s="11"/>
+      <c r="AA110" s="11"/>
     </row>
     <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="31" t="s">
+      <c r="A111" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10"/>
-      <c r="G111" s="39" t="s">
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="G111" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="H111" s="13" t="s">
+      <c r="H111" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="I111" s="14"/>
-      <c r="J111" s="14"/>
-      <c r="K111" s="14"/>
-      <c r="L111" s="14"/>
-      <c r="M111" s="14"/>
-      <c r="N111" s="14"/>
-      <c r="O111" s="14"/>
-      <c r="P111" s="14"/>
-      <c r="Q111" s="14"/>
-      <c r="R111" s="13"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="11"/>
+      <c r="L111" s="11"/>
+      <c r="M111" s="11"/>
+      <c r="N111" s="11"/>
+      <c r="O111" s="11"/>
+      <c r="P111" s="11"/>
+      <c r="Q111" s="11"/>
+      <c r="R111" s="10"/>
       <c r="U111" s="5"/>
-      <c r="W111" s="14"/>
-      <c r="X111" s="14"/>
-      <c r="Y111" s="14"/>
-      <c r="Z111" s="14"/>
-      <c r="AA111" s="14"/>
+      <c r="W111" s="11"/>
+      <c r="X111" s="11"/>
+      <c r="Y111" s="11"/>
+      <c r="Z111" s="11"/>
+      <c r="AA111" s="11"/>
     </row>
     <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
@@ -6688,59 +6688,59 @@
       <c r="B112" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="G112" s="31" t="s">
+      <c r="G112" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="H112" s="63" t="s">
+      <c r="H112" s="71" t="s">
         <v>251</v>
       </c>
-      <c r="I112" s="7"/>
-      <c r="J112" s="14"/>
-      <c r="K112" s="14"/>
-      <c r="L112" s="14"/>
-      <c r="M112" s="14"/>
-      <c r="N112" s="14"/>
-      <c r="O112" s="14"/>
-      <c r="P112" s="14"/>
-      <c r="Q112" s="14"/>
-      <c r="R112" s="13"/>
+      <c r="I112" s="68"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="11"/>
+      <c r="L112" s="11"/>
+      <c r="M112" s="11"/>
+      <c r="N112" s="11"/>
+      <c r="O112" s="11"/>
+      <c r="P112" s="11"/>
+      <c r="Q112" s="11"/>
+      <c r="R112" s="10"/>
       <c r="U112" s="5"/>
-      <c r="W112" s="14"/>
-      <c r="X112" s="14"/>
-      <c r="Y112" s="14"/>
-      <c r="Z112" s="14"/>
-      <c r="AA112" s="14"/>
+      <c r="W112" s="11"/>
+      <c r="X112" s="11"/>
+      <c r="Y112" s="11"/>
+      <c r="Z112" s="11"/>
+      <c r="AA112" s="11"/>
     </row>
     <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="31" t="s">
+      <c r="A113" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
-      <c r="G113" s="31" t="s">
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="G113" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="14"/>
-      <c r="K113" s="14"/>
-      <c r="L113" s="14"/>
-      <c r="M113" s="14"/>
-      <c r="N113" s="14"/>
-      <c r="O113" s="14"/>
-      <c r="P113" s="14"/>
-      <c r="Q113" s="14"/>
-      <c r="R113" s="13"/>
+      <c r="H113" s="68"/>
+      <c r="I113" s="68"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="11"/>
+      <c r="M113" s="11"/>
+      <c r="N113" s="11"/>
+      <c r="O113" s="11"/>
+      <c r="P113" s="11"/>
+      <c r="Q113" s="11"/>
+      <c r="R113" s="10"/>
       <c r="U113" s="5"/>
-      <c r="W113" s="14"/>
-      <c r="X113" s="14"/>
-      <c r="Y113" s="14"/>
-      <c r="Z113" s="14"/>
-      <c r="AA113" s="14"/>
+      <c r="W113" s="11"/>
+      <c r="X113" s="11"/>
+      <c r="Y113" s="11"/>
+      <c r="Z113" s="11"/>
+      <c r="AA113" s="11"/>
     </row>
     <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
@@ -6749,55 +6749,55 @@
       <c r="B114" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="G114" s="14"/>
-      <c r="H114" s="14"/>
-      <c r="I114" s="14"/>
-      <c r="J114" s="14"/>
-      <c r="K114" s="14"/>
-      <c r="L114" s="14"/>
-      <c r="M114" s="14"/>
-      <c r="N114" s="14"/>
-      <c r="O114" s="14"/>
-      <c r="P114" s="14"/>
-      <c r="Q114" s="14"/>
-      <c r="R114" s="13"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="11"/>
+      <c r="L114" s="11"/>
+      <c r="M114" s="11"/>
+      <c r="N114" s="11"/>
+      <c r="O114" s="11"/>
+      <c r="P114" s="11"/>
+      <c r="Q114" s="11"/>
+      <c r="R114" s="10"/>
       <c r="U114" s="5"/>
-      <c r="W114" s="14"/>
-      <c r="X114" s="14"/>
-      <c r="Y114" s="14"/>
-      <c r="Z114" s="14"/>
-      <c r="AA114" s="14"/>
+      <c r="W114" s="11"/>
+      <c r="X114" s="11"/>
+      <c r="Y114" s="11"/>
+      <c r="Z114" s="11"/>
+      <c r="AA114" s="11"/>
     </row>
     <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="31" t="s">
+      <c r="A115" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="10"/>
-      <c r="G115" s="59" t="s">
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="G115" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="H115" s="60"/>
-      <c r="I115" s="14"/>
-      <c r="J115" s="14"/>
-      <c r="K115" s="14"/>
-      <c r="L115" s="14"/>
-      <c r="M115" s="14"/>
-      <c r="N115" s="14"/>
-      <c r="O115" s="14"/>
-      <c r="P115" s="14"/>
-      <c r="Q115" s="14"/>
-      <c r="R115" s="13"/>
+      <c r="H115" s="41"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="11"/>
+      <c r="L115" s="11"/>
+      <c r="M115" s="11"/>
+      <c r="N115" s="11"/>
+      <c r="O115" s="11"/>
+      <c r="P115" s="11"/>
+      <c r="Q115" s="11"/>
+      <c r="R115" s="10"/>
       <c r="U115" s="5"/>
-      <c r="W115" s="14"/>
-      <c r="X115" s="14"/>
-      <c r="Y115" s="14"/>
-      <c r="Z115" s="14"/>
-      <c r="AA115" s="14"/>
+      <c r="W115" s="11"/>
+      <c r="X115" s="11"/>
+      <c r="Y115" s="11"/>
+      <c r="Z115" s="11"/>
+      <c r="AA115" s="11"/>
     </row>
     <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
@@ -6806,80 +6806,80 @@
       <c r="B116" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="G116" s="13" t="s">
+      <c r="G116" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="14"/>
-      <c r="K116" s="14"/>
-      <c r="L116" s="14"/>
-      <c r="M116" s="14"/>
-      <c r="N116" s="14"/>
-      <c r="O116" s="14"/>
-      <c r="P116" s="14"/>
-      <c r="Q116" s="14"/>
-      <c r="R116" s="13"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="11"/>
+      <c r="M116" s="11"/>
+      <c r="N116" s="11"/>
+      <c r="O116" s="11"/>
+      <c r="P116" s="11"/>
+      <c r="Q116" s="11"/>
+      <c r="R116" s="10"/>
       <c r="U116" s="5"/>
-      <c r="W116" s="14"/>
-      <c r="X116" s="14"/>
-      <c r="Y116" s="14"/>
-      <c r="Z116" s="14"/>
-      <c r="AA116" s="14"/>
+      <c r="W116" s="11"/>
+      <c r="X116" s="11"/>
+      <c r="Y116" s="11"/>
+      <c r="Z116" s="11"/>
+      <c r="AA116" s="11"/>
     </row>
     <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="46"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="14"/>
-      <c r="I117" s="14"/>
-      <c r="J117" s="14"/>
-      <c r="K117" s="14"/>
-      <c r="L117" s="14"/>
-      <c r="M117" s="14"/>
-      <c r="N117" s="14"/>
-      <c r="O117" s="14"/>
-      <c r="P117" s="14"/>
-      <c r="Q117" s="14"/>
-      <c r="R117" s="13"/>
+      <c r="A117" s="31"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="11"/>
+      <c r="L117" s="11"/>
+      <c r="M117" s="11"/>
+      <c r="N117" s="11"/>
+      <c r="O117" s="11"/>
+      <c r="P117" s="11"/>
+      <c r="Q117" s="11"/>
+      <c r="R117" s="10"/>
       <c r="U117" s="5"/>
-      <c r="W117" s="14"/>
-      <c r="X117" s="14"/>
-      <c r="Y117" s="14"/>
-      <c r="Z117" s="14"/>
-      <c r="AA117" s="14"/>
+      <c r="W117" s="11"/>
+      <c r="X117" s="11"/>
+      <c r="Y117" s="11"/>
+      <c r="Z117" s="11"/>
+      <c r="AA117" s="11"/>
     </row>
     <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="31" t="s">
+      <c r="A118" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="10"/>
-      <c r="G118" s="31" t="s">
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="G118" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="H118" s="11" t="s">
+      <c r="H118" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="I118" s="10"/>
-      <c r="J118" s="14"/>
-      <c r="K118" s="14"/>
-      <c r="L118" s="14"/>
-      <c r="M118" s="14"/>
-      <c r="N118" s="14"/>
-      <c r="O118" s="14"/>
-      <c r="P118" s="14"/>
-      <c r="Q118" s="14"/>
-      <c r="R118" s="13"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="11"/>
+      <c r="O118" s="11"/>
+      <c r="P118" s="11"/>
+      <c r="Q118" s="11"/>
+      <c r="R118" s="10"/>
       <c r="U118" s="5"/>
-      <c r="W118" s="14"/>
-      <c r="X118" s="14"/>
-      <c r="Y118" s="14"/>
-      <c r="Z118" s="14"/>
-      <c r="AA118" s="14"/>
+      <c r="W118" s="11"/>
+      <c r="X118" s="11"/>
+      <c r="Y118" s="11"/>
+      <c r="Z118" s="11"/>
+      <c r="AA118" s="11"/>
     </row>
     <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
@@ -6888,82 +6888,82 @@
       <c r="B119" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="G119" s="39" t="s">
+      <c r="G119" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="H119" s="13" t="s">
+      <c r="H119" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="I119" s="14"/>
-      <c r="J119" s="14"/>
-      <c r="K119" s="14"/>
-      <c r="L119" s="14"/>
-      <c r="M119" s="14"/>
-      <c r="N119" s="14"/>
-      <c r="O119" s="14"/>
-      <c r="P119" s="14"/>
-      <c r="Q119" s="14"/>
-      <c r="R119" s="13"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="11"/>
+      <c r="L119" s="11"/>
+      <c r="M119" s="11"/>
+      <c r="N119" s="11"/>
+      <c r="O119" s="11"/>
+      <c r="P119" s="11"/>
+      <c r="Q119" s="11"/>
+      <c r="R119" s="10"/>
       <c r="U119" s="5"/>
-      <c r="W119" s="14"/>
-      <c r="X119" s="14"/>
-      <c r="Y119" s="14"/>
-      <c r="Z119" s="14"/>
-      <c r="AA119" s="14"/>
+      <c r="W119" s="11"/>
+      <c r="X119" s="11"/>
+      <c r="Y119" s="11"/>
+      <c r="Z119" s="11"/>
+      <c r="AA119" s="11"/>
     </row>
     <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
-      <c r="G120" s="31" t="s">
+      <c r="G120" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="H120" s="11" t="s">
+      <c r="H120" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="I120" s="10"/>
-      <c r="J120" s="14"/>
-      <c r="K120" s="14"/>
-      <c r="L120" s="14"/>
-      <c r="M120" s="14"/>
-      <c r="N120" s="14"/>
-      <c r="O120" s="14"/>
-      <c r="P120" s="14"/>
-      <c r="Q120" s="14"/>
-      <c r="R120" s="13"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="11"/>
+      <c r="L120" s="11"/>
+      <c r="M120" s="11"/>
+      <c r="N120" s="11"/>
+      <c r="O120" s="11"/>
+      <c r="P120" s="11"/>
+      <c r="Q120" s="11"/>
+      <c r="R120" s="10"/>
       <c r="U120" s="5"/>
-      <c r="W120" s="14"/>
-      <c r="X120" s="14"/>
-      <c r="Y120" s="14"/>
-      <c r="Z120" s="14"/>
-      <c r="AA120" s="14"/>
+      <c r="W120" s="11"/>
+      <c r="X120" s="11"/>
+      <c r="Y120" s="11"/>
+      <c r="Z120" s="11"/>
+      <c r="AA120" s="11"/>
     </row>
     <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="31" t="s">
+      <c r="A121" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
-      <c r="G121" s="14"/>
-      <c r="H121" s="14"/>
-      <c r="I121" s="14"/>
-      <c r="J121" s="14"/>
-      <c r="K121" s="14"/>
-      <c r="L121" s="14"/>
-      <c r="M121" s="14"/>
-      <c r="N121" s="14"/>
-      <c r="O121" s="14"/>
-      <c r="P121" s="14"/>
-      <c r="Q121" s="14"/>
-      <c r="R121" s="13"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="11"/>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11"/>
+      <c r="N121" s="11"/>
+      <c r="O121" s="11"/>
+      <c r="P121" s="11"/>
+      <c r="Q121" s="11"/>
+      <c r="R121" s="10"/>
       <c r="U121" s="5"/>
-      <c r="W121" s="14"/>
-      <c r="X121" s="14"/>
-      <c r="Y121" s="14"/>
-      <c r="Z121" s="14"/>
-      <c r="AA121" s="14"/>
+      <c r="W121" s="11"/>
+      <c r="X121" s="11"/>
+      <c r="Y121" s="11"/>
+      <c r="Z121" s="11"/>
+      <c r="AA121" s="11"/>
     </row>
     <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
@@ -6972,126 +6972,126 @@
       <c r="B122" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="G122" s="14"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="14"/>
-      <c r="J122" s="14"/>
-      <c r="K122" s="14"/>
-      <c r="L122" s="14"/>
-      <c r="M122" s="14"/>
-      <c r="N122" s="14"/>
-      <c r="O122" s="14"/>
-      <c r="P122" s="14"/>
-      <c r="Q122" s="14"/>
-      <c r="R122" s="13"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
+      <c r="L122" s="11"/>
+      <c r="M122" s="11"/>
+      <c r="N122" s="11"/>
+      <c r="O122" s="11"/>
+      <c r="P122" s="11"/>
+      <c r="Q122" s="11"/>
+      <c r="R122" s="10"/>
       <c r="U122" s="5"/>
-      <c r="W122" s="14"/>
-      <c r="X122" s="14"/>
-      <c r="Y122" s="14"/>
-      <c r="Z122" s="14"/>
-      <c r="AA122" s="14"/>
+      <c r="W122" s="11"/>
+      <c r="X122" s="11"/>
+      <c r="Y122" s="11"/>
+      <c r="Z122" s="11"/>
+      <c r="AA122" s="11"/>
     </row>
     <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
-      <c r="G123" s="59" t="s">
+      <c r="G123" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="H123" s="60"/>
-      <c r="I123" s="14"/>
-      <c r="J123" s="14"/>
-      <c r="K123" s="14"/>
-      <c r="L123" s="14"/>
-      <c r="M123" s="14"/>
-      <c r="N123" s="14"/>
-      <c r="O123" s="14"/>
-      <c r="P123" s="14"/>
-      <c r="Q123" s="14"/>
-      <c r="R123" s="13"/>
+      <c r="H123" s="41"/>
+      <c r="I123" s="11"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="11"/>
+      <c r="L123" s="11"/>
+      <c r="M123" s="11"/>
+      <c r="N123" s="11"/>
+      <c r="O123" s="11"/>
+      <c r="P123" s="11"/>
+      <c r="Q123" s="11"/>
+      <c r="R123" s="10"/>
       <c r="U123" s="5"/>
-      <c r="W123" s="14"/>
-      <c r="X123" s="14"/>
-      <c r="Y123" s="14"/>
-      <c r="Z123" s="14"/>
-      <c r="AA123" s="14"/>
+      <c r="W123" s="11"/>
+      <c r="X123" s="11"/>
+      <c r="Y123" s="11"/>
+      <c r="Z123" s="11"/>
+      <c r="AA123" s="11"/>
     </row>
     <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="59" t="s">
+      <c r="A124" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="B124" s="60"/>
-      <c r="G124" s="13" t="s">
+      <c r="B124" s="41"/>
+      <c r="G124" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="H124" s="14"/>
-      <c r="I124" s="14"/>
-      <c r="J124" s="14"/>
-      <c r="K124" s="14"/>
-      <c r="L124" s="14"/>
-      <c r="M124" s="14"/>
-      <c r="N124" s="14"/>
-      <c r="O124" s="14"/>
-      <c r="P124" s="14"/>
-      <c r="Q124" s="14"/>
-      <c r="R124" s="13"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="11"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="11"/>
+      <c r="L124" s="11"/>
+      <c r="M124" s="11"/>
+      <c r="N124" s="11"/>
+      <c r="O124" s="11"/>
+      <c r="P124" s="11"/>
+      <c r="Q124" s="11"/>
+      <c r="R124" s="10"/>
       <c r="U124" s="5"/>
-      <c r="W124" s="14"/>
-      <c r="X124" s="14"/>
-      <c r="Y124" s="14"/>
-      <c r="Z124" s="14"/>
-      <c r="AA124" s="14"/>
+      <c r="W124" s="11"/>
+      <c r="X124" s="11"/>
+      <c r="Y124" s="11"/>
+      <c r="Z124" s="11"/>
+      <c r="AA124" s="11"/>
     </row>
     <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
-      <c r="G125" s="14"/>
-      <c r="H125" s="14"/>
-      <c r="I125" s="14"/>
-      <c r="J125" s="14"/>
-      <c r="K125" s="14"/>
-      <c r="L125" s="14"/>
-      <c r="M125" s="14"/>
-      <c r="N125" s="14"/>
-      <c r="O125" s="14"/>
-      <c r="P125" s="14"/>
-      <c r="Q125" s="14"/>
-      <c r="R125" s="13"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="11"/>
+      <c r="L125" s="11"/>
+      <c r="M125" s="11"/>
+      <c r="N125" s="11"/>
+      <c r="O125" s="11"/>
+      <c r="P125" s="11"/>
+      <c r="Q125" s="11"/>
+      <c r="R125" s="10"/>
       <c r="U125" s="5"/>
-      <c r="W125" s="14"/>
-      <c r="X125" s="14"/>
-      <c r="Y125" s="14"/>
-      <c r="Z125" s="14"/>
-      <c r="AA125" s="14"/>
+      <c r="W125" s="11"/>
+      <c r="X125" s="11"/>
+      <c r="Y125" s="11"/>
+      <c r="Z125" s="11"/>
+      <c r="AA125" s="11"/>
     </row>
     <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="31" t="s">
+      <c r="A126" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B126" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-      <c r="G126" s="31" t="s">
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="G126" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="H126" s="11" t="s">
+      <c r="H126" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="I126" s="10"/>
-      <c r="J126" s="14"/>
-      <c r="K126" s="14"/>
-      <c r="L126" s="14"/>
-      <c r="M126" s="14"/>
-      <c r="N126" s="14"/>
-      <c r="O126" s="14"/>
-      <c r="P126" s="14"/>
-      <c r="Q126" s="14"/>
-      <c r="R126" s="13"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="11"/>
+      <c r="L126" s="11"/>
+      <c r="M126" s="11"/>
+      <c r="N126" s="11"/>
+      <c r="O126" s="11"/>
+      <c r="P126" s="11"/>
+      <c r="Q126" s="11"/>
+      <c r="R126" s="10"/>
       <c r="U126" s="5"/>
-      <c r="W126" s="14"/>
-      <c r="X126" s="14"/>
-      <c r="Y126" s="14"/>
-      <c r="Z126" s="14"/>
-      <c r="AA126" s="14"/>
+      <c r="W126" s="11"/>
+      <c r="X126" s="11"/>
+      <c r="Y126" s="11"/>
+      <c r="Z126" s="11"/>
+      <c r="AA126" s="11"/>
     </row>
     <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
@@ -7100,172 +7100,172 @@
       <c r="B127" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="G127" s="39" t="s">
+      <c r="G127" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="H127" s="13" t="s">
+      <c r="H127" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="I127" s="14"/>
-      <c r="J127" s="14"/>
-      <c r="K127" s="14"/>
-      <c r="L127" s="14"/>
-      <c r="M127" s="14"/>
-      <c r="N127" s="14"/>
-      <c r="O127" s="14"/>
-      <c r="P127" s="14"/>
-      <c r="Q127" s="14"/>
-      <c r="R127" s="13"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="11"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
+      <c r="N127" s="11"/>
+      <c r="O127" s="11"/>
+      <c r="P127" s="11"/>
+      <c r="Q127" s="11"/>
+      <c r="R127" s="10"/>
       <c r="U127" s="5"/>
-      <c r="W127" s="14"/>
-      <c r="X127" s="14"/>
-      <c r="Y127" s="14"/>
-      <c r="Z127" s="14"/>
-      <c r="AA127" s="14"/>
+      <c r="W127" s="11"/>
+      <c r="X127" s="11"/>
+      <c r="Y127" s="11"/>
+      <c r="Z127" s="11"/>
+      <c r="AA127" s="11"/>
     </row>
     <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="31" t="s">
+      <c r="A128" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="C128" s="10"/>
-      <c r="D128" s="10"/>
-      <c r="G128" s="14"/>
-      <c r="H128" s="14"/>
-      <c r="I128" s="14"/>
-      <c r="J128" s="14"/>
-      <c r="K128" s="14"/>
-      <c r="L128" s="14"/>
-      <c r="M128" s="14"/>
-      <c r="N128" s="14"/>
-      <c r="O128" s="14"/>
-      <c r="P128" s="14"/>
-      <c r="Q128" s="14"/>
-      <c r="R128" s="13"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="11"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
+      <c r="N128" s="11"/>
+      <c r="O128" s="11"/>
+      <c r="P128" s="11"/>
+      <c r="Q128" s="11"/>
+      <c r="R128" s="10"/>
       <c r="U128" s="5"/>
-      <c r="W128" s="14"/>
-      <c r="X128" s="14"/>
-      <c r="Y128" s="14"/>
-      <c r="Z128" s="14"/>
-      <c r="AA128" s="14"/>
+      <c r="W128" s="11"/>
+      <c r="X128" s="11"/>
+      <c r="Y128" s="11"/>
+      <c r="Z128" s="11"/>
+      <c r="AA128" s="11"/>
     </row>
     <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
-      <c r="G129" s="14"/>
-      <c r="H129" s="14"/>
-      <c r="I129" s="14"/>
-      <c r="J129" s="14"/>
-      <c r="K129" s="14"/>
-      <c r="L129" s="14"/>
-      <c r="M129" s="14"/>
-      <c r="N129" s="14"/>
-      <c r="O129" s="14"/>
-      <c r="P129" s="14"/>
-      <c r="Q129" s="14"/>
-      <c r="R129" s="13"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="11"/>
+      <c r="L129" s="11"/>
+      <c r="M129" s="11"/>
+      <c r="N129" s="11"/>
+      <c r="O129" s="11"/>
+      <c r="P129" s="11"/>
+      <c r="Q129" s="11"/>
+      <c r="R129" s="10"/>
       <c r="U129" s="5"/>
-      <c r="W129" s="14"/>
-      <c r="X129" s="14"/>
-      <c r="Y129" s="14"/>
-      <c r="Z129" s="14"/>
-      <c r="AA129" s="14"/>
+      <c r="W129" s="11"/>
+      <c r="X129" s="11"/>
+      <c r="Y129" s="11"/>
+      <c r="Z129" s="11"/>
+      <c r="AA129" s="11"/>
     </row>
     <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
-      <c r="G130" s="14"/>
-      <c r="H130" s="14"/>
-      <c r="I130" s="14"/>
-      <c r="J130" s="14"/>
-      <c r="K130" s="14"/>
-      <c r="L130" s="14"/>
-      <c r="M130" s="14"/>
-      <c r="N130" s="14"/>
-      <c r="O130" s="14"/>
-      <c r="P130" s="14"/>
-      <c r="Q130" s="14"/>
-      <c r="R130" s="13"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="11"/>
+      <c r="L130" s="11"/>
+      <c r="M130" s="11"/>
+      <c r="N130" s="11"/>
+      <c r="O130" s="11"/>
+      <c r="P130" s="11"/>
+      <c r="Q130" s="11"/>
+      <c r="R130" s="10"/>
       <c r="U130" s="5"/>
-      <c r="W130" s="14"/>
-      <c r="X130" s="14"/>
-      <c r="Y130" s="14"/>
-      <c r="Z130" s="14"/>
-      <c r="AA130" s="14"/>
+      <c r="W130" s="11"/>
+      <c r="X130" s="11"/>
+      <c r="Y130" s="11"/>
+      <c r="Z130" s="11"/>
+      <c r="AA130" s="11"/>
     </row>
     <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="59" t="s">
+      <c r="A131" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="B131" s="60"/>
-      <c r="G131" s="14"/>
-      <c r="H131" s="14"/>
-      <c r="I131" s="14"/>
-      <c r="J131" s="14"/>
-      <c r="K131" s="14"/>
-      <c r="L131" s="14"/>
-      <c r="M131" s="14"/>
-      <c r="N131" s="14"/>
-      <c r="O131" s="14"/>
-      <c r="P131" s="14"/>
-      <c r="Q131" s="14"/>
-      <c r="R131" s="13"/>
+      <c r="B131" s="41"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="11"/>
+      <c r="L131" s="11"/>
+      <c r="M131" s="11"/>
+      <c r="N131" s="11"/>
+      <c r="O131" s="11"/>
+      <c r="P131" s="11"/>
+      <c r="Q131" s="11"/>
+      <c r="R131" s="10"/>
       <c r="U131" s="5"/>
-      <c r="W131" s="14"/>
-      <c r="X131" s="14"/>
-      <c r="Y131" s="14"/>
-      <c r="Z131" s="14"/>
-      <c r="AA131" s="14"/>
+      <c r="W131" s="11"/>
+      <c r="X131" s="11"/>
+      <c r="Y131" s="11"/>
+      <c r="Z131" s="11"/>
+      <c r="AA131" s="11"/>
     </row>
     <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
-      <c r="G132" s="14"/>
-      <c r="H132" s="14"/>
-      <c r="I132" s="14"/>
-      <c r="J132" s="14"/>
-      <c r="K132" s="14"/>
-      <c r="L132" s="14"/>
-      <c r="M132" s="14"/>
-      <c r="N132" s="14"/>
-      <c r="O132" s="14"/>
-      <c r="P132" s="14"/>
-      <c r="Q132" s="14"/>
-      <c r="R132" s="13"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="11"/>
+      <c r="L132" s="11"/>
+      <c r="M132" s="11"/>
+      <c r="N132" s="11"/>
+      <c r="O132" s="11"/>
+      <c r="P132" s="11"/>
+      <c r="Q132" s="11"/>
+      <c r="R132" s="10"/>
       <c r="U132" s="5"/>
-      <c r="W132" s="14"/>
-      <c r="X132" s="14"/>
-      <c r="Y132" s="14"/>
-      <c r="Z132" s="14"/>
-      <c r="AA132" s="14"/>
+      <c r="W132" s="11"/>
+      <c r="X132" s="11"/>
+      <c r="Y132" s="11"/>
+      <c r="Z132" s="11"/>
+      <c r="AA132" s="11"/>
     </row>
     <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="31" t="s">
+      <c r="A133" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B133" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="10"/>
-      <c r="G133" s="14"/>
-      <c r="H133" s="14"/>
-      <c r="I133" s="14"/>
-      <c r="J133" s="14"/>
-      <c r="K133" s="14"/>
-      <c r="L133" s="14"/>
-      <c r="M133" s="14"/>
-      <c r="N133" s="14"/>
-      <c r="O133" s="14"/>
-      <c r="P133" s="14"/>
-      <c r="Q133" s="14"/>
-      <c r="R133" s="13"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="11"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="11"/>
+      <c r="L133" s="11"/>
+      <c r="M133" s="11"/>
+      <c r="N133" s="11"/>
+      <c r="O133" s="11"/>
+      <c r="P133" s="11"/>
+      <c r="Q133" s="11"/>
+      <c r="R133" s="10"/>
       <c r="U133" s="5"/>
-      <c r="W133" s="14"/>
-      <c r="X133" s="14"/>
-      <c r="Y133" s="14"/>
-      <c r="Z133" s="14"/>
-      <c r="AA133" s="14"/>
+      <c r="W133" s="11"/>
+      <c r="X133" s="11"/>
+      <c r="Y133" s="11"/>
+      <c r="Z133" s="11"/>
+      <c r="AA133" s="11"/>
     </row>
     <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
@@ -7274,53 +7274,53 @@
       <c r="B134" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="G134" s="14"/>
-      <c r="H134" s="14"/>
-      <c r="I134" s="14"/>
-      <c r="J134" s="14"/>
-      <c r="K134" s="14"/>
-      <c r="L134" s="14"/>
-      <c r="M134" s="14"/>
-      <c r="N134" s="14"/>
-      <c r="O134" s="14"/>
-      <c r="P134" s="14"/>
-      <c r="Q134" s="14"/>
-      <c r="R134" s="13"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="11"/>
+      <c r="L134" s="11"/>
+      <c r="M134" s="11"/>
+      <c r="N134" s="11"/>
+      <c r="O134" s="11"/>
+      <c r="P134" s="11"/>
+      <c r="Q134" s="11"/>
+      <c r="R134" s="10"/>
       <c r="U134" s="5"/>
-      <c r="W134" s="14"/>
-      <c r="X134" s="14"/>
-      <c r="Y134" s="14"/>
-      <c r="Z134" s="14"/>
-      <c r="AA134" s="14"/>
+      <c r="W134" s="11"/>
+      <c r="X134" s="11"/>
+      <c r="Y134" s="11"/>
+      <c r="Z134" s="11"/>
+      <c r="AA134" s="11"/>
     </row>
     <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="31" t="s">
+      <c r="A135" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B135" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10"/>
-      <c r="G135" s="14"/>
-      <c r="H135" s="14"/>
-      <c r="I135" s="14"/>
-      <c r="J135" s="14"/>
-      <c r="K135" s="14"/>
-      <c r="L135" s="14"/>
-      <c r="M135" s="14"/>
-      <c r="N135" s="14"/>
-      <c r="O135" s="14"/>
-      <c r="P135" s="14"/>
-      <c r="Q135" s="14"/>
-      <c r="R135" s="13"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="11"/>
+      <c r="L135" s="11"/>
+      <c r="M135" s="11"/>
+      <c r="N135" s="11"/>
+      <c r="O135" s="11"/>
+      <c r="P135" s="11"/>
+      <c r="Q135" s="11"/>
+      <c r="R135" s="10"/>
       <c r="U135" s="5"/>
-      <c r="W135" s="14"/>
-      <c r="X135" s="14"/>
-      <c r="Y135" s="14"/>
-      <c r="Z135" s="14"/>
-      <c r="AA135" s="14"/>
+      <c r="W135" s="11"/>
+      <c r="X135" s="11"/>
+      <c r="Y135" s="11"/>
+      <c r="Z135" s="11"/>
+      <c r="AA135" s="11"/>
     </row>
     <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
@@ -7329,53 +7329,53 @@
       <c r="B136" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="G136" s="14"/>
-      <c r="H136" s="14"/>
-      <c r="I136" s="14"/>
-      <c r="J136" s="14"/>
-      <c r="K136" s="14"/>
-      <c r="L136" s="14"/>
-      <c r="M136" s="14"/>
-      <c r="N136" s="14"/>
-      <c r="O136" s="14"/>
-      <c r="P136" s="14"/>
-      <c r="Q136" s="14"/>
-      <c r="R136" s="13"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="11"/>
+      <c r="L136" s="11"/>
+      <c r="M136" s="11"/>
+      <c r="N136" s="11"/>
+      <c r="O136" s="11"/>
+      <c r="P136" s="11"/>
+      <c r="Q136" s="11"/>
+      <c r="R136" s="10"/>
       <c r="U136" s="5"/>
-      <c r="W136" s="14"/>
-      <c r="X136" s="14"/>
-      <c r="Y136" s="14"/>
-      <c r="Z136" s="14"/>
-      <c r="AA136" s="14"/>
+      <c r="W136" s="11"/>
+      <c r="X136" s="11"/>
+      <c r="Y136" s="11"/>
+      <c r="Z136" s="11"/>
+      <c r="AA136" s="11"/>
     </row>
     <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="31" t="s">
+      <c r="A137" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="B137" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="10"/>
-      <c r="G137" s="14"/>
-      <c r="H137" s="14"/>
-      <c r="I137" s="14"/>
-      <c r="J137" s="14"/>
-      <c r="K137" s="14"/>
-      <c r="L137" s="14"/>
-      <c r="M137" s="14"/>
-      <c r="N137" s="14"/>
-      <c r="O137" s="14"/>
-      <c r="P137" s="14"/>
-      <c r="Q137" s="14"/>
-      <c r="R137" s="13"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="11"/>
+      <c r="L137" s="11"/>
+      <c r="M137" s="11"/>
+      <c r="N137" s="11"/>
+      <c r="O137" s="11"/>
+      <c r="P137" s="11"/>
+      <c r="Q137" s="11"/>
+      <c r="R137" s="10"/>
       <c r="U137" s="5"/>
-      <c r="W137" s="14"/>
-      <c r="X137" s="14"/>
-      <c r="Y137" s="14"/>
-      <c r="Z137" s="14"/>
-      <c r="AA137" s="14"/>
+      <c r="W137" s="11"/>
+      <c r="X137" s="11"/>
+      <c r="Y137" s="11"/>
+      <c r="Z137" s="11"/>
+      <c r="AA137" s="11"/>
     </row>
     <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
@@ -7384,240 +7384,240 @@
       <c r="B138" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="G138" s="14"/>
-      <c r="H138" s="14"/>
-      <c r="I138" s="14"/>
-      <c r="J138" s="14"/>
-      <c r="K138" s="14"/>
-      <c r="L138" s="14"/>
-      <c r="M138" s="14"/>
-      <c r="N138" s="14"/>
-      <c r="O138" s="14"/>
-      <c r="P138" s="14"/>
-      <c r="Q138" s="14"/>
-      <c r="R138" s="13"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="11"/>
+      <c r="L138" s="11"/>
+      <c r="M138" s="11"/>
+      <c r="N138" s="11"/>
+      <c r="O138" s="11"/>
+      <c r="P138" s="11"/>
+      <c r="Q138" s="11"/>
+      <c r="R138" s="10"/>
       <c r="U138" s="5"/>
-      <c r="W138" s="14"/>
-      <c r="X138" s="14"/>
-      <c r="Y138" s="14"/>
-      <c r="Z138" s="14"/>
-      <c r="AA138" s="14"/>
+      <c r="W138" s="11"/>
+      <c r="X138" s="11"/>
+      <c r="Y138" s="11"/>
+      <c r="Z138" s="11"/>
+      <c r="AA138" s="11"/>
     </row>
     <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="31" t="s">
+      <c r="A139" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="10"/>
-      <c r="G139" s="14"/>
-      <c r="H139" s="14"/>
-      <c r="I139" s="14"/>
-      <c r="J139" s="14"/>
-      <c r="K139" s="14"/>
-      <c r="L139" s="14"/>
-      <c r="M139" s="14"/>
-      <c r="N139" s="14"/>
-      <c r="O139" s="14"/>
-      <c r="P139" s="14"/>
-      <c r="Q139" s="14"/>
-      <c r="R139" s="13"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="11"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="11"/>
+      <c r="L139" s="11"/>
+      <c r="M139" s="11"/>
+      <c r="N139" s="11"/>
+      <c r="O139" s="11"/>
+      <c r="P139" s="11"/>
+      <c r="Q139" s="11"/>
+      <c r="R139" s="10"/>
       <c r="U139" s="5"/>
-      <c r="W139" s="14"/>
-      <c r="X139" s="14"/>
-      <c r="Y139" s="14"/>
-      <c r="Z139" s="14"/>
-      <c r="AA139" s="14"/>
+      <c r="W139" s="11"/>
+      <c r="X139" s="11"/>
+      <c r="Y139" s="11"/>
+      <c r="Z139" s="11"/>
+      <c r="AA139" s="11"/>
     </row>
     <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
-      <c r="G140" s="14"/>
-      <c r="H140" s="14"/>
-      <c r="I140" s="14"/>
-      <c r="J140" s="14"/>
-      <c r="K140" s="14"/>
-      <c r="L140" s="14"/>
-      <c r="M140" s="14"/>
-      <c r="N140" s="14"/>
-      <c r="O140" s="14"/>
-      <c r="P140" s="14"/>
-      <c r="Q140" s="14"/>
-      <c r="R140" s="13"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="11"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="11"/>
+      <c r="L140" s="11"/>
+      <c r="M140" s="11"/>
+      <c r="N140" s="11"/>
+      <c r="O140" s="11"/>
+      <c r="P140" s="11"/>
+      <c r="Q140" s="11"/>
+      <c r="R140" s="10"/>
       <c r="U140" s="5"/>
-      <c r="W140" s="14"/>
-      <c r="X140" s="14"/>
-      <c r="Y140" s="14"/>
-      <c r="Z140" s="14"/>
-      <c r="AA140" s="14"/>
+      <c r="W140" s="11"/>
+      <c r="X140" s="11"/>
+      <c r="Y140" s="11"/>
+      <c r="Z140" s="11"/>
+      <c r="AA140" s="11"/>
     </row>
     <row r="141" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
-      <c r="G141" s="14"/>
-      <c r="H141" s="14"/>
-      <c r="I141" s="14"/>
-      <c r="J141" s="14"/>
-      <c r="K141" s="14"/>
-      <c r="L141" s="14"/>
-      <c r="M141" s="14"/>
-      <c r="N141" s="14"/>
-      <c r="O141" s="14"/>
-      <c r="P141" s="14"/>
-      <c r="Q141" s="14"/>
-      <c r="R141" s="13"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="11"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="11"/>
+      <c r="L141" s="11"/>
+      <c r="M141" s="11"/>
+      <c r="N141" s="11"/>
+      <c r="O141" s="11"/>
+      <c r="P141" s="11"/>
+      <c r="Q141" s="11"/>
+      <c r="R141" s="10"/>
       <c r="U141" s="5"/>
-      <c r="W141" s="14"/>
-      <c r="X141" s="14"/>
-      <c r="Y141" s="14"/>
-      <c r="Z141" s="14"/>
-      <c r="AA141" s="14"/>
+      <c r="W141" s="11"/>
+      <c r="X141" s="11"/>
+      <c r="Y141" s="11"/>
+      <c r="Z141" s="11"/>
+      <c r="AA141" s="11"/>
     </row>
     <row r="142" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
-      <c r="G142" s="14"/>
-      <c r="H142" s="14"/>
-      <c r="I142" s="14"/>
-      <c r="J142" s="14"/>
-      <c r="K142" s="14"/>
-      <c r="L142" s="14"/>
-      <c r="M142" s="14"/>
-      <c r="N142" s="14"/>
-      <c r="O142" s="14"/>
-      <c r="P142" s="14"/>
-      <c r="Q142" s="14"/>
-      <c r="R142" s="13"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="11"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="11"/>
+      <c r="L142" s="11"/>
+      <c r="M142" s="11"/>
+      <c r="N142" s="11"/>
+      <c r="O142" s="11"/>
+      <c r="P142" s="11"/>
+      <c r="Q142" s="11"/>
+      <c r="R142" s="10"/>
       <c r="U142" s="5"/>
-      <c r="W142" s="14"/>
-      <c r="X142" s="14"/>
-      <c r="Y142" s="14"/>
-      <c r="Z142" s="14"/>
-      <c r="AA142" s="14"/>
+      <c r="W142" s="11"/>
+      <c r="X142" s="11"/>
+      <c r="Y142" s="11"/>
+      <c r="Z142" s="11"/>
+      <c r="AA142" s="11"/>
     </row>
     <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="64" t="s">
+      <c r="A143" s="72" t="s">
         <v>304</v>
       </c>
-      <c r="B143" s="26"/>
-      <c r="G143" s="14"/>
-      <c r="H143" s="14"/>
-      <c r="I143" s="14"/>
-      <c r="J143" s="14"/>
-      <c r="K143" s="14"/>
-      <c r="L143" s="14"/>
-      <c r="M143" s="14"/>
-      <c r="N143" s="14"/>
-      <c r="O143" s="14"/>
-      <c r="P143" s="14"/>
-      <c r="Q143" s="14"/>
-      <c r="R143" s="13"/>
+      <c r="B143" s="73"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="11"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="11"/>
+      <c r="L143" s="11"/>
+      <c r="M143" s="11"/>
+      <c r="N143" s="11"/>
+      <c r="O143" s="11"/>
+      <c r="P143" s="11"/>
+      <c r="Q143" s="11"/>
+      <c r="R143" s="10"/>
       <c r="U143" s="5"/>
-      <c r="W143" s="14"/>
-      <c r="X143" s="14"/>
-      <c r="Y143" s="14"/>
-      <c r="Z143" s="14"/>
-      <c r="AA143" s="14"/>
+      <c r="W143" s="11"/>
+      <c r="X143" s="11"/>
+      <c r="Y143" s="11"/>
+      <c r="Z143" s="11"/>
+      <c r="AA143" s="11"/>
     </row>
     <row r="144" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G144" s="14"/>
-      <c r="H144" s="14"/>
-      <c r="I144" s="14"/>
-      <c r="J144" s="14"/>
-      <c r="K144" s="14"/>
-      <c r="L144" s="14"/>
-      <c r="M144" s="14"/>
-      <c r="N144" s="14"/>
-      <c r="O144" s="14"/>
-      <c r="P144" s="14"/>
-      <c r="Q144" s="14"/>
-      <c r="R144" s="13"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="11"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="11"/>
+      <c r="L144" s="11"/>
+      <c r="M144" s="11"/>
+      <c r="N144" s="11"/>
+      <c r="O144" s="11"/>
+      <c r="P144" s="11"/>
+      <c r="Q144" s="11"/>
+      <c r="R144" s="10"/>
       <c r="U144" s="5"/>
-      <c r="W144" s="14"/>
-      <c r="X144" s="14"/>
-      <c r="Y144" s="14"/>
-      <c r="Z144" s="14"/>
-      <c r="AA144" s="14"/>
+      <c r="W144" s="11"/>
+      <c r="X144" s="11"/>
+      <c r="Y144" s="11"/>
+      <c r="Z144" s="11"/>
+      <c r="AA144" s="11"/>
     </row>
     <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="38" t="s">
+      <c r="A145" s="74" t="s">
         <v>305</v>
       </c>
-      <c r="B145" s="7"/>
+      <c r="B145" s="68"/>
       <c r="D145" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="G145" s="14"/>
-      <c r="H145" s="14"/>
-      <c r="I145" s="14"/>
-      <c r="J145" s="14"/>
-      <c r="K145" s="14"/>
-      <c r="L145" s="31" t="s">
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="11"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="11"/>
+      <c r="L145" s="22" t="s">
         <v>307</v>
       </c>
       <c r="O145" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="Q145" s="14"/>
-      <c r="R145" s="13"/>
+      <c r="Q145" s="11"/>
+      <c r="R145" s="10"/>
       <c r="U145" s="5"/>
-      <c r="W145" s="14"/>
-      <c r="X145" s="14"/>
-      <c r="Y145" s="14"/>
-      <c r="Z145" s="14"/>
-      <c r="AA145" s="14"/>
+      <c r="W145" s="11"/>
+      <c r="X145" s="11"/>
+      <c r="Y145" s="11"/>
+      <c r="Z145" s="11"/>
+      <c r="AA145" s="11"/>
     </row>
     <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="38" t="s">
+      <c r="A146" s="74" t="s">
         <v>309</v>
       </c>
-      <c r="B146" s="7"/>
+      <c r="B146" s="68"/>
       <c r="D146" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="G146" s="14"/>
-      <c r="H146" s="14"/>
-      <c r="I146" s="14"/>
-      <c r="J146" s="14"/>
-      <c r="K146" s="14"/>
-      <c r="L146" s="65" t="s">
+      <c r="G146" s="11"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="11"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="11"/>
+      <c r="L146" s="44" t="s">
         <v>311</v>
       </c>
-      <c r="Q146" s="14"/>
-      <c r="R146" s="13"/>
+      <c r="Q146" s="11"/>
+      <c r="R146" s="10"/>
       <c r="U146" s="5"/>
-      <c r="W146" s="14"/>
-      <c r="X146" s="14"/>
-      <c r="Y146" s="14"/>
-      <c r="Z146" s="14"/>
-      <c r="AA146" s="14"/>
+      <c r="W146" s="11"/>
+      <c r="X146" s="11"/>
+      <c r="Y146" s="11"/>
+      <c r="Z146" s="11"/>
+      <c r="AA146" s="11"/>
     </row>
     <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G147" s="14"/>
-      <c r="H147" s="14"/>
-      <c r="I147" s="14"/>
-      <c r="J147" s="14"/>
-      <c r="K147" s="14"/>
-      <c r="Q147" s="14"/>
-      <c r="R147" s="13"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="11"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="11"/>
+      <c r="Q147" s="11"/>
+      <c r="R147" s="10"/>
       <c r="U147" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="W147" s="14"/>
-      <c r="X147" s="14"/>
-      <c r="Y147" s="14"/>
-      <c r="Z147" s="14"/>
-      <c r="AA147" s="14"/>
+      <c r="W147" s="11"/>
+      <c r="X147" s="11"/>
+      <c r="Y147" s="11"/>
+      <c r="Z147" s="11"/>
+      <c r="AA147" s="11"/>
     </row>
     <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="27" t="s">
+      <c r="A148" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="G148" s="14"/>
-      <c r="H148" s="14"/>
-      <c r="I148" s="14"/>
-      <c r="J148" s="14"/>
-      <c r="K148" s="14"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="11"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="11"/>
       <c r="L148" s="4" t="s">
         <v>314</v>
       </c>
@@ -7627,40 +7627,40 @@
       <c r="P148" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="Q148" s="14"/>
-      <c r="R148" s="14"/>
-      <c r="S148" s="14"/>
-      <c r="T148" s="14"/>
-      <c r="U148" s="14"/>
-      <c r="V148" s="14"/>
-      <c r="W148" s="14"/>
-      <c r="X148" s="14"/>
-      <c r="Y148" s="14"/>
-      <c r="Z148" s="14"/>
-      <c r="AA148" s="14"/>
+      <c r="Q148" s="11"/>
+      <c r="R148" s="11"/>
+      <c r="S148" s="11"/>
+      <c r="T148" s="11"/>
+      <c r="U148" s="11"/>
+      <c r="V148" s="11"/>
+      <c r="W148" s="11"/>
+      <c r="X148" s="11"/>
+      <c r="Y148" s="11"/>
+      <c r="Z148" s="11"/>
+      <c r="AA148" s="11"/>
     </row>
     <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="G149" s="14"/>
-      <c r="H149" s="14"/>
-      <c r="I149" s="14"/>
-      <c r="J149" s="14"/>
-      <c r="K149" s="14"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="11"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="11"/>
       <c r="L149" s="4" t="s">
         <v>318</v>
       </c>
       <c r="P149" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="Q149" s="14"/>
+      <c r="Q149" s="11"/>
     </row>
     <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="G150" s="14"/>
+      <c r="G150" s="11"/>
       <c r="L150" s="4" t="s">
         <v>321</v>
       </c>
@@ -7672,7 +7672,7 @@
       <c r="A151" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="G151" s="14"/>
+      <c r="G151" s="11"/>
       <c r="L151" s="4" t="s">
         <v>324</v>
       </c>
@@ -7681,7 +7681,7 @@
       </c>
     </row>
     <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G152" s="14"/>
+      <c r="G152" s="11"/>
       <c r="M152" s="5" t="s">
         <v>326</v>
       </c>
@@ -7693,52 +7693,52 @@
       <c r="A153" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="G153" s="14"/>
+      <c r="G153" s="11"/>
     </row>
     <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="G154" s="14"/>
+      <c r="G154" s="11"/>
     </row>
     <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G155" s="14"/>
+      <c r="G155" s="11"/>
     </row>
     <row r="156" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="G156" s="14"/>
+      <c r="G156" s="11"/>
     </row>
     <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="66" t="s">
+      <c r="A157" s="75" t="s">
         <v>331</v>
       </c>
-      <c r="B157" s="7"/>
-      <c r="C157" s="7"/>
-      <c r="D157" s="7"/>
-      <c r="E157" s="7"/>
-      <c r="F157" s="7"/>
-      <c r="G157" s="14"/>
+      <c r="B157" s="68"/>
+      <c r="C157" s="68"/>
+      <c r="D157" s="68"/>
+      <c r="E157" s="68"/>
+      <c r="F157" s="68"/>
+      <c r="G157" s="11"/>
     </row>
     <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="7"/>
-      <c r="B158" s="7"/>
-      <c r="C158" s="7"/>
-      <c r="D158" s="7"/>
-      <c r="E158" s="7"/>
-      <c r="F158" s="7"/>
-      <c r="G158" s="14"/>
+      <c r="A158" s="68"/>
+      <c r="B158" s="68"/>
+      <c r="C158" s="68"/>
+      <c r="D158" s="68"/>
+      <c r="E158" s="68"/>
+      <c r="F158" s="68"/>
+      <c r="G158" s="11"/>
     </row>
     <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G159" s="14"/>
+      <c r="G159" s="11"/>
     </row>
     <row r="160" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="41" t="s">
+      <c r="A160" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="G160" s="14"/>
-      <c r="L160" s="41" t="s">
+      <c r="G160" s="11"/>
+      <c r="L160" s="27" t="s">
         <v>333</v>
       </c>
     </row>
@@ -7746,11 +7746,11 @@
       <c r="A161" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="G161" s="14"/>
-      <c r="L161" s="11" t="s">
+      <c r="G161" s="11"/>
+      <c r="L161" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="M161" s="10"/>
+      <c r="M161" s="8"/>
       <c r="N161" s="5" t="s">
         <v>335</v>
       </c>
@@ -7759,7 +7759,7 @@
       </c>
     </row>
     <row r="162" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G162" s="14"/>
+      <c r="G162" s="11"/>
       <c r="M162" s="5" t="s">
         <v>337</v>
       </c>
@@ -7768,11 +7768,11 @@
       </c>
     </row>
     <row r="163" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="38" t="s">
+      <c r="A163" s="74" t="s">
         <v>339</v>
       </c>
-      <c r="B163" s="7"/>
-      <c r="G163" s="14"/>
+      <c r="B163" s="68"/>
+      <c r="G163" s="11"/>
       <c r="M163" s="5" t="s">
         <v>340</v>
       </c>
@@ -7784,7 +7784,7 @@
       <c r="A164" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="G164" s="14"/>
+      <c r="G164" s="11"/>
       <c r="N164" s="5" t="s">
         <v>343</v>
       </c>
@@ -7793,7 +7793,7 @@
       <c r="A165" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="G165" s="14"/>
+      <c r="G165" s="11"/>
       <c r="N165" s="5" t="s">
         <v>345</v>
       </c>
@@ -7802,7 +7802,7 @@
       <c r="A166" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="G166" s="14"/>
+      <c r="G166" s="11"/>
       <c r="M166" s="5" t="s">
         <v>347</v>
       </c>
@@ -7814,14 +7814,14 @@
       <c r="A167" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="G167" s="14"/>
+      <c r="G167" s="11"/>
     </row>
     <row r="168" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G168" s="14"/>
-      <c r="L168" s="11" t="s">
+      <c r="G168" s="11"/>
+      <c r="L168" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="M168" s="10"/>
+      <c r="M168" s="8"/>
       <c r="N168" s="5" t="s">
         <v>350</v>
       </c>
@@ -7830,144 +7830,144 @@
       </c>
     </row>
     <row r="169" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G169" s="14"/>
+      <c r="G169" s="11"/>
     </row>
     <row r="170" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="14"/>
-      <c r="B170" s="14"/>
-      <c r="C170" s="14"/>
-      <c r="D170" s="14"/>
-      <c r="E170" s="14"/>
-      <c r="F170" s="14"/>
-      <c r="G170" s="14"/>
+      <c r="A170" s="11"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
+      <c r="F170" s="11"/>
+      <c r="G170" s="11"/>
     </row>
     <row r="171" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="14"/>
-      <c r="B171" s="14"/>
-      <c r="C171" s="14"/>
-      <c r="D171" s="14"/>
-      <c r="E171" s="14"/>
-      <c r="F171" s="14"/>
-      <c r="G171" s="14"/>
+      <c r="A171" s="11"/>
+      <c r="B171" s="11"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="11"/>
+      <c r="G171" s="11"/>
     </row>
     <row r="172" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="67" t="s">
+      <c r="A172" s="45" t="s">
         <v>352</v>
       </c>
-      <c r="B172" s="68"/>
-      <c r="C172" s="14"/>
-      <c r="D172" s="14"/>
-      <c r="E172" s="14"/>
-      <c r="F172" s="14"/>
-      <c r="G172" s="14"/>
-      <c r="L172" s="41" t="s">
+      <c r="B172" s="46"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
+      <c r="G172" s="11"/>
+      <c r="L172" s="27" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="173" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="13" t="s">
+      <c r="A173" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="B173" s="14"/>
-      <c r="C173" s="14"/>
-      <c r="D173" s="14"/>
-      <c r="E173" s="14"/>
-      <c r="F173" s="14"/>
-      <c r="G173" s="14"/>
-      <c r="L173" s="31" t="s">
+      <c r="B173" s="11"/>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
+      <c r="L173" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="M173" s="10"/>
+      <c r="M173" s="8"/>
     </row>
     <row r="174" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="14"/>
-      <c r="B174" s="14"/>
-      <c r="C174" s="14"/>
-      <c r="D174" s="14"/>
-      <c r="E174" s="14"/>
-      <c r="F174" s="14"/>
-      <c r="G174" s="14"/>
+      <c r="A174" s="11"/>
+      <c r="B174" s="11"/>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
+      <c r="G174" s="11"/>
       <c r="L174" s="5" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="175" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="31" t="s">
+      <c r="A175" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="B175" s="14"/>
-      <c r="C175" s="14"/>
-      <c r="D175" s="14"/>
-      <c r="E175" s="14"/>
-      <c r="F175" s="14"/>
-      <c r="G175" s="14"/>
+      <c r="B175" s="11"/>
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11"/>
+      <c r="F175" s="11"/>
+      <c r="G175" s="11"/>
       <c r="L175" s="5" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="176" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="13" t="s">
+      <c r="A176" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="B176" s="14"/>
-      <c r="C176" s="14"/>
-      <c r="D176" s="14"/>
-      <c r="E176" s="14"/>
-      <c r="F176" s="14"/>
-      <c r="G176" s="14"/>
+      <c r="B176" s="11"/>
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11"/>
+      <c r="F176" s="11"/>
+      <c r="G176" s="11"/>
     </row>
     <row r="177" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="13" t="s">
+      <c r="A177" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="B177" s="14"/>
-      <c r="C177" s="14"/>
-      <c r="D177" s="14"/>
-      <c r="E177" s="14"/>
-      <c r="F177" s="14"/>
-      <c r="G177" s="14"/>
+      <c r="B177" s="11"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="11"/>
     </row>
     <row r="178" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="13"/>
-      <c r="B178" s="14"/>
-      <c r="C178" s="14"/>
-      <c r="D178" s="14"/>
-      <c r="E178" s="14"/>
-      <c r="F178" s="69"/>
-      <c r="G178" s="7"/>
-      <c r="L178" s="31" t="s">
+      <c r="A178" s="10"/>
+      <c r="B178" s="11"/>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="76"/>
+      <c r="G178" s="68"/>
+      <c r="L178" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="M178" s="11"/>
+      <c r="M178" s="9"/>
     </row>
     <row r="179" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="39" t="s">
+      <c r="A179" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="B179" s="14"/>
-      <c r="C179" s="13" t="s">
+      <c r="B179" s="11"/>
+      <c r="C179" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="D179" s="14"/>
-      <c r="E179" s="14"/>
-      <c r="F179" s="7"/>
-      <c r="G179" s="7"/>
-      <c r="L179" s="70" t="s">
+      <c r="D179" s="11"/>
+      <c r="E179" s="11"/>
+      <c r="F179" s="68"/>
+      <c r="G179" s="68"/>
+      <c r="L179" s="47" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="180" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="39" t="s">
+      <c r="A180" s="25" t="s">
         <v>579</v>
       </c>
-      <c r="B180" s="14"/>
-      <c r="C180" s="13" t="s">
+      <c r="B180" s="11"/>
+      <c r="C180" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="D180" s="14"/>
-      <c r="E180" s="14"/>
-      <c r="F180" s="14"/>
-      <c r="G180" s="14"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11"/>
+      <c r="F180" s="11"/>
+      <c r="G180" s="11"/>
     </row>
     <row r="181" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
@@ -8006,7 +8006,7 @@
       </c>
     </row>
     <row r="192" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="31" t="s">
+      <c r="A192" s="22" t="s">
         <v>370</v>
       </c>
     </row>
@@ -8065,10 +8065,10 @@
       </c>
     </row>
     <row r="208" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="31" t="s">
+      <c r="A208" s="22" t="s">
         <v>382</v>
       </c>
-      <c r="B208" s="10"/>
+      <c r="B208" s="8"/>
     </row>
     <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
@@ -8126,21 +8126,21 @@
       </c>
     </row>
     <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="71" t="s">
+      <c r="A223" s="48" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="31" t="s">
+      <c r="A224" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="B224" s="10"/>
+      <c r="B224" s="8"/>
       <c r="D224" s="5" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="65" t="s">
+      <c r="A225" s="44" t="s">
         <v>395</v>
       </c>
     </row>
@@ -8153,10 +8153,10 @@
       </c>
     </row>
     <row r="228" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="31" t="s">
+      <c r="A228" s="22" t="s">
         <v>397</v>
       </c>
-      <c r="B228" s="10"/>
+      <c r="B228" s="8"/>
       <c r="D228" s="5" t="s">
         <v>398</v>
       </c>
@@ -8167,12 +8167,12 @@
       </c>
     </row>
     <row r="230" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="65" t="s">
+      <c r="A230" s="44" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="31" t="s">
+      <c r="A232" s="22" t="s">
         <v>192</v>
       </c>
       <c r="D232" s="5" t="s">
@@ -8180,12 +8180,12 @@
       </c>
     </row>
     <row r="233" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="65" t="s">
+      <c r="A233" s="44" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="31" t="s">
+      <c r="A235" s="22" t="s">
         <v>84</v>
       </c>
       <c r="D235" s="5" t="s">
@@ -8193,15 +8193,15 @@
       </c>
     </row>
     <row r="236" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="65" t="s">
+      <c r="A236" s="44" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="28" t="s">
+      <c r="A251" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="B251" s="29"/>
+      <c r="B251" s="20"/>
     </row>
     <row r="254" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
@@ -8210,17 +8210,16 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="H112:I113"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A157:F158"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="F178:G179"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="G57:J57"/>
     <mergeCell ref="L62:Q62"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:G25"/>
@@ -8229,16 +8228,17 @@
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="K39:L39"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="F178:G179"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="H112:I113"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A157:F158"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8253,7 +8253,7 @@
   <dimension ref="A3:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8321,8 +8321,8 @@
   </sheetPr>
   <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8331,17 +8331,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="51" t="s">
         <v>416</v>
       </c>
-      <c r="B1" s="76"/>
+      <c r="B1" s="52"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="53" t="s">
         <v>417</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="79"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -8354,7 +8354,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>418</v>
       </c>
     </row>
@@ -8366,7 +8366,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>420</v>
       </c>
     </row>
@@ -8374,16 +8374,16 @@
       <c r="A5" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="53" t="s">
         <v>423</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="79"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -8391,14 +8391,14 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="31"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="53" t="s">
         <v>425</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="79"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -8420,11 +8420,11 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="53" t="s">
         <v>428</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="79"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -8506,7 +8506,7 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="18" t="s">
         <v>436</v>
       </c>
       <c r="B22" s="5"/>
@@ -8522,7 +8522,7 @@
         <v>437</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="10" t="s">
         <v>438</v>
       </c>
       <c r="E23" s="5"/>
@@ -8535,7 +8535,7 @@
         <v>439</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="10" t="s">
         <v>440</v>
       </c>
       <c r="E24" s="5"/>
@@ -8548,7 +8548,7 @@
         <v>441</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="10" t="s">
         <v>442</v>
       </c>
       <c r="E25" s="5"/>
@@ -8574,11 +8574,11 @@
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="53" t="s">
         <v>443</v>
       </c>
-      <c r="B28" s="78"/>
-      <c r="C28" s="79"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -8633,11 +8633,11 @@
       <c r="G32" s="5"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="80" t="s">
+      <c r="A37" s="56" t="s">
         <v>450</v>
       </c>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -8651,10 +8651,10 @@
       <c r="N37" s="5"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="77" t="s">
+      <c r="A38" s="53" t="s">
         <v>451</v>
       </c>
-      <c r="B38" s="77"/>
+      <c r="B38" s="53"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -8837,7 +8837,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
-      <c r="C48" s="72" t="s">
+      <c r="C48" s="49" t="s">
         <v>463</v>
       </c>
       <c r="D48" s="5"/>
@@ -8903,7 +8903,7 @@
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
-      <c r="K51" s="65" t="s">
+      <c r="K51" s="44" t="s">
         <v>468</v>
       </c>
       <c r="L51" s="5"/>
@@ -8941,7 +8941,7 @@
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
-      <c r="K53" s="73" t="s">
+      <c r="K53" s="50" t="s">
         <v>471</v>
       </c>
       <c r="L53" s="5"/>
@@ -8979,7 +8979,7 @@
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
-      <c r="K55" s="65" t="s">
+      <c r="K55" s="44" t="s">
         <v>474</v>
       </c>
       <c r="L55" s="5"/>
@@ -8997,7 +8997,7 @@
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
-      <c r="K56" s="65" t="s">
+      <c r="K56" s="44" t="s">
         <v>475</v>
       </c>
       <c r="L56" s="5"/>
@@ -9015,7 +9015,7 @@
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
-      <c r="K57" s="65" t="s">
+      <c r="K57" s="44" t="s">
         <v>476</v>
       </c>
       <c r="L57" s="5"/>
@@ -9033,7 +9033,7 @@
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
-      <c r="K58" s="65" t="s">
+      <c r="K58" s="44" t="s">
         <v>477</v>
       </c>
       <c r="L58" s="5"/>
@@ -9050,7 +9050,7 @@
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
-      <c r="K59" s="65" t="s">
+      <c r="K59" s="44" t="s">
         <v>478</v>
       </c>
       <c r="L59" s="5"/>
@@ -9272,10 +9272,10 @@
       <c r="N71" s="5"/>
     </row>
     <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="77" t="s">
+      <c r="A72" s="53" t="s">
         <v>489</v>
       </c>
-      <c r="B72" s="77"/>
+      <c r="B72" s="53"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -9366,7 +9366,7 @@
     <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
-      <c r="C77" s="72" t="s">
+      <c r="C77" s="49" t="s">
         <v>463</v>
       </c>
       <c r="D77" s="5"/>
@@ -9458,13 +9458,13 @@
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="74" t="s">
+      <c r="G82" s="87" t="s">
         <v>497</v>
       </c>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
+      <c r="H82" s="68"/>
+      <c r="I82" s="68"/>
+      <c r="J82" s="68"/>
+      <c r="K82" s="68"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
@@ -9478,20 +9478,20 @@
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
+      <c r="G83" s="68"/>
+      <c r="H83" s="68"/>
+      <c r="I83" s="68"/>
+      <c r="J83" s="68"/>
+      <c r="K83" s="68"/>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
     </row>
     <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="80" t="s">
+      <c r="A92" s="56" t="s">
         <v>499</v>
       </c>
-      <c r="B92" s="81"/>
+      <c r="B92" s="57"/>
     </row>
     <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
@@ -9531,10 +9531,10 @@
       <c r="I96" s="5"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="82" t="s">
+      <c r="A97" s="58" t="s">
         <v>502</v>
       </c>
-      <c r="B97" s="83"/>
+      <c r="B97" s="59"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -9609,13 +9609,13 @@
       <c r="I102" s="5"/>
     </row>
     <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="80" t="s">
+      <c r="A105" s="56" t="s">
         <v>508</v>
       </c>
-      <c r="B105" s="81"/>
-      <c r="C105" s="81"/>
-      <c r="D105" s="81"/>
-      <c r="E105" s="81"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="57"/>
+      <c r="E105" s="57"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
@@ -9642,8 +9642,8 @@
   </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9652,57 +9652,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="17" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="27" t="s">
         <v>512</v>
       </c>
     </row>
@@ -9710,7 +9710,7 @@
       <c r="A7" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="31"/>
       <c r="D7" s="4" t="s">
         <v>514</v>
       </c>
@@ -9719,20 +9719,20 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="D9" s="11" t="s">
+      <c r="B9" s="8"/>
+      <c r="D9" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="H9" s="11" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="H9" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -9746,10 +9746,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="4" t="s">
@@ -9757,10 +9757,10 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -9778,15 +9778,15 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -9794,111 +9794,111 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="60" t="s">
         <v>525</v>
       </c>
-      <c r="B27" s="85"/>
-      <c r="C27" s="84" t="s">
+      <c r="B27" s="61"/>
+      <c r="C27" s="60" t="s">
         <v>526</v>
       </c>
-      <c r="D27" s="85"/>
-      <c r="E27" s="84" t="s">
+      <c r="D27" s="61"/>
+      <c r="E27" s="60" t="s">
         <v>527</v>
       </c>
-      <c r="F27" s="86"/>
+      <c r="F27" s="62"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="87" t="s">
+      <c r="A28" s="63" t="s">
         <v>528</v>
       </c>
-      <c r="B28" s="88"/>
-      <c r="C28" s="87" t="s">
+      <c r="B28" s="64"/>
+      <c r="C28" s="63" t="s">
         <v>529</v>
       </c>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88" t="s">
+      <c r="D28" s="64"/>
+      <c r="E28" s="64" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="87" t="s">
+      <c r="A29" s="63" t="s">
         <v>531</v>
       </c>
-      <c r="B29" s="88"/>
-      <c r="C29" s="87" t="s">
+      <c r="B29" s="64"/>
+      <c r="C29" s="63" t="s">
         <v>532</v>
       </c>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88" t="s">
+      <c r="D29" s="64"/>
+      <c r="E29" s="64" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="87" t="s">
+      <c r="A30" s="63" t="s">
         <v>534</v>
       </c>
-      <c r="B30" s="88"/>
-      <c r="C30" s="87" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="63" t="s">
         <v>535</v>
       </c>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88" t="s">
+      <c r="D30" s="64"/>
+      <c r="E30" s="64" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="63" t="s">
         <v>537</v>
       </c>
-      <c r="B31" s="88"/>
-      <c r="C31" s="87" t="s">
+      <c r="B31" s="64"/>
+      <c r="C31" s="63" t="s">
         <v>538</v>
       </c>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88" t="s">
+      <c r="D31" s="64"/>
+      <c r="E31" s="64" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="87" t="s">
+      <c r="A32" s="63" t="s">
         <v>540</v>
       </c>
-      <c r="B32" s="88"/>
-      <c r="C32" s="87" t="s">
+      <c r="B32" s="64"/>
+      <c r="C32" s="63" t="s">
         <v>541</v>
       </c>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88" t="s">
+      <c r="D32" s="64"/>
+      <c r="E32" s="64" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="87" t="s">
+      <c r="A33" s="63" t="s">
         <v>543</v>
       </c>
-      <c r="B33" s="88"/>
-      <c r="C33" s="87" t="s">
+      <c r="B33" s="64"/>
+      <c r="C33" s="63" t="s">
         <v>544</v>
       </c>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88" t="s">
+      <c r="D33" s="64"/>
+      <c r="E33" s="64" t="s">
         <v>545</v>
       </c>
     </row>

--- a/MS_PowerShell.xlsx
+++ b/MS_PowerShell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\personalNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF10065-C097-4B30-9B01-A66DBD4A5DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19334E3D-61E9-49D0-92E3-B4C1B05943D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cmd" sheetId="1" r:id="rId1"/>
@@ -3676,38 +3676,38 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4463,8 +4463,8 @@
   </sheetPr>
   <dimension ref="A1:AA254"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="K180" sqref="K180"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4480,10 +4480,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="73"/>
+      <c r="B1" s="72"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -4774,48 +4774,48 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="73"/>
+      <c r="B22" s="72"/>
       <c r="U22" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="83" t="s">
+      <c r="A24" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="83" t="s">
+      <c r="B24" s="72"/>
+      <c r="C24" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="83" t="s">
+      <c r="D24" s="72"/>
+      <c r="E24" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="83" t="s">
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="I24" s="73"/>
+      <c r="I24" s="72"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="82" t="s">
+      <c r="A25" s="75" t="s">
         <v>84</v>
       </c>
       <c r="B25" s="68"/>
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="75" t="s">
         <v>85</v>
       </c>
       <c r="D25" s="68"/>
-      <c r="E25" s="82" t="s">
+      <c r="E25" s="75" t="s">
         <v>86</v>
       </c>
       <c r="F25" s="68"/>
       <c r="G25" s="68"/>
-      <c r="H25" s="82" t="s">
+      <c r="H25" s="75" t="s">
         <v>87</v>
       </c>
       <c r="I25" s="68"/>
@@ -4824,18 +4824,18 @@
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="73"/>
-      <c r="D27" s="77" t="s">
+      <c r="B27" s="72"/>
+      <c r="D27" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="73"/>
-      <c r="K27" s="78" t="s">
+      <c r="E27" s="72"/>
+      <c r="K27" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="L27" s="73"/>
+      <c r="L27" s="72"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
@@ -4887,10 +4887,10 @@
       <c r="Q30" s="12"/>
     </row>
     <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="73"/>
+      <c r="B31" s="72"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
@@ -4943,10 +4943,10 @@
       <c r="Q34" s="12"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="73"/>
+      <c r="B35" s="72"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
@@ -5005,7 +5005,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
-      <c r="K39" s="74" t="s">
+      <c r="K39" s="80" t="s">
         <v>108</v>
       </c>
       <c r="L39" s="68"/>
@@ -5090,10 +5090,10 @@
       <c r="Q43" s="12"/>
     </row>
     <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="78" t="s">
+      <c r="A45" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="B45" s="73"/>
+      <c r="B45" s="72"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
@@ -5169,7 +5169,7 @@
       <c r="L49" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="M49" s="84" t="s">
+      <c r="M49" s="76" t="s">
         <v>122</v>
       </c>
       <c r="N49" s="68"/>
@@ -5324,18 +5324,18 @@
       <c r="AA56" s="11"/>
     </row>
     <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="79" t="s">
+      <c r="A57" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="B57" s="73"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="73"/>
-      <c r="G57" s="85" t="s">
+      <c r="B57" s="72"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="72"/>
+      <c r="G57" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="H57" s="73"/>
-      <c r="I57" s="73"/>
-      <c r="J57" s="73"/>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72"/>
+      <c r="J57" s="72"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
       <c r="U57" s="5"/>
@@ -5483,14 +5483,14 @@
       <c r="I62" s="15"/>
       <c r="J62" s="15"/>
       <c r="K62" s="15"/>
-      <c r="L62" s="81" t="s">
+      <c r="L62" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="M62" s="73"/>
-      <c r="N62" s="73"/>
-      <c r="O62" s="73"/>
-      <c r="P62" s="73"/>
-      <c r="Q62" s="73"/>
+      <c r="M62" s="72"/>
+      <c r="N62" s="72"/>
+      <c r="O62" s="72"/>
+      <c r="P62" s="72"/>
+      <c r="Q62" s="72"/>
       <c r="R62" s="10"/>
       <c r="U62" s="5"/>
       <c r="W62" s="11"/>
@@ -6278,10 +6278,10 @@
       <c r="AA96" s="11"/>
     </row>
     <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="80" t="s">
+      <c r="A97" s="83" t="s">
         <v>212</v>
       </c>
-      <c r="B97" s="73"/>
+      <c r="B97" s="72"/>
       <c r="L97" s="11"/>
       <c r="M97" s="11"/>
       <c r="N97" s="11"/>
@@ -6691,7 +6691,7 @@
       <c r="G112" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="H112" s="71" t="s">
+      <c r="H112" s="84" t="s">
         <v>251</v>
       </c>
       <c r="I112" s="68"/>
@@ -7496,10 +7496,10 @@
       <c r="AA142" s="11"/>
     </row>
     <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="72" t="s">
+      <c r="A143" s="85" t="s">
         <v>304</v>
       </c>
-      <c r="B143" s="73"/>
+      <c r="B143" s="72"/>
       <c r="G143" s="11"/>
       <c r="H143" s="11"/>
       <c r="I143" s="11"/>
@@ -7540,7 +7540,7 @@
       <c r="AA144" s="11"/>
     </row>
     <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="74" t="s">
+      <c r="A145" s="80" t="s">
         <v>305</v>
       </c>
       <c r="B145" s="68"/>
@@ -7568,7 +7568,7 @@
       <c r="AA145" s="11"/>
     </row>
     <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="74" t="s">
+      <c r="A146" s="80" t="s">
         <v>309</v>
       </c>
       <c r="B146" s="68"/>
@@ -7711,7 +7711,7 @@
       <c r="G156" s="11"/>
     </row>
     <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="75" t="s">
+      <c r="A157" s="86" t="s">
         <v>331</v>
       </c>
       <c r="B157" s="68"/>
@@ -7768,7 +7768,7 @@
       </c>
     </row>
     <row r="163" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="74" t="s">
+      <c r="A163" s="80" t="s">
         <v>339</v>
       </c>
       <c r="B163" s="68"/>
@@ -7933,7 +7933,7 @@
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
       <c r="E178" s="11"/>
-      <c r="F178" s="76"/>
+      <c r="F178" s="81"/>
       <c r="G178" s="68"/>
       <c r="L178" s="22" t="s">
         <v>359</v>
@@ -8210,16 +8210,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="H112:I113"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A157:F158"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="F178:G179"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A97:B97"/>
     <mergeCell ref="L62:Q62"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:G25"/>
@@ -8228,17 +8229,16 @@
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="K39:L39"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="F178:G179"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="H112:I113"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A157:F158"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8321,8 +8321,8 @@
   </sheetPr>
   <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/MS_PowerShell.xlsx
+++ b/MS_PowerShell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\personalNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19334E3D-61E9-49D0-92E3-B4C1B05943D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741F57A5-2D69-490B-BBEF-7F93FBD128F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="16020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cmd" sheetId="1" r:id="rId1"/>
@@ -3676,38 +3676,38 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4055,39 +4055,39 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="12.5703125" style="3"/>
+    <col min="1" max="16384" width="12.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -4103,13 +4103,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>546</v>
       </c>
@@ -4119,17 +4119,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -4138,14 +4138,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -4153,14 +4153,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
         <v>20</v>
       </c>
@@ -4190,12 +4190,12 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="12.5703125" style="3"/>
+    <col min="1" max="16384" width="12.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="65" t="s">
         <v>21</v>
       </c>
@@ -4208,7 +4208,7 @@
       <c r="H1" s="66"/>
       <c r="I1" s="66"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="66"/>
       <c r="B2" s="66"/>
       <c r="C2" s="66"/>
@@ -4219,7 +4219,7 @@
       <c r="H2" s="66"/>
       <c r="I2" s="66"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -4232,7 +4232,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
@@ -4245,7 +4245,7 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
@@ -4258,7 +4258,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -4271,7 +4271,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="67" t="s">
         <v>26</v>
       </c>
@@ -4284,7 +4284,7 @@
       <c r="H7" s="68"/>
       <c r="I7" s="68"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="68"/>
       <c r="B8" s="68"/>
       <c r="C8" s="68"/>
@@ -4295,7 +4295,7 @@
       <c r="H8" s="68"/>
       <c r="I8" s="68"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -4306,7 +4306,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="69" t="s">
         <v>27</v>
       </c>
@@ -4319,7 +4319,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
@@ -4332,7 +4332,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>29</v>
       </c>
@@ -4345,7 +4345,7 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>30</v>
       </c>
@@ -4358,7 +4358,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
@@ -4371,7 +4371,7 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>32</v>
       </c>
@@ -4384,7 +4384,7 @@
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>547</v>
       </c>
@@ -4399,7 +4399,7 @@
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>33</v>
       </c>
@@ -4416,7 +4416,7 @@
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>36</v>
       </c>
@@ -4431,12 +4431,12 @@
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="17" t="s">
         <v>39</v>
       </c>
@@ -4463,27 +4463,27 @@
   </sheetPr>
   <dimension ref="A1:AA254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="K80" sqref="K80"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3"/>
-    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
-    <col min="3" max="13" width="12.5703125" style="3"/>
-    <col min="14" max="14" width="14.85546875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" style="3"/>
+    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
+    <col min="3" max="13" width="12.5546875" style="3"/>
+    <col min="14" max="14" width="14.88671875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" style="3" customWidth="1"/>
     <col min="16" max="16" width="14" style="3" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="12.5703125" style="3"/>
+    <col min="17" max="17" width="15.109375" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="12.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="72"/>
+      <c r="B1" s="73"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -4493,7 +4493,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>41</v>
       </c>
@@ -4513,7 +4513,7 @@
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>550</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>552</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>554</v>
       </c>
@@ -4561,7 +4561,7 @@
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>47</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>556</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>54</v>
       </c>
@@ -4618,7 +4618,7 @@
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -4634,7 +4634,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>58</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>61</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>557</v>
       </c>
@@ -4682,7 +4682,7 @@
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>558</v>
       </c>
@@ -4696,7 +4696,7 @@
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>559</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>560</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -4755,7 +4755,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>75</v>
       </c>
@@ -4773,49 +4773,49 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="73" t="s">
+    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="72"/>
+      <c r="B22" s="73"/>
       <c r="U22" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="74" t="s">
+    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="74" t="s">
+      <c r="B24" s="73"/>
+      <c r="C24" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="74" t="s">
+      <c r="D24" s="73"/>
+      <c r="E24" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="74" t="s">
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="I24" s="72"/>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="75" t="s">
+      <c r="I24" s="73"/>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="82" t="s">
         <v>84</v>
       </c>
       <c r="B25" s="68"/>
-      <c r="C25" s="75" t="s">
+      <c r="C25" s="82" t="s">
         <v>85</v>
       </c>
       <c r="D25" s="68"/>
-      <c r="E25" s="75" t="s">
+      <c r="E25" s="82" t="s">
         <v>86</v>
       </c>
       <c r="F25" s="68"/>
       <c r="G25" s="68"/>
-      <c r="H25" s="75" t="s">
+      <c r="H25" s="82" t="s">
         <v>87</v>
       </c>
       <c r="I25" s="68"/>
@@ -4823,26 +4823,26 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="79" t="s">
+    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="D27" s="79" t="s">
+      <c r="B27" s="73"/>
+      <c r="D27" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="72"/>
-      <c r="K27" s="73" t="s">
+      <c r="E27" s="73"/>
+      <c r="K27" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="L27" s="72"/>
+      <c r="L27" s="73"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>561</v>
       </c>
@@ -4861,7 +4861,7 @@
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
     </row>
-    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D29" s="5" t="s">
         <v>93</v>
       </c>
@@ -4875,7 +4875,7 @@
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
     </row>
-    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K30" s="13" t="s">
         <v>95</v>
       </c>
@@ -4886,11 +4886,11 @@
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
     </row>
-    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="79" t="s">
+    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="72"/>
+      <c r="B31" s="73"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
@@ -4899,7 +4899,7 @@
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
     </row>
-    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>563</v>
       </c>
@@ -4915,7 +4915,7 @@
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
     </row>
-    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>99</v>
       </c>
@@ -4931,7 +4931,7 @@
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
     </row>
-    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K34" s="13" t="s">
         <v>102</v>
       </c>
@@ -4942,11 +4942,11 @@
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
     </row>
-    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="79" t="s">
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="72"/>
+      <c r="B35" s="73"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
@@ -4955,7 +4955,7 @@
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
     </row>
-    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>564</v>
       </c>
@@ -4971,7 +4971,7 @@
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
     </row>
-    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>565</v>
       </c>
@@ -4987,7 +4987,7 @@
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
     </row>
-    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
@@ -4996,7 +4996,7 @@
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
     </row>
-    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>566</v>
       </c>
@@ -5005,7 +5005,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
-      <c r="K39" s="80" t="s">
+      <c r="K39" s="74" t="s">
         <v>108</v>
       </c>
       <c r="L39" s="68"/>
@@ -5015,7 +5015,7 @@
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
     </row>
-    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>567</v>
       </c>
@@ -5034,7 +5034,7 @@
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
     </row>
-    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>568</v>
       </c>
@@ -5051,7 +5051,7 @@
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
     </row>
-    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>569</v>
       </c>
@@ -5070,7 +5070,7 @@
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
     </row>
-    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>111</v>
       </c>
@@ -5089,11 +5089,11 @@
       <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
     </row>
-    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="73" t="s">
+    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="B45" s="72"/>
+      <c r="B45" s="73"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
@@ -5102,7 +5102,7 @@
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
     </row>
-    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>114</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>570</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -5152,7 +5152,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
         <v>119</v>
       </c>
@@ -5169,7 +5169,7 @@
       <c r="L49" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="M49" s="76" t="s">
+      <c r="M49" s="84" t="s">
         <v>122</v>
       </c>
       <c r="N49" s="68"/>
@@ -5185,7 +5185,7 @@
       <c r="Z49" s="11"/>
       <c r="AA49" s="11"/>
     </row>
-    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="27" t="s">
         <v>124</v>
       </c>
@@ -5207,7 +5207,7 @@
       <c r="Z50" s="11"/>
       <c r="AA50" s="11"/>
     </row>
-    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="27" t="s">
         <v>126</v>
       </c>
@@ -5234,7 +5234,7 @@
       <c r="Z51" s="11"/>
       <c r="AA51" s="11"/>
     </row>
-    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="27"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -5253,7 +5253,7 @@
       <c r="Z52" s="11"/>
       <c r="AA52" s="11"/>
     </row>
-    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="27" t="s">
         <v>129</v>
       </c>
@@ -5276,7 +5276,7 @@
       <c r="Z53" s="11"/>
       <c r="AA53" s="11"/>
     </row>
-    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="27" t="s">
         <v>131</v>
       </c>
@@ -5299,7 +5299,7 @@
       <c r="Z54" s="11"/>
       <c r="AA54" s="11"/>
     </row>
-    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
       <c r="Q55" s="10"/>
@@ -5311,7 +5311,7 @@
       <c r="Z55" s="11"/>
       <c r="AA55" s="11"/>
     </row>
-    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
       <c r="Q56" s="10"/>
@@ -5323,19 +5323,19 @@
       <c r="Z56" s="11"/>
       <c r="AA56" s="11"/>
     </row>
-    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="82" t="s">
+    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="B57" s="72"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="72"/>
-      <c r="G57" s="77" t="s">
+      <c r="B57" s="73"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="73"/>
+      <c r="G57" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="H57" s="72"/>
-      <c r="I57" s="72"/>
-      <c r="J57" s="72"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="73"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
       <c r="U57" s="5"/>
@@ -5345,7 +5345,7 @@
       <c r="Z57" s="11"/>
       <c r="AA57" s="11"/>
     </row>
-    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
         <v>135</v>
       </c>
@@ -5377,7 +5377,7 @@
       <c r="Z58" s="11"/>
       <c r="AA58" s="11"/>
     </row>
-    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="33" t="s">
         <v>138</v>
       </c>
@@ -5409,7 +5409,7 @@
       <c r="Z59" s="11"/>
       <c r="AA59" s="11"/>
     </row>
-    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="32"/>
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
@@ -5439,7 +5439,7 @@
       <c r="Z60" s="11"/>
       <c r="AA60" s="11"/>
     </row>
-    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="22" t="s">
         <v>142</v>
       </c>
@@ -5469,7 +5469,7 @@
       <c r="Z61" s="11"/>
       <c r="AA61" s="11"/>
     </row>
-    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="33" t="s">
         <v>143</v>
       </c>
@@ -5483,14 +5483,14 @@
       <c r="I62" s="15"/>
       <c r="J62" s="15"/>
       <c r="K62" s="15"/>
-      <c r="L62" s="78" t="s">
+      <c r="L62" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="M62" s="72"/>
-      <c r="N62" s="72"/>
-      <c r="O62" s="72"/>
-      <c r="P62" s="72"/>
-      <c r="Q62" s="72"/>
+      <c r="M62" s="73"/>
+      <c r="N62" s="73"/>
+      <c r="O62" s="73"/>
+      <c r="P62" s="73"/>
+      <c r="Q62" s="73"/>
       <c r="R62" s="10"/>
       <c r="U62" s="5"/>
       <c r="W62" s="11"/>
@@ -5499,7 +5499,7 @@
       <c r="Z62" s="11"/>
       <c r="AA62" s="11"/>
     </row>
-    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="33" t="s">
         <v>145</v>
       </c>
@@ -5533,7 +5533,7 @@
       <c r="Z63" s="11"/>
       <c r="AA63" s="11"/>
     </row>
-    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="32"/>
       <c r="B64" s="32"/>
       <c r="C64" s="32"/>
@@ -5567,7 +5567,7 @@
       <c r="Z64" s="11"/>
       <c r="AA64" s="11"/>
     </row>
-    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="32"/>
       <c r="B65" s="36" t="s">
         <v>154</v>
@@ -5601,7 +5601,7 @@
       <c r="Z65" s="11"/>
       <c r="AA65" s="11"/>
     </row>
-    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="32"/>
       <c r="B66" s="37" t="s">
         <v>159</v>
@@ -5637,7 +5637,7 @@
       <c r="Z66" s="11"/>
       <c r="AA66" s="11"/>
     </row>
-    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="32"/>
       <c r="B67" s="33" t="s">
         <v>164</v>
@@ -5669,7 +5669,7 @@
       <c r="Z67" s="11"/>
       <c r="AA67" s="11"/>
     </row>
-    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="32"/>
       <c r="B68" s="33"/>
       <c r="C68" s="32"/>
@@ -5703,7 +5703,7 @@
       <c r="Z68" s="11"/>
       <c r="AA68" s="11"/>
     </row>
-    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="32"/>
       <c r="B69" s="37" t="s">
         <v>172</v>
@@ -5737,7 +5737,7 @@
       <c r="Z69" s="11"/>
       <c r="AA69" s="11"/>
     </row>
-    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="32"/>
       <c r="B70" s="33" t="s">
         <v>177</v>
@@ -5767,7 +5767,7 @@
       <c r="Z70" s="11"/>
       <c r="AA70" s="11"/>
     </row>
-    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="32"/>
       <c r="B71" s="33"/>
       <c r="C71" s="32"/>
@@ -5797,7 +5797,7 @@
       <c r="Z71" s="11"/>
       <c r="AA71" s="11"/>
     </row>
-    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="32"/>
       <c r="B72" s="37" t="s">
         <v>180</v>
@@ -5831,7 +5831,7 @@
       <c r="Z72" s="11"/>
       <c r="AA72" s="11"/>
     </row>
-    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="32"/>
       <c r="B73" s="33" t="s">
         <v>184</v>
@@ -5861,7 +5861,7 @@
       <c r="Z73" s="11"/>
       <c r="AA73" s="11"/>
     </row>
-    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="33"/>
       <c r="B74" s="32"/>
       <c r="C74" s="32"/>
@@ -5892,7 +5892,7 @@
       <c r="Z74" s="11"/>
       <c r="AA74" s="11"/>
     </row>
-    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="37" t="s">
         <v>75</v>
       </c>
@@ -5925,7 +5925,7 @@
       <c r="Z75" s="11"/>
       <c r="AA75" s="11"/>
     </row>
-    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="37" t="s">
         <v>192</v>
       </c>
@@ -5958,7 +5958,7 @@
       <c r="Z76" s="11"/>
       <c r="AA76" s="11"/>
     </row>
-    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="33"/>
       <c r="B77" s="32"/>
       <c r="C77" s="32"/>
@@ -5985,7 +5985,7 @@
       <c r="Z77" s="11"/>
       <c r="AA77" s="11"/>
     </row>
-    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
@@ -6008,7 +6008,7 @@
       <c r="Z78" s="11"/>
       <c r="AA78" s="11"/>
     </row>
-    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
@@ -6031,7 +6031,7 @@
       <c r="Z79" s="11"/>
       <c r="AA79" s="11"/>
     </row>
-    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L80" s="15"/>
       <c r="M80" s="15" t="s">
         <v>199</v>
@@ -6048,7 +6048,7 @@
       <c r="Z80" s="11"/>
       <c r="AA80" s="11"/>
     </row>
-    <row r="81" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L81" s="15"/>
       <c r="M81" s="15" t="s">
         <v>200</v>
@@ -6065,7 +6065,7 @@
       <c r="Z81" s="11"/>
       <c r="AA81" s="11"/>
     </row>
-    <row r="82" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L82" s="15"/>
       <c r="M82" s="15"/>
       <c r="N82" s="15"/>
@@ -6080,7 +6080,7 @@
       <c r="Z82" s="11"/>
       <c r="AA82" s="11"/>
     </row>
-    <row r="83" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L83" s="8"/>
       <c r="M83" s="9" t="s">
         <v>201</v>
@@ -6097,7 +6097,7 @@
       <c r="Z83" s="11"/>
       <c r="AA83" s="11"/>
     </row>
-    <row r="84" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L84" s="8"/>
       <c r="M84" s="22" t="s">
         <v>202</v>
@@ -6114,7 +6114,7 @@
       <c r="Z84" s="11"/>
       <c r="AA84" s="11"/>
     </row>
-    <row r="85" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L85" s="8"/>
       <c r="M85" s="9" t="s">
         <v>203</v>
@@ -6131,7 +6131,7 @@
       <c r="Z85" s="11"/>
       <c r="AA85" s="11"/>
     </row>
-    <row r="86" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L86" s="8"/>
       <c r="M86" s="22" t="s">
         <v>204</v>
@@ -6147,7 +6147,7 @@
       <c r="Z86" s="11"/>
       <c r="AA86" s="11"/>
     </row>
-    <row r="87" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L87" s="8"/>
       <c r="M87" s="9" t="s">
         <v>205</v>
@@ -6163,7 +6163,7 @@
       <c r="Z87" s="11"/>
       <c r="AA87" s="11"/>
     </row>
-    <row r="88" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L88" s="15"/>
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
@@ -6177,7 +6177,7 @@
       <c r="Z88" s="11"/>
       <c r="AA88" s="11"/>
     </row>
-    <row r="89" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L89" s="35" t="s">
         <v>206</v>
       </c>
@@ -6195,7 +6195,7 @@
       <c r="Z89" s="11"/>
       <c r="AA89" s="11"/>
     </row>
-    <row r="90" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L90" s="35" t="s">
         <v>208</v>
       </c>
@@ -6213,7 +6213,7 @@
       <c r="Z90" s="11"/>
       <c r="AA90" s="11"/>
     </row>
-    <row r="91" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L91" s="35" t="s">
         <v>210</v>
       </c>
@@ -6232,7 +6232,7 @@
       <c r="Z91" s="11"/>
       <c r="AA91" s="11"/>
     </row>
-    <row r="92" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R92" s="10"/>
       <c r="U92" s="5"/>
       <c r="W92" s="11"/>
@@ -6241,7 +6241,7 @@
       <c r="Z92" s="11"/>
       <c r="AA92" s="11"/>
     </row>
-    <row r="93" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R93" s="10"/>
       <c r="U93" s="5"/>
       <c r="W93" s="11"/>
@@ -6250,7 +6250,7 @@
       <c r="Z93" s="11"/>
       <c r="AA93" s="11"/>
     </row>
-    <row r="94" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R94" s="10"/>
       <c r="U94" s="5"/>
       <c r="W94" s="11"/>
@@ -6259,7 +6259,7 @@
       <c r="Z94" s="11"/>
       <c r="AA94" s="11"/>
     </row>
-    <row r="95" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R95" s="10"/>
       <c r="U95" s="5"/>
       <c r="W95" s="11"/>
@@ -6268,7 +6268,7 @@
       <c r="Z95" s="11"/>
       <c r="AA95" s="11"/>
     </row>
-    <row r="96" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R96" s="10"/>
       <c r="U96" s="5"/>
       <c r="W96" s="11"/>
@@ -6277,11 +6277,11 @@
       <c r="Z96" s="11"/>
       <c r="AA96" s="11"/>
     </row>
-    <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="83" t="s">
+    <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="B97" s="72"/>
+      <c r="B97" s="73"/>
       <c r="L97" s="11"/>
       <c r="M97" s="11"/>
       <c r="N97" s="11"/>
@@ -6296,7 +6296,7 @@
       <c r="Z97" s="11"/>
       <c r="AA97" s="11"/>
     </row>
-    <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="40" t="s">
         <v>213</v>
       </c>
@@ -6324,7 +6324,7 @@
       <c r="Z98" s="11"/>
       <c r="AA98" s="11"/>
     </row>
-    <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>215</v>
       </c>
@@ -6350,7 +6350,7 @@
       <c r="Z99" s="11"/>
       <c r="AA99" s="11"/>
     </row>
-    <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
@@ -6371,7 +6371,7 @@
       <c r="Z100" s="11"/>
       <c r="AA100" s="11"/>
     </row>
-    <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="22" t="s">
         <v>217</v>
       </c>
@@ -6403,7 +6403,7 @@
       <c r="Z101" s="11"/>
       <c r="AA101" s="11"/>
     </row>
-    <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>221</v>
       </c>
@@ -6434,7 +6434,7 @@
       <c r="Z102" s="11"/>
       <c r="AA102" s="11"/>
     </row>
-    <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="22" t="s">
         <v>225</v>
       </c>
@@ -6466,7 +6466,7 @@
       <c r="Z103" s="11"/>
       <c r="AA103" s="11"/>
     </row>
-    <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>229</v>
       </c>
@@ -6498,7 +6498,7 @@
       <c r="Z104" s="11"/>
       <c r="AA104" s="11"/>
     </row>
-    <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="22" t="s">
         <v>233</v>
       </c>
@@ -6531,7 +6531,7 @@
       <c r="Z105" s="11"/>
       <c r="AA105" s="11"/>
     </row>
-    <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
       <c r="E106" s="43" t="s">
         <v>237</v>
@@ -6558,7 +6558,7 @@
       <c r="Z106" s="11"/>
       <c r="AA106" s="11"/>
     </row>
-    <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
@@ -6579,7 +6579,7 @@
       <c r="Z107" s="11"/>
       <c r="AA107" s="11"/>
     </row>
-    <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="40" t="s">
         <v>239</v>
       </c>
@@ -6605,7 +6605,7 @@
       <c r="Z108" s="11"/>
       <c r="AA108" s="11"/>
     </row>
-    <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>241</v>
       </c>
@@ -6623,7 +6623,7 @@
       <c r="Z109" s="11"/>
       <c r="AA109" s="11"/>
     </row>
-    <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
       <c r="G110" s="22" t="s">
         <v>242</v>
@@ -6648,7 +6648,7 @@
       <c r="Z110" s="11"/>
       <c r="AA110" s="11"/>
     </row>
-    <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="22" t="s">
         <v>244</v>
       </c>
@@ -6681,7 +6681,7 @@
       <c r="Z111" s="11"/>
       <c r="AA111" s="11"/>
     </row>
-    <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>248</v>
       </c>
@@ -6691,7 +6691,7 @@
       <c r="G112" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="H112" s="84" t="s">
+      <c r="H112" s="71" t="s">
         <v>251</v>
       </c>
       <c r="I112" s="68"/>
@@ -6711,7 +6711,7 @@
       <c r="Z112" s="11"/>
       <c r="AA112" s="11"/>
     </row>
-    <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="22" t="s">
         <v>252</v>
       </c>
@@ -6742,7 +6742,7 @@
       <c r="Z113" s="11"/>
       <c r="AA113" s="11"/>
     </row>
-    <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>255</v>
       </c>
@@ -6768,7 +6768,7 @@
       <c r="Z114" s="11"/>
       <c r="AA114" s="11"/>
     </row>
-    <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="22" t="s">
         <v>257</v>
       </c>
@@ -6799,7 +6799,7 @@
       <c r="Z115" s="11"/>
       <c r="AA115" s="11"/>
     </row>
-    <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>260</v>
       </c>
@@ -6827,7 +6827,7 @@
       <c r="Z116" s="11"/>
       <c r="AA116" s="11"/>
     </row>
-    <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="31"/>
       <c r="G117" s="11"/>
       <c r="H117" s="11"/>
@@ -6848,7 +6848,7 @@
       <c r="Z117" s="11"/>
       <c r="AA117" s="11"/>
     </row>
-    <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="22" t="s">
         <v>263</v>
       </c>
@@ -6881,7 +6881,7 @@
       <c r="Z118" s="11"/>
       <c r="AA118" s="11"/>
     </row>
-    <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>267</v>
       </c>
@@ -6911,7 +6911,7 @@
       <c r="Z119" s="11"/>
       <c r="AA119" s="11"/>
     </row>
-    <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4"/>
       <c r="G120" s="22" t="s">
         <v>271</v>
@@ -6936,7 +6936,7 @@
       <c r="Z120" s="11"/>
       <c r="AA120" s="11"/>
     </row>
-    <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="22" t="s">
         <v>273</v>
       </c>
@@ -6965,7 +6965,7 @@
       <c r="Z121" s="11"/>
       <c r="AA121" s="11"/>
     </row>
-    <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>275</v>
       </c>
@@ -6991,7 +6991,7 @@
       <c r="Z122" s="11"/>
       <c r="AA122" s="11"/>
     </row>
-    <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="G123" s="40" t="s">
         <v>277</v>
@@ -7014,7 +7014,7 @@
       <c r="Z123" s="11"/>
       <c r="AA123" s="11"/>
     </row>
-    <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="40" t="s">
         <v>278</v>
       </c>
@@ -7040,7 +7040,7 @@
       <c r="Z124" s="11"/>
       <c r="AA124" s="11"/>
     </row>
-    <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="G125" s="11"/>
       <c r="H125" s="11"/>
@@ -7061,7 +7061,7 @@
       <c r="Z125" s="11"/>
       <c r="AA125" s="11"/>
     </row>
-    <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="22" t="s">
         <v>273</v>
       </c>
@@ -7093,7 +7093,7 @@
       <c r="Z126" s="11"/>
       <c r="AA126" s="11"/>
     </row>
-    <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>283</v>
       </c>
@@ -7123,7 +7123,7 @@
       <c r="Z127" s="11"/>
       <c r="AA127" s="11"/>
     </row>
-    <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="22" t="s">
         <v>287</v>
       </c>
@@ -7151,7 +7151,7 @@
       <c r="Z128" s="11"/>
       <c r="AA128" s="11"/>
     </row>
-    <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
@@ -7172,7 +7172,7 @@
       <c r="Z129" s="11"/>
       <c r="AA129" s="11"/>
     </row>
-    <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
@@ -7193,7 +7193,7 @@
       <c r="Z130" s="11"/>
       <c r="AA130" s="11"/>
     </row>
-    <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="40" t="s">
         <v>289</v>
       </c>
@@ -7217,7 +7217,7 @@
       <c r="Z131" s="11"/>
       <c r="AA131" s="11"/>
     </row>
-    <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
@@ -7238,7 +7238,7 @@
       <c r="Z132" s="11"/>
       <c r="AA132" s="11"/>
     </row>
-    <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="22" t="s">
         <v>290</v>
       </c>
@@ -7267,7 +7267,7 @@
       <c r="Z133" s="11"/>
       <c r="AA133" s="11"/>
     </row>
-    <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>292</v>
       </c>
@@ -7293,7 +7293,7 @@
       <c r="Z134" s="11"/>
       <c r="AA134" s="11"/>
     </row>
-    <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="22" t="s">
         <v>294</v>
       </c>
@@ -7322,7 +7322,7 @@
       <c r="Z135" s="11"/>
       <c r="AA135" s="11"/>
     </row>
-    <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>296</v>
       </c>
@@ -7348,7 +7348,7 @@
       <c r="Z136" s="11"/>
       <c r="AA136" s="11"/>
     </row>
-    <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="22" t="s">
         <v>298</v>
       </c>
@@ -7377,7 +7377,7 @@
       <c r="Z137" s="11"/>
       <c r="AA137" s="11"/>
     </row>
-    <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>300</v>
       </c>
@@ -7403,7 +7403,7 @@
       <c r="Z138" s="11"/>
       <c r="AA138" s="11"/>
     </row>
-    <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="22" t="s">
         <v>302</v>
       </c>
@@ -7432,7 +7432,7 @@
       <c r="Z139" s="11"/>
       <c r="AA139" s="11"/>
     </row>
-    <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="G140" s="11"/>
       <c r="H140" s="11"/>
@@ -7453,7 +7453,7 @@
       <c r="Z140" s="11"/>
       <c r="AA140" s="11"/>
     </row>
-    <row r="141" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
@@ -7474,7 +7474,7 @@
       <c r="Z141" s="11"/>
       <c r="AA141" s="11"/>
     </row>
-    <row r="142" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="G142" s="11"/>
       <c r="H142" s="11"/>
@@ -7495,11 +7495,11 @@
       <c r="Z142" s="11"/>
       <c r="AA142" s="11"/>
     </row>
-    <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="85" t="s">
+    <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="72" t="s">
         <v>304</v>
       </c>
-      <c r="B143" s="72"/>
+      <c r="B143" s="73"/>
       <c r="G143" s="11"/>
       <c r="H143" s="11"/>
       <c r="I143" s="11"/>
@@ -7519,7 +7519,7 @@
       <c r="Z143" s="11"/>
       <c r="AA143" s="11"/>
     </row>
-    <row r="144" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G144" s="11"/>
       <c r="H144" s="11"/>
       <c r="I144" s="11"/>
@@ -7539,8 +7539,8 @@
       <c r="Z144" s="11"/>
       <c r="AA144" s="11"/>
     </row>
-    <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="80" t="s">
+    <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="74" t="s">
         <v>305</v>
       </c>
       <c r="B145" s="68"/>
@@ -7567,8 +7567,8 @@
       <c r="Z145" s="11"/>
       <c r="AA145" s="11"/>
     </row>
-    <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="80" t="s">
+    <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="74" t="s">
         <v>309</v>
       </c>
       <c r="B146" s="68"/>
@@ -7592,7 +7592,7 @@
       <c r="Z146" s="11"/>
       <c r="AA146" s="11"/>
     </row>
-    <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
       <c r="I147" s="11"/>
@@ -7609,7 +7609,7 @@
       <c r="Z147" s="11"/>
       <c r="AA147" s="11"/>
     </row>
-    <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="18" t="s">
         <v>313</v>
       </c>
@@ -7639,7 +7639,7 @@
       <c r="Z148" s="11"/>
       <c r="AA148" s="11"/>
     </row>
-    <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>317</v>
       </c>
@@ -7656,7 +7656,7 @@
       </c>
       <c r="Q149" s="11"/>
     </row>
-    <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>320</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>323</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G152" s="11"/>
       <c r="M152" s="5" t="s">
         <v>326</v>
@@ -7689,29 +7689,29 @@
         <v>327</v>
       </c>
     </row>
-    <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>328</v>
       </c>
       <c r="G153" s="11"/>
     </row>
-    <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>329</v>
       </c>
       <c r="G154" s="11"/>
     </row>
-    <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G155" s="11"/>
     </row>
-    <row r="156" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>330</v>
       </c>
       <c r="G156" s="11"/>
     </row>
-    <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="86" t="s">
+    <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="75" t="s">
         <v>331</v>
       </c>
       <c r="B157" s="68"/>
@@ -7721,7 +7721,7 @@
       <c r="F157" s="68"/>
       <c r="G157" s="11"/>
     </row>
-    <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="68"/>
       <c r="B158" s="68"/>
       <c r="C158" s="68"/>
@@ -7730,10 +7730,10 @@
       <c r="F158" s="68"/>
       <c r="G158" s="11"/>
     </row>
-    <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G159" s="11"/>
     </row>
-    <row r="160" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="27" t="s">
         <v>332</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>334</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G162" s="11"/>
       <c r="M162" s="5" t="s">
         <v>337</v>
@@ -7767,8 +7767,8 @@
         <v>338</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="80" t="s">
+    <row r="163" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="74" t="s">
         <v>339</v>
       </c>
       <c r="B163" s="68"/>
@@ -7780,7 +7780,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>342</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>344</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>346</v>
       </c>
@@ -7810,13 +7810,13 @@
         <v>348</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>349</v>
       </c>
       <c r="G167" s="11"/>
     </row>
-    <row r="168" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G168" s="11"/>
       <c r="L168" s="9" t="s">
         <v>576</v>
@@ -7829,10 +7829,10 @@
         <v>351</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G169" s="11"/>
     </row>
-    <row r="170" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -7841,7 +7841,7 @@
       <c r="F170" s="11"/>
       <c r="G170" s="11"/>
     </row>
-    <row r="171" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -7850,7 +7850,7 @@
       <c r="F171" s="11"/>
       <c r="G171" s="11"/>
     </row>
-    <row r="172" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="45" t="s">
         <v>352</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
         <v>577</v>
       </c>
@@ -7879,7 +7879,7 @@
       </c>
       <c r="M173" s="8"/>
     </row>
-    <row r="174" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -7891,7 +7891,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="22" t="s">
         <v>356</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="10" t="s">
         <v>358</v>
       </c>
@@ -7916,7 +7916,7 @@
       <c r="F176" s="11"/>
       <c r="G176" s="11"/>
     </row>
-    <row r="177" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
         <v>578</v>
       </c>
@@ -7927,20 +7927,20 @@
       <c r="F177" s="11"/>
       <c r="G177" s="11"/>
     </row>
-    <row r="178" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="10"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
       <c r="E178" s="11"/>
-      <c r="F178" s="81"/>
+      <c r="F178" s="76"/>
       <c r="G178" s="68"/>
       <c r="L178" s="22" t="s">
         <v>359</v>
       </c>
       <c r="M178" s="9"/>
     </row>
-    <row r="179" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="25" t="s">
         <v>360</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="25" t="s">
         <v>579</v>
       </c>
@@ -7969,7 +7969,7 @@
       <c r="F180" s="11"/>
       <c r="G180" s="11"/>
     </row>
-    <row r="181" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>580</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>581</v>
       </c>
@@ -7985,42 +7985,42 @@
         <v>365</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="22" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>373</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>375</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>377</v>
       </c>
@@ -8044,43 +8044,43 @@
         <v>378</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="22" t="s">
         <v>382</v>
       </c>
       <c r="B208" s="8"/>
     </row>
-    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
         <v>584</v>
       </c>
@@ -8088,12 +8088,12 @@
         <v>384</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>586</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>386</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>388</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>390</v>
       </c>
@@ -8125,12 +8125,12 @@
         <v>391</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="48" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="22" t="s">
         <v>393</v>
       </c>
@@ -8139,12 +8139,12 @@
         <v>394</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="44" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
         <v>340</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="22" t="s">
         <v>397</v>
       </c>
@@ -8161,17 +8161,17 @@
         <v>398</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="44" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="22" t="s">
         <v>192</v>
       </c>
@@ -8179,12 +8179,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="44" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="22" t="s">
         <v>84</v>
       </c>
@@ -8192,35 +8192,34 @@
         <v>403</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="44" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="19" t="s">
         <v>405</v>
       </c>
       <c r="B251" s="20"/>
     </row>
-    <row r="254" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
         <v>587</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="H112:I113"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A157:F158"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="F178:G179"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="G57:J57"/>
     <mergeCell ref="L62:Q62"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:G25"/>
@@ -8229,16 +8228,17 @@
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="K39:L39"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="F178:G179"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="H112:I113"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A157:F158"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8253,15 +8253,15 @@
   <dimension ref="A3:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="12.5703125" style="3"/>
+    <col min="1" max="16384" width="12.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>406</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>408</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>410</v>
       </c>
@@ -8285,26 +8285,26 @@
         <v>411</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>412</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>414</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>415</v>
       </c>
@@ -8321,22 +8321,22 @@
   </sheetPr>
   <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="12.5703125" style="3"/>
+    <col min="1" max="16384" width="12.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="51" t="s">
         <v>416</v>
       </c>
       <c r="B1" s="52"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="53" t="s">
         <v>417</v>
       </c>
@@ -8346,7 +8346,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>413</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>419</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>421</v>
       </c>
@@ -8378,22 +8378,22 @@
         <v>422</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="53" t="s">
         <v>423</v>
       </c>
       <c r="B7" s="54"/>
       <c r="C7" s="55"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="53" t="s">
         <v>425</v>
       </c>
@@ -8405,7 +8405,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>426</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="53" t="s">
         <v>428</v>
       </c>
@@ -8434,7 +8434,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>429</v>
       </c>
@@ -8451,7 +8451,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -8464,7 +8464,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>431</v>
       </c>
@@ -8485,7 +8485,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>435</v>
       </c>
@@ -8496,7 +8496,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -8505,7 +8505,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>436</v>
       </c>
@@ -8516,7 +8516,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>437</v>
@@ -8529,7 +8529,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="4" t="s">
         <v>439</v>
@@ -8542,7 +8542,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="4" t="s">
         <v>441</v>
@@ -8555,7 +8555,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -8564,7 +8564,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -8573,7 +8573,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="53" t="s">
         <v>443</v>
       </c>
@@ -8584,7 +8584,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>444</v>
       </c>
@@ -8597,7 +8597,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -8606,7 +8606,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>446</v>
       </c>
@@ -8619,7 +8619,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>448</v>
       </c>
@@ -8632,7 +8632,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="56" t="s">
         <v>450</v>
       </c>
@@ -8650,7 +8650,7 @@
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="53" t="s">
         <v>451</v>
       </c>
@@ -8668,7 +8668,7 @@
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>452</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>454</v>
       </c>
@@ -8708,7 +8708,7 @@
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -8724,7 +8724,7 @@
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>456</v>
       </c>
@@ -8744,7 +8744,7 @@
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="4" t="s">
         <v>458</v>
@@ -8762,7 +8762,7 @@
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="4" t="s">
         <v>459</v>
@@ -8780,7 +8780,7 @@
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="4" t="s">
         <v>460</v>
@@ -8798,7 +8798,7 @@
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="4" t="s">
         <v>461</v>
@@ -8816,7 +8816,7 @@
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="4" t="s">
         <v>462</v>
@@ -8834,7 +8834,7 @@
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="49" t="s">
@@ -8852,7 +8852,7 @@
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -8868,7 +8868,7 @@
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>464</v>
       </c>
@@ -8888,7 +8888,7 @@
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>466</v>
       </c>
@@ -8910,7 +8910,7 @@
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -8926,7 +8926,7 @@
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>469</v>
       </c>
@@ -8948,7 +8948,7 @@
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>472</v>
       </c>
@@ -8968,7 +8968,7 @@
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -8986,7 +8986,7 @@
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -9004,7 +9004,7 @@
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -9022,7 +9022,7 @@
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -9040,7 +9040,7 @@
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -9057,7 +9057,7 @@
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>479</v>
       </c>
@@ -9077,7 +9077,7 @@
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>481</v>
       </c>
@@ -9097,7 +9097,7 @@
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -9113,7 +9113,7 @@
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>483</v>
       </c>
@@ -9133,7 +9133,7 @@
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -9149,7 +9149,7 @@
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
     </row>
-    <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>485</v>
       </c>
@@ -9169,7 +9169,7 @@
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
     </row>
-    <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>588</v>
       </c>
@@ -9187,7 +9187,7 @@
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
     </row>
-    <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -9203,7 +9203,7 @@
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
     </row>
-    <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>487</v>
       </c>
@@ -9223,7 +9223,7 @@
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
     </row>
-    <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -9239,7 +9239,7 @@
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
     </row>
-    <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -9255,7 +9255,7 @@
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
     </row>
-    <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -9271,7 +9271,7 @@
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
     </row>
-    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="53" t="s">
         <v>489</v>
       </c>
@@ -9289,7 +9289,7 @@
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
     </row>
-    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>490</v>
       </c>
@@ -9309,7 +9309,7 @@
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
     </row>
-    <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -9325,7 +9325,7 @@
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
     </row>
-    <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>456</v>
       </c>
@@ -9345,7 +9345,7 @@
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
     </row>
-    <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="4" t="s">
         <v>493</v>
@@ -9363,7 +9363,7 @@
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
     </row>
-    <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="49" t="s">
@@ -9381,7 +9381,7 @@
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
     </row>
-    <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -9397,7 +9397,7 @@
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
     </row>
-    <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -9413,7 +9413,7 @@
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
     </row>
-    <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>494</v>
       </c>
@@ -9433,7 +9433,7 @@
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
     </row>
-    <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -9449,7 +9449,7 @@
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
     </row>
-    <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>496</v>
       </c>
@@ -9469,7 +9469,7 @@
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
     </row>
-    <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>498</v>
       </c>
@@ -9487,13 +9487,13 @@
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
     </row>
-    <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="56" t="s">
         <v>499</v>
       </c>
       <c r="B92" s="57"/>
     </row>
-    <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>500</v>
       </c>
@@ -9508,7 +9508,7 @@
       </c>
       <c r="I94" s="5"/>
     </row>
-    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -9519,7 +9519,7 @@
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
     </row>
-    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -9530,7 +9530,7 @@
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="58" t="s">
         <v>502</v>
       </c>
@@ -9543,7 +9543,7 @@
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>503</v>
       </c>
@@ -9558,7 +9558,7 @@
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
     </row>
-    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>505</v>
       </c>
@@ -9571,7 +9571,7 @@
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -9582,7 +9582,7 @@
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>506</v>
       </c>
@@ -9595,7 +9595,7 @@
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
     </row>
-    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>507</v>
       </c>
@@ -9608,7 +9608,7 @@
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
     </row>
-    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="56" t="s">
         <v>508</v>
       </c>
@@ -9617,12 +9617,12 @@
       <c r="D105" s="57"/>
       <c r="E105" s="57"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>510</v>
       </c>
@@ -9646,12 +9646,12 @@
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="12.5703125" style="3"/>
+    <col min="1" max="16384" width="12.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="88"/>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -9666,7 +9666,7 @@
       <c r="L1" s="68"/>
       <c r="M1" s="68"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="68"/>
       <c r="B2" s="68"/>
       <c r="C2" s="68"/>
@@ -9681,7 +9681,7 @@
       <c r="L2" s="68"/>
       <c r="M2" s="68"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="68"/>
       <c r="B3" s="68"/>
       <c r="C3" s="68"/>
@@ -9696,17 +9696,17 @@
       <c r="L3" s="68"/>
       <c r="M3" s="68"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>513</v>
       </c>
@@ -9718,7 +9718,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>516</v>
       </c>
@@ -9734,7 +9734,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>519</v>
       </c>
@@ -9745,39 +9745,39 @@
         <v>521</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" s="9" t="s">
         <v>522</v>
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="4" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>524</v>
       </c>
       <c r="B16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>592</v>
       </c>
@@ -9788,12 +9788,12 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>594</v>
       </c>
@@ -9810,7 +9810,7 @@
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="60" t="s">
         <v>525</v>
       </c>
@@ -9824,7 +9824,7 @@
       </c>
       <c r="F27" s="62"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="63" t="s">
         <v>528</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="63" t="s">
         <v>531</v>
       </c>
@@ -9850,7 +9850,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="63" t="s">
         <v>534</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="63" t="s">
         <v>537</v>
       </c>
@@ -9876,7 +9876,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="63" t="s">
         <v>540</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="63" t="s">
         <v>543</v>
       </c>

--- a/MS_PowerShell.xlsx
+++ b/MS_PowerShell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\personalNotes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c26969d82fe7094/Dokumenty/Personal/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741F57A5-2D69-490B-BBEF-7F93FBD128F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{741F57A5-2D69-490B-BBEF-7F93FBD128F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDA7CC5E-1262-4453-A38A-FE83EA827E56}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="16020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cmd" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="606">
   <si>
     <t>Síť</t>
   </si>
@@ -159,9 +159,6 @@
     <t>Get-EventLog Application -computer (Get-Content names.txt)</t>
   </si>
   <si>
-    <t>specifikujeme hledaný příkaz</t>
-  </si>
-  <si>
     <t>ukáže nám příklady použití příkazu get-command</t>
   </si>
   <si>
@@ -376,9 +373,6 @@
   </si>
   <si>
     <t>"automatická proměnná"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - používá se převážně v pipelines, znamená každý object</t>
   </si>
   <si>
     <t>%</t>
@@ -1769,32 +1763,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Get-Help </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>-Name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> Format-Table</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">1. Nejdřív se spustí příkaz </t>
     </r>
     <r>
@@ -3254,13 +3222,81 @@
       </rPr>
       <t>, a pomáhá tak při hledání běžných příkazů:</t>
     </r>
+  </si>
+  <si>
+    <t>otevře okno s nápovědou, ve které můžeme vyhledávát a filtrovat</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Get-Help Get-Service </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>-ShowWindow</t>
+    </r>
+  </si>
+  <si>
+    <t>[] znamená, že typ může nabrat více hodnot oddělené čárkou</t>
+  </si>
+  <si>
+    <t>bez [] znamená, že typ může nabrat pouze jedné hodnoty</t>
+  </si>
+  <si>
+    <t>Data types</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>[] znamená, že parametr je dobrovolný, není povinný</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Get-Help Get-Service </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>-Detailed</t>
+    </r>
+  </si>
+  <si>
+    <t>dokumentace detailněji</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - používá se převážně v pipelines, znamená aktuální objekt procházející přes pipeline</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>tečka</t>
+  </si>
+  <si>
+    <t>get-service | where {$_.status -eq "Running"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3406,6 +3442,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFA4C2F4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -3584,48 +3628,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+  <cellXfs count="79">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3633,24 +3667,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3664,24 +3697,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3691,9 +3725,9 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3706,8 +3740,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3716,7 +3750,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3776,7 +3810,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5753100" cy="2952750"/>
@@ -4055,39 +4089,39 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="12.5546875" style="3"/>
+    <col min="1" max="16384" width="12.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -4095,7 +4129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -4103,15 +4137,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -4119,17 +4153,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -4138,14 +4172,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -4153,14 +4187,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
@@ -4168,7 +4202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>20</v>
       </c>
@@ -4190,36 +4224,36 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="12.5546875" style="3"/>
+    <col min="1" max="16384" width="12.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -4232,8 +4266,8 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="8"/>
@@ -4245,8 +4279,8 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="8"/>
@@ -4258,7 +4292,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -4271,173 +4305,173 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="67" t="s">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="69" t="s">
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
-        <v>547</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="70" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="16" t="s">
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="17" t="s">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4461,3787 +4495,3827 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA254"/>
+  <dimension ref="A1:AA255"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I10:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="3"/>
-    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
-    <col min="3" max="13" width="12.5546875" style="3"/>
-    <col min="14" max="14" width="14.88671875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="3"/>
+    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
+    <col min="3" max="13" width="12.5703125" style="3"/>
+    <col min="14" max="14" width="14.85546875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="3" customWidth="1"/>
     <col min="16" max="16" width="14" style="3" customWidth="1"/>
-    <col min="17" max="17" width="15.109375" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="12.5546875" style="3"/>
+    <col min="17" max="17" width="15.140625" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="12.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="J1" s="18" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="J1" s="14" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="J2" s="22" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="J2" s="17" t="s">
         <v>43</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>599</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="J3" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="J4" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="J3" s="5" t="s">
+    </row>
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="J6" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="J4" s="5" t="s">
+      <c r="M6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="J9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="J10" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="U11" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="O12" s="54" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="J6" s="5" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="O13" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="J14" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>556</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="J7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="J9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="J10" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="U11" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="J15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" s="54" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-    </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="J16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="J17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="63"/>
+      <c r="U23" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="63"/>
+      <c r="C25" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="63"/>
+      <c r="E25" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" s="63"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="58"/>
+      <c r="C26" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="58"/>
+      <c r="E26" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" s="58"/>
+      <c r="U26" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="63"/>
+      <c r="D28" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="63"/>
+      <c r="K28" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="L28" s="63"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+      <c r="D29" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="J14" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+      <c r="K29" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="63"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="J15" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="J16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="J17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="73"/>
-      <c r="U22" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="83" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="I24" s="73"/>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="68"/>
-      <c r="C25" s="82" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="68"/>
-      <c r="E25" s="82" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="82" t="s">
-        <v>87</v>
-      </c>
-      <c r="I25" s="68"/>
-      <c r="U25" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="73"/>
-      <c r="D27" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="73"/>
-      <c r="K27" s="78" t="s">
-        <v>90</v>
-      </c>
-      <c r="L27" s="73"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="K33" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K35" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="63"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="K37" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+    </row>
+    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="K28" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-    </row>
-    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K30" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-    </row>
-    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="77" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="73"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-    </row>
-    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="K38" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+    </row>
+    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+    </row>
+    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
         <v>563</v>
-      </c>
-      <c r="K32" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-    </row>
-    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-    </row>
-    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K34" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-    </row>
-    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="73"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-    </row>
-    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="K36" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-    </row>
-    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-    </row>
-    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-    </row>
-    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="K39" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="L39" s="68"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-    </row>
-    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
-        <v>567</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
-      <c r="K40" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-    </row>
-    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
-        <v>568</v>
+      <c r="K40" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="L40" s="58"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+    </row>
+    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>564</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-    </row>
-    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>569</v>
+      <c r="K41" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+    </row>
+    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>565</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
-      <c r="K42" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-    </row>
-    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
-        <v>111</v>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+    </row>
+    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>566</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
-      <c r="K43" s="13" t="s">
+      <c r="K43" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+    </row>
+    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="K44" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+    </row>
+    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-    </row>
-    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="78" t="s">
+      <c r="B46" s="63"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+    </row>
+    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B45" s="73"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-    </row>
-    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="K47" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="K46" s="25" t="s">
+      <c r="L47" s="9"/>
+      <c r="N47" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="L46" s="11"/>
-      <c r="N46" s="5" t="s">
+    </row>
+    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="9"/>
+      <c r="N48" s="5" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="K49" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="L49" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="9"/>
+      <c r="L50" s="21" t="s">
+        <v>605</v>
+      </c>
+      <c r="R50" s="9"/>
+      <c r="U50" s="5"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="9"/>
+      <c r="AA50" s="9"/>
+    </row>
+    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="9"/>
+      <c r="K51" s="19" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
+      <c r="L51" s="9"/>
+      <c r="N51" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="R51" s="9"/>
+      <c r="U51" s="5"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+    </row>
+    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="9"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="M52" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="N52" s="58"/>
+      <c r="O52" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="P52" s="23"/>
+      <c r="R52" s="9"/>
+      <c r="U52" s="5"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="9"/>
+    </row>
+    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="20"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="K53" s="4"/>
+      <c r="R53" s="9"/>
+      <c r="U53" s="5"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
+      <c r="AA53" s="9"/>
+    </row>
+    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="K54" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="R54" s="9"/>
+      <c r="U54" s="5"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
+      <c r="AA54" s="9"/>
+    </row>
+    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="U55" s="5"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="9"/>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="9"/>
+      <c r="AA55" s="9"/>
+    </row>
+    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="U56" s="5"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9"/>
+      <c r="AA56" s="9"/>
+    </row>
+    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="U57" s="5"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="9"/>
+      <c r="AA57" s="9"/>
+    </row>
+    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="63"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="63"/>
+      <c r="G58" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="63"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="U58" s="5"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="9"/>
+      <c r="AA58" s="9"/>
+    </row>
+    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="H59" s="8"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="M59" s="8"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="9"/>
+      <c r="U59" s="5"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="9"/>
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="9"/>
+      <c r="AA59" s="9"/>
+    </row>
+    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="11"/>
-      <c r="N47" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="K48" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="L48" s="11"/>
-      <c r="N48" s="5" t="s">
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="9"/>
+      <c r="U60" s="5"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="9"/>
+      <c r="Y60" s="9"/>
+      <c r="Z60" s="9"/>
+      <c r="AA60" s="9"/>
+    </row>
+    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="9"/>
+      <c r="U61" s="5"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="9"/>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="9"/>
+      <c r="AA61" s="9"/>
+    </row>
+    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="12" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="11"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="M49" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="N49" s="68"/>
-      <c r="O49" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="P49" s="30"/>
-      <c r="R49" s="10"/>
-      <c r="U49" s="5"/>
-      <c r="W49" s="11"/>
-      <c r="X49" s="11"/>
-      <c r="Y49" s="11"/>
-      <c r="Z49" s="11"/>
-      <c r="AA49" s="11"/>
-    </row>
-    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="11"/>
-      <c r="K50" s="31"/>
-      <c r="R50" s="10"/>
-      <c r="U50" s="5"/>
-      <c r="W50" s="11"/>
-      <c r="X50" s="11"/>
-      <c r="Y50" s="11"/>
-      <c r="Z50" s="11"/>
-      <c r="AA50" s="11"/>
-    </row>
-    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="11"/>
-      <c r="K51" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="N51" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="R51" s="10"/>
-      <c r="U51" s="5"/>
-      <c r="W51" s="11"/>
-      <c r="X51" s="11"/>
-      <c r="Y51" s="11"/>
-      <c r="Z51" s="11"/>
-      <c r="AA51" s="11"/>
-    </row>
-    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
-      <c r="U52" s="5"/>
-      <c r="W52" s="11"/>
-      <c r="X52" s="11"/>
-      <c r="Y52" s="11"/>
-      <c r="Z52" s="11"/>
-      <c r="AA52" s="11"/>
-    </row>
-    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
-      <c r="U53" s="5"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="11"/>
-      <c r="AA53" s="11"/>
-    </row>
-    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="10"/>
-      <c r="U54" s="5"/>
-      <c r="W54" s="11"/>
-      <c r="X54" s="11"/>
-      <c r="Y54" s="11"/>
-      <c r="Z54" s="11"/>
-      <c r="AA54" s="11"/>
-    </row>
-    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
-      <c r="U55" s="5"/>
-      <c r="W55" s="11"/>
-      <c r="X55" s="11"/>
-      <c r="Y55" s="11"/>
-      <c r="Z55" s="11"/>
-      <c r="AA55" s="11"/>
-    </row>
-    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
-      <c r="U56" s="5"/>
-      <c r="W56" s="11"/>
-      <c r="X56" s="11"/>
-      <c r="Y56" s="11"/>
-      <c r="Z56" s="11"/>
-      <c r="AA56" s="11"/>
-    </row>
-    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="79" t="s">
-        <v>133</v>
-      </c>
-      <c r="B57" s="73"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="73"/>
-      <c r="G57" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="H57" s="73"/>
-      <c r="I57" s="73"/>
-      <c r="J57" s="73"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
-      <c r="U57" s="5"/>
-      <c r="W57" s="11"/>
-      <c r="X57" s="11"/>
-      <c r="Y57" s="11"/>
-      <c r="Z57" s="11"/>
-      <c r="AA57" s="11"/>
-    </row>
-    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="H58" s="8"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="M58" s="8"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="15"/>
-      <c r="R58" s="10"/>
-      <c r="U58" s="5"/>
-      <c r="W58" s="11"/>
-      <c r="X58" s="11"/>
-      <c r="Y58" s="11"/>
-      <c r="Z58" s="11"/>
-      <c r="AA58" s="11"/>
-    </row>
-    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="16" t="s">
-        <v>573</v>
-      </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="15"/>
-      <c r="R59" s="10"/>
-      <c r="U59" s="5"/>
-      <c r="W59" s="11"/>
-      <c r="X59" s="11"/>
-      <c r="Y59" s="11"/>
-      <c r="Z59" s="11"/>
-      <c r="AA59" s="11"/>
-    </row>
-    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="32"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="16" t="s">
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="9"/>
+      <c r="U62" s="5"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="9"/>
+      <c r="Z62" s="9"/>
+      <c r="AA62" s="9"/>
+    </row>
+    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="10"/>
-      <c r="U60" s="5"/>
-      <c r="W60" s="11"/>
-      <c r="X60" s="11"/>
-      <c r="Y60" s="11"/>
-      <c r="Z60" s="11"/>
-      <c r="AA60" s="11"/>
-    </row>
-    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="22" t="s">
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="16" t="s">
-        <v>574</v>
-      </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="15"/>
-      <c r="R61" s="10"/>
-      <c r="U61" s="5"/>
-      <c r="W61" s="11"/>
-      <c r="X61" s="11"/>
-      <c r="Y61" s="11"/>
-      <c r="Z61" s="11"/>
-      <c r="AA61" s="11"/>
-    </row>
-    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="33" t="s">
+      <c r="M63" s="63"/>
+      <c r="N63" s="63"/>
+      <c r="O63" s="63"/>
+      <c r="P63" s="63"/>
+      <c r="Q63" s="63"/>
+      <c r="R63" s="9"/>
+      <c r="U63" s="5"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="9"/>
+      <c r="Y63" s="9"/>
+      <c r="Z63" s="9"/>
+      <c r="AA63" s="9"/>
+    </row>
+    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="B62" s="32"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="81" t="s">
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="M62" s="73"/>
-      <c r="N62" s="73"/>
-      <c r="O62" s="73"/>
-      <c r="P62" s="73"/>
-      <c r="Q62" s="73"/>
-      <c r="R62" s="10"/>
-      <c r="U62" s="5"/>
-      <c r="W62" s="11"/>
-      <c r="X62" s="11"/>
-      <c r="Y62" s="11"/>
-      <c r="Z62" s="11"/>
-      <c r="AA62" s="11"/>
-    </row>
-    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="33" t="s">
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B63" s="32"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="34" t="s">
+      <c r="N64" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="4" t="s">
+      <c r="P64" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="N63" s="5" t="s">
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="U64" s="5"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="9"/>
+      <c r="Y64" s="9"/>
+      <c r="Z64" s="9"/>
+      <c r="AA64" s="9"/>
+    </row>
+    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="24"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="P63" s="4" t="s">
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="10"/>
-      <c r="U63" s="5"/>
-      <c r="W63" s="11"/>
-      <c r="X63" s="11"/>
-      <c r="Y63" s="11"/>
-      <c r="Z63" s="11"/>
-      <c r="AA63" s="11"/>
-    </row>
-    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="32"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="35" t="s">
+      <c r="M65" s="8"/>
+      <c r="N65" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="22" t="s">
+      <c r="O65" s="8"/>
+      <c r="P65" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="M64" s="8"/>
-      <c r="N64" s="9" t="s">
+      <c r="Q65" s="8"/>
+      <c r="R65" s="9"/>
+      <c r="U65" s="5"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="9"/>
+      <c r="Y65" s="9"/>
+      <c r="Z65" s="9"/>
+      <c r="AA65" s="9"/>
+    </row>
+    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="24"/>
+      <c r="B66" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="O64" s="8"/>
-      <c r="P64" s="22" t="s">
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="10"/>
-      <c r="U64" s="5"/>
-      <c r="W64" s="11"/>
-      <c r="X64" s="11"/>
-      <c r="Y64" s="11"/>
-      <c r="Z64" s="11"/>
-      <c r="AA64" s="11"/>
-    </row>
-    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="32"/>
-      <c r="B65" s="36" t="s">
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="16" t="s">
+      <c r="N66" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="4" t="s">
+      <c r="P66" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="N65" s="5" t="s">
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="U66" s="5"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="9"/>
+      <c r="Y66" s="9"/>
+      <c r="Z66" s="9"/>
+      <c r="AA66" s="9"/>
+    </row>
+    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="24"/>
+      <c r="B67" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="P65" s="4" t="s">
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="10"/>
-      <c r="U65" s="5"/>
-      <c r="W65" s="11"/>
-      <c r="X65" s="11"/>
-      <c r="Y65" s="11"/>
-      <c r="Z65" s="11"/>
-      <c r="AA65" s="11"/>
-    </row>
-    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="32"/>
-      <c r="B66" s="37" t="s">
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="38" t="s">
+      <c r="M67" s="8"/>
+      <c r="N67" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="22" t="s">
+      <c r="O67" s="8"/>
+      <c r="P67" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="M66" s="8"/>
-      <c r="N66" s="9" t="s">
+      <c r="Q67" s="8"/>
+      <c r="R67" s="9"/>
+      <c r="U67" s="5"/>
+      <c r="W67" s="9"/>
+      <c r="X67" s="9"/>
+      <c r="Y67" s="9"/>
+      <c r="Z67" s="9"/>
+      <c r="AA67" s="9"/>
+    </row>
+    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="24"/>
+      <c r="B68" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="O66" s="8"/>
-      <c r="P66" s="22" t="s">
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="10"/>
-      <c r="U66" s="5"/>
-      <c r="W66" s="11"/>
-      <c r="X66" s="11"/>
-      <c r="Y66" s="11"/>
-      <c r="Z66" s="11"/>
-      <c r="AA66" s="11"/>
-    </row>
-    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="32"/>
-      <c r="B67" s="33" t="s">
+      <c r="N68" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="4" t="s">
+      <c r="P68" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N67" s="5" t="s">
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="U68" s="5"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
+      <c r="Y68" s="9"/>
+      <c r="Z68" s="9"/>
+      <c r="AA68" s="9"/>
+    </row>
+    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="24"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="P67" s="4" t="s">
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
-      <c r="U67" s="5"/>
-      <c r="W67" s="11"/>
-      <c r="X67" s="11"/>
-      <c r="Y67" s="11"/>
-      <c r="Z67" s="11"/>
-      <c r="AA67" s="11"/>
-    </row>
-    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="32"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="35" t="s">
+      <c r="M69" s="8"/>
+      <c r="N69" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="22" t="s">
+      <c r="O69" s="8"/>
+      <c r="P69" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="M68" s="8"/>
-      <c r="N68" s="9" t="s">
+      <c r="Q69" s="8"/>
+      <c r="R69" s="9"/>
+      <c r="U69" s="5"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="9"/>
+      <c r="Y69" s="9"/>
+      <c r="Z69" s="9"/>
+      <c r="AA69" s="9"/>
+    </row>
+    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="24"/>
+      <c r="B70" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="O68" s="8"/>
-      <c r="P68" s="22" t="s">
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="10"/>
-      <c r="U68" s="5"/>
-      <c r="W68" s="11"/>
-      <c r="X68" s="11"/>
-      <c r="Y68" s="11"/>
-      <c r="Z68" s="11"/>
-      <c r="AA68" s="11"/>
-    </row>
-    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="32"/>
-      <c r="B69" s="37" t="s">
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="16" t="s">
+      <c r="N70" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="4" t="s">
+      <c r="P70" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="N69" s="5" t="s">
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="U70" s="5"/>
+      <c r="W70" s="9"/>
+      <c r="X70" s="9"/>
+      <c r="Y70" s="9"/>
+      <c r="Z70" s="9"/>
+      <c r="AA70" s="9"/>
+    </row>
+    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="24"/>
+      <c r="B71" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="P69" s="4" t="s">
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="10"/>
-      <c r="U69" s="5"/>
-      <c r="W69" s="11"/>
-      <c r="X69" s="11"/>
-      <c r="Y69" s="11"/>
-      <c r="Z69" s="11"/>
-      <c r="AA69" s="11"/>
-    </row>
-    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="32"/>
-      <c r="B70" s="33" t="s">
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="9"/>
+      <c r="U71" s="5"/>
+      <c r="W71" s="9"/>
+      <c r="X71" s="9"/>
+      <c r="Y71" s="9"/>
+      <c r="Z71" s="9"/>
+      <c r="AA71" s="9"/>
+    </row>
+    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="24"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="38" t="s">
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="9"/>
+      <c r="U72" s="5"/>
+      <c r="W72" s="9"/>
+      <c r="X72" s="9"/>
+      <c r="Y72" s="9"/>
+      <c r="Z72" s="9"/>
+      <c r="AA72" s="9"/>
+    </row>
+    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="24"/>
+      <c r="B73" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="15"/>
-      <c r="R70" s="10"/>
-      <c r="U70" s="5"/>
-      <c r="W70" s="11"/>
-      <c r="X70" s="11"/>
-      <c r="Y70" s="11"/>
-      <c r="Z70" s="11"/>
-      <c r="AA70" s="11"/>
-    </row>
-    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="32"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15" t="s">
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="P71" s="15"/>
-      <c r="Q71" s="15"/>
-      <c r="R71" s="10"/>
-      <c r="U71" s="5"/>
-      <c r="W71" s="11"/>
-      <c r="X71" s="11"/>
-      <c r="Y71" s="11"/>
-      <c r="Z71" s="11"/>
-      <c r="AA71" s="11"/>
-    </row>
-    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="32"/>
-      <c r="B72" s="37" t="s">
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="35" t="s">
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15" t="s">
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="9"/>
+      <c r="U73" s="5"/>
+      <c r="W73" s="9"/>
+      <c r="X73" s="9"/>
+      <c r="Y73" s="9"/>
+      <c r="Z73" s="9"/>
+      <c r="AA73" s="9"/>
+    </row>
+    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="24"/>
+      <c r="B74" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="16" t="s">
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="P72" s="15"/>
-      <c r="Q72" s="15"/>
-      <c r="R72" s="10"/>
-      <c r="U72" s="5"/>
-      <c r="W72" s="11"/>
-      <c r="X72" s="11"/>
-      <c r="Y72" s="11"/>
-      <c r="Z72" s="11"/>
-      <c r="AA72" s="11"/>
-    </row>
-    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="32"/>
-      <c r="B73" s="33" t="s">
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="9"/>
+      <c r="U74" s="5"/>
+      <c r="W74" s="9"/>
+      <c r="X74" s="9"/>
+      <c r="Y74" s="9"/>
+      <c r="Z74" s="9"/>
+      <c r="AA74" s="9"/>
+    </row>
+    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="24"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="16" t="s">
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15"/>
-      <c r="P73" s="15"/>
-      <c r="Q73" s="15"/>
-      <c r="R73" s="10"/>
-      <c r="U73" s="5"/>
-      <c r="W73" s="11"/>
-      <c r="X73" s="11"/>
-      <c r="Y73" s="11"/>
-      <c r="Z73" s="11"/>
-      <c r="AA73" s="11"/>
-    </row>
-    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="33"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="38" t="s">
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="35" t="s">
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="9"/>
+      <c r="U75" s="5"/>
+      <c r="W75" s="9"/>
+      <c r="X75" s="9"/>
+      <c r="Y75" s="9"/>
+      <c r="Z75" s="9"/>
+      <c r="AA75" s="9"/>
+    </row>
+    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15" t="s">
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="15"/>
-      <c r="R74" s="10"/>
-      <c r="U74" s="5"/>
-      <c r="W74" s="11"/>
-      <c r="X74" s="11"/>
-      <c r="Y74" s="11"/>
-      <c r="Z74" s="11"/>
-      <c r="AA74" s="11"/>
-    </row>
-    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" s="32"/>
-      <c r="C75" s="33" t="s">
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15" t="s">
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="9"/>
+      <c r="U76" s="5"/>
+      <c r="W76" s="9"/>
+      <c r="X76" s="9"/>
+      <c r="Y76" s="9"/>
+      <c r="Z76" s="9"/>
+      <c r="AA76" s="9"/>
+    </row>
+    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="16" t="s">
+      <c r="B77" s="24"/>
+      <c r="C77" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="10"/>
-      <c r="U75" s="5"/>
-      <c r="W75" s="11"/>
-      <c r="X75" s="11"/>
-      <c r="Y75" s="11"/>
-      <c r="Z75" s="11"/>
-      <c r="AA75" s="11"/>
-    </row>
-    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="37" t="s">
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="G77" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="B76" s="32"/>
-      <c r="C76" s="33" t="s">
+      <c r="H77" s="12"/>
+      <c r="I77" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D76" s="32"/>
-      <c r="E76" s="32"/>
-      <c r="G76" s="35" t="s">
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="9"/>
+      <c r="U77" s="5"/>
+      <c r="W77" s="9"/>
+      <c r="X77" s="9"/>
+      <c r="Y77" s="9"/>
+      <c r="Z77" s="9"/>
+      <c r="AA77" s="9"/>
+    </row>
+    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="24"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="16" t="s">
+      <c r="M78" s="26"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="9"/>
+      <c r="U78" s="5"/>
+      <c r="W78" s="9"/>
+      <c r="X78" s="9"/>
+      <c r="Y78" s="9"/>
+      <c r="Z78" s="9"/>
+      <c r="AA78" s="9"/>
+    </row>
+    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
-      <c r="R76" s="10"/>
-      <c r="U76" s="5"/>
-      <c r="W76" s="11"/>
-      <c r="X76" s="11"/>
-      <c r="Y76" s="11"/>
-      <c r="Z76" s="11"/>
-      <c r="AA76" s="11"/>
-    </row>
-    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="33"/>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="32"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="39" t="s">
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="9"/>
+      <c r="U79" s="5"/>
+      <c r="W79" s="9"/>
+      <c r="X79" s="9"/>
+      <c r="Y79" s="9"/>
+      <c r="Z79" s="9"/>
+      <c r="AA79" s="9"/>
+    </row>
+    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="M77" s="39"/>
-      <c r="N77" s="39"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
-      <c r="R77" s="10"/>
-      <c r="U77" s="5"/>
-      <c r="W77" s="11"/>
-      <c r="X77" s="11"/>
-      <c r="Y77" s="11"/>
-      <c r="Z77" s="11"/>
-      <c r="AA77" s="11"/>
-    </row>
-    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15" t="s">
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="9"/>
+      <c r="U80" s="5"/>
+      <c r="W80" s="9"/>
+      <c r="X80" s="9"/>
+      <c r="Y80" s="9"/>
+      <c r="Z80" s="9"/>
+      <c r="AA80" s="9"/>
+    </row>
+    <row r="81" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L81" s="12"/>
+      <c r="M81" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="10"/>
-      <c r="U78" s="5"/>
-      <c r="W78" s="11"/>
-      <c r="X78" s="11"/>
-      <c r="Y78" s="11"/>
-      <c r="Z78" s="11"/>
-      <c r="AA78" s="11"/>
-    </row>
-    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="15"/>
-      <c r="L79" s="15"/>
-      <c r="M79" s="15" t="s">
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="9"/>
+      <c r="U81" s="5"/>
+      <c r="W81" s="9"/>
+      <c r="X81" s="9"/>
+      <c r="Y81" s="9"/>
+      <c r="Z81" s="9"/>
+      <c r="AA81" s="9"/>
+    </row>
+    <row r="82" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L82" s="12"/>
+      <c r="M82" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="N79" s="15"/>
-      <c r="O79" s="15"/>
-      <c r="P79" s="15"/>
-      <c r="Q79" s="15"/>
-      <c r="R79" s="10"/>
-      <c r="U79" s="5"/>
-      <c r="W79" s="11"/>
-      <c r="X79" s="11"/>
-      <c r="Y79" s="11"/>
-      <c r="Z79" s="11"/>
-      <c r="AA79" s="11"/>
-    </row>
-    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L80" s="15"/>
-      <c r="M80" s="15" t="s">
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="9"/>
+      <c r="U82" s="5"/>
+      <c r="W82" s="9"/>
+      <c r="X82" s="9"/>
+      <c r="Y82" s="9"/>
+      <c r="Z82" s="9"/>
+      <c r="AA82" s="9"/>
+    </row>
+    <row r="83" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="9"/>
+      <c r="U83" s="5"/>
+      <c r="W83" s="9"/>
+      <c r="X83" s="9"/>
+      <c r="Y83" s="9"/>
+      <c r="Z83" s="9"/>
+      <c r="AA83" s="9"/>
+    </row>
+    <row r="84" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L84" s="8"/>
+      <c r="M84" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
-      <c r="P80" s="15"/>
-      <c r="Q80" s="15"/>
-      <c r="R80" s="10"/>
-      <c r="U80" s="5"/>
-      <c r="W80" s="11"/>
-      <c r="X80" s="11"/>
-      <c r="Y80" s="11"/>
-      <c r="Z80" s="11"/>
-      <c r="AA80" s="11"/>
-    </row>
-    <row r="81" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L81" s="15"/>
-      <c r="M81" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="15"/>
-      <c r="R81" s="10"/>
-      <c r="U81" s="5"/>
-      <c r="W81" s="11"/>
-      <c r="X81" s="11"/>
-      <c r="Y81" s="11"/>
-      <c r="Z81" s="11"/>
-      <c r="AA81" s="11"/>
-    </row>
-    <row r="82" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L82" s="15"/>
-      <c r="M82" s="15"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="15"/>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="15"/>
-      <c r="R82" s="10"/>
-      <c r="U82" s="5"/>
-      <c r="W82" s="11"/>
-      <c r="X82" s="11"/>
-      <c r="Y82" s="11"/>
-      <c r="Z82" s="11"/>
-      <c r="AA82" s="11"/>
-    </row>
-    <row r="83" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L83" s="8"/>
-      <c r="M83" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="N83" s="8"/>
-      <c r="O83" s="8"/>
-      <c r="P83" s="8"/>
-      <c r="Q83" s="8"/>
-      <c r="R83" s="10"/>
-      <c r="U83" s="5"/>
-      <c r="W83" s="11"/>
-      <c r="X83" s="11"/>
-      <c r="Y83" s="11"/>
-      <c r="Z83" s="11"/>
-      <c r="AA83" s="11"/>
-    </row>
-    <row r="84" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L84" s="8"/>
-      <c r="M84" s="22" t="s">
-        <v>202</v>
       </c>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
       <c r="P84" s="8"/>
       <c r="Q84" s="8"/>
-      <c r="R84" s="10"/>
+      <c r="R84" s="9"/>
       <c r="U84" s="5"/>
-      <c r="W84" s="11"/>
-      <c r="X84" s="11"/>
-      <c r="Y84" s="11"/>
-      <c r="Z84" s="11"/>
-      <c r="AA84" s="11"/>
-    </row>
-    <row r="85" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W84" s="9"/>
+      <c r="X84" s="9"/>
+      <c r="Y84" s="9"/>
+      <c r="Z84" s="9"/>
+      <c r="AA84" s="9"/>
+    </row>
+    <row r="85" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L85" s="8"/>
-      <c r="M85" s="9" t="s">
-        <v>203</v>
+      <c r="M85" s="17" t="s">
+        <v>200</v>
       </c>
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
       <c r="P85" s="8"/>
       <c r="Q85" s="8"/>
-      <c r="R85" s="10"/>
+      <c r="R85" s="9"/>
       <c r="U85" s="5"/>
-      <c r="W85" s="11"/>
-      <c r="X85" s="11"/>
-      <c r="Y85" s="11"/>
-      <c r="Z85" s="11"/>
-      <c r="AA85" s="11"/>
-    </row>
-    <row r="86" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W85" s="9"/>
+      <c r="X85" s="9"/>
+      <c r="Y85" s="9"/>
+      <c r="Z85" s="9"/>
+      <c r="AA85" s="9"/>
+    </row>
+    <row r="86" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L86" s="8"/>
-      <c r="M86" s="22" t="s">
-        <v>204</v>
+      <c r="M86" s="8" t="s">
+        <v>201</v>
       </c>
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
       <c r="P86" s="8"/>
       <c r="Q86" s="8"/>
+      <c r="R86" s="9"/>
       <c r="U86" s="5"/>
-      <c r="W86" s="11"/>
-      <c r="X86" s="11"/>
-      <c r="Y86" s="11"/>
-      <c r="Z86" s="11"/>
-      <c r="AA86" s="11"/>
-    </row>
-    <row r="87" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W86" s="9"/>
+      <c r="X86" s="9"/>
+      <c r="Y86" s="9"/>
+      <c r="Z86" s="9"/>
+      <c r="AA86" s="9"/>
+    </row>
+    <row r="87" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L87" s="8"/>
-      <c r="M87" s="9" t="s">
-        <v>205</v>
+      <c r="M87" s="17" t="s">
+        <v>202</v>
       </c>
       <c r="N87" s="8"/>
       <c r="O87" s="8"/>
       <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
       <c r="U87" s="5"/>
-      <c r="W87" s="11"/>
-      <c r="X87" s="11"/>
-      <c r="Y87" s="11"/>
-      <c r="Z87" s="11"/>
-      <c r="AA87" s="11"/>
-    </row>
-    <row r="88" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
-      <c r="O88" s="15"/>
-      <c r="P88" s="15"/>
-      <c r="Q88" s="15"/>
+      <c r="W87" s="9"/>
+      <c r="X87" s="9"/>
+      <c r="Y87" s="9"/>
+      <c r="Z87" s="9"/>
+      <c r="AA87" s="9"/>
+    </row>
+    <row r="88" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L88" s="8"/>
+      <c r="M88" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="N88" s="8"/>
+      <c r="O88" s="8"/>
+      <c r="P88" s="8"/>
+      <c r="Q88" s="8"/>
       <c r="U88" s="5"/>
-      <c r="W88" s="11"/>
-      <c r="X88" s="11"/>
-      <c r="Y88" s="11"/>
-      <c r="Z88" s="11"/>
-      <c r="AA88" s="11"/>
-    </row>
-    <row r="89" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L89" s="35" t="s">
+      <c r="W88" s="9"/>
+      <c r="X88" s="9"/>
+      <c r="Y88" s="9"/>
+      <c r="Z88" s="9"/>
+      <c r="AA88" s="9"/>
+    </row>
+    <row r="89" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="12"/>
+      <c r="Q89" s="12"/>
+      <c r="U89" s="5"/>
+      <c r="W89" s="9"/>
+      <c r="X89" s="9"/>
+      <c r="Y89" s="9"/>
+      <c r="Z89" s="9"/>
+      <c r="AA89" s="9"/>
+    </row>
+    <row r="90" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L90" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
+      <c r="O90" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="P90" s="12"/>
+      <c r="Q90" s="12"/>
+      <c r="U90" s="5"/>
+      <c r="W90" s="9"/>
+      <c r="X90" s="9"/>
+      <c r="Y90" s="9"/>
+      <c r="Z90" s="9"/>
+      <c r="AA90" s="9"/>
+    </row>
+    <row r="91" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L91" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="M89" s="15"/>
-      <c r="N89" s="15"/>
-      <c r="O89" s="16" t="s">
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="P89" s="15"/>
-      <c r="Q89" s="15"/>
-      <c r="U89" s="5"/>
-      <c r="W89" s="11"/>
-      <c r="X89" s="11"/>
-      <c r="Y89" s="11"/>
-      <c r="Z89" s="11"/>
-      <c r="AA89" s="11"/>
-    </row>
-    <row r="90" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L90" s="35" t="s">
+      <c r="P91" s="12"/>
+      <c r="Q91" s="12"/>
+      <c r="U91" s="5"/>
+      <c r="W91" s="9"/>
+      <c r="X91" s="9"/>
+      <c r="Y91" s="9"/>
+      <c r="Z91" s="9"/>
+      <c r="AA91" s="9"/>
+    </row>
+    <row r="92" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L92" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="M90" s="15"/>
-      <c r="N90" s="15"/>
-      <c r="O90" s="16" t="s">
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="P90" s="15"/>
-      <c r="Q90" s="15"/>
-      <c r="U90" s="5"/>
-      <c r="W90" s="11"/>
-      <c r="X90" s="11"/>
-      <c r="Y90" s="11"/>
-      <c r="Z90" s="11"/>
-      <c r="AA90" s="11"/>
-    </row>
-    <row r="91" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L91" s="35" t="s">
+      <c r="P92" s="12"/>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="9"/>
+      <c r="U92" s="5"/>
+      <c r="W92" s="9"/>
+      <c r="X92" s="9"/>
+      <c r="Y92" s="9"/>
+      <c r="Z92" s="9"/>
+      <c r="AA92" s="9"/>
+    </row>
+    <row r="93" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R93" s="9"/>
+      <c r="U93" s="5"/>
+      <c r="W93" s="9"/>
+      <c r="X93" s="9"/>
+      <c r="Y93" s="9"/>
+      <c r="Z93" s="9"/>
+      <c r="AA93" s="9"/>
+    </row>
+    <row r="94" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R94" s="9"/>
+      <c r="U94" s="5"/>
+      <c r="W94" s="9"/>
+      <c r="X94" s="9"/>
+      <c r="Y94" s="9"/>
+      <c r="Z94" s="9"/>
+      <c r="AA94" s="9"/>
+    </row>
+    <row r="95" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R95" s="9"/>
+      <c r="U95" s="5"/>
+      <c r="W95" s="9"/>
+      <c r="X95" s="9"/>
+      <c r="Y95" s="9"/>
+      <c r="Z95" s="9"/>
+      <c r="AA95" s="9"/>
+    </row>
+    <row r="96" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R96" s="9"/>
+      <c r="U96" s="5"/>
+      <c r="W96" s="9"/>
+      <c r="X96" s="9"/>
+      <c r="Y96" s="9"/>
+      <c r="Z96" s="9"/>
+      <c r="AA96" s="9"/>
+    </row>
+    <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R97" s="9"/>
+      <c r="U97" s="5"/>
+      <c r="W97" s="9"/>
+      <c r="X97" s="9"/>
+      <c r="Y97" s="9"/>
+      <c r="Z97" s="9"/>
+      <c r="AA97" s="9"/>
+    </row>
+    <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="70" t="s">
         <v>210</v>
       </c>
-      <c r="M91" s="15"/>
-      <c r="N91" s="15"/>
-      <c r="O91" s="16" t="s">
+      <c r="B98" s="63"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9"/>
+      <c r="R98" s="9"/>
+      <c r="U98" s="5"/>
+      <c r="W98" s="9"/>
+      <c r="X98" s="9"/>
+      <c r="Y98" s="9"/>
+      <c r="Z98" s="9"/>
+      <c r="AA98" s="9"/>
+    </row>
+    <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="P91" s="15"/>
-      <c r="Q91" s="15"/>
-      <c r="R91" s="10"/>
-      <c r="U91" s="5"/>
-      <c r="W91" s="11"/>
-      <c r="X91" s="11"/>
-      <c r="Y91" s="11"/>
-      <c r="Z91" s="11"/>
-      <c r="AA91" s="11"/>
-    </row>
-    <row r="92" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R92" s="10"/>
-      <c r="U92" s="5"/>
-      <c r="W92" s="11"/>
-      <c r="X92" s="11"/>
-      <c r="Y92" s="11"/>
-      <c r="Z92" s="11"/>
-      <c r="AA92" s="11"/>
-    </row>
-    <row r="93" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R93" s="10"/>
-      <c r="U93" s="5"/>
-      <c r="W93" s="11"/>
-      <c r="X93" s="11"/>
-      <c r="Y93" s="11"/>
-      <c r="Z93" s="11"/>
-      <c r="AA93" s="11"/>
-    </row>
-    <row r="94" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R94" s="10"/>
-      <c r="U94" s="5"/>
-      <c r="W94" s="11"/>
-      <c r="X94" s="11"/>
-      <c r="Y94" s="11"/>
-      <c r="Z94" s="11"/>
-      <c r="AA94" s="11"/>
-    </row>
-    <row r="95" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R95" s="10"/>
-      <c r="U95" s="5"/>
-      <c r="W95" s="11"/>
-      <c r="X95" s="11"/>
-      <c r="Y95" s="11"/>
-      <c r="Z95" s="11"/>
-      <c r="AA95" s="11"/>
-    </row>
-    <row r="96" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R96" s="10"/>
-      <c r="U96" s="5"/>
-      <c r="W96" s="11"/>
-      <c r="X96" s="11"/>
-      <c r="Y96" s="11"/>
-      <c r="Z96" s="11"/>
-      <c r="AA96" s="11"/>
-    </row>
-    <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="80" t="s">
+      <c r="B99" s="31"/>
+      <c r="E99" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="B97" s="73"/>
-      <c r="L97" s="11"/>
-      <c r="M97" s="11"/>
-      <c r="N97" s="11"/>
-      <c r="O97" s="11"/>
-      <c r="P97" s="11"/>
-      <c r="Q97" s="11"/>
-      <c r="R97" s="10"/>
-      <c r="U97" s="5"/>
-      <c r="W97" s="11"/>
-      <c r="X97" s="11"/>
-      <c r="Y97" s="11"/>
-      <c r="Z97" s="11"/>
-      <c r="AA97" s="11"/>
-    </row>
-    <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="40" t="s">
+      <c r="F99" s="31"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
+      <c r="R99" s="9"/>
+      <c r="U99" s="5"/>
+      <c r="W99" s="9"/>
+      <c r="X99" s="9"/>
+      <c r="Y99" s="9"/>
+      <c r="Z99" s="9"/>
+      <c r="AA99" s="9"/>
+    </row>
+    <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B98" s="41"/>
-      <c r="E98" s="40" t="s">
+      <c r="E100" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F98" s="41"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="11"/>
-      <c r="L98" s="11"/>
-      <c r="M98" s="11"/>
-      <c r="N98" s="11"/>
-      <c r="O98" s="11"/>
-      <c r="P98" s="11"/>
-      <c r="Q98" s="11"/>
-      <c r="R98" s="10"/>
-      <c r="U98" s="5"/>
-      <c r="W98" s="11"/>
-      <c r="X98" s="11"/>
-      <c r="Y98" s="11"/>
-      <c r="Z98" s="11"/>
-      <c r="AA98" s="11"/>
-    </row>
-    <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="5" t="s">
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9"/>
+      <c r="R100" s="9"/>
+      <c r="U100" s="5"/>
+      <c r="W100" s="9"/>
+      <c r="X100" s="9"/>
+      <c r="Y100" s="9"/>
+      <c r="Z100" s="9"/>
+      <c r="AA100" s="9"/>
+    </row>
+    <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="5"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="9"/>
+      <c r="R101" s="9"/>
+      <c r="U101" s="5"/>
+      <c r="W101" s="9"/>
+      <c r="X101" s="9"/>
+      <c r="Y101" s="9"/>
+      <c r="Z101" s="9"/>
+      <c r="AA101" s="9"/>
+    </row>
+    <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="E99" s="5" t="s">
+      <c r="B102" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
-      <c r="J99" s="11"/>
-      <c r="K99" s="11"/>
-      <c r="L99" s="11"/>
-      <c r="M99" s="11"/>
-      <c r="N99" s="11"/>
-      <c r="O99" s="11"/>
-      <c r="P99" s="11"/>
-      <c r="Q99" s="11"/>
-      <c r="R99" s="10"/>
-      <c r="U99" s="5"/>
-      <c r="W99" s="11"/>
-      <c r="X99" s="11"/>
-      <c r="Y99" s="11"/>
-      <c r="Z99" s="11"/>
-      <c r="AA99" s="11"/>
-    </row>
-    <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="5"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="11"/>
-      <c r="L100" s="11"/>
-      <c r="M100" s="11"/>
-      <c r="N100" s="11"/>
-      <c r="O100" s="11"/>
-      <c r="P100" s="11"/>
-      <c r="Q100" s="11"/>
-      <c r="R100" s="10"/>
-      <c r="U100" s="5"/>
-      <c r="W100" s="11"/>
-      <c r="X100" s="11"/>
-      <c r="Y100" s="11"/>
-      <c r="Z100" s="11"/>
-      <c r="AA100" s="11"/>
-    </row>
-    <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="22" t="s">
+      <c r="C102" s="8"/>
+      <c r="E102" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="F102" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C101" s="8"/>
-      <c r="E101" s="42" t="s">
+      <c r="G102" s="8"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="9"/>
+      <c r="Q102" s="9"/>
+      <c r="R102" s="9"/>
+      <c r="U102" s="5"/>
+      <c r="W102" s="9"/>
+      <c r="X102" s="9"/>
+      <c r="Y102" s="9"/>
+      <c r="Z102" s="9"/>
+      <c r="AA102" s="9"/>
+    </row>
+    <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F101" s="9" t="s">
+      <c r="B103" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="G101" s="8"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
-      <c r="J101" s="11"/>
-      <c r="K101" s="11"/>
-      <c r="M101" s="11"/>
-      <c r="N101" s="11"/>
-      <c r="O101" s="11"/>
-      <c r="P101" s="11"/>
-      <c r="Q101" s="11"/>
-      <c r="R101" s="10"/>
-      <c r="U101" s="5"/>
-      <c r="W101" s="11"/>
-      <c r="X101" s="11"/>
-      <c r="Y101" s="11"/>
-      <c r="Z101" s="11"/>
-      <c r="AA101" s="11"/>
-    </row>
-    <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
+      <c r="E103" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="F103" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E102" s="43" t="s">
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="9"/>
+      <c r="U103" s="5"/>
+      <c r="W103" s="9"/>
+      <c r="X103" s="9"/>
+      <c r="Y103" s="9"/>
+      <c r="Z103" s="9"/>
+      <c r="AA103" s="9"/>
+    </row>
+    <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="F102" s="5" t="s">
+      <c r="B104" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="G102" s="11"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="11"/>
-      <c r="M102" s="11"/>
-      <c r="N102" s="11"/>
-      <c r="O102" s="11"/>
-      <c r="P102" s="11"/>
-      <c r="Q102" s="11"/>
-      <c r="R102" s="10"/>
-      <c r="U102" s="5"/>
-      <c r="W102" s="11"/>
-      <c r="X102" s="11"/>
-      <c r="Y102" s="11"/>
-      <c r="Z102" s="11"/>
-      <c r="AA102" s="11"/>
-    </row>
-    <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="22" t="s">
+      <c r="C104" s="8"/>
+      <c r="E104" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="F104" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C103" s="8"/>
-      <c r="E103" s="42" t="s">
+      <c r="G104" s="8"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="9"/>
+      <c r="P104" s="9"/>
+      <c r="Q104" s="9"/>
+      <c r="R104" s="9"/>
+      <c r="U104" s="5"/>
+      <c r="W104" s="9"/>
+      <c r="X104" s="9"/>
+      <c r="Y104" s="9"/>
+      <c r="Z104" s="9"/>
+      <c r="AA104" s="9"/>
+    </row>
+    <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="F103" s="9" t="s">
+      <c r="B105" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="G103" s="8"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="11"/>
-      <c r="J103" s="11"/>
-      <c r="K103" s="11"/>
-      <c r="M103" s="11"/>
-      <c r="N103" s="11"/>
-      <c r="O103" s="11"/>
-      <c r="P103" s="11"/>
-      <c r="Q103" s="11"/>
-      <c r="R103" s="10"/>
-      <c r="U103" s="5"/>
-      <c r="W103" s="11"/>
-      <c r="X103" s="11"/>
-      <c r="Y103" s="11"/>
-      <c r="Z103" s="11"/>
-      <c r="AA103" s="11"/>
-    </row>
-    <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
+      <c r="E105" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="F105" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="E104" s="43" t="s">
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="9"/>
+      <c r="U105" s="5"/>
+      <c r="W105" s="9"/>
+      <c r="X105" s="9"/>
+      <c r="Y105" s="9"/>
+      <c r="Z105" s="9"/>
+      <c r="AA105" s="9"/>
+    </row>
+    <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="F104" s="5" t="s">
+      <c r="B106" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="11"/>
-      <c r="J104" s="11"/>
-      <c r="K104" s="11"/>
-      <c r="L104" s="11"/>
-      <c r="M104" s="11"/>
-      <c r="N104" s="11"/>
-      <c r="O104" s="11"/>
-      <c r="P104" s="11"/>
-      <c r="Q104" s="11"/>
-      <c r="R104" s="10"/>
-      <c r="U104" s="5"/>
-      <c r="W104" s="11"/>
-      <c r="X104" s="11"/>
-      <c r="Y104" s="11"/>
-      <c r="Z104" s="11"/>
-      <c r="AA104" s="11"/>
-    </row>
-    <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="22" t="s">
+      <c r="C106" s="8"/>
+      <c r="E106" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="F106" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C105" s="8"/>
-      <c r="E105" s="42" t="s">
+      <c r="G106" s="8"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="9"/>
+      <c r="Q106" s="9"/>
+      <c r="R106" s="9"/>
+      <c r="U106" s="5"/>
+      <c r="W106" s="9"/>
+      <c r="X106" s="9"/>
+      <c r="Y106" s="9"/>
+      <c r="Z106" s="9"/>
+      <c r="AA106" s="9"/>
+    </row>
+    <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="5"/>
+      <c r="E107" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="F105" s="9" t="s">
+      <c r="F107" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="G105" s="8"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="11"/>
-      <c r="J105" s="11"/>
-      <c r="K105" s="11"/>
-      <c r="L105" s="11"/>
-      <c r="M105" s="11"/>
-      <c r="N105" s="11"/>
-      <c r="O105" s="11"/>
-      <c r="P105" s="11"/>
-      <c r="Q105" s="11"/>
-      <c r="R105" s="10"/>
-      <c r="U105" s="5"/>
-      <c r="W105" s="11"/>
-      <c r="X105" s="11"/>
-      <c r="Y105" s="11"/>
-      <c r="Z105" s="11"/>
-      <c r="AA105" s="11"/>
-    </row>
-    <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="5"/>
-      <c r="E106" s="43" t="s">
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="9"/>
+      <c r="Q107" s="9"/>
+      <c r="R107" s="9"/>
+      <c r="U107" s="5"/>
+      <c r="W107" s="9"/>
+      <c r="X107" s="9"/>
+      <c r="Y107" s="9"/>
+      <c r="Z107" s="9"/>
+      <c r="AA107" s="9"/>
+    </row>
+    <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="5"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="9"/>
+      <c r="P108" s="9"/>
+      <c r="Q108" s="9"/>
+      <c r="R108" s="9"/>
+      <c r="U108" s="5"/>
+      <c r="W108" s="9"/>
+      <c r="X108" s="9"/>
+      <c r="Y108" s="9"/>
+      <c r="Z108" s="9"/>
+      <c r="AA108" s="9"/>
+    </row>
+    <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="F106" s="5" t="s">
+      <c r="B109" s="31"/>
+      <c r="G109" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="G106" s="11"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="11"/>
-      <c r="J106" s="11"/>
-      <c r="K106" s="11"/>
-      <c r="L106" s="11"/>
-      <c r="M106" s="11"/>
-      <c r="N106" s="11"/>
-      <c r="O106" s="11"/>
-      <c r="P106" s="11"/>
-      <c r="Q106" s="11"/>
-      <c r="R106" s="10"/>
-      <c r="U106" s="5"/>
-      <c r="W106" s="11"/>
-      <c r="X106" s="11"/>
-      <c r="Y106" s="11"/>
-      <c r="Z106" s="11"/>
-      <c r="AA106" s="11"/>
-    </row>
-    <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="5"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="11"/>
-      <c r="I107" s="11"/>
-      <c r="J107" s="11"/>
-      <c r="K107" s="11"/>
-      <c r="L107" s="11"/>
-      <c r="M107" s="11"/>
-      <c r="N107" s="11"/>
-      <c r="O107" s="11"/>
-      <c r="P107" s="11"/>
-      <c r="Q107" s="11"/>
-      <c r="R107" s="10"/>
-      <c r="U107" s="5"/>
-      <c r="W107" s="11"/>
-      <c r="X107" s="11"/>
-      <c r="Y107" s="11"/>
-      <c r="Z107" s="11"/>
-      <c r="AA107" s="11"/>
-    </row>
-    <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="40" t="s">
+      <c r="H109" s="31"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
+      <c r="P109" s="9"/>
+      <c r="Q109" s="9"/>
+      <c r="R109" s="9"/>
+      <c r="U109" s="5"/>
+      <c r="W109" s="9"/>
+      <c r="X109" s="9"/>
+      <c r="Y109" s="9"/>
+      <c r="Z109" s="9"/>
+      <c r="AA109" s="9"/>
+    </row>
+    <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B108" s="41"/>
-      <c r="G108" s="40" t="s">
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="9"/>
+      <c r="P110" s="9"/>
+      <c r="Q110" s="9"/>
+      <c r="R110" s="9"/>
+      <c r="U110" s="5"/>
+      <c r="W110" s="9"/>
+      <c r="X110" s="9"/>
+      <c r="Y110" s="9"/>
+      <c r="Z110" s="9"/>
+      <c r="AA110" s="9"/>
+    </row>
+    <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="5"/>
+      <c r="G111" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="H108" s="41"/>
-      <c r="I108" s="11"/>
-      <c r="J108" s="11"/>
-      <c r="K108" s="11"/>
-      <c r="L108" s="11"/>
-      <c r="M108" s="11"/>
-      <c r="N108" s="11"/>
-      <c r="O108" s="11"/>
-      <c r="P108" s="11"/>
-      <c r="Q108" s="11"/>
-      <c r="R108" s="10"/>
-      <c r="U108" s="5"/>
-      <c r="W108" s="11"/>
-      <c r="X108" s="11"/>
-      <c r="Y108" s="11"/>
-      <c r="Z108" s="11"/>
-      <c r="AA108" s="11"/>
-    </row>
-    <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="5" t="s">
+      <c r="H111" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="L109" s="11"/>
-      <c r="M109" s="11"/>
-      <c r="N109" s="11"/>
-      <c r="O109" s="11"/>
-      <c r="P109" s="11"/>
-      <c r="Q109" s="11"/>
-      <c r="R109" s="10"/>
-      <c r="U109" s="5"/>
-      <c r="W109" s="11"/>
-      <c r="X109" s="11"/>
-      <c r="Y109" s="11"/>
-      <c r="Z109" s="11"/>
-      <c r="AA109" s="11"/>
-    </row>
-    <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="5"/>
-      <c r="G110" s="22" t="s">
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="9"/>
+      <c r="O111" s="9"/>
+      <c r="P111" s="9"/>
+      <c r="Q111" s="9"/>
+      <c r="R111" s="9"/>
+      <c r="U111" s="5"/>
+      <c r="W111" s="9"/>
+      <c r="X111" s="9"/>
+      <c r="Y111" s="9"/>
+      <c r="Z111" s="9"/>
+      <c r="AA111" s="9"/>
+    </row>
+    <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="H110" s="9" t="s">
+      <c r="B112" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
-      <c r="K110" s="8"/>
-      <c r="L110" s="8"/>
-      <c r="M110" s="11"/>
-      <c r="N110" s="11"/>
-      <c r="O110" s="11"/>
-      <c r="P110" s="11"/>
-      <c r="Q110" s="11"/>
-      <c r="R110" s="10"/>
-      <c r="U110" s="5"/>
-      <c r="W110" s="11"/>
-      <c r="X110" s="11"/>
-      <c r="Y110" s="11"/>
-      <c r="Z110" s="11"/>
-      <c r="AA110" s="11"/>
-    </row>
-    <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="22" t="s">
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="G112" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="H112" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="G111" s="25" t="s">
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="9"/>
+      <c r="O112" s="9"/>
+      <c r="P112" s="9"/>
+      <c r="Q112" s="9"/>
+      <c r="R112" s="9"/>
+      <c r="U112" s="5"/>
+      <c r="W112" s="9"/>
+      <c r="X112" s="9"/>
+      <c r="Y112" s="9"/>
+      <c r="Z112" s="9"/>
+      <c r="AA112" s="9"/>
+    </row>
+    <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="H111" s="10" t="s">
+      <c r="B113" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="I111" s="11"/>
-      <c r="J111" s="11"/>
-      <c r="K111" s="11"/>
-      <c r="L111" s="11"/>
-      <c r="M111" s="11"/>
-      <c r="N111" s="11"/>
-      <c r="O111" s="11"/>
-      <c r="P111" s="11"/>
-      <c r="Q111" s="11"/>
-      <c r="R111" s="10"/>
-      <c r="U111" s="5"/>
-      <c r="W111" s="11"/>
-      <c r="X111" s="11"/>
-      <c r="Y111" s="11"/>
-      <c r="Z111" s="11"/>
-      <c r="AA111" s="11"/>
-    </row>
-    <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="s">
+      <c r="G113" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="H113" s="61" t="s">
         <v>249</v>
       </c>
-      <c r="G112" s="22" t="s">
+      <c r="I113" s="58"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="9"/>
+      <c r="O113" s="9"/>
+      <c r="P113" s="9"/>
+      <c r="Q113" s="9"/>
+      <c r="R113" s="9"/>
+      <c r="U113" s="5"/>
+      <c r="W113" s="9"/>
+      <c r="X113" s="9"/>
+      <c r="Y113" s="9"/>
+      <c r="Z113" s="9"/>
+      <c r="AA113" s="9"/>
+    </row>
+    <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="H112" s="71" t="s">
+      <c r="B114" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="I112" s="68"/>
-      <c r="J112" s="11"/>
-      <c r="K112" s="11"/>
-      <c r="L112" s="11"/>
-      <c r="M112" s="11"/>
-      <c r="N112" s="11"/>
-      <c r="O112" s="11"/>
-      <c r="P112" s="11"/>
-      <c r="Q112" s="11"/>
-      <c r="R112" s="10"/>
-      <c r="U112" s="5"/>
-      <c r="W112" s="11"/>
-      <c r="X112" s="11"/>
-      <c r="Y112" s="11"/>
-      <c r="Z112" s="11"/>
-      <c r="AA112" s="11"/>
-    </row>
-    <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="22" t="s">
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="G114" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="H114" s="58"/>
+      <c r="I114" s="58"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="9"/>
+      <c r="O114" s="9"/>
+      <c r="P114" s="9"/>
+      <c r="Q114" s="9"/>
+      <c r="R114" s="9"/>
+      <c r="U114" s="5"/>
+      <c r="W114" s="9"/>
+      <c r="X114" s="9"/>
+      <c r="Y114" s="9"/>
+      <c r="Z114" s="9"/>
+      <c r="AA114" s="9"/>
+    </row>
+    <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="G113" s="22" t="s">
+      <c r="B115" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="H113" s="68"/>
-      <c r="I113" s="68"/>
-      <c r="J113" s="11"/>
-      <c r="K113" s="11"/>
-      <c r="L113" s="11"/>
-      <c r="M113" s="11"/>
-      <c r="N113" s="11"/>
-      <c r="O113" s="11"/>
-      <c r="P113" s="11"/>
-      <c r="Q113" s="11"/>
-      <c r="R113" s="10"/>
-      <c r="U113" s="5"/>
-      <c r="W113" s="11"/>
-      <c r="X113" s="11"/>
-      <c r="Y113" s="11"/>
-      <c r="Z113" s="11"/>
-      <c r="AA113" s="11"/>
-    </row>
-    <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="9"/>
+      <c r="O115" s="9"/>
+      <c r="P115" s="9"/>
+      <c r="Q115" s="9"/>
+      <c r="R115" s="9"/>
+      <c r="U115" s="5"/>
+      <c r="W115" s="9"/>
+      <c r="X115" s="9"/>
+      <c r="Y115" s="9"/>
+      <c r="Z115" s="9"/>
+      <c r="AA115" s="9"/>
+    </row>
+    <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B116" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="G114" s="11"/>
-      <c r="H114" s="11"/>
-      <c r="I114" s="11"/>
-      <c r="J114" s="11"/>
-      <c r="K114" s="11"/>
-      <c r="L114" s="11"/>
-      <c r="M114" s="11"/>
-      <c r="N114" s="11"/>
-      <c r="O114" s="11"/>
-      <c r="P114" s="11"/>
-      <c r="Q114" s="11"/>
-      <c r="R114" s="10"/>
-      <c r="U114" s="5"/>
-      <c r="W114" s="11"/>
-      <c r="X114" s="11"/>
-      <c r="Y114" s="11"/>
-      <c r="Z114" s="11"/>
-      <c r="AA114" s="11"/>
-    </row>
-    <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="22" t="s">
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="G116" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="H116" s="31"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="9"/>
+      <c r="O116" s="9"/>
+      <c r="P116" s="9"/>
+      <c r="Q116" s="9"/>
+      <c r="R116" s="9"/>
+      <c r="U116" s="5"/>
+      <c r="W116" s="9"/>
+      <c r="X116" s="9"/>
+      <c r="Y116" s="9"/>
+      <c r="Z116" s="9"/>
+      <c r="AA116" s="9"/>
+    </row>
+    <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="G115" s="40" t="s">
+      <c r="B117" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="H115" s="41"/>
-      <c r="I115" s="11"/>
-      <c r="J115" s="11"/>
-      <c r="K115" s="11"/>
-      <c r="L115" s="11"/>
-      <c r="M115" s="11"/>
-      <c r="N115" s="11"/>
-      <c r="O115" s="11"/>
-      <c r="P115" s="11"/>
-      <c r="Q115" s="11"/>
-      <c r="R115" s="10"/>
-      <c r="U115" s="5"/>
-      <c r="W115" s="11"/>
-      <c r="X115" s="11"/>
-      <c r="Y115" s="11"/>
-      <c r="Z115" s="11"/>
-      <c r="AA115" s="11"/>
-    </row>
-    <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
+      <c r="G117" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
+      <c r="O117" s="9"/>
+      <c r="P117" s="9"/>
+      <c r="Q117" s="9"/>
+      <c r="R117" s="9"/>
+      <c r="U117" s="5"/>
+      <c r="W117" s="9"/>
+      <c r="X117" s="9"/>
+      <c r="Y117" s="9"/>
+      <c r="Z117" s="9"/>
+      <c r="AA117" s="9"/>
+    </row>
+    <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="9"/>
+      <c r="P118" s="9"/>
+      <c r="Q118" s="9"/>
+      <c r="R118" s="9"/>
+      <c r="U118" s="5"/>
+      <c r="W118" s="9"/>
+      <c r="X118" s="9"/>
+      <c r="Y118" s="9"/>
+      <c r="Z118" s="9"/>
+      <c r="AA118" s="9"/>
+    </row>
+    <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="G116" s="10" t="s">
+      <c r="B119" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="H116" s="11"/>
-      <c r="I116" s="11"/>
-      <c r="J116" s="11"/>
-      <c r="K116" s="11"/>
-      <c r="L116" s="11"/>
-      <c r="M116" s="11"/>
-      <c r="N116" s="11"/>
-      <c r="O116" s="11"/>
-      <c r="P116" s="11"/>
-      <c r="Q116" s="11"/>
-      <c r="R116" s="10"/>
-      <c r="U116" s="5"/>
-      <c r="W116" s="11"/>
-      <c r="X116" s="11"/>
-      <c r="Y116" s="11"/>
-      <c r="Z116" s="11"/>
-      <c r="AA116" s="11"/>
-    </row>
-    <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="31"/>
-      <c r="G117" s="11"/>
-      <c r="H117" s="11"/>
-      <c r="I117" s="11"/>
-      <c r="J117" s="11"/>
-      <c r="K117" s="11"/>
-      <c r="L117" s="11"/>
-      <c r="M117" s="11"/>
-      <c r="N117" s="11"/>
-      <c r="O117" s="11"/>
-      <c r="P117" s="11"/>
-      <c r="Q117" s="11"/>
-      <c r="R117" s="10"/>
-      <c r="U117" s="5"/>
-      <c r="W117" s="11"/>
-      <c r="X117" s="11"/>
-      <c r="Y117" s="11"/>
-      <c r="Z117" s="11"/>
-      <c r="AA117" s="11"/>
-    </row>
-    <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="22" t="s">
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="G119" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="H119" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="G118" s="22" t="s">
+      <c r="I119" s="8"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="9"/>
+      <c r="O119" s="9"/>
+      <c r="P119" s="9"/>
+      <c r="Q119" s="9"/>
+      <c r="R119" s="9"/>
+      <c r="U119" s="5"/>
+      <c r="W119" s="9"/>
+      <c r="X119" s="9"/>
+      <c r="Y119" s="9"/>
+      <c r="Z119" s="9"/>
+      <c r="AA119" s="9"/>
+    </row>
+    <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="H118" s="9" t="s">
+      <c r="B120" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="I118" s="8"/>
-      <c r="J118" s="11"/>
-      <c r="K118" s="11"/>
-      <c r="L118" s="11"/>
-      <c r="M118" s="11"/>
-      <c r="N118" s="11"/>
-      <c r="O118" s="11"/>
-      <c r="P118" s="11"/>
-      <c r="Q118" s="11"/>
-      <c r="R118" s="10"/>
-      <c r="U118" s="5"/>
-      <c r="W118" s="11"/>
-      <c r="X118" s="11"/>
-      <c r="Y118" s="11"/>
-      <c r="Z118" s="11"/>
-      <c r="AA118" s="11"/>
-    </row>
-    <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="s">
+      <c r="G120" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="H120" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="G119" s="25" t="s">
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="9"/>
+      <c r="O120" s="9"/>
+      <c r="P120" s="9"/>
+      <c r="Q120" s="9"/>
+      <c r="R120" s="9"/>
+      <c r="U120" s="5"/>
+      <c r="W120" s="9"/>
+      <c r="X120" s="9"/>
+      <c r="Y120" s="9"/>
+      <c r="Z120" s="9"/>
+      <c r="AA120" s="9"/>
+    </row>
+    <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="G121" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="H119" s="10" t="s">
+      <c r="H121" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="I119" s="11"/>
-      <c r="J119" s="11"/>
-      <c r="K119" s="11"/>
-      <c r="L119" s="11"/>
-      <c r="M119" s="11"/>
-      <c r="N119" s="11"/>
-      <c r="O119" s="11"/>
-      <c r="P119" s="11"/>
-      <c r="Q119" s="11"/>
-      <c r="R119" s="10"/>
-      <c r="U119" s="5"/>
-      <c r="W119" s="11"/>
-      <c r="X119" s="11"/>
-      <c r="Y119" s="11"/>
-      <c r="Z119" s="11"/>
-      <c r="AA119" s="11"/>
-    </row>
-    <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="4"/>
-      <c r="G120" s="22" t="s">
+      <c r="I121" s="8"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9"/>
+      <c r="M121" s="9"/>
+      <c r="N121" s="9"/>
+      <c r="O121" s="9"/>
+      <c r="P121" s="9"/>
+      <c r="Q121" s="9"/>
+      <c r="R121" s="9"/>
+      <c r="U121" s="5"/>
+      <c r="W121" s="9"/>
+      <c r="X121" s="9"/>
+      <c r="Y121" s="9"/>
+      <c r="Z121" s="9"/>
+      <c r="AA121" s="9"/>
+    </row>
+    <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="H120" s="9" t="s">
+      <c r="B122" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="I120" s="8"/>
-      <c r="J120" s="11"/>
-      <c r="K120" s="11"/>
-      <c r="L120" s="11"/>
-      <c r="M120" s="11"/>
-      <c r="N120" s="11"/>
-      <c r="O120" s="11"/>
-      <c r="P120" s="11"/>
-      <c r="Q120" s="11"/>
-      <c r="R120" s="10"/>
-      <c r="U120" s="5"/>
-      <c r="W120" s="11"/>
-      <c r="X120" s="11"/>
-      <c r="Y120" s="11"/>
-      <c r="Z120" s="11"/>
-      <c r="AA120" s="11"/>
-    </row>
-    <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="22" t="s">
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="9"/>
+      <c r="O122" s="9"/>
+      <c r="P122" s="9"/>
+      <c r="Q122" s="9"/>
+      <c r="R122" s="9"/>
+      <c r="U122" s="5"/>
+      <c r="W122" s="9"/>
+      <c r="X122" s="9"/>
+      <c r="Y122" s="9"/>
+      <c r="Z122" s="9"/>
+      <c r="AA122" s="9"/>
+    </row>
+    <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B123" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="11"/>
-      <c r="I121" s="11"/>
-      <c r="J121" s="11"/>
-      <c r="K121" s="11"/>
-      <c r="L121" s="11"/>
-      <c r="M121" s="11"/>
-      <c r="N121" s="11"/>
-      <c r="O121" s="11"/>
-      <c r="P121" s="11"/>
-      <c r="Q121" s="11"/>
-      <c r="R121" s="10"/>
-      <c r="U121" s="5"/>
-      <c r="W121" s="11"/>
-      <c r="X121" s="11"/>
-      <c r="Y121" s="11"/>
-      <c r="Z121" s="11"/>
-      <c r="AA121" s="11"/>
-    </row>
-    <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="s">
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="9"/>
+      <c r="M123" s="9"/>
+      <c r="N123" s="9"/>
+      <c r="O123" s="9"/>
+      <c r="P123" s="9"/>
+      <c r="Q123" s="9"/>
+      <c r="R123" s="9"/>
+      <c r="U123" s="5"/>
+      <c r="W123" s="9"/>
+      <c r="X123" s="9"/>
+      <c r="Y123" s="9"/>
+      <c r="Z123" s="9"/>
+      <c r="AA123" s="9"/>
+    </row>
+    <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="5"/>
+      <c r="G124" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="H124" s="31"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="9"/>
+      <c r="N124" s="9"/>
+      <c r="O124" s="9"/>
+      <c r="P124" s="9"/>
+      <c r="Q124" s="9"/>
+      <c r="R124" s="9"/>
+      <c r="U124" s="5"/>
+      <c r="W124" s="9"/>
+      <c r="X124" s="9"/>
+      <c r="Y124" s="9"/>
+      <c r="Z124" s="9"/>
+      <c r="AA124" s="9"/>
+    </row>
+    <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="G122" s="11"/>
-      <c r="H122" s="11"/>
-      <c r="I122" s="11"/>
-      <c r="J122" s="11"/>
-      <c r="K122" s="11"/>
-      <c r="L122" s="11"/>
-      <c r="M122" s="11"/>
-      <c r="N122" s="11"/>
-      <c r="O122" s="11"/>
-      <c r="P122" s="11"/>
-      <c r="Q122" s="11"/>
-      <c r="R122" s="10"/>
-      <c r="U122" s="5"/>
-      <c r="W122" s="11"/>
-      <c r="X122" s="11"/>
-      <c r="Y122" s="11"/>
-      <c r="Z122" s="11"/>
-      <c r="AA122" s="11"/>
-    </row>
-    <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="5"/>
-      <c r="G123" s="40" t="s">
+      <c r="B125" s="31"/>
+      <c r="G125" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="H123" s="41"/>
-      <c r="I123" s="11"/>
-      <c r="J123" s="11"/>
-      <c r="K123" s="11"/>
-      <c r="L123" s="11"/>
-      <c r="M123" s="11"/>
-      <c r="N123" s="11"/>
-      <c r="O123" s="11"/>
-      <c r="P123" s="11"/>
-      <c r="Q123" s="11"/>
-      <c r="R123" s="10"/>
-      <c r="U123" s="5"/>
-      <c r="W123" s="11"/>
-      <c r="X123" s="11"/>
-      <c r="Y123" s="11"/>
-      <c r="Z123" s="11"/>
-      <c r="AA123" s="11"/>
-    </row>
-    <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="40" t="s">
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="9"/>
+      <c r="N125" s="9"/>
+      <c r="O125" s="9"/>
+      <c r="P125" s="9"/>
+      <c r="Q125" s="9"/>
+      <c r="R125" s="9"/>
+      <c r="U125" s="5"/>
+      <c r="W125" s="9"/>
+      <c r="X125" s="9"/>
+      <c r="Y125" s="9"/>
+      <c r="Z125" s="9"/>
+      <c r="AA125" s="9"/>
+    </row>
+    <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="5"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
+      <c r="M126" s="9"/>
+      <c r="N126" s="9"/>
+      <c r="O126" s="9"/>
+      <c r="P126" s="9"/>
+      <c r="Q126" s="9"/>
+      <c r="R126" s="9"/>
+      <c r="U126" s="5"/>
+      <c r="W126" s="9"/>
+      <c r="X126" s="9"/>
+      <c r="Y126" s="9"/>
+      <c r="Z126" s="9"/>
+      <c r="AA126" s="9"/>
+    </row>
+    <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="B127" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B124" s="41"/>
-      <c r="G124" s="10" t="s">
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="G127" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="H124" s="11"/>
-      <c r="I124" s="11"/>
-      <c r="J124" s="11"/>
-      <c r="K124" s="11"/>
-      <c r="L124" s="11"/>
-      <c r="M124" s="11"/>
-      <c r="N124" s="11"/>
-      <c r="O124" s="11"/>
-      <c r="P124" s="11"/>
-      <c r="Q124" s="11"/>
-      <c r="R124" s="10"/>
-      <c r="U124" s="5"/>
-      <c r="W124" s="11"/>
-      <c r="X124" s="11"/>
-      <c r="Y124" s="11"/>
-      <c r="Z124" s="11"/>
-      <c r="AA124" s="11"/>
-    </row>
-    <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="5"/>
-      <c r="G125" s="11"/>
-      <c r="H125" s="11"/>
-      <c r="I125" s="11"/>
-      <c r="J125" s="11"/>
-      <c r="K125" s="11"/>
-      <c r="L125" s="11"/>
-      <c r="M125" s="11"/>
-      <c r="N125" s="11"/>
-      <c r="O125" s="11"/>
-      <c r="P125" s="11"/>
-      <c r="Q125" s="11"/>
-      <c r="R125" s="10"/>
-      <c r="U125" s="5"/>
-      <c r="W125" s="11"/>
-      <c r="X125" s="11"/>
-      <c r="Y125" s="11"/>
-      <c r="Z125" s="11"/>
-      <c r="AA125" s="11"/>
-    </row>
-    <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="B126" s="9" t="s">
+      <c r="H127" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
-      <c r="G126" s="22" t="s">
+      <c r="I127" s="8"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
+      <c r="M127" s="9"/>
+      <c r="N127" s="9"/>
+      <c r="O127" s="9"/>
+      <c r="P127" s="9"/>
+      <c r="Q127" s="9"/>
+      <c r="R127" s="9"/>
+      <c r="U127" s="5"/>
+      <c r="W127" s="9"/>
+      <c r="X127" s="9"/>
+      <c r="Y127" s="9"/>
+      <c r="Z127" s="9"/>
+      <c r="AA127" s="9"/>
+    </row>
+    <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="H126" s="9" t="s">
+      <c r="B128" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="I126" s="8"/>
-      <c r="J126" s="11"/>
-      <c r="K126" s="11"/>
-      <c r="L126" s="11"/>
-      <c r="M126" s="11"/>
-      <c r="N126" s="11"/>
-      <c r="O126" s="11"/>
-      <c r="P126" s="11"/>
-      <c r="Q126" s="11"/>
-      <c r="R126" s="10"/>
-      <c r="U126" s="5"/>
-      <c r="W126" s="11"/>
-      <c r="X126" s="11"/>
-      <c r="Y126" s="11"/>
-      <c r="Z126" s="11"/>
-      <c r="AA126" s="11"/>
-    </row>
-    <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="4" t="s">
+      <c r="G128" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="H128" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="G127" s="25" t="s">
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="9"/>
+      <c r="O128" s="9"/>
+      <c r="P128" s="9"/>
+      <c r="Q128" s="9"/>
+      <c r="R128" s="9"/>
+      <c r="U128" s="5"/>
+      <c r="W128" s="9"/>
+      <c r="X128" s="9"/>
+      <c r="Y128" s="9"/>
+      <c r="Z128" s="9"/>
+      <c r="AA128" s="9"/>
+    </row>
+    <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="H127" s="10" t="s">
+      <c r="B129" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="I127" s="11"/>
-      <c r="J127" s="11"/>
-      <c r="K127" s="11"/>
-      <c r="L127" s="11"/>
-      <c r="M127" s="11"/>
-      <c r="N127" s="11"/>
-      <c r="O127" s="11"/>
-      <c r="P127" s="11"/>
-      <c r="Q127" s="11"/>
-      <c r="R127" s="10"/>
-      <c r="U127" s="5"/>
-      <c r="W127" s="11"/>
-      <c r="X127" s="11"/>
-      <c r="Y127" s="11"/>
-      <c r="Z127" s="11"/>
-      <c r="AA127" s="11"/>
-    </row>
-    <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="22" t="s">
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
+      <c r="M129" s="9"/>
+      <c r="N129" s="9"/>
+      <c r="O129" s="9"/>
+      <c r="P129" s="9"/>
+      <c r="Q129" s="9"/>
+      <c r="R129" s="9"/>
+      <c r="U129" s="5"/>
+      <c r="W129" s="9"/>
+      <c r="X129" s="9"/>
+      <c r="Y129" s="9"/>
+      <c r="Z129" s="9"/>
+      <c r="AA129" s="9"/>
+    </row>
+    <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="5"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="9"/>
+      <c r="M130" s="9"/>
+      <c r="N130" s="9"/>
+      <c r="O130" s="9"/>
+      <c r="P130" s="9"/>
+      <c r="Q130" s="9"/>
+      <c r="R130" s="9"/>
+      <c r="U130" s="5"/>
+      <c r="W130" s="9"/>
+      <c r="X130" s="9"/>
+      <c r="Y130" s="9"/>
+      <c r="Z130" s="9"/>
+      <c r="AA130" s="9"/>
+    </row>
+    <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="5"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="9"/>
+      <c r="M131" s="9"/>
+      <c r="N131" s="9"/>
+      <c r="O131" s="9"/>
+      <c r="P131" s="9"/>
+      <c r="Q131" s="9"/>
+      <c r="R131" s="9"/>
+      <c r="U131" s="5"/>
+      <c r="W131" s="9"/>
+      <c r="X131" s="9"/>
+      <c r="Y131" s="9"/>
+      <c r="Z131" s="9"/>
+      <c r="AA131" s="9"/>
+    </row>
+    <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B132" s="31"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="9"/>
+      <c r="O132" s="9"/>
+      <c r="P132" s="9"/>
+      <c r="Q132" s="9"/>
+      <c r="R132" s="9"/>
+      <c r="U132" s="5"/>
+      <c r="W132" s="9"/>
+      <c r="X132" s="9"/>
+      <c r="Y132" s="9"/>
+      <c r="Z132" s="9"/>
+      <c r="AA132" s="9"/>
+    </row>
+    <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="5"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="9"/>
+      <c r="M133" s="9"/>
+      <c r="N133" s="9"/>
+      <c r="O133" s="9"/>
+      <c r="P133" s="9"/>
+      <c r="Q133" s="9"/>
+      <c r="R133" s="9"/>
+      <c r="U133" s="5"/>
+      <c r="W133" s="9"/>
+      <c r="X133" s="9"/>
+      <c r="Y133" s="9"/>
+      <c r="Z133" s="9"/>
+      <c r="AA133" s="9"/>
+    </row>
+    <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="11"/>
-      <c r="I128" s="11"/>
-      <c r="J128" s="11"/>
-      <c r="K128" s="11"/>
-      <c r="L128" s="11"/>
-      <c r="M128" s="11"/>
-      <c r="N128" s="11"/>
-      <c r="O128" s="11"/>
-      <c r="P128" s="11"/>
-      <c r="Q128" s="11"/>
-      <c r="R128" s="10"/>
-      <c r="U128" s="5"/>
-      <c r="W128" s="11"/>
-      <c r="X128" s="11"/>
-      <c r="Y128" s="11"/>
-      <c r="Z128" s="11"/>
-      <c r="AA128" s="11"/>
-    </row>
-    <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="5"/>
-      <c r="G129" s="11"/>
-      <c r="H129" s="11"/>
-      <c r="I129" s="11"/>
-      <c r="J129" s="11"/>
-      <c r="K129" s="11"/>
-      <c r="L129" s="11"/>
-      <c r="M129" s="11"/>
-      <c r="N129" s="11"/>
-      <c r="O129" s="11"/>
-      <c r="P129" s="11"/>
-      <c r="Q129" s="11"/>
-      <c r="R129" s="10"/>
-      <c r="U129" s="5"/>
-      <c r="W129" s="11"/>
-      <c r="X129" s="11"/>
-      <c r="Y129" s="11"/>
-      <c r="Z129" s="11"/>
-      <c r="AA129" s="11"/>
-    </row>
-    <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="5"/>
-      <c r="G130" s="11"/>
-      <c r="H130" s="11"/>
-      <c r="I130" s="11"/>
-      <c r="J130" s="11"/>
-      <c r="K130" s="11"/>
-      <c r="L130" s="11"/>
-      <c r="M130" s="11"/>
-      <c r="N130" s="11"/>
-      <c r="O130" s="11"/>
-      <c r="P130" s="11"/>
-      <c r="Q130" s="11"/>
-      <c r="R130" s="10"/>
-      <c r="U130" s="5"/>
-      <c r="W130" s="11"/>
-      <c r="X130" s="11"/>
-      <c r="Y130" s="11"/>
-      <c r="Z130" s="11"/>
-      <c r="AA130" s="11"/>
-    </row>
-    <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="40" t="s">
+      <c r="B134" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="B131" s="41"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="11"/>
-      <c r="I131" s="11"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="11"/>
-      <c r="L131" s="11"/>
-      <c r="M131" s="11"/>
-      <c r="N131" s="11"/>
-      <c r="O131" s="11"/>
-      <c r="P131" s="11"/>
-      <c r="Q131" s="11"/>
-      <c r="R131" s="10"/>
-      <c r="U131" s="5"/>
-      <c r="W131" s="11"/>
-      <c r="X131" s="11"/>
-      <c r="Y131" s="11"/>
-      <c r="Z131" s="11"/>
-      <c r="AA131" s="11"/>
-    </row>
-    <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="5"/>
-      <c r="G132" s="11"/>
-      <c r="H132" s="11"/>
-      <c r="I132" s="11"/>
-      <c r="J132" s="11"/>
-      <c r="K132" s="11"/>
-      <c r="L132" s="11"/>
-      <c r="M132" s="11"/>
-      <c r="N132" s="11"/>
-      <c r="O132" s="11"/>
-      <c r="P132" s="11"/>
-      <c r="Q132" s="11"/>
-      <c r="R132" s="10"/>
-      <c r="U132" s="5"/>
-      <c r="W132" s="11"/>
-      <c r="X132" s="11"/>
-      <c r="Y132" s="11"/>
-      <c r="Z132" s="11"/>
-      <c r="AA132" s="11"/>
-    </row>
-    <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="22" t="s">
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
+      <c r="M134" s="9"/>
+      <c r="N134" s="9"/>
+      <c r="O134" s="9"/>
+      <c r="P134" s="9"/>
+      <c r="Q134" s="9"/>
+      <c r="R134" s="9"/>
+      <c r="U134" s="5"/>
+      <c r="W134" s="9"/>
+      <c r="X134" s="9"/>
+      <c r="Y134" s="9"/>
+      <c r="Z134" s="9"/>
+      <c r="AA134" s="9"/>
+    </row>
+    <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B135" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="11"/>
-      <c r="I133" s="11"/>
-      <c r="J133" s="11"/>
-      <c r="K133" s="11"/>
-      <c r="L133" s="11"/>
-      <c r="M133" s="11"/>
-      <c r="N133" s="11"/>
-      <c r="O133" s="11"/>
-      <c r="P133" s="11"/>
-      <c r="Q133" s="11"/>
-      <c r="R133" s="10"/>
-      <c r="U133" s="5"/>
-      <c r="W133" s="11"/>
-      <c r="X133" s="11"/>
-      <c r="Y133" s="11"/>
-      <c r="Z133" s="11"/>
-      <c r="AA133" s="11"/>
-    </row>
-    <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="4" t="s">
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c r="L135" s="9"/>
+      <c r="M135" s="9"/>
+      <c r="N135" s="9"/>
+      <c r="O135" s="9"/>
+      <c r="P135" s="9"/>
+      <c r="Q135" s="9"/>
+      <c r="R135" s="9"/>
+      <c r="U135" s="5"/>
+      <c r="W135" s="9"/>
+      <c r="X135" s="9"/>
+      <c r="Y135" s="9"/>
+      <c r="Z135" s="9"/>
+      <c r="AA135" s="9"/>
+    </row>
+    <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B136" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="G134" s="11"/>
-      <c r="H134" s="11"/>
-      <c r="I134" s="11"/>
-      <c r="J134" s="11"/>
-      <c r="K134" s="11"/>
-      <c r="L134" s="11"/>
-      <c r="M134" s="11"/>
-      <c r="N134" s="11"/>
-      <c r="O134" s="11"/>
-      <c r="P134" s="11"/>
-      <c r="Q134" s="11"/>
-      <c r="R134" s="10"/>
-      <c r="U134" s="5"/>
-      <c r="W134" s="11"/>
-      <c r="X134" s="11"/>
-      <c r="Y134" s="11"/>
-      <c r="Z134" s="11"/>
-      <c r="AA134" s="11"/>
-    </row>
-    <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="22" t="s">
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="9"/>
+      <c r="M136" s="9"/>
+      <c r="N136" s="9"/>
+      <c r="O136" s="9"/>
+      <c r="P136" s="9"/>
+      <c r="Q136" s="9"/>
+      <c r="R136" s="9"/>
+      <c r="U136" s="5"/>
+      <c r="W136" s="9"/>
+      <c r="X136" s="9"/>
+      <c r="Y136" s="9"/>
+      <c r="Z136" s="9"/>
+      <c r="AA136" s="9"/>
+    </row>
+    <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B137" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
-      <c r="G135" s="11"/>
-      <c r="H135" s="11"/>
-      <c r="I135" s="11"/>
-      <c r="J135" s="11"/>
-      <c r="K135" s="11"/>
-      <c r="L135" s="11"/>
-      <c r="M135" s="11"/>
-      <c r="N135" s="11"/>
-      <c r="O135" s="11"/>
-      <c r="P135" s="11"/>
-      <c r="Q135" s="11"/>
-      <c r="R135" s="10"/>
-      <c r="U135" s="5"/>
-      <c r="W135" s="11"/>
-      <c r="X135" s="11"/>
-      <c r="Y135" s="11"/>
-      <c r="Z135" s="11"/>
-      <c r="AA135" s="11"/>
-    </row>
-    <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="4" t="s">
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="9"/>
+      <c r="M137" s="9"/>
+      <c r="N137" s="9"/>
+      <c r="O137" s="9"/>
+      <c r="P137" s="9"/>
+      <c r="Q137" s="9"/>
+      <c r="R137" s="9"/>
+      <c r="U137" s="5"/>
+      <c r="W137" s="9"/>
+      <c r="X137" s="9"/>
+      <c r="Y137" s="9"/>
+      <c r="Z137" s="9"/>
+      <c r="AA137" s="9"/>
+    </row>
+    <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B138" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="G136" s="11"/>
-      <c r="H136" s="11"/>
-      <c r="I136" s="11"/>
-      <c r="J136" s="11"/>
-      <c r="K136" s="11"/>
-      <c r="L136" s="11"/>
-      <c r="M136" s="11"/>
-      <c r="N136" s="11"/>
-      <c r="O136" s="11"/>
-      <c r="P136" s="11"/>
-      <c r="Q136" s="11"/>
-      <c r="R136" s="10"/>
-      <c r="U136" s="5"/>
-      <c r="W136" s="11"/>
-      <c r="X136" s="11"/>
-      <c r="Y136" s="11"/>
-      <c r="Z136" s="11"/>
-      <c r="AA136" s="11"/>
-    </row>
-    <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="22" t="s">
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c r="L138" s="9"/>
+      <c r="M138" s="9"/>
+      <c r="N138" s="9"/>
+      <c r="O138" s="9"/>
+      <c r="P138" s="9"/>
+      <c r="Q138" s="9"/>
+      <c r="R138" s="9"/>
+      <c r="U138" s="5"/>
+      <c r="W138" s="9"/>
+      <c r="X138" s="9"/>
+      <c r="Y138" s="9"/>
+      <c r="Z138" s="9"/>
+      <c r="AA138" s="9"/>
+    </row>
+    <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B139" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-      <c r="G137" s="11"/>
-      <c r="H137" s="11"/>
-      <c r="I137" s="11"/>
-      <c r="J137" s="11"/>
-      <c r="K137" s="11"/>
-      <c r="L137" s="11"/>
-      <c r="M137" s="11"/>
-      <c r="N137" s="11"/>
-      <c r="O137" s="11"/>
-      <c r="P137" s="11"/>
-      <c r="Q137" s="11"/>
-      <c r="R137" s="10"/>
-      <c r="U137" s="5"/>
-      <c r="W137" s="11"/>
-      <c r="X137" s="11"/>
-      <c r="Y137" s="11"/>
-      <c r="Z137" s="11"/>
-      <c r="AA137" s="11"/>
-    </row>
-    <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="4" t="s">
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c r="L139" s="9"/>
+      <c r="M139" s="9"/>
+      <c r="N139" s="9"/>
+      <c r="O139" s="9"/>
+      <c r="P139" s="9"/>
+      <c r="Q139" s="9"/>
+      <c r="R139" s="9"/>
+      <c r="U139" s="5"/>
+      <c r="W139" s="9"/>
+      <c r="X139" s="9"/>
+      <c r="Y139" s="9"/>
+      <c r="Z139" s="9"/>
+      <c r="AA139" s="9"/>
+    </row>
+    <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B140" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="G138" s="11"/>
-      <c r="H138" s="11"/>
-      <c r="I138" s="11"/>
-      <c r="J138" s="11"/>
-      <c r="K138" s="11"/>
-      <c r="L138" s="11"/>
-      <c r="M138" s="11"/>
-      <c r="N138" s="11"/>
-      <c r="O138" s="11"/>
-      <c r="P138" s="11"/>
-      <c r="Q138" s="11"/>
-      <c r="R138" s="10"/>
-      <c r="U138" s="5"/>
-      <c r="W138" s="11"/>
-      <c r="X138" s="11"/>
-      <c r="Y138" s="11"/>
-      <c r="Z138" s="11"/>
-      <c r="AA138" s="11"/>
-    </row>
-    <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="22" t="s">
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="9"/>
+      <c r="M140" s="9"/>
+      <c r="N140" s="9"/>
+      <c r="O140" s="9"/>
+      <c r="P140" s="9"/>
+      <c r="Q140" s="9"/>
+      <c r="R140" s="9"/>
+      <c r="U140" s="5"/>
+      <c r="W140" s="9"/>
+      <c r="X140" s="9"/>
+      <c r="Y140" s="9"/>
+      <c r="Z140" s="9"/>
+      <c r="AA140" s="9"/>
+    </row>
+    <row r="141" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="5"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="9"/>
+      <c r="M141" s="9"/>
+      <c r="N141" s="9"/>
+      <c r="O141" s="9"/>
+      <c r="P141" s="9"/>
+      <c r="Q141" s="9"/>
+      <c r="R141" s="9"/>
+      <c r="U141" s="5"/>
+      <c r="W141" s="9"/>
+      <c r="X141" s="9"/>
+      <c r="Y141" s="9"/>
+      <c r="Z141" s="9"/>
+      <c r="AA141" s="9"/>
+    </row>
+    <row r="142" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="5"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c r="L142" s="9"/>
+      <c r="M142" s="9"/>
+      <c r="N142" s="9"/>
+      <c r="O142" s="9"/>
+      <c r="P142" s="9"/>
+      <c r="Q142" s="9"/>
+      <c r="R142" s="9"/>
+      <c r="U142" s="5"/>
+      <c r="W142" s="9"/>
+      <c r="X142" s="9"/>
+      <c r="Y142" s="9"/>
+      <c r="Z142" s="9"/>
+      <c r="AA142" s="9"/>
+    </row>
+    <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="5"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c r="L143" s="9"/>
+      <c r="M143" s="9"/>
+      <c r="N143" s="9"/>
+      <c r="O143" s="9"/>
+      <c r="P143" s="9"/>
+      <c r="Q143" s="9"/>
+      <c r="R143" s="9"/>
+      <c r="U143" s="5"/>
+      <c r="W143" s="9"/>
+      <c r="X143" s="9"/>
+      <c r="Y143" s="9"/>
+      <c r="Z143" s="9"/>
+      <c r="AA143" s="9"/>
+    </row>
+    <row r="144" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B144" s="63"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c r="L144" s="9"/>
+      <c r="M144" s="9"/>
+      <c r="N144" s="9"/>
+      <c r="O144" s="9"/>
+      <c r="P144" s="9"/>
+      <c r="Q144" s="9"/>
+      <c r="R144" s="9"/>
+      <c r="U144" s="5"/>
+      <c r="W144" s="9"/>
+      <c r="X144" s="9"/>
+      <c r="Y144" s="9"/>
+      <c r="Z144" s="9"/>
+      <c r="AA144" s="9"/>
+    </row>
+    <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c r="L145" s="9"/>
+      <c r="M145" s="9"/>
+      <c r="N145" s="9"/>
+      <c r="O145" s="9"/>
+      <c r="P145" s="9"/>
+      <c r="Q145" s="9"/>
+      <c r="R145" s="9"/>
+      <c r="U145" s="5"/>
+      <c r="W145" s="9"/>
+      <c r="X145" s="9"/>
+      <c r="Y145" s="9"/>
+      <c r="Z145" s="9"/>
+      <c r="AA145" s="9"/>
+    </row>
+    <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="64" t="s">
         <v>303</v>
       </c>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="G139" s="11"/>
-      <c r="H139" s="11"/>
-      <c r="I139" s="11"/>
-      <c r="J139" s="11"/>
-      <c r="K139" s="11"/>
-      <c r="L139" s="11"/>
-      <c r="M139" s="11"/>
-      <c r="N139" s="11"/>
-      <c r="O139" s="11"/>
-      <c r="P139" s="11"/>
-      <c r="Q139" s="11"/>
-      <c r="R139" s="10"/>
-      <c r="U139" s="5"/>
-      <c r="W139" s="11"/>
-      <c r="X139" s="11"/>
-      <c r="Y139" s="11"/>
-      <c r="Z139" s="11"/>
-      <c r="AA139" s="11"/>
-    </row>
-    <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="5"/>
-      <c r="G140" s="11"/>
-      <c r="H140" s="11"/>
-      <c r="I140" s="11"/>
-      <c r="J140" s="11"/>
-      <c r="K140" s="11"/>
-      <c r="L140" s="11"/>
-      <c r="M140" s="11"/>
-      <c r="N140" s="11"/>
-      <c r="O140" s="11"/>
-      <c r="P140" s="11"/>
-      <c r="Q140" s="11"/>
-      <c r="R140" s="10"/>
-      <c r="U140" s="5"/>
-      <c r="W140" s="11"/>
-      <c r="X140" s="11"/>
-      <c r="Y140" s="11"/>
-      <c r="Z140" s="11"/>
-      <c r="AA140" s="11"/>
-    </row>
-    <row r="141" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="5"/>
-      <c r="G141" s="11"/>
-      <c r="H141" s="11"/>
-      <c r="I141" s="11"/>
-      <c r="J141" s="11"/>
-      <c r="K141" s="11"/>
-      <c r="L141" s="11"/>
-      <c r="M141" s="11"/>
-      <c r="N141" s="11"/>
-      <c r="O141" s="11"/>
-      <c r="P141" s="11"/>
-      <c r="Q141" s="11"/>
-      <c r="R141" s="10"/>
-      <c r="U141" s="5"/>
-      <c r="W141" s="11"/>
-      <c r="X141" s="11"/>
-      <c r="Y141" s="11"/>
-      <c r="Z141" s="11"/>
-      <c r="AA141" s="11"/>
-    </row>
-    <row r="142" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="5"/>
-      <c r="G142" s="11"/>
-      <c r="H142" s="11"/>
-      <c r="I142" s="11"/>
-      <c r="J142" s="11"/>
-      <c r="K142" s="11"/>
-      <c r="L142" s="11"/>
-      <c r="M142" s="11"/>
-      <c r="N142" s="11"/>
-      <c r="O142" s="11"/>
-      <c r="P142" s="11"/>
-      <c r="Q142" s="11"/>
-      <c r="R142" s="10"/>
-      <c r="U142" s="5"/>
-      <c r="W142" s="11"/>
-      <c r="X142" s="11"/>
-      <c r="Y142" s="11"/>
-      <c r="Z142" s="11"/>
-      <c r="AA142" s="11"/>
-    </row>
-    <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="72" t="s">
+      <c r="B146" s="58"/>
+      <c r="D146" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B143" s="73"/>
-      <c r="G143" s="11"/>
-      <c r="H143" s="11"/>
-      <c r="I143" s="11"/>
-      <c r="J143" s="11"/>
-      <c r="K143" s="11"/>
-      <c r="L143" s="11"/>
-      <c r="M143" s="11"/>
-      <c r="N143" s="11"/>
-      <c r="O143" s="11"/>
-      <c r="P143" s="11"/>
-      <c r="Q143" s="11"/>
-      <c r="R143" s="10"/>
-      <c r="U143" s="5"/>
-      <c r="W143" s="11"/>
-      <c r="X143" s="11"/>
-      <c r="Y143" s="11"/>
-      <c r="Z143" s="11"/>
-      <c r="AA143" s="11"/>
-    </row>
-    <row r="144" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G144" s="11"/>
-      <c r="H144" s="11"/>
-      <c r="I144" s="11"/>
-      <c r="J144" s="11"/>
-      <c r="K144" s="11"/>
-      <c r="L144" s="11"/>
-      <c r="M144" s="11"/>
-      <c r="N144" s="11"/>
-      <c r="O144" s="11"/>
-      <c r="P144" s="11"/>
-      <c r="Q144" s="11"/>
-      <c r="R144" s="10"/>
-      <c r="U144" s="5"/>
-      <c r="W144" s="11"/>
-      <c r="X144" s="11"/>
-      <c r="Y144" s="11"/>
-      <c r="Z144" s="11"/>
-      <c r="AA144" s="11"/>
-    </row>
-    <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="74" t="s">
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c r="L146" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="B145" s="68"/>
-      <c r="D145" s="5" t="s">
+      <c r="O146" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="G145" s="11"/>
-      <c r="H145" s="11"/>
-      <c r="I145" s="11"/>
-      <c r="J145" s="11"/>
-      <c r="K145" s="11"/>
-      <c r="L145" s="22" t="s">
+      <c r="Q146" s="9"/>
+      <c r="R146" s="9"/>
+      <c r="U146" s="5"/>
+      <c r="W146" s="9"/>
+      <c r="X146" s="9"/>
+      <c r="Y146" s="9"/>
+      <c r="Z146" s="9"/>
+      <c r="AA146" s="9"/>
+    </row>
+    <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="64" t="s">
         <v>307</v>
       </c>
-      <c r="O145" s="5" t="s">
+      <c r="B147" s="58"/>
+      <c r="D147" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="Q145" s="11"/>
-      <c r="R145" s="10"/>
-      <c r="U145" s="5"/>
-      <c r="W145" s="11"/>
-      <c r="X145" s="11"/>
-      <c r="Y145" s="11"/>
-      <c r="Z145" s="11"/>
-      <c r="AA145" s="11"/>
-    </row>
-    <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="74" t="s">
+      <c r="G147" s="9"/>
+      <c r="H147" s="9"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c r="L147" s="34" t="s">
         <v>309</v>
       </c>
-      <c r="B146" s="68"/>
-      <c r="D146" s="5" t="s">
+      <c r="Q147" s="9"/>
+      <c r="R147" s="9"/>
+      <c r="U147" s="5"/>
+      <c r="W147" s="9"/>
+      <c r="X147" s="9"/>
+      <c r="Y147" s="9"/>
+      <c r="Z147" s="9"/>
+      <c r="AA147" s="9"/>
+    </row>
+    <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G148" s="9"/>
+      <c r="H148" s="9"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c r="Q148" s="9"/>
+      <c r="R148" s="9"/>
+      <c r="U148" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="G146" s="11"/>
-      <c r="H146" s="11"/>
-      <c r="I146" s="11"/>
-      <c r="J146" s="11"/>
-      <c r="K146" s="11"/>
-      <c r="L146" s="44" t="s">
+      <c r="W148" s="9"/>
+      <c r="X148" s="9"/>
+      <c r="Y148" s="9"/>
+      <c r="Z148" s="9"/>
+      <c r="AA148" s="9"/>
+    </row>
+    <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="Q146" s="11"/>
-      <c r="R146" s="10"/>
-      <c r="U146" s="5"/>
-      <c r="W146" s="11"/>
-      <c r="X146" s="11"/>
-      <c r="Y146" s="11"/>
-      <c r="Z146" s="11"/>
-      <c r="AA146" s="11"/>
-    </row>
-    <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G147" s="11"/>
-      <c r="H147" s="11"/>
-      <c r="I147" s="11"/>
-      <c r="J147" s="11"/>
-      <c r="K147" s="11"/>
-      <c r="Q147" s="11"/>
-      <c r="R147" s="10"/>
-      <c r="U147" s="5" t="s">
+      <c r="G149" s="9"/>
+      <c r="H149" s="9"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+      <c r="L149" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="W147" s="11"/>
-      <c r="X147" s="11"/>
-      <c r="Y147" s="11"/>
-      <c r="Z147" s="11"/>
-      <c r="AA147" s="11"/>
-    </row>
-    <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="18" t="s">
+      <c r="N149" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="G148" s="11"/>
-      <c r="H148" s="11"/>
-      <c r="I148" s="11"/>
-      <c r="J148" s="11"/>
-      <c r="K148" s="11"/>
-      <c r="L148" s="4" t="s">
+      <c r="P149" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="N148" s="5" t="s">
+      <c r="Q149" s="9"/>
+      <c r="R149" s="9"/>
+      <c r="S149" s="9"/>
+      <c r="T149" s="9"/>
+      <c r="U149" s="9"/>
+      <c r="V149" s="9"/>
+      <c r="W149" s="9"/>
+      <c r="X149" s="9"/>
+      <c r="Y149" s="9"/>
+      <c r="Z149" s="9"/>
+      <c r="AA149" s="9"/>
+    </row>
+    <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="P148" s="5" t="s">
+      <c r="G150" s="9"/>
+      <c r="H150" s="9"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
+      <c r="L150" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="Q148" s="11"/>
-      <c r="R148" s="11"/>
-      <c r="S148" s="11"/>
-      <c r="T148" s="11"/>
-      <c r="U148" s="11"/>
-      <c r="V148" s="11"/>
-      <c r="W148" s="11"/>
-      <c r="X148" s="11"/>
-      <c r="Y148" s="11"/>
-      <c r="Z148" s="11"/>
-      <c r="AA148" s="11"/>
-    </row>
-    <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="4" t="s">
+      <c r="P150" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="G149" s="11"/>
-      <c r="H149" s="11"/>
-      <c r="I149" s="11"/>
-      <c r="J149" s="11"/>
-      <c r="K149" s="11"/>
-      <c r="L149" s="4" t="s">
+      <c r="Q150" s="9"/>
+    </row>
+    <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="P149" s="5" t="s">
+      <c r="G151" s="9"/>
+      <c r="L151" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="Q149" s="11"/>
-    </row>
-    <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="5" t="s">
+      <c r="P151" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="G150" s="11"/>
-      <c r="L150" s="4" t="s">
+    </row>
+    <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="P150" s="5" t="s">
+      <c r="G152" s="9"/>
+      <c r="L152" s="4" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="5" t="s">
+      <c r="P152" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="G151" s="11"/>
-      <c r="L151" s="4" t="s">
+    </row>
+    <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G153" s="9"/>
+      <c r="M153" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="P151" s="5" t="s">
+      <c r="P153" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G152" s="11"/>
-      <c r="M152" s="5" t="s">
+    <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="P152" s="5" t="s">
+      <c r="G154" s="9"/>
+    </row>
+    <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="4" t="s">
+      <c r="G155" s="9"/>
+    </row>
+    <row r="156" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G156" s="9"/>
+    </row>
+    <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="G153" s="11"/>
-    </row>
-    <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="5" t="s">
+      <c r="G157" s="9"/>
+    </row>
+    <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="65" t="s">
         <v>329</v>
       </c>
-      <c r="G154" s="11"/>
-    </row>
-    <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G155" s="11"/>
-    </row>
-    <row r="156" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="4" t="s">
+      <c r="B158" s="58"/>
+      <c r="C158" s="58"/>
+      <c r="D158" s="58"/>
+      <c r="E158" s="58"/>
+      <c r="F158" s="58"/>
+      <c r="G158" s="9"/>
+    </row>
+    <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="58"/>
+      <c r="B159" s="58"/>
+      <c r="C159" s="58"/>
+      <c r="D159" s="58"/>
+      <c r="E159" s="58"/>
+      <c r="F159" s="58"/>
+      <c r="G159" s="9"/>
+    </row>
+    <row r="160" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G160" s="9"/>
+    </row>
+    <row r="161" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="G156" s="11"/>
-    </row>
-    <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="75" t="s">
+      <c r="G161" s="9"/>
+      <c r="L161" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="B157" s="68"/>
-      <c r="C157" s="68"/>
-      <c r="D157" s="68"/>
-      <c r="E157" s="68"/>
-      <c r="F157" s="68"/>
-      <c r="G157" s="11"/>
-    </row>
-    <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="68"/>
-      <c r="B158" s="68"/>
-      <c r="C158" s="68"/>
-      <c r="D158" s="68"/>
-      <c r="E158" s="68"/>
-      <c r="F158" s="68"/>
-      <c r="G158" s="11"/>
-    </row>
-    <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G159" s="11"/>
-    </row>
-    <row r="160" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="27" t="s">
+    </row>
+    <row r="162" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="G160" s="11"/>
-      <c r="L160" s="27" t="s">
+      <c r="G162" s="9"/>
+      <c r="L162" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="M162" s="8"/>
+      <c r="N162" s="5" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="5" t="s">
+      <c r="O162" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="G161" s="11"/>
-      <c r="L161" s="9" t="s">
+    </row>
+    <row r="163" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G163" s="9"/>
+      <c r="M163" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="O163" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="B164" s="58"/>
+      <c r="G164" s="9"/>
+      <c r="M164" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="O164" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G165" s="9"/>
+      <c r="N165" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G166" s="9"/>
+      <c r="N166" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G167" s="9"/>
+      <c r="M167" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="O167" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="G168" s="9"/>
+    </row>
+    <row r="169" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G169" s="9"/>
+      <c r="L169" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="M169" s="8"/>
+      <c r="N169" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="O169" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G170" s="9"/>
+    </row>
+    <row r="171" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="9"/>
+      <c r="B171" s="9"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+    </row>
+    <row r="172" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="9"/>
+      <c r="B172" s="9"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
+    </row>
+    <row r="173" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="B173" s="36"/>
+      <c r="C173" s="9"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
+      <c r="G173" s="9"/>
+      <c r="L173" s="20" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="B174" s="9"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="L174" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="M174" s="8"/>
+    </row>
+    <row r="175" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="9"/>
+      <c r="B175" s="9"/>
+      <c r="C175" s="9"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
+      <c r="L175" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="B176" s="9"/>
+      <c r="C176" s="9"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="L176" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B177" s="9"/>
+      <c r="C177" s="9"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+    </row>
+    <row r="178" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="M161" s="8"/>
-      <c r="N161" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="O161" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G162" s="11"/>
-      <c r="M162" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="O162" s="5" t="s">
+      <c r="B178" s="9"/>
+      <c r="C178" s="9"/>
+      <c r="D178" s="9"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+    </row>
+    <row r="179" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="9"/>
+      <c r="B179" s="9"/>
+      <c r="C179" s="9"/>
+      <c r="D179" s="9"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="66"/>
+      <c r="G179" s="58"/>
+      <c r="L179" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="M179" s="8"/>
+    </row>
+    <row r="180" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="B180" s="9"/>
+      <c r="C180" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D180" s="9"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="58"/>
+      <c r="G180" s="58"/>
+      <c r="L180" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="B181" s="9"/>
+      <c r="C181" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D181" s="9"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9"/>
+    </row>
+    <row r="182" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="B209" s="8"/>
+    </row>
+    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="37" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="B225" s="8"/>
+      <c r="D225" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="34" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="5" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="74" t="s">
-        <v>339</v>
-      </c>
-      <c r="B163" s="68"/>
-      <c r="G163" s="11"/>
-      <c r="M163" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="O163" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="G164" s="11"/>
-      <c r="N164" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="G165" s="11"/>
-      <c r="N165" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="G166" s="11"/>
-      <c r="M166" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="O166" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="G167" s="11"/>
-    </row>
-    <row r="168" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G168" s="11"/>
-      <c r="L168" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="M168" s="8"/>
-      <c r="N168" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="O168" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G169" s="11"/>
-    </row>
-    <row r="170" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="11"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="11"/>
-      <c r="D170" s="11"/>
-      <c r="E170" s="11"/>
-      <c r="F170" s="11"/>
-      <c r="G170" s="11"/>
-    </row>
-    <row r="171" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="11"/>
-      <c r="B171" s="11"/>
-      <c r="C171" s="11"/>
-      <c r="D171" s="11"/>
-      <c r="E171" s="11"/>
-      <c r="F171" s="11"/>
-      <c r="G171" s="11"/>
-    </row>
-    <row r="172" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="45" t="s">
-        <v>352</v>
-      </c>
-      <c r="B172" s="46"/>
-      <c r="C172" s="11"/>
-      <c r="D172" s="11"/>
-      <c r="E172" s="11"/>
-      <c r="F172" s="11"/>
-      <c r="G172" s="11"/>
-      <c r="L172" s="27" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="B173" s="11"/>
-      <c r="C173" s="11"/>
-      <c r="D173" s="11"/>
-      <c r="E173" s="11"/>
-      <c r="F173" s="11"/>
-      <c r="G173" s="11"/>
-      <c r="L173" s="22" t="s">
-        <v>354</v>
-      </c>
-      <c r="M173" s="8"/>
-    </row>
-    <row r="174" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="11"/>
-      <c r="B174" s="11"/>
-      <c r="C174" s="11"/>
-      <c r="D174" s="11"/>
-      <c r="E174" s="11"/>
-      <c r="F174" s="11"/>
-      <c r="G174" s="11"/>
-      <c r="L174" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="22" t="s">
-        <v>356</v>
-      </c>
-      <c r="B175" s="11"/>
-      <c r="C175" s="11"/>
-      <c r="D175" s="11"/>
-      <c r="E175" s="11"/>
-      <c r="F175" s="11"/>
-      <c r="G175" s="11"/>
-      <c r="L175" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="B176" s="11"/>
-      <c r="C176" s="11"/>
-      <c r="D176" s="11"/>
-      <c r="E176" s="11"/>
-      <c r="F176" s="11"/>
-      <c r="G176" s="11"/>
-    </row>
-    <row r="177" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="B177" s="11"/>
-      <c r="C177" s="11"/>
-      <c r="D177" s="11"/>
-      <c r="E177" s="11"/>
-      <c r="F177" s="11"/>
-      <c r="G177" s="11"/>
-    </row>
-    <row r="178" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="10"/>
-      <c r="B178" s="11"/>
-      <c r="C178" s="11"/>
-      <c r="D178" s="11"/>
-      <c r="E178" s="11"/>
-      <c r="F178" s="76"/>
-      <c r="G178" s="68"/>
-      <c r="L178" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="M178" s="9"/>
-    </row>
-    <row r="179" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="B179" s="11"/>
-      <c r="C179" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="D179" s="11"/>
-      <c r="E179" s="11"/>
-      <c r="F179" s="68"/>
-      <c r="G179" s="68"/>
-      <c r="L179" s="47" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="25" t="s">
-        <v>579</v>
-      </c>
-      <c r="B180" s="11"/>
-      <c r="C180" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="D180" s="11"/>
-      <c r="E180" s="11"/>
-      <c r="F180" s="11"/>
-      <c r="G180" s="11"/>
-    </row>
-    <row r="181" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="5" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="D196" s="5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="D199" s="5" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="5" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="5" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="5" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="22" t="s">
-        <v>382</v>
-      </c>
-      <c r="B208" s="8"/>
-    </row>
-    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="5" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="5" t="s">
+      <c r="D227" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="B229" s="8"/>
+      <c r="D229" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="34" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="34" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="34" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="B252" s="16"/>
+    </row>
+    <row r="255" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="4" t="s">
         <v>584</v>
-      </c>
-      <c r="E212" s="5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="5" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D216" s="5" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="D217" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="D218" s="5" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="D219" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="48" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="B224" s="8"/>
-      <c r="D224" s="5" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="44" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="D226" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="22" t="s">
-        <v>397</v>
-      </c>
-      <c r="B228" s="8"/>
-      <c r="D228" s="5" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="44" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D232" s="5" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="44" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D235" s="5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="44" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="B251" s="20"/>
-    </row>
-    <row r="254" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="4" t="s">
-        <v>587</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="L62:Q62"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="F178:G179"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="H112:I113"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="L63:Q63"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="F179:G180"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="H113:I114"/>
+    <mergeCell ref="A144:B144"/>
     <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A157:F158"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A158:F159"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8253,60 +8327,60 @@
   <dimension ref="A3:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="12.5546875" style="3"/>
+    <col min="1" max="16384" width="12.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -8321,93 +8395,93 @@
   </sheetPr>
   <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="12.5546875" style="3"/>
+    <col min="1" max="16384" width="12.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
-        <v>416</v>
-      </c>
-      <c r="B1" s="52"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
-        <v>417</v>
-      </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>414</v>
+      </c>
+      <c r="B1" s="41"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="G4" s="5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
         <v>421</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
         <v>423</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="53" t="s">
-        <v>425</v>
-      </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -8416,15 +8490,15 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53" t="s">
-        <v>428</v>
-      </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
+        <v>426</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -8434,13 +8508,13 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -8451,7 +8525,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -8464,30 +8538,30 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -8496,7 +8570,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -8505,9 +8579,9 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>436</v>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>434</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -8516,46 +8590,46 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="10" t="s">
-        <v>438</v>
+      <c r="D23" s="9" t="s">
+        <v>436</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="10" t="s">
-        <v>440</v>
+      <c r="D24" s="9" t="s">
+        <v>438</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="10" t="s">
-        <v>442</v>
+      <c r="D25" s="9" t="s">
+        <v>440</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -8564,7 +8638,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -8573,31 +8647,31 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
-        <v>443</v>
-      </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
+        <v>441</v>
+      </c>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -8606,38 +8680,38 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="56" t="s">
-        <v>450</v>
-      </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -8650,11 +8724,11 @@
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="53" t="s">
-        <v>451</v>
-      </c>
-      <c r="B38" s="53"/>
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="42" t="s">
+        <v>449</v>
+      </c>
+      <c r="B38" s="42"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -8668,9 +8742,9 @@
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -8685,16 +8759,16 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -8708,7 +8782,7 @@
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -8724,9 +8798,9 @@
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -8738,16 +8812,16 @@
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -8762,10 +8836,10 @@
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -8780,10 +8854,10 @@
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -8798,10 +8872,10 @@
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -8816,10 +8890,10 @@
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -8834,11 +8908,11 @@
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
-      <c r="C48" s="49" t="s">
-        <v>463</v>
+      <c r="C48" s="38" t="s">
+        <v>461</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -8852,7 +8926,7 @@
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -8868,16 +8942,16 @@
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -8888,29 +8962,29 @@
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
-      <c r="K51" s="44" t="s">
-        <v>468</v>
+      <c r="K51" s="34" t="s">
+        <v>466</v>
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -8926,38 +9000,38 @@
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
-      <c r="K53" s="50" t="s">
-        <v>471</v>
+      <c r="K53" s="39" t="s">
+        <v>469</v>
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -8968,7 +9042,7 @@
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -8979,14 +9053,14 @@
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
-      <c r="K55" s="44" t="s">
-        <v>474</v>
+      <c r="K55" s="34" t="s">
+        <v>472</v>
       </c>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -8997,14 +9071,14 @@
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
-      <c r="K56" s="44" t="s">
-        <v>475</v>
+      <c r="K56" s="34" t="s">
+        <v>473</v>
       </c>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -9015,14 +9089,14 @@
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
-      <c r="K57" s="44" t="s">
-        <v>476</v>
+      <c r="K57" s="34" t="s">
+        <v>474</v>
       </c>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -9033,14 +9107,14 @@
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
-      <c r="K58" s="44" t="s">
-        <v>477</v>
+      <c r="K58" s="34" t="s">
+        <v>475</v>
       </c>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -9050,23 +9124,23 @@
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
-      <c r="K59" s="44" t="s">
-        <v>478</v>
+      <c r="K59" s="34" t="s">
+        <v>476</v>
       </c>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
@@ -9077,16 +9151,16 @@
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -9097,7 +9171,7 @@
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -9113,9 +9187,9 @@
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -9126,14 +9200,14 @@
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -9149,9 +9223,9 @@
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
     </row>
-    <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -9162,16 +9236,16 @@
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
     </row>
-    <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -9187,7 +9261,7 @@
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
     </row>
-    <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -9203,16 +9277,16 @@
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
     </row>
-    <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
@@ -9223,7 +9297,7 @@
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
     </row>
-    <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -9239,7 +9313,7 @@
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
     </row>
-    <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -9255,7 +9329,7 @@
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
     </row>
-    <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -9271,11 +9345,11 @@
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
     </row>
-    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="53" t="s">
-        <v>489</v>
-      </c>
-      <c r="B72" s="53"/>
+    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="42" t="s">
+        <v>487</v>
+      </c>
+      <c r="B72" s="42"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -9289,9 +9363,9 @@
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
     </row>
-    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -9303,13 +9377,13 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
     </row>
-    <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -9325,9 +9399,9 @@
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
     </row>
-    <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -9339,16 +9413,16 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
     </row>
-    <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -9363,11 +9437,11 @@
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
     </row>
-    <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
-      <c r="C77" s="49" t="s">
-        <v>463</v>
+      <c r="C77" s="38" t="s">
+        <v>461</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -9381,7 +9455,7 @@
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
     </row>
-    <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -9397,7 +9471,7 @@
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
     </row>
-    <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -9413,9 +9487,9 @@
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
     </row>
-    <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -9423,7 +9497,7 @@
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
@@ -9433,7 +9507,7 @@
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
     </row>
-    <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -9449,53 +9523,53 @@
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
     </row>
-    <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="87" t="s">
-        <v>497</v>
-      </c>
-      <c r="H82" s="68"/>
-      <c r="I82" s="68"/>
-      <c r="J82" s="68"/>
-      <c r="K82" s="68"/>
+      <c r="G82" s="77" t="s">
+        <v>495</v>
+      </c>
+      <c r="H82" s="58"/>
+      <c r="I82" s="58"/>
+      <c r="J82" s="58"/>
+      <c r="K82" s="58"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
     </row>
-    <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="68"/>
-      <c r="H83" s="68"/>
-      <c r="I83" s="68"/>
-      <c r="J83" s="68"/>
-      <c r="K83" s="68"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="58"/>
+      <c r="I83" s="58"/>
+      <c r="J83" s="58"/>
+      <c r="K83" s="58"/>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
     </row>
-    <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="56" t="s">
-        <v>499</v>
-      </c>
-      <c r="B92" s="57"/>
-    </row>
-    <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="45" t="s">
+        <v>497</v>
+      </c>
+      <c r="B92" s="46"/>
+    </row>
+    <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -9504,11 +9578,11 @@
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I94" s="5"/>
     </row>
-    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -9519,7 +9593,7 @@
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
     </row>
-    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -9530,11 +9604,11 @@
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="58" t="s">
-        <v>502</v>
-      </c>
-      <c r="B97" s="59"/>
+    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="B97" s="48"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -9543,14 +9617,14 @@
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -9558,9 +9632,9 @@
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
     </row>
-    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -9571,7 +9645,7 @@
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -9582,9 +9656,9 @@
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -9595,9 +9669,9 @@
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
     </row>
-    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -9608,23 +9682,23 @@
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
     </row>
-    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="56" t="s">
+    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="45" t="s">
+        <v>506</v>
+      </c>
+      <c r="B105" s="46"/>
+      <c r="C105" s="46"/>
+      <c r="D105" s="46"/>
+      <c r="E105" s="46"/>
+    </row>
+    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
         <v>508</v>
-      </c>
-      <c r="B105" s="57"/>
-      <c r="C105" s="57"/>
-      <c r="D105" s="57"/>
-      <c r="E105" s="57"/>
-    </row>
-    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="5" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
-        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -9646,140 +9720,140 @@
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="12.5546875" style="3"/>
+    <col min="1" max="16384" width="12.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="78"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="B7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="D7" s="4" t="s">
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="B9" s="8"/>
+      <c r="D9" s="8" t="s">
         <v>515</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="D9" s="9" t="s">
-        <v>517</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="H9" s="9" t="s">
-        <v>518</v>
+      <c r="H9" s="8" t="s">
+        <v>516</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="D10" s="4" t="s">
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="4" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="9" t="s">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="4" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
-        <v>524</v>
-      </c>
-      <c r="B16" s="12"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>589</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>592</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -9788,14 +9862,14 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>594</v>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>591</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -9810,96 +9884,96 @@
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="60" t="s">
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="49" t="s">
+        <v>523</v>
+      </c>
+      <c r="B27" s="50"/>
+      <c r="C27" s="49" t="s">
+        <v>524</v>
+      </c>
+      <c r="D27" s="50"/>
+      <c r="E27" s="49" t="s">
         <v>525</v>
       </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="60" t="s">
+      <c r="F27" s="51"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="52" t="s">
         <v>526</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="60" t="s">
+      <c r="B28" s="53"/>
+      <c r="C28" s="52" t="s">
         <v>527</v>
       </c>
-      <c r="F27" s="62"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="63" t="s">
+      <c r="D28" s="53"/>
+      <c r="E28" s="53" t="s">
         <v>528</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="63" t="s">
+    </row>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="52" t="s">
         <v>529</v>
       </c>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64" t="s">
+      <c r="B29" s="53"/>
+      <c r="C29" s="52" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="63" t="s">
+      <c r="D29" s="53"/>
+      <c r="E29" s="53" t="s">
         <v>531</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="63" t="s">
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="52" t="s">
         <v>532</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64" t="s">
+      <c r="B30" s="53"/>
+      <c r="C30" s="52" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="63" t="s">
+      <c r="D30" s="53"/>
+      <c r="E30" s="53" t="s">
         <v>534</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="63" t="s">
+    </row>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="52" t="s">
         <v>535</v>
       </c>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64" t="s">
+      <c r="B31" s="53"/>
+      <c r="C31" s="52" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="63" t="s">
+      <c r="D31" s="53"/>
+      <c r="E31" s="53" t="s">
         <v>537</v>
       </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="63" t="s">
+    </row>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="52" t="s">
         <v>538</v>
       </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64" t="s">
+      <c r="B32" s="53"/>
+      <c r="C32" s="52" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="63" t="s">
+      <c r="D32" s="53"/>
+      <c r="E32" s="53" t="s">
         <v>540</v>
       </c>
-      <c r="B32" s="64"/>
-      <c r="C32" s="63" t="s">
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="52" t="s">
         <v>541</v>
       </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64" t="s">
+      <c r="B33" s="53"/>
+      <c r="C33" s="52" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="63" t="s">
+      <c r="D33" s="53"/>
+      <c r="E33" s="53" t="s">
         <v>543</v>
-      </c>
-      <c r="B33" s="64"/>
-      <c r="C33" s="63" t="s">
-        <v>544</v>
-      </c>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64" t="s">
-        <v>545</v>
       </c>
     </row>
   </sheetData>

--- a/MS_PowerShell.xlsx
+++ b/MS_PowerShell.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{741F57A5-2D69-490B-BBEF-7F93FBD128F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDA7CC5E-1262-4453-A38A-FE83EA827E56}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cmd" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,20 @@
     <sheet name="Active Directory module" sheetId="5" r:id="rId5"/>
     <sheet name="Azure module" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -57,6 +70,29 @@
     <t>Doména</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>net user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> mbubenik /domain</t>
+    </r>
+  </si>
+  <si>
     <t>vypíše informace ohledně účtu mbubenik v doméně</t>
   </si>
   <si>
@@ -126,6 +162,58 @@
     <t>Versions</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>PowerShell 5.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> is the last full release</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>PowerShell Core</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> is the latest release</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve"> - Only supports Microsoft OS</t>
   </si>
   <si>
@@ -148,1590 +236,6 @@
   </si>
   <si>
     <t>Pomoc, dokumentace</t>
-  </si>
-  <si>
-    <t>Get-Help</t>
-  </si>
-  <si>
-    <t>zobrazí nápomocnou dokumentaci</t>
-  </si>
-  <si>
-    <t>Get-EventLog Application -computer (Get-Content names.txt)</t>
-  </si>
-  <si>
-    <t>ukáže nám příklady použití příkazu get-command</t>
-  </si>
-  <si>
-    <t>ukáže nám příklady použití příkazu get-command na internetu</t>
-  </si>
-  <si>
-    <t>Update-Help</t>
-  </si>
-  <si>
-    <t>aktualizuje databazi dokumentací z internetu</t>
-  </si>
-  <si>
-    <t>hledání parametru Width v pomocné dokumentaci</t>
-  </si>
-  <si>
-    <t>Spustí program</t>
-  </si>
-  <si>
-    <t>aktualizuje databázi dokumentací z příslušeného zdroje</t>
-  </si>
-  <si>
-    <t>-NoClobber</t>
-  </si>
-  <si>
-    <t>prevence proti overwriting existujícího souboru</t>
-  </si>
-  <si>
-    <t>Save-Help</t>
-  </si>
-  <si>
-    <t>uloží současný stav nápomocné dokumentace</t>
-  </si>
-  <si>
-    <t>Show-Command</t>
-  </si>
-  <si>
-    <t>pomocí grafického rozhrání nám pomůže dokončit příkaz správným syntaxem</t>
-  </si>
-  <si>
-    <t>Get-Verb</t>
-  </si>
-  <si>
-    <t>ukáže všechny slovesa, která se dají použít v příkazech</t>
-  </si>
-  <si>
-    <t>restart-computer</t>
-  </si>
-  <si>
-    <t>Get-Command</t>
-  </si>
-  <si>
-    <t>ukáže všechny dostupné cmdlets, funkce a aliasy</t>
-  </si>
-  <si>
-    <t>Spustí službu</t>
-  </si>
-  <si>
-    <t>ukáže příkazy, které obsahují frázi service</t>
-  </si>
-  <si>
-    <t>ukáže příkazy se slovesem, které obsahují frázi service</t>
-  </si>
-  <si>
-    <t>ukáže příkazy s podstatným jménem, které obsahují frázi service</t>
-  </si>
-  <si>
-    <t>Ostatní</t>
-  </si>
-  <si>
-    <t>Spustí program, službu na pozadí</t>
-  </si>
-  <si>
-    <t>ukáže příkazy, které obsahují frázi log a mají typ cmdlet</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>\</t>
-  </si>
-  <si>
-    <t>cls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &gt;</t>
-  </si>
-  <si>
-    <t>clears the screen</t>
-  </si>
-  <si>
-    <t>Get-Member</t>
-  </si>
-  <si>
-    <t>CTRL + L</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>Anatomie PowerShell příkazu</t>
-  </si>
-  <si>
-    <t>Zastaví program</t>
-  </si>
-  <si>
-    <t>Příkaz</t>
-  </si>
-  <si>
-    <t>Parametr 1</t>
-  </si>
-  <si>
-    <t>Parametr 2</t>
-  </si>
-  <si>
-    <t>Parametr 3</t>
-  </si>
-  <si>
-    <t>Get-EventLog</t>
-  </si>
-  <si>
-    <t>-LogName Security</t>
-  </si>
-  <si>
-    <t>-ComputerName WIN8, SERVER1</t>
-  </si>
-  <si>
-    <t>-Verbose</t>
-  </si>
-  <si>
-    <t>Zastaví službu</t>
-  </si>
-  <si>
-    <t>První parametr</t>
-  </si>
-  <si>
-    <t>Konvence pojmenování</t>
-  </si>
-  <si>
-    <t>Cmdlet</t>
-  </si>
-  <si>
-    <t># vyslovujeme "command-let"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Protože v hodnotě nejsou mezery ani čárky, nemusíme jí dávat do uvozovek</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Nativní PowerShell nástroj příkazového řádku, psaný v jazyce C#</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Příkazy vestavěné v příkazovém řádku</t>
-  </si>
-  <si>
-    <t>Druhý parametr</t>
-  </si>
-  <si>
-    <t>Parametr</t>
-  </si>
-  <si>
-    <t>Pipeline</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Jednotlivé hodnoty jsou odděleny čárkou a protože v ani jedný nejsou mezery ani čárky, nemusíme tyto hodnoty dávat do uvozovek</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Argumenty k cmdletu, funkcím a skriptům</t>
-  </si>
-  <si>
-    <t>- předává objekty mezi rutinami</t>
-  </si>
-  <si>
-    <t>- "Mění chování komponentů"</t>
-  </si>
-  <si>
-    <t>Třetí parametr</t>
-  </si>
-  <si>
-    <t>Alias</t>
-  </si>
-  <si>
-    <t>Skript</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Zkrácené jméno pro běžné příkazy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - PowerShell kód uložený v .ps1 souboru</t>
-  </si>
-  <si>
-    <t>Funkce (function)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Funkce může být podobná cmdletu, kdežto aby byly napsány v C#, tak jsou psány v Powershell skriptovacím jazyce</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Příkazy nejsou case-sensitive</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Balíček cmdletů, funkcí, a další...</t>
-  </si>
-  <si>
-    <t>Aliasy: přezdívky pro příkazy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Aliasy (aliases) nám umožňují zkrátit dlouhý příkazy na námi zvolený příkaz</t>
-  </si>
-  <si>
-    <t>$_</t>
-  </si>
-  <si>
-    <t>"automatická proměnná"</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Get-Alias ls</t>
-  </si>
-  <si>
-    <t>zjistí, který příkaz je vázaný na "ls"</t>
-  </si>
-  <si>
-    <t>gci | % { $_ }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to samý jako </t>
-  </si>
-  <si>
-    <t>Get-ChildItem | ForEach-Object { $_ }</t>
-  </si>
-  <si>
-    <t>Get-Alias -Definition "service*</t>
-  </si>
-  <si>
-    <t>zjistí, který alias je vázaný na "service"</t>
-  </si>
-  <si>
-    <t>New-Alias -Name "wtf" Get-Help</t>
-  </si>
-  <si>
-    <t>vytvoří alias "wtf" pro aktuální relaci shellu příkazu Get-Help</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Export-Alias</t>
-  </si>
-  <si>
-    <t>exportuje, "uloží" alias do souboru</t>
-  </si>
-  <si>
-    <t>Import-Alias</t>
-  </si>
-  <si>
-    <t>importuje alias ze souboru</t>
-  </si>
-  <si>
-    <t>PowerShell Objects and Members (PowerShell objekty a členy)</t>
-  </si>
-  <si>
-    <t>Variables and Data Types (Proměnné a data typy)</t>
-  </si>
-  <si>
-    <t>Object</t>
-  </si>
-  <si>
-    <t>Variables (proměnné)</t>
-  </si>
-  <si>
-    <t>Data Types (datové typy)</t>
-  </si>
-  <si>
-    <t>- Entita, která představuje například počítač, soubor, adresář, službu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Typ hodnoty v proměnné</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Slouží k uložení informací</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - PowerShell automaticky přiřazuje datový typ na základě typu proměnné</t>
-  </si>
-  <si>
-    <t>Members</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Objekty obsahují members</t>
-  </si>
-  <si>
-    <t>Běžné datové typy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Popisují strukturu a funkčnost objektu</t>
-  </si>
-  <si>
-    <t>Typy proměnných v PowerShellu:</t>
-  </si>
-  <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>True or False</t>
-  </si>
-  <si>
-    <t>$flag = $true</t>
-  </si>
-  <si>
-    <t>User (uživatelské)</t>
-  </si>
-  <si>
-    <t>Integer</t>
-  </si>
-  <si>
-    <t>32-bit or 64-bit integers</t>
-  </si>
-  <si>
-    <t>$int = 123</t>
-  </si>
-  <si>
-    <t>Tři primární druhy members:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Proměnné deklarované uživatelem</t>
-  </si>
-  <si>
-    <t>Decimal</t>
-  </si>
-  <si>
-    <t>Decimal numbers</t>
-  </si>
-  <si>
-    <t>$dec = 10.99</t>
-  </si>
-  <si>
-    <t>Properties (vlastnosti)</t>
-  </si>
-  <si>
-    <t>$myvar = "string"</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Character data</t>
-  </si>
-  <si>
-    <t>$string = "data"</t>
-  </si>
-  <si>
-    <t>- Atributy, které popisují stav objektu</t>
-  </si>
-  <si>
-    <t>DateTime</t>
-  </si>
-  <si>
-    <t>Date and time data</t>
-  </si>
-  <si>
-    <t>$today = Get-Date</t>
-  </si>
-  <si>
-    <t>Automatic (automatické)</t>
-  </si>
-  <si>
-    <t>Array</t>
-  </si>
-  <si>
-    <t>Collection of Items (Index based)</t>
-  </si>
-  <si>
-    <t>$array = 1,2,3</t>
-  </si>
-  <si>
-    <t>Methods (metody)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Proměnné v rámci PowerShell relaci</t>
-  </si>
-  <si>
-    <t>HashTable</t>
-  </si>
-  <si>
-    <t>Collection of Items (Key-value based)</t>
-  </si>
-  <si>
-    <t>$hastable = @{1="hello",2="world"}</t>
-  </si>
-  <si>
-    <t>- Metody jsou akce, které možou objekty provádět</t>
-  </si>
-  <si>
-    <t>$PSVersionTable.PSVersion</t>
-  </si>
-  <si>
-    <t>deklaruje array s třemi elementy</t>
-  </si>
-  <si>
-    <t>Events (události)</t>
-  </si>
-  <si>
-    <t>Preference</t>
-  </si>
-  <si>
-    <t>$array[0]</t>
-  </si>
-  <si>
-    <t>označí první element (index) v array</t>
-  </si>
-  <si>
-    <t>- Události jsou spouštěny, když je podniknuta určitá akce proti objektu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Řídí uživatelem deklarované proměnné</t>
-  </si>
-  <si>
-    <t>$ErrorActionPreference</t>
-  </si>
-  <si>
-    <t>$ht = @{1="one",2="two",3=3}</t>
-  </si>
-  <si>
-    <t>deklaruje hashtable s třemi elementy</t>
-  </si>
-  <si>
-    <t>vypíše nám členy, vlastnosti a metody objektu</t>
-  </si>
-  <si>
-    <t>$ht.1</t>
-  </si>
-  <si>
-    <t>označí element (key) 1 v hashtable</t>
-  </si>
-  <si>
-    <t>Select-Object</t>
-  </si>
-  <si>
-    <t>vybírá objekty nebo vlastnosti objektu</t>
-  </si>
-  <si>
-    <t>$file = &lt;code&gt;</t>
-  </si>
-  <si>
-    <t>uloží &lt;code&gt; do proměnné</t>
-  </si>
-  <si>
-    <t>Select-object @{l='computername';e={$_.name}}</t>
-  </si>
-  <si>
-    <t>computername</t>
-  </si>
-  <si>
-    <t>------------</t>
-  </si>
-  <si>
-    <t>WINDC1</t>
-  </si>
-  <si>
-    <t>WINCLIENT1</t>
-  </si>
-  <si>
-    <t>Můžeme explicitně přiřadit datový typ k proměnné</t>
-  </si>
-  <si>
-    <t>[int]$num2 = 2</t>
-  </si>
-  <si>
-    <t>Pokud, ale budeme chtít změnit datový typ této proměnné...</t>
-  </si>
-  <si>
-    <t>$num2 = "string"</t>
-  </si>
-  <si>
-    <t>... PowerShell nám vrátí error</t>
-  </si>
-  <si>
-    <t>Get-Variable</t>
-  </si>
-  <si>
-    <t>vypíše všechny proměnné</t>
-  </si>
-  <si>
-    <t>Remove-Variable -Name &lt;name&gt;</t>
-  </si>
-  <si>
-    <t>vymaže proměnnou</t>
-  </si>
-  <si>
-    <t>$var.GetType().Name</t>
-  </si>
-  <si>
-    <t>vrátí nám datový typ proměnné</t>
-  </si>
-  <si>
-    <t>Operators (operatory)</t>
-  </si>
-  <si>
-    <t>Aritmetické operátory</t>
-  </si>
-  <si>
-    <t>Přidělovací operátory</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - používané pro kalkulaci hodnot</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - používané pro přidělovánín hodnot k proměnným</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +</t>
-  </si>
-  <si>
-    <t>přidá hodnoty, zřetězí řetězce</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> =</t>
-  </si>
-  <si>
-    <t>přiřadí hodnotu k proměnné</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -</t>
-  </si>
-  <si>
-    <t>odečte hodnoty</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +=</t>
-  </si>
-  <si>
-    <t>zvyšuje proměnnou o hodnotu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> *</t>
-  </si>
-  <si>
-    <t>znásobí hodnoty, zkopíruje řetězce</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -=</t>
-  </si>
-  <si>
-    <t>snižuje proměnnou o hodnotu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /</t>
-  </si>
-  <si>
-    <t>dělí hodnoty</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> *=</t>
-  </si>
-  <si>
-    <t>vynásobí proměnnou hodnotou</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> %</t>
-  </si>
-  <si>
-    <t>modulus (zbytek z hodnot)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /=</t>
-  </si>
-  <si>
-    <t>vydělí proměnnou hodnotou</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> %= </t>
-  </si>
-  <si>
-    <t>dělení proměnné přiřadí modul</t>
-  </si>
-  <si>
-    <t>Operátory porovnání</t>
-  </si>
-  <si>
-    <t>Logické operátory</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - používáné při porovnání hodnot, testování kondicí</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -and</t>
-  </si>
-  <si>
-    <t>pravda, když jsou obě podmínky splněný (true when both conditions are true)</t>
-  </si>
-  <si>
-    <t>-eq</t>
-  </si>
-  <si>
-    <t>rovná se (equals)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -or</t>
-  </si>
-  <si>
-    <t>pravda, když alespoň jedna z podmínek je splněna (true when either conditions are true)</t>
-  </si>
-  <si>
-    <t>-ne</t>
-  </si>
-  <si>
-    <t>nerovná se (not equals)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -not</t>
-  </si>
-  <si>
-    <t>zneguje údaj</t>
-  </si>
-  <si>
-    <t>-gt</t>
-  </si>
-  <si>
-    <t>vyšší než (greater than)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> !</t>
-  </si>
-  <si>
-    <t>-lt</t>
-  </si>
-  <si>
-    <t>nižší než (less than)</t>
-  </si>
-  <si>
-    <t>-ge</t>
-  </si>
-  <si>
-    <t>vyšší nebo rovno (greater than or equals)</t>
-  </si>
-  <si>
-    <t>Operátory přesměrování</t>
-  </si>
-  <si>
-    <t>-le</t>
-  </si>
-  <si>
-    <t>nižší nebo rovno (less than or equals)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - většinou používané pro přesměrování výsledku do souboru</t>
-  </si>
-  <si>
-    <t>-like</t>
-  </si>
-  <si>
-    <t>pravda, když se řetězce rovnají (true when string matches)</t>
-  </si>
-  <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>poslat proud do souboru</t>
-  </si>
-  <si>
-    <t>-notlike</t>
-  </si>
-  <si>
-    <t>nepravda, když se řetězce rovnají (false when string matches)</t>
-  </si>
-  <si>
-    <t>&gt;&gt;</t>
-  </si>
-  <si>
-    <t>připojit proud k souboru (append)</t>
-  </si>
-  <si>
-    <t>n&gt;&amp;1</t>
-  </si>
-  <si>
-    <t>redirects n to success stream</t>
-  </si>
-  <si>
-    <t>-is</t>
-  </si>
-  <si>
-    <t>pravda, když je objekt stejný (true if object is the same)</t>
-  </si>
-  <si>
-    <t>-isnt</t>
-  </si>
-  <si>
-    <t>pravda, když objekty nejsou stejný (true if objects are different)</t>
-  </si>
-  <si>
-    <t>Split / Join operátory</t>
-  </si>
-  <si>
-    <t>Operátory typů</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - pro práci s řetězci</t>
-  </si>
-  <si>
-    <t>pravda, pokud typy .NET jsou stelný</t>
-  </si>
-  <si>
-    <t>-split</t>
-  </si>
-  <si>
-    <t>rozdělí řetezec na podřetězce</t>
-  </si>
-  <si>
-    <t>-isnot</t>
-  </si>
-  <si>
-    <t>pravda, pokud typy .NET jsou odlišné</t>
-  </si>
-  <si>
-    <t>-join</t>
-  </si>
-  <si>
-    <t>spojuje řetězce dohromady</t>
-  </si>
-  <si>
-    <t>-as</t>
-  </si>
-  <si>
-    <t>převede na .NET typ</t>
-  </si>
-  <si>
-    <t>Speciální oparátory</t>
-  </si>
-  <si>
-    <t>$()</t>
-  </si>
-  <si>
-    <t>operátor subexprese (subexpression operator)</t>
-  </si>
-  <si>
-    <t>@()</t>
-  </si>
-  <si>
-    <t>operátor subexprese v poli (array subexpression operator)</t>
-  </si>
-  <si>
-    <t>&amp;</t>
-  </si>
-  <si>
-    <t>vyvolávací operátor (call operator)</t>
-  </si>
-  <si>
-    <t>::</t>
-  </si>
-  <si>
-    <t>static member operator</t>
-  </si>
-  <si>
-    <t>?:</t>
-  </si>
-  <si>
-    <t>ternary operator</t>
-  </si>
-  <si>
-    <t>??</t>
-  </si>
-  <si>
-    <t>null-coalescing operator</t>
-  </si>
-  <si>
-    <t>?.</t>
-  </si>
-  <si>
-    <t>null-conditional operator</t>
-  </si>
-  <si>
-    <t>Práce se skripty</t>
-  </si>
-  <si>
-    <t>Get-ExecutionPolicy</t>
-  </si>
-  <si>
-    <t>vypíše spustitelná práva</t>
-  </si>
-  <si>
-    <t>Pipes</t>
-  </si>
-  <si>
-    <t>piping, používá se ke spojování příkazů</t>
-  </si>
-  <si>
-    <t>Set-ExecutionPolicy</t>
-  </si>
-  <si>
-    <t>změní možnosti spuštění skript</t>
-  </si>
-  <si>
-    <t>Get-Service | Sort-Object Status | Format-Table</t>
-  </si>
-  <si>
-    <t>Zastaví program, službu z pozadí</t>
-  </si>
-  <si>
-    <t>Možnosti:</t>
-  </si>
-  <si>
-    <t>Out-Host -Paging</t>
-  </si>
-  <si>
-    <t>(more)</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>Restricted</t>
-  </si>
-  <si>
-    <t>Out-Null</t>
-  </si>
-  <si>
-    <t>podobné /dev/null</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - výchozí nastavení spustitelných práv, příkazy spustitelné jenom interaktivně</t>
-  </si>
-  <si>
-    <t>Out-Printer</t>
-  </si>
-  <si>
-    <t>pošle do default tiskárny output</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - powershell skripta nejdou spustit</t>
-  </si>
-  <si>
-    <t>Out-File</t>
-  </si>
-  <si>
-    <t>pošle output do souboru</t>
-  </si>
-  <si>
-    <t>-FilePath</t>
-  </si>
-  <si>
-    <t>specifikuje cestu</t>
-  </si>
-  <si>
-    <t>AllSigned</t>
-  </si>
-  <si>
-    <t>- powershell skripta půjdou spustit, ale jenom pokud jsou skripta podepsané důvěryhodným vydavatelem</t>
-  </si>
-  <si>
-    <t>RemoteSigned</t>
-  </si>
-  <si>
-    <t>- všechna powershell skripta vytvořená lokálně jdou spustit, pokud skripta byla vytvořena vzdáleně, tak pouze pokud jsou podepsané důvěryhodným vydavatelem</t>
-  </si>
-  <si>
-    <t>Unrestricted</t>
-  </si>
-  <si>
-    <t>Formátování</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - odstraní všechna omezení z execution policy</t>
-  </si>
-  <si>
-    <t>ft</t>
-  </si>
-  <si>
-    <t>uspořádá output do sloupečků pro lepší viditelnost</t>
-  </si>
-  <si>
-    <t>-AutoSize</t>
-  </si>
-  <si>
-    <t>každý sloupec bude široký přesně podle obsahu</t>
-  </si>
-  <si>
-    <t>Spouštění skripta</t>
-  </si>
-  <si>
-    <t>-Property</t>
-  </si>
-  <si>
-    <t>zobrazí pouze námi vyžadované vlastnosti</t>
-  </si>
-  <si>
-    <t>&amp; "C:\My Scripts\Test.ps1"</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - pokud jsou mezery v adresáři/souboru, musíme použít uvozovky</t>
-  </si>
-  <si>
-    <t>ID,Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - znak &amp; spustí skript</t>
-  </si>
-  <si>
-    <t>-GroupBy</t>
-  </si>
-  <si>
-    <t>vygeneruje nové hlavičky sloupců, kdykoliv kdy se změní hodnoty</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - koncovka PS1 znamená PowerShell 1 - doporučuje se používat dle verze PS, ve kterém byl skript napsán</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>zobrazí hodnoty u vlastností</t>
-  </si>
-  <si>
-    <t>Snap-ins &amp; Modules</t>
-  </si>
-  <si>
-    <t>Filtrování</t>
-  </si>
-  <si>
-    <t>"Filtrování z leva"</t>
-  </si>
-  <si>
-    <t>Get-ADComputer -filter "Name -like '*DC'"</t>
-  </si>
-  <si>
-    <t>Snap-ins</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Některé příkazy podporují parametr filtru nativně</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Snap-in je shluk providers a/nebo cmdletů pro prostředí Windows PowerShell </t>
-  </si>
-  <si>
-    <t>Filtrování objektů z pipeline</t>
-  </si>
-  <si>
-    <t>Get-PSSnapin</t>
-  </si>
-  <si>
-    <t>zobrazí seznam s načtenými snap-ins</t>
-  </si>
-  <si>
-    <t>... | Where-Object -filter { $_.Status -eq 'Running' }</t>
-  </si>
-  <si>
-    <t>zobrazí seznam s nainstalovanými a dostupnými snap-ins</t>
-  </si>
-  <si>
-    <t>načte snap-in</t>
-  </si>
-  <si>
-    <t>odstraní snap-in</t>
-  </si>
-  <si>
-    <t>- pomocí Get-Command můžeme zjistit, které příkazy nám snap-in přidal</t>
-  </si>
-  <si>
-    <t>Get-Command -PSSnapin sqlservercmdletsnapin100</t>
-  </si>
-  <si>
-    <t>- pomocí Get-PSProvider můžeme zjistit, zda nám snap-in přidal některé PSDrive providery ( .NET programy, které poskytují přístup ke specializovaným datovým úložištím pro snadnější prohlížení a správu)</t>
-  </si>
-  <si>
-    <t>Get-PSProvider</t>
-  </si>
-  <si>
-    <t>Modules</t>
-  </si>
-  <si>
-    <t>- Modul je balíček, který obsahuje členy PowerShellu, jako jsou rutiny, poskytovatelé, funkce, pracovní postupy, proměnné a aliasy.</t>
-  </si>
-  <si>
-    <t>- Tyto soubory jsou obvykle seskupeny do jednoho adresáře</t>
-  </si>
-  <si>
-    <t>Get-Content env:psmodulepath</t>
-  </si>
-  <si>
-    <t>obsah proměnné psmodulepath definuje cesty, kde PowerShell očekává, že moduly budou uloženy</t>
-  </si>
-  <si>
-    <t>Get-Module</t>
-  </si>
-  <si>
-    <t>zobrazí moduly importované v aktuální relaci nebo moduly, které lze importovat z cesty PSModulePath.</t>
-  </si>
-  <si>
-    <t>Import-Module</t>
-  </si>
-  <si>
-    <t>přidá moduly do aktuální relace</t>
-  </si>
-  <si>
-    <t>- je možné, že dva různé moduly mají stejný syntax příkazů, pomocí kterých vykonávají stejnou věc</t>
-  </si>
-  <si>
-    <t>- v tomto případě můžeme specifikovat module a příkaz:</t>
-  </si>
-  <si>
-    <t>můjModule\Get-User</t>
-  </si>
-  <si>
-    <t>Modules from the internet</t>
-  </si>
-  <si>
-    <t>- Již nainstalováno v PowerShell v5, můžeme manuálně nainstalovat z odkazu www.PowerShellGallery.com, například pro Win 7 apod.</t>
-  </si>
-  <si>
-    <t>instalace poskytovatele NuGet, pomocí které vyhledáváme a instaluje powershell moduly z PowerShellGallery</t>
-  </si>
-  <si>
-    <t>PowerShellGallery jako výchozí, ale můžeme přidal vlastní</t>
-  </si>
-  <si>
-    <t>Find-Module</t>
-  </si>
-  <si>
-    <t>vyhledá modul</t>
-  </si>
-  <si>
-    <t>Install-Module</t>
-  </si>
-  <si>
-    <t>stáhne a nainstaluje modul</t>
-  </si>
-  <si>
-    <t>Update-Module</t>
-  </si>
-  <si>
-    <t>aktualizuje modul</t>
-  </si>
-  <si>
-    <t>Reporting</t>
-  </si>
-  <si>
-    <t>ConvertTo-HTML</t>
-  </si>
-  <si>
-    <t>převede output do souboru HTML</t>
-  </si>
-  <si>
-    <t>Get-Service | ConvertTo-HTML -Property Name,Status &gt; C:\services.html</t>
-  </si>
-  <si>
-    <t>specifikuje části, které chceme exportovat</t>
-  </si>
-  <si>
-    <t>Export-CSV</t>
-  </si>
-  <si>
-    <t>převede output do souboru CSV</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - hodí se třeba, když chceme importovat data do excelu</t>
-  </si>
-  <si>
-    <t>Get-Service | Export-CSV C:\service.csv</t>
-  </si>
-  <si>
-    <t>Specifikuje oblasti, které chceme outputnout</t>
-  </si>
-  <si>
-    <t>Get-Service | Select-Object Name, Status | Export-CSV C:\services.csv</t>
-  </si>
-  <si>
-    <t>zobrazí zprávy z počítače, něco jako JOURNALD</t>
-  </si>
-  <si>
-    <t>Get-EventLog -Log "Application"</t>
-  </si>
-  <si>
-    <t>Troubleshooting</t>
-  </si>
-  <si>
-    <t>Stop-Computer</t>
-  </si>
-  <si>
-    <t>vypnutí počítače</t>
-  </si>
-  <si>
-    <t>Restart-Computer</t>
-  </si>
-  <si>
-    <t>restartování počítače</t>
-  </si>
-  <si>
-    <t>-ComputerName ###</t>
-  </si>
-  <si>
-    <t>vzdálené restartování počítače</t>
-  </si>
-  <si>
-    <t>Instalace ADDS role a nástrojů pro správu</t>
-  </si>
-  <si>
-    <t>Install-WindowsFeature AD-Domain-Services -IncludeManagementTools</t>
-  </si>
-  <si>
-    <t>Import ADDSDeployment modulu</t>
-  </si>
-  <si>
-    <t>Import-Module ADDSDeployment</t>
-  </si>
-  <si>
-    <t>Obecné</t>
-  </si>
-  <si>
-    <t>Instalace Active Directory role</t>
-  </si>
-  <si>
-    <t>Instalace ADDS role</t>
-  </si>
-  <si>
-    <t>Install-ADDSForest -DomainName homelab.local -InstallDNS</t>
-  </si>
-  <si>
-    <t>Vytvořit doménovou strukturu a doménu homelab.local + DNS role</t>
-  </si>
-  <si>
-    <t>Import-Module ActiveDirectory</t>
-  </si>
-  <si>
-    <t>Instalace modulu pro práci s Active Directory</t>
-  </si>
-  <si>
-    <t>Přidá počítač do domény</t>
-  </si>
-  <si>
-    <t>Add-computer -DomainName mblab.cloud -Credential (Get-Credential)</t>
-  </si>
-  <si>
-    <t>Organizační jednotky</t>
-  </si>
-  <si>
-    <t>New-ADOrganizationalUnit -Name Users -Path "OU=North Region,DC=globomantics,DC=com"</t>
-  </si>
-  <si>
-    <t>vytvoření OU s názvem Users pod OU s názvem North Region</t>
-  </si>
-  <si>
-    <t>Práce s FSMO rolemi</t>
-  </si>
-  <si>
-    <t>netdom query fsmo</t>
-  </si>
-  <si>
-    <t>zobrazí FSMO role v doméně</t>
-  </si>
-  <si>
-    <t>Get-ADForest</t>
-  </si>
-  <si>
-    <t>zobrazí schema master a domain naming master info</t>
-  </si>
-  <si>
-    <t>Get-ADDomain</t>
-  </si>
-  <si>
-    <t>zobrazí RID master,infrastructure master a PDC emulator info</t>
-  </si>
-  <si>
-    <t>Move-ADDirectoryServerOperationsMasterRole -Identity "&lt;servername&gt;" -OperationsMasterRole "&lt;rolenamelist&gt;" -Force</t>
-  </si>
-  <si>
-    <t>Pro syntaxi jsou definice následující:</t>
-  </si>
-  <si>
-    <t>&lt;servername&gt;</t>
-  </si>
-  <si>
-    <t>Název cílového řadiče domény, do kterého chcete přenést jednu nebo více rolí</t>
-  </si>
-  <si>
-    <t>&lt;rolenamelist&gt;</t>
-  </si>
-  <si>
-    <t>Čárkami oddělený seznam názvů rolí služby AD DS pro přesun na cílový server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-Force </t>
-  </si>
-  <si>
-    <t>Volitelný parametr, kterým nastavíte převzetí role namísto přenosu</t>
-  </si>
-  <si>
-    <t>Domain Controller monitorování</t>
-  </si>
-  <si>
-    <t>dcdiag /s:dc2-nug</t>
-  </si>
-  <si>
-    <t>provede diagnostiku DC serveru, přesněji serveru jménem dc2-nug</t>
-  </si>
-  <si>
-    <t>repadmin /showrepl</t>
-  </si>
-  <si>
-    <t>ukáže provedené replikace, zda nedošlo k selhání</t>
-  </si>
-  <si>
-    <t>repadmin /replsummary</t>
-  </si>
-  <si>
-    <t>ukáže data odkazující na celkový stav replikace</t>
-  </si>
-  <si>
-    <t>Management účtů přes PowerShell</t>
-  </si>
-  <si>
-    <t>Uživatelé</t>
-  </si>
-  <si>
-    <t>New-ADUser -Name "Jane Smith" -SamAccountName "jane.smith" -GivenName "Jane" -Surname "Smith" -Enabled $true -AccountPassword (ConvertTo-SecureString -AsPlainText 'Pa$$w0rd' -Force)</t>
-  </si>
-  <si>
-    <t>vytvoří jednotlivého uživatele s parametry</t>
-  </si>
-  <si>
-    <t>-SamAccountName</t>
-  </si>
-  <si>
-    <t>jméno přes které se bude uživatel přihlašovat</t>
-  </si>
-  <si>
-    <t>Import-Csv C:\Nuggetlab\ad-users.csv | foreach {</t>
-  </si>
-  <si>
-    <t>vytvoří mnoho uživatelů ze CSV souboru</t>
-  </si>
-  <si>
-    <t>New-ADUser -Name "$($_.FirstName) $($_.LastName)" -GivenName $_.FirstName -Surname $_.LastName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    -SamAccountName $_.SAMAccountName -EmployeeID $_.EmployeeID -Title $_.Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    -StreetAddress $_.StreetAddress -City $_.City -PostalCode $_.PostalCode -State $_.State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    -Department $_.Department -EmailAddress $_Email -OfficePhone $_.PhoneNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    -Enabled $true -AccountPassword (CovertTo-SecureString -AsPlainText 'Pa$$w0rd' -Force)</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>Search-ADAccount -AccountDisabled -UsersOnly</t>
-  </si>
-  <si>
-    <t>vyhledá všechny účty, které jsou zakázané</t>
-  </si>
-  <si>
-    <t>Search-ADAccount -AccountInactive -UsersOnly -TimeSpan 30.0:0:0.0</t>
-  </si>
-  <si>
-    <t>vyhledá všechny účty, které jsou neaktivní za posledních 30 dní</t>
-  </si>
-  <si>
-    <t>[-]D.H:M:S.F</t>
-  </si>
-  <si>
-    <t>Search-ADAccount -PasswordExpired -UsersOnly</t>
-  </si>
-  <si>
-    <t>vyhledá všechny účty, kterým vypršela platnost hesla</t>
-  </si>
-  <si>
-    <t>where:</t>
-  </si>
-  <si>
-    <t>Search-ADAccount -LockedOut -UsersOnly</t>
-  </si>
-  <si>
-    <t>vyhledá všechny účty, které jsou uzamčené</t>
-  </si>
-  <si>
-    <t>D = Days (0 to 10675199)</t>
-  </si>
-  <si>
-    <t>H = Hours (0 to 23)</t>
-  </si>
-  <si>
-    <t>M = Minutes (0 to 59)</t>
-  </si>
-  <si>
-    <t>S = Seconds (0 to 59)</t>
-  </si>
-  <si>
-    <t>F = Fractions of a second (0 to 9999999)</t>
-  </si>
-  <si>
-    <t>Get-ADUser -Identity 'Administrator'</t>
-  </si>
-  <si>
-    <t>vyhledá uživatele s názvem Administrator</t>
-  </si>
-  <si>
-    <t>Get-ADUser -Filter {Name -eq 'Administrator'}</t>
-  </si>
-  <si>
-    <t>to samé, akorát jiným syntaxem</t>
-  </si>
-  <si>
-    <t>Get-ADUser -Filter * -ResultSetSize 100 -Properties lastLogon | Select-Object Name, UserPrincipalName, Enabled, Lastlogon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zobrazí prvních 100 uživatelů, přidání vlastností + selekce objektů </t>
-  </si>
-  <si>
-    <t>Get-ADUser -Filter * -SearchBase "OU=Users,OU=Lab,DC=bmarlab,DC=com" | Select-Object Name</t>
-  </si>
-  <si>
-    <t>zobrazí všechny uživatele v OU Users + selekce objektů</t>
-  </si>
-  <si>
-    <t>Get-ADGroupMember 'HR' | Select-Object Name, DistinguishedName</t>
-  </si>
-  <si>
-    <t>vyhledá uživatele, kteří jsou členové skupiny HR + selekce objektů</t>
-  </si>
-  <si>
-    <t>Skupiny</t>
-  </si>
-  <si>
-    <t>New-ADGroup -Name "Manufacturing" -SamAccountName "Manufacturing" -GroupCategory Security -GroupScope Global</t>
-  </si>
-  <si>
-    <t>vytvoření jednotlivé skupiny</t>
-  </si>
-  <si>
-    <t>přiřadí uživatele ze souboru k příslušné skupině dle oddělení</t>
-  </si>
-  <si>
-    <t>Add-ADGroupMember -Identity $_.Department -Members $_.SAMAccountName</t>
-  </si>
-  <si>
-    <t>Get-ADGroup -Identity "Sales and Marketing" | Get-ADGroupMember</t>
-  </si>
-  <si>
-    <t>vyhledá všechny účty, které patří do skupiny "Sales and Marketing"</t>
-  </si>
-  <si>
-    <t>Get-ADPrincipalGroupMembership -Identity Administrator</t>
-  </si>
-  <si>
-    <t>vyhledá všechny skupiny, do kterých patří uživatel Administrator nebo Marek.B</t>
-  </si>
-  <si>
-    <t>Get-ADPrincipalGroupMembership -Identity Marek.B</t>
-  </si>
-  <si>
-    <t>Práce s Group Policy</t>
-  </si>
-  <si>
-    <t>Remove-GPLink -Name "MyCoolGPO" -Target "OU=West Region,DC=globomantics,DC=com"</t>
-  </si>
-  <si>
-    <t>odstraní odkazované GPO na OU</t>
-  </si>
-  <si>
-    <t>Troubleshooting of GPOs</t>
-  </si>
-  <si>
-    <t>- rsop.msc</t>
-  </si>
-  <si>
-    <t>resultant set of policy (výsledná sada zásad)</t>
-  </si>
-  <si>
-    <t>- zobrazí souhrn všech zásad, které jsou aplikovány</t>
-  </si>
-  <si>
-    <t>- gpresult /r</t>
-  </si>
-  <si>
-    <t>- zobrazí souhrn zásad</t>
-  </si>
-  <si>
-    <t>Opravit narušený vztah důveryhodnosti mezi klientem a doménou</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Kerberos login errors, etc.</t>
-  </si>
-  <si>
-    <t>Test-ComputerSecureChannel -Server "controller.domain.com" -Repair</t>
-  </si>
-  <si>
-    <t>https://docs.microsoft.com/cs-cz/powershell/azure/?view=azps-4.2.0</t>
-  </si>
-  <si>
-    <t>Intro</t>
-  </si>
-  <si>
-    <t>Připojení k Azure přes PowerShell</t>
-  </si>
-  <si>
-    <t>Zjištění jaká prostředí jsou mi k dispozici</t>
-  </si>
-  <si>
-    <t>Zjištění jaké předplatné máme k dispozici</t>
-  </si>
-  <si>
-    <t># připojení k Azure účtu</t>
-  </si>
-  <si>
-    <t># zjistí jaká prostředí jsou mi k dispozici</t>
-  </si>
-  <si>
-    <t># zjistí jaké máme dostupné předplatné</t>
-  </si>
-  <si>
-    <t>Connect-AzAccount</t>
-  </si>
-  <si>
-    <t>Get-AzEnvironment</t>
-  </si>
-  <si>
-    <t>Get-AzSubscription</t>
-  </si>
-  <si>
-    <t># připojí účet k určitému prostředí</t>
-  </si>
-  <si>
-    <t>Connect-AzAccount -Environment AzureChinaCloud</t>
-  </si>
-  <si>
-    <t>Vyhledávání příkazů</t>
-  </si>
-  <si>
-    <t>Typ prostředku</t>
-  </si>
-  <si>
-    <t>Modul Azure PowerShellu</t>
-  </si>
-  <si>
-    <t>Předpona podstatného jména</t>
-  </si>
-  <si>
-    <t>Skupina prostředků</t>
-  </si>
-  <si>
-    <t>Az.Resources</t>
-  </si>
-  <si>
-    <t>AzResourceGroup</t>
-  </si>
-  <si>
-    <t>Virtual Machines</t>
-  </si>
-  <si>
-    <t>Az.Compute</t>
-  </si>
-  <si>
-    <t>AzVM</t>
-  </si>
-  <si>
-    <t>Účty úložiště</t>
-  </si>
-  <si>
-    <t>Az.Storage</t>
-  </si>
-  <si>
-    <t>AzStorageAccount</t>
-  </si>
-  <si>
-    <t>Key Vault</t>
-  </si>
-  <si>
-    <t>Az.KeyVault</t>
-  </si>
-  <si>
-    <t>AzKeyVault</t>
-  </si>
-  <si>
-    <t>Webové aplikace</t>
-  </si>
-  <si>
-    <t>Az.Websites</t>
-  </si>
-  <si>
-    <t>AzWebApp</t>
-  </si>
-  <si>
-    <t>Databáze SQL</t>
-  </si>
-  <si>
-    <t>Az.Sql</t>
-  </si>
-  <si>
-    <t>AzSqlDatabase</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>net user</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> mbubenik /domain</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>PowerShell 5.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> is the last full release</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>PowerShell Core</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> is the latest release</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1762,6 +266,34 @@
     </r>
   </si>
   <si>
+    <t>Get-Help</t>
+  </si>
+  <si>
+    <t>zobrazí nápomocnou dokumentaci</t>
+  </si>
+  <si>
+    <t>Get-EventLog Application -computer (Get-Content names.txt)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Get-Help Get-Service </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>-Detailed</t>
+    </r>
+  </si>
+  <si>
+    <t>dokumentace detailněji</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">1. Nejdřív se spustí příkaz </t>
     </r>
@@ -1815,6 +347,9 @@
     </r>
   </si>
   <si>
+    <t>ukáže nám příklady použití příkazu get-command</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">2. Dále se vypsaný obsah z předešlého příkazu přetáhne do příkazu </t>
     </r>
@@ -1832,6 +367,25 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Get-Help Get-Service </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>-ShowWindow</t>
+    </r>
+  </si>
+  <si>
+    <t>otevře okno s nápovědou, ve které můžeme vyhledávát a filtrovat</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Get-Help Get-Command </t>
     </r>
     <r>
@@ -1847,6 +401,9 @@
     </r>
   </si>
   <si>
+    <t>ukáže nám příklady použití příkazu get-command na internetu</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Get-Help Out-File </t>
     </r>
@@ -1873,6 +430,24 @@
     </r>
   </si>
   <si>
+    <t>hledání parametru Width v pomocné dokumentaci</t>
+  </si>
+  <si>
+    <t>Spustí program</t>
+  </si>
+  <si>
+    <t>Update-Help</t>
+  </si>
+  <si>
+    <t>aktualizuje databazi dokumentací z internetu</t>
+  </si>
+  <si>
+    <t>-NoClobber</t>
+  </si>
+  <si>
+    <t>prevence proti overwriting existujícího souboru</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Update-Help </t>
     </r>
@@ -1899,6 +474,42 @@
     </r>
   </si>
   <si>
+    <t>aktualizuje databázi dokumentací z příslušeného zdroje</t>
+  </si>
+  <si>
+    <t>Save-Help</t>
+  </si>
+  <si>
+    <t>uloží současný stav nápomocné dokumentace</t>
+  </si>
+  <si>
+    <t>Show-Command</t>
+  </si>
+  <si>
+    <t>pomocí grafického rozhrání nám pomůže dokončit příkaz správným syntaxem</t>
+  </si>
+  <si>
+    <t>restart-computer</t>
+  </si>
+  <si>
+    <t>Get-Verb</t>
+  </si>
+  <si>
+    <t>ukáže všechny slovesa, která se dají použít v příkazech</t>
+  </si>
+  <si>
+    <t>Spustí službu</t>
+  </si>
+  <si>
+    <t>Get-Command</t>
+  </si>
+  <si>
+    <t>ukáže všechny dostupné cmdlets, funkce a aliasy</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Get-Command </t>
     </r>
@@ -1925,6 +536,12 @@
     </r>
   </si>
   <si>
+    <t>ukáže příkazy, které obsahují frázi service</t>
+  </si>
+  <si>
+    <t>[] znamená, že parametr je dobrovolný, není povinný</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Get-Command </t>
     </r>
@@ -1951,6 +568,15 @@
     </r>
   </si>
   <si>
+    <t>ukáže příkazy se slovesem, které obsahují frázi service</t>
+  </si>
+  <si>
+    <t>Ostatní</t>
+  </si>
+  <si>
+    <t>Spustí program, službu na pozadí</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Get-Command </t>
     </r>
@@ -1977,6 +603,18 @@
     </r>
   </si>
   <si>
+    <t>ukáže příkazy s podstatným jménem, které obsahují frázi service</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>Data types</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Get-Command *log* </t>
     </r>
@@ -2003,6 +641,72 @@
     </r>
   </si>
   <si>
+    <t>ukáže příkazy, které obsahují frázi log a mají typ cmdlet</t>
+  </si>
+  <si>
+    <t>cls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &gt;</t>
+  </si>
+  <si>
+    <t>clears the screen</t>
+  </si>
+  <si>
+    <t>[] znamená, že typ může nabrat více hodnot oddělené čárkou</t>
+  </si>
+  <si>
+    <t>CTRL + L</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>bez [] znamená, že typ může nabrat pouze jedné hodnoty</t>
+  </si>
+  <si>
+    <t>Get-Member</t>
+  </si>
+  <si>
+    <t>Anatomie PowerShell příkazu</t>
+  </si>
+  <si>
+    <t>Zastaví program</t>
+  </si>
+  <si>
+    <t>Příkaz</t>
+  </si>
+  <si>
+    <t>Parametr 1</t>
+  </si>
+  <si>
+    <t>Parametr 2</t>
+  </si>
+  <si>
+    <t>Parametr 3</t>
+  </si>
+  <si>
+    <t>Get-EventLog</t>
+  </si>
+  <si>
+    <t>-LogName Security</t>
+  </si>
+  <si>
+    <t>-ComputerName WIN8, SERVER1</t>
+  </si>
+  <si>
+    <t>-Verbose</t>
+  </si>
+  <si>
+    <t>Zastaví službu</t>
+  </si>
+  <si>
+    <t>První parametr</t>
+  </si>
+  <si>
+    <t>Konvence pojmenování</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"> - Jméno cmdletu je </t>
     </r>
@@ -2056,6 +760,24 @@
     </r>
   </si>
   <si>
+    <t>Cmdlet</t>
+  </si>
+  <si>
+    <t># vyslovujeme "command-let"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Protože v hodnotě nejsou mezery ani čárky, nemusíme jí dávat do uvozovek</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Nativní PowerShell nástroj příkazového řádku, psaný v jazyce C#</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Příkazy vestavěné v příkazovém řádku</t>
+  </si>
+  <si>
+    <t>Druhý parametr</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"> - Druhý parametr je </t>
     </r>
@@ -2114,6 +836,27 @@
     </r>
   </si>
   <si>
+    <t>Parametr</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Jednotlivé hodnoty jsou odděleny čárkou a protože v ani jedný nejsou mezery ani čárky, nemusíme tyto hodnoty dávat do uvozovek</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Argumenty k cmdletu, funkcím a skriptům</t>
+  </si>
+  <si>
+    <t>- předává objekty mezi rutinami</t>
+  </si>
+  <si>
+    <t>- "Mění chování komponentů"</t>
+  </si>
+  <si>
+    <t>Třetí parametr</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"> - Třetí parametr je </t>
     </r>
@@ -2130,6 +873,12 @@
     </r>
   </si>
   <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Skript</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"> - Jedná se o tzv. </t>
     </r>
@@ -2156,6 +905,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve"> - Zkrácené jméno pro běžné příkazy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - PowerShell kód uložený v .ps1 souboru</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"> - Je nutná mezera mezi </t>
     </r>
@@ -2193,6 +948,9 @@
     </r>
   </si>
   <si>
+    <t>Funkce (function)</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"> - Názvy parametrů </t>
     </r>
@@ -2240,6 +998,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve"> - Funkce může být podobná cmdletu, kdežto aby byly napsány v C#, tak jsou psány v Powershell skriptovacím jazyce</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"> - Mezera je nutná také </t>
     </r>
@@ -2334,6 +1095,27 @@
     </r>
   </si>
   <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Příkazy nejsou case-sensitive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Balíček cmdletů, funkcí, a další...</t>
+  </si>
+  <si>
+    <t>Aliasy: přezdívky pro příkazy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Aliasy (aliases) nám umožňují zkrátit dlouhý příkazy na námi zvolený příkaz</t>
+  </si>
+  <si>
+    <t>$_</t>
+  </si>
+  <si>
+    <t>"automatická proměnná"</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"> - Můžeme vložit pouze příkaz </t>
     </r>
@@ -2360,6 +1142,36 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve"> - používá se převážně v pipelines, znamená aktuální objekt procházející přes pipeline</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>tečka</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>Get-Alias ls</t>
+  </si>
+  <si>
+    <t>zjistí, který příkaz je vázaný na "ls"</t>
+  </si>
+  <si>
+    <t>get-service | where {$_.status -eq "Running"}</t>
+  </si>
+  <si>
+    <t>Get-Alias -Definition "service*</t>
+  </si>
+  <si>
+    <t>zjistí, který alias je vázaný na "service"</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">alias pro funkci </t>
     </r>
@@ -2376,6 +1188,30 @@
     </r>
   </si>
   <si>
+    <t>New-Alias -Name "wtf" Get-Help</t>
+  </si>
+  <si>
+    <t>vytvoří alias "wtf" pro aktuální relaci shellu příkazu Get-Help</t>
+  </si>
+  <si>
+    <t>gci | % { $_ }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to samý jako </t>
+  </si>
+  <si>
+    <t>Get-ChildItem | ForEach-Object { $_ }</t>
+  </si>
+  <si>
+    <t>Export-Alias</t>
+  </si>
+  <si>
+    <t>exportuje, "uloží" alias do souboru</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">alias pro funkci </t>
     </r>
@@ -2392,6 +1228,30 @@
     </r>
   </si>
   <si>
+    <t>Import-Alias</t>
+  </si>
+  <si>
+    <t>importuje alias ze souboru</t>
+  </si>
+  <si>
+    <t>PowerShell Objects and Members (PowerShell objekty a členy)</t>
+  </si>
+  <si>
+    <t>Variables and Data Types (Proměnné a data typy)</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Variables (proměnné)</t>
+  </si>
+  <si>
+    <t>Data Types (datové typy)</t>
+  </si>
+  <si>
+    <t>- Entita, která představuje například počítač, soubor, adresář, službu</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"> - Proměnné začínají symbolem dolaru </t>
     </r>
@@ -2408,6 +1268,18 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve"> - Typ hodnoty v proměnné</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Slouží k uložení informací</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - PowerShell automaticky přiřazuje datový typ na základě typu proměnné</t>
+  </si>
+  <si>
+    <t>Members</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"> - Typicky v PowerShell používáme proměnné k </t>
     </r>
@@ -2434,6 +1306,582 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve"> - Objekty obsahují members</t>
+  </si>
+  <si>
+    <t>Běžné datové typy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Popisují strukturu a funkčnost objektu</t>
+  </si>
+  <si>
+    <t>Typy proměnných v PowerShellu:</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>True or False</t>
+  </si>
+  <si>
+    <t>$flag = $true</t>
+  </si>
+  <si>
+    <t>User (uživatelské)</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>32-bit or 64-bit integers</t>
+  </si>
+  <si>
+    <t>$int = 123</t>
+  </si>
+  <si>
+    <t>Tři primární druhy members:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Proměnné deklarované uživatelem</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>Decimal numbers</t>
+  </si>
+  <si>
+    <t>$dec = 10.99</t>
+  </si>
+  <si>
+    <t>Properties (vlastnosti)</t>
+  </si>
+  <si>
+    <t>$myvar = "string"</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Character data</t>
+  </si>
+  <si>
+    <t>$string = "data"</t>
+  </si>
+  <si>
+    <t>- Atributy, které popisují stav objektu</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>Date and time data</t>
+  </si>
+  <si>
+    <t>$today = Get-Date</t>
+  </si>
+  <si>
+    <t>Automatic (automatické)</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Collection of Items (Index based)</t>
+  </si>
+  <si>
+    <t>$array = 1,2,3</t>
+  </si>
+  <si>
+    <t>Methods (metody)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Proměnné v rámci PowerShell relaci</t>
+  </si>
+  <si>
+    <t>HashTable</t>
+  </si>
+  <si>
+    <t>Collection of Items (Key-value based)</t>
+  </si>
+  <si>
+    <t>$hastable = @{1="hello",2="world"}</t>
+  </si>
+  <si>
+    <t>- Metody jsou akce, které možou objekty provádět</t>
+  </si>
+  <si>
+    <t>$PSVersionTable.PSVersion</t>
+  </si>
+  <si>
+    <t>deklaruje array s třemi elementy</t>
+  </si>
+  <si>
+    <t>Events (události)</t>
+  </si>
+  <si>
+    <t>Preference</t>
+  </si>
+  <si>
+    <t>$array[0]</t>
+  </si>
+  <si>
+    <t>označí první element (index) v array</t>
+  </si>
+  <si>
+    <t>- Události jsou spouštěny, když je podniknuta určitá akce proti objektu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Řídí uživatelem deklarované proměnné</t>
+  </si>
+  <si>
+    <t>$ErrorActionPreference</t>
+  </si>
+  <si>
+    <t>$ht = @{1="one",2="two",3=3}</t>
+  </si>
+  <si>
+    <t>deklaruje hashtable s třemi elementy</t>
+  </si>
+  <si>
+    <t>vypíše nám členy, vlastnosti a metody objektu</t>
+  </si>
+  <si>
+    <t>$ht.1</t>
+  </si>
+  <si>
+    <t>označí element (key) 1 v hashtable</t>
+  </si>
+  <si>
+    <t>Select-Object</t>
+  </si>
+  <si>
+    <t>vybírá objekty nebo vlastnosti objektu</t>
+  </si>
+  <si>
+    <t>$file = &lt;code&gt;</t>
+  </si>
+  <si>
+    <t>uloží &lt;code&gt; do proměnné</t>
+  </si>
+  <si>
+    <t>Select-object @{l='computername';e={$_.name}}</t>
+  </si>
+  <si>
+    <t>computername</t>
+  </si>
+  <si>
+    <t>------------</t>
+  </si>
+  <si>
+    <t>WINDC1</t>
+  </si>
+  <si>
+    <t>WINCLIENT1</t>
+  </si>
+  <si>
+    <t>Můžeme explicitně přiřadit datový typ k proměnné</t>
+  </si>
+  <si>
+    <t>[int]$num2 = 2</t>
+  </si>
+  <si>
+    <t>Pokud, ale budeme chtít změnit datový typ této proměnné...</t>
+  </si>
+  <si>
+    <t>$num2 = "string"</t>
+  </si>
+  <si>
+    <t>... PowerShell nám vrátí error</t>
+  </si>
+  <si>
+    <t>Get-Variable</t>
+  </si>
+  <si>
+    <t>vypíše všechny proměnné</t>
+  </si>
+  <si>
+    <t>Remove-Variable -Name &lt;name&gt;</t>
+  </si>
+  <si>
+    <t>vymaže proměnnou</t>
+  </si>
+  <si>
+    <t>$var.GetType().Name</t>
+  </si>
+  <si>
+    <t>vrátí nám datový typ proměnné</t>
+  </si>
+  <si>
+    <t>Operators (operatory)</t>
+  </si>
+  <si>
+    <t>Aritmetické operátory</t>
+  </si>
+  <si>
+    <t>Přidělovací operátory</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - používané pro kalkulaci hodnot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - používané pro přidělovánín hodnot k proměnným</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +</t>
+  </si>
+  <si>
+    <t>přidá hodnoty, zřetězí řetězce</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =</t>
+  </si>
+  <si>
+    <t>přiřadí hodnotu k proměnné</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>odečte hodnoty</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +=</t>
+  </si>
+  <si>
+    <t>zvyšuje proměnnou o hodnotu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *</t>
+  </si>
+  <si>
+    <t>znásobí hodnoty, zkopíruje řetězce</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -=</t>
+  </si>
+  <si>
+    <t>snižuje proměnnou o hodnotu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /</t>
+  </si>
+  <si>
+    <t>dělí hodnoty</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *=</t>
+  </si>
+  <si>
+    <t>vynásobí proměnnou hodnotou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> %</t>
+  </si>
+  <si>
+    <t>modulus (zbytek z hodnot)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /=</t>
+  </si>
+  <si>
+    <t>vydělí proměnnou hodnotou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> %= </t>
+  </si>
+  <si>
+    <t>dělení proměnné přiřadí modul</t>
+  </si>
+  <si>
+    <t>Operátory porovnání</t>
+  </si>
+  <si>
+    <t>Logické operátory</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - používáné při porovnání hodnot, testování kondicí</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -and</t>
+  </si>
+  <si>
+    <t>pravda, když jsou obě podmínky splněný (true when both conditions are true)</t>
+  </si>
+  <si>
+    <t>-eq</t>
+  </si>
+  <si>
+    <t>rovná se (equals)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -or</t>
+  </si>
+  <si>
+    <t>pravda, když alespoň jedna z podmínek je splněna (true when either conditions are true)</t>
+  </si>
+  <si>
+    <t>-ne</t>
+  </si>
+  <si>
+    <t>nerovná se (not equals)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -not</t>
+  </si>
+  <si>
+    <t>zneguje údaj</t>
+  </si>
+  <si>
+    <t>-gt</t>
+  </si>
+  <si>
+    <t>vyšší než (greater than)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !</t>
+  </si>
+  <si>
+    <t>-lt</t>
+  </si>
+  <si>
+    <t>nižší než (less than)</t>
+  </si>
+  <si>
+    <t>-ge</t>
+  </si>
+  <si>
+    <t>vyšší nebo rovno (greater than or equals)</t>
+  </si>
+  <si>
+    <t>Operátory přesměrování</t>
+  </si>
+  <si>
+    <t>-le</t>
+  </si>
+  <si>
+    <t>nižší nebo rovno (less than or equals)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - většinou používané pro přesměrování výsledku do souboru</t>
+  </si>
+  <si>
+    <t>-like</t>
+  </si>
+  <si>
+    <t>pravda, když se řetězce rovnají (true when string matches)</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>poslat proud do souboru</t>
+  </si>
+  <si>
+    <t>-notlike</t>
+  </si>
+  <si>
+    <t>nepravda, když se řetězce rovnají (false when string matches)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;</t>
+  </si>
+  <si>
+    <t>připojit proud k souboru (append)</t>
+  </si>
+  <si>
+    <t>n&gt;&amp;1</t>
+  </si>
+  <si>
+    <t>redirects n to success stream</t>
+  </si>
+  <si>
+    <t>-is</t>
+  </si>
+  <si>
+    <t>pravda, když je objekt stejný (true if object is the same)</t>
+  </si>
+  <si>
+    <t>-isnt</t>
+  </si>
+  <si>
+    <t>pravda, když objekty nejsou stejný (true if objects are different)</t>
+  </si>
+  <si>
+    <t>Split / Join operátory</t>
+  </si>
+  <si>
+    <t>Operátory typů</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - pro práci s řetězci</t>
+  </si>
+  <si>
+    <t>pravda, pokud typy .NET jsou stelný</t>
+  </si>
+  <si>
+    <t>-split</t>
+  </si>
+  <si>
+    <t>rozdělí řetezec na podřetězce</t>
+  </si>
+  <si>
+    <t>-isnot</t>
+  </si>
+  <si>
+    <t>pravda, pokud typy .NET jsou odlišné</t>
+  </si>
+  <si>
+    <t>-join</t>
+  </si>
+  <si>
+    <t>spojuje řetězce dohromady</t>
+  </si>
+  <si>
+    <t>-as</t>
+  </si>
+  <si>
+    <t>převede na .NET typ</t>
+  </si>
+  <si>
+    <t>Speciální oparátory</t>
+  </si>
+  <si>
+    <t>$()</t>
+  </si>
+  <si>
+    <t>operátor subexprese (subexpression operator)</t>
+  </si>
+  <si>
+    <t>@()</t>
+  </si>
+  <si>
+    <t>operátor subexprese v poli (array subexpression operator)</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>vyvolávací operátor (call operator)</t>
+  </si>
+  <si>
+    <t>::</t>
+  </si>
+  <si>
+    <t>static member operator</t>
+  </si>
+  <si>
+    <t>?:</t>
+  </si>
+  <si>
+    <t>ternary operator</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>null-coalescing operator</t>
+  </si>
+  <si>
+    <t>?.</t>
+  </si>
+  <si>
+    <t>null-conditional operator</t>
+  </si>
+  <si>
+    <t>Práce se skripty</t>
+  </si>
+  <si>
+    <t>Get-ExecutionPolicy</t>
+  </si>
+  <si>
+    <t>vypíše spustitelná práva</t>
+  </si>
+  <si>
+    <t>Pipes</t>
+  </si>
+  <si>
+    <t>piping, používá se ke spojování příkazů</t>
+  </si>
+  <si>
+    <t>Set-ExecutionPolicy</t>
+  </si>
+  <si>
+    <t>změní možnosti spuštění skript</t>
+  </si>
+  <si>
+    <t>Get-Service | Sort-Object Status | Format-Table</t>
+  </si>
+  <si>
+    <t>Zastaví program, službu z pozadí</t>
+  </si>
+  <si>
+    <t>Možnosti:</t>
+  </si>
+  <si>
+    <t>Out-Host -Paging</t>
+  </si>
+  <si>
+    <t>(more)</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>Restricted</t>
+  </si>
+  <si>
+    <t>Out-Null</t>
+  </si>
+  <si>
+    <t>podobné /dev/null</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - výchozí nastavení spustitelných práv, příkazy spustitelné jenom interaktivně</t>
+  </si>
+  <si>
+    <t>Out-Printer</t>
+  </si>
+  <si>
+    <t>pošle do default tiskárny output</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - powershell skripta nejdou spustit</t>
+  </si>
+  <si>
+    <t>Out-File</t>
+  </si>
+  <si>
+    <t>pošle output do souboru</t>
+  </si>
+  <si>
+    <t>-FilePath</t>
+  </si>
+  <si>
+    <t>specifikuje cestu</t>
+  </si>
+  <si>
+    <t>AllSigned</t>
+  </si>
+  <si>
+    <t>- powershell skripta půjdou spustit, ale jenom pokud jsou skripta podepsané důvěryhodným vydavatelem</t>
+  </si>
+  <si>
+    <t>RemoteSigned</t>
+  </si>
+  <si>
+    <t>- všechna powershell skripta vytvořená lokálně jdou spustit, pokud skripta byla vytvořena vzdáleně, tak pouze pokud jsou podepsané důvěryhodným vydavatelem</t>
+  </si>
+  <si>
+    <t>Unrestricted</t>
+  </si>
+  <si>
+    <t>Formátování</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - odstraní všechna omezení z execution policy</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">... | ... | </t>
     </r>
@@ -2450,6 +1898,51 @@
     </r>
   </si>
   <si>
+    <t>ft</t>
+  </si>
+  <si>
+    <t>uspořádá output do sloupečků pro lepší viditelnost</t>
+  </si>
+  <si>
+    <t>-AutoSize</t>
+  </si>
+  <si>
+    <t>každý sloupec bude široký přesně podle obsahu</t>
+  </si>
+  <si>
+    <t>Spouštění skripta</t>
+  </si>
+  <si>
+    <t>-Property</t>
+  </si>
+  <si>
+    <t>zobrazí pouze námi vyžadované vlastnosti</t>
+  </si>
+  <si>
+    <t>&amp; "C:\My Scripts\Test.ps1"</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - pokud jsou mezery v adresáři/souboru, musíme použít uvozovky</t>
+  </si>
+  <si>
+    <t>ID,Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - znak &amp; spustí skript</t>
+  </si>
+  <si>
+    <t>-GroupBy</t>
+  </si>
+  <si>
+    <t>vygeneruje nové hlavičky sloupců, kdykoliv kdy se změní hodnoty</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - koncovka PS1 znamená PowerShell 1 - doporučuje se používat dle verze PS, ve kterém byl skript napsán</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">... | ... | </t>
     </r>
@@ -2466,6 +1959,18 @@
     </r>
   </si>
   <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>zobrazí hodnoty u vlastností</t>
+  </si>
+  <si>
+    <t>Snap-ins &amp; Modules</t>
+  </si>
+  <si>
+    <t>Filtrování</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">- Powershell má dva druhy rozšíření: </t>
     </r>
@@ -2503,6 +2008,21 @@
     </r>
   </si>
   <si>
+    <t>"Filtrování z leva"</t>
+  </si>
+  <si>
+    <t>Get-ADComputer -filter "Name -like '*DC'"</t>
+  </si>
+  <si>
+    <t>Snap-ins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Některé příkazy podporují parametr filtru nativně</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Snap-in je shluk providers a/nebo cmdletů pro prostředí Windows PowerShell </t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">- Správný název pro modul snap-in Powershell je </t>
     </r>
@@ -2529,6 +2049,18 @@
     </r>
   </si>
   <si>
+    <t>Filtrování objektů z pipeline</t>
+  </si>
+  <si>
+    <t>Get-PSSnapin</t>
+  </si>
+  <si>
+    <t>zobrazí seznam s načtenými snap-ins</t>
+  </si>
+  <si>
+    <t>... | Where-Object -filter { $_.Status -eq 'Running' }</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Get-PSSnapin </t>
     </r>
@@ -2544,6 +2076,9 @@
     </r>
   </si>
   <si>
+    <t>zobrazí seznam s nainstalovanými a dostupnými snap-ins</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2567,6 +2102,9 @@
     </r>
   </si>
   <si>
+    <t>načte snap-in</t>
+  </si>
+  <si>
     <r>
       <t>Remove-PSSnapin</t>
     </r>
@@ -2582,6 +2120,57 @@
     </r>
   </si>
   <si>
+    <t>odstraní snap-in</t>
+  </si>
+  <si>
+    <t>- pomocí Get-Command můžeme zjistit, které příkazy nám snap-in přidal</t>
+  </si>
+  <si>
+    <t>Get-Command -PSSnapin sqlservercmdletsnapin100</t>
+  </si>
+  <si>
+    <t>- pomocí Get-PSProvider můžeme zjistit, zda nám snap-in přidal některé PSDrive providery ( .NET programy, které poskytují přístup ke specializovaným datovým úložištím pro snadnější prohlížení a správu)</t>
+  </si>
+  <si>
+    <t>Get-PSProvider</t>
+  </si>
+  <si>
+    <t>Modules</t>
+  </si>
+  <si>
+    <t>- Modul je balíček, který obsahuje členy PowerShellu, jako jsou rutiny, poskytovatelé, funkce, pracovní postupy, proměnné a aliasy.</t>
+  </si>
+  <si>
+    <t>- Tyto soubory jsou obvykle seskupeny do jednoho adresáře</t>
+  </si>
+  <si>
+    <t>Get-Content env:psmodulepath</t>
+  </si>
+  <si>
+    <t>obsah proměnné psmodulepath definuje cesty, kde PowerShell očekává, že moduly budou uloženy</t>
+  </si>
+  <si>
+    <t>Get-Module</t>
+  </si>
+  <si>
+    <t>zobrazí moduly importované v aktuální relaci nebo moduly, které lze importovat z cesty PSModulePath.</t>
+  </si>
+  <si>
+    <t>Import-Module</t>
+  </si>
+  <si>
+    <t>přidá moduly do aktuální relace</t>
+  </si>
+  <si>
+    <t>- je možné, že dva různé moduly mají stejný syntax příkazů, pomocí kterých vykonávají stejnou věc</t>
+  </si>
+  <si>
+    <t>- v tomto případě můžeme specifikovat module a příkaz:</t>
+  </si>
+  <si>
+    <t>můjModule\Get-User</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">- proto vydíme specifické příkazy dle produktu/modulu, například; </t>
     </r>
@@ -2673,6 +2262,9 @@
     </r>
   </si>
   <si>
+    <t>Modules from the internet</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">- Pomocí modulu </t>
     </r>
@@ -2720,6 +2312,9 @@
     </r>
   </si>
   <si>
+    <t>- Již nainstalováno v PowerShell v5, můžeme manuálně nainstalovat z odkazu www.PowerShellGallery.com, například pro Win 7 apod.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2762,6 +2357,9 @@
       </rPr>
       <t>-Force</t>
     </r>
+  </si>
+  <si>
+    <t>instalace poskytovatele NuGet, pomocí které vyhledáváme a instaluje powershell moduly z PowerShellGallery</t>
   </si>
   <si>
     <r>
@@ -2818,6 +2416,69 @@
     </r>
   </si>
   <si>
+    <t>PowerShellGallery jako výchozí, ale můžeme přidal vlastní</t>
+  </si>
+  <si>
+    <t>Find-Module</t>
+  </si>
+  <si>
+    <t>vyhledá modul</t>
+  </si>
+  <si>
+    <t>Install-Module</t>
+  </si>
+  <si>
+    <t>stáhne a nainstaluje modul</t>
+  </si>
+  <si>
+    <t>Update-Module</t>
+  </si>
+  <si>
+    <t>aktualizuje modul</t>
+  </si>
+  <si>
+    <t>Reporting</t>
+  </si>
+  <si>
+    <t>ConvertTo-HTML</t>
+  </si>
+  <si>
+    <t>převede output do souboru HTML</t>
+  </si>
+  <si>
+    <t>Get-Service | ConvertTo-HTML -Property Name,Status &gt; C:\services.html</t>
+  </si>
+  <si>
+    <t>specifikuje části, které chceme exportovat</t>
+  </si>
+  <si>
+    <t>Export-CSV</t>
+  </si>
+  <si>
+    <t>převede output do souboru CSV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - hodí se třeba, když chceme importovat data do excelu</t>
+  </si>
+  <si>
+    <t>Get-Service | Export-CSV C:\service.csv</t>
+  </si>
+  <si>
+    <t>Specifikuje oblasti, které chceme outputnout</t>
+  </si>
+  <si>
+    <t>Get-Service | Select-Object Name, Status | Export-CSV C:\services.csv</t>
+  </si>
+  <si>
+    <t>zobrazí zprávy z počítače, něco jako JOURNALD</t>
+  </si>
+  <si>
+    <t>Get-EventLog -Log "Application"</t>
+  </si>
+  <si>
+    <t>Troubleshooting</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Get-TroubleshootingPack </t>
     </r>
@@ -2865,6 +2526,249 @@
     </r>
   </si>
   <si>
+    <t>Stop-Computer</t>
+  </si>
+  <si>
+    <t>vypnutí počítače</t>
+  </si>
+  <si>
+    <t>Restart-Computer</t>
+  </si>
+  <si>
+    <t>restartování počítače</t>
+  </si>
+  <si>
+    <t>-ComputerName ###</t>
+  </si>
+  <si>
+    <t>vzdálené restartování počítače</t>
+  </si>
+  <si>
+    <t>Instalace ADDS role a nástrojů pro správu</t>
+  </si>
+  <si>
+    <t>Install-WindowsFeature AD-Domain-Services -IncludeManagementTools</t>
+  </si>
+  <si>
+    <t>Import ADDSDeployment modulu</t>
+  </si>
+  <si>
+    <t>Import-Module ADDSDeployment</t>
+  </si>
+  <si>
+    <t>Obecné</t>
+  </si>
+  <si>
+    <t>Instalace Active Directory role</t>
+  </si>
+  <si>
+    <t>Instalace ADDS role</t>
+  </si>
+  <si>
+    <t>Install-ADDSForest -DomainName homelab.local -InstallDNS</t>
+  </si>
+  <si>
+    <t>Vytvořit doménovou strukturu a doménu homelab.local + DNS role</t>
+  </si>
+  <si>
+    <t>Import-Module ActiveDirectory</t>
+  </si>
+  <si>
+    <t>Instalace modulu pro práci s Active Directory</t>
+  </si>
+  <si>
+    <t>Přidá počítač do domény</t>
+  </si>
+  <si>
+    <t>Add-computer -DomainName mblab.cloud -Credential (Get-Credential)</t>
+  </si>
+  <si>
+    <t>Organizační jednotky</t>
+  </si>
+  <si>
+    <t>New-ADOrganizationalUnit -Name Users -Path "OU=North Region,DC=globomantics,DC=com"</t>
+  </si>
+  <si>
+    <t>vytvoření OU s názvem Users pod OU s názvem North Region</t>
+  </si>
+  <si>
+    <t>Práce s FSMO rolemi</t>
+  </si>
+  <si>
+    <t>netdom query fsmo</t>
+  </si>
+  <si>
+    <t>zobrazí FSMO role v doméně</t>
+  </si>
+  <si>
+    <t>Get-ADForest</t>
+  </si>
+  <si>
+    <t>zobrazí schema master a domain naming master info</t>
+  </si>
+  <si>
+    <t>Get-ADDomain</t>
+  </si>
+  <si>
+    <t>zobrazí RID master,infrastructure master a PDC emulator info</t>
+  </si>
+  <si>
+    <t>Move-ADDirectoryServerOperationsMasterRole -Identity "&lt;servername&gt;" -OperationsMasterRole "&lt;rolenamelist&gt;" -Force</t>
+  </si>
+  <si>
+    <t>Pro syntaxi jsou definice následující:</t>
+  </si>
+  <si>
+    <t>&lt;servername&gt;</t>
+  </si>
+  <si>
+    <t>Název cílového řadiče domény, do kterého chcete přenést jednu nebo více rolí</t>
+  </si>
+  <si>
+    <t>&lt;rolenamelist&gt;</t>
+  </si>
+  <si>
+    <t>Čárkami oddělený seznam názvů rolí služby AD DS pro přesun na cílový server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Force </t>
+  </si>
+  <si>
+    <t>Volitelný parametr, kterým nastavíte převzetí role namísto přenosu</t>
+  </si>
+  <si>
+    <t>Domain Controller monitorování</t>
+  </si>
+  <si>
+    <t>dcdiag /s:dc2-nug</t>
+  </si>
+  <si>
+    <t>provede diagnostiku DC serveru, přesněji serveru jménem dc2-nug</t>
+  </si>
+  <si>
+    <t>repadmin /showrepl</t>
+  </si>
+  <si>
+    <t>ukáže provedené replikace, zda nedošlo k selhání</t>
+  </si>
+  <si>
+    <t>repadmin /replsummary</t>
+  </si>
+  <si>
+    <t>ukáže data odkazující na celkový stav replikace</t>
+  </si>
+  <si>
+    <t>Management účtů přes PowerShell</t>
+  </si>
+  <si>
+    <t>Uživatelé</t>
+  </si>
+  <si>
+    <t>New-ADUser -Name "Jane Smith" -SamAccountName "jane.smith" -GivenName "Jane" -Surname "Smith" -Enabled $true -AccountPassword (ConvertTo-SecureString -AsPlainText 'Pa$$w0rd' -Force)</t>
+  </si>
+  <si>
+    <t>vytvoří jednotlivého uživatele s parametry</t>
+  </si>
+  <si>
+    <t>-SamAccountName</t>
+  </si>
+  <si>
+    <t>jméno přes které se bude uživatel přihlašovat</t>
+  </si>
+  <si>
+    <t>Import-Csv C:\Nuggetlab\ad-users.csv | foreach {</t>
+  </si>
+  <si>
+    <t>vytvoří mnoho uživatelů ze CSV souboru</t>
+  </si>
+  <si>
+    <t>New-ADUser -Name "$($_.FirstName) $($_.LastName)" -GivenName $_.FirstName -Surname $_.LastName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    -SamAccountName $_.SAMAccountName -EmployeeID $_.EmployeeID -Title $_.Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    -StreetAddress $_.StreetAddress -City $_.City -PostalCode $_.PostalCode -State $_.State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    -Department $_.Department -EmailAddress $_Email -OfficePhone $_.PhoneNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    -Enabled $true -AccountPassword (CovertTo-SecureString -AsPlainText 'Pa$$w0rd' -Force)</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>Search-ADAccount -AccountDisabled -UsersOnly</t>
+  </si>
+  <si>
+    <t>vyhledá všechny účty, které jsou zakázané</t>
+  </si>
+  <si>
+    <t>Search-ADAccount -AccountInactive -UsersOnly -TimeSpan 30.0:0:0.0</t>
+  </si>
+  <si>
+    <t>vyhledá všechny účty, které jsou neaktivní za posledních 30 dní</t>
+  </si>
+  <si>
+    <t>[-]D.H:M:S.F</t>
+  </si>
+  <si>
+    <t>Search-ADAccount -PasswordExpired -UsersOnly</t>
+  </si>
+  <si>
+    <t>vyhledá všechny účty, kterým vypršela platnost hesla</t>
+  </si>
+  <si>
+    <t>where:</t>
+  </si>
+  <si>
+    <t>Search-ADAccount -LockedOut -UsersOnly</t>
+  </si>
+  <si>
+    <t>vyhledá všechny účty, které jsou uzamčené</t>
+  </si>
+  <si>
+    <t>D = Days (0 to 10675199)</t>
+  </si>
+  <si>
+    <t>H = Hours (0 to 23)</t>
+  </si>
+  <si>
+    <t>M = Minutes (0 to 59)</t>
+  </si>
+  <si>
+    <t>S = Seconds (0 to 59)</t>
+  </si>
+  <si>
+    <t>F = Fractions of a second (0 to 9999999)</t>
+  </si>
+  <si>
+    <t>Get-ADUser -Identity 'Administrator'</t>
+  </si>
+  <si>
+    <t>vyhledá uživatele s názvem Administrator</t>
+  </si>
+  <si>
+    <t>Get-ADUser -Filter {Name -eq 'Administrator'}</t>
+  </si>
+  <si>
+    <t>to samé, akorát jiným syntaxem</t>
+  </si>
+  <si>
+    <t>Get-ADUser -Filter * -ResultSetSize 100 -Properties lastLogon | Select-Object Name, UserPrincipalName, Enabled, Lastlogon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zobrazí prvních 100 uživatelů, přidání vlastností + selekce objektů </t>
+  </si>
+  <si>
+    <t>Get-ADUser -Filter * -SearchBase "OU=Users,OU=Lab,DC=bmarlab,DC=com" | Select-Object Name</t>
+  </si>
+  <si>
+    <t>zobrazí všechny uživatele v OU Users + selekce objektů</t>
+  </si>
+  <si>
     <r>
       <t>- K získání příznačného jména (distinguishedName) můžeme použít -</t>
     </r>
@@ -2891,6 +2795,120 @@
     </r>
   </si>
   <si>
+    <t>Get-ADGroupMember 'HR' | Select-Object Name, DistinguishedName</t>
+  </si>
+  <si>
+    <t>vyhledá uživatele, kteří jsou členové skupiny HR + selekce objektů</t>
+  </si>
+  <si>
+    <t>Skupiny</t>
+  </si>
+  <si>
+    <t>New-ADGroup -Name "Manufacturing" -SamAccountName "Manufacturing" -GroupCategory Security -GroupScope Global</t>
+  </si>
+  <si>
+    <t>vytvoření jednotlivé skupiny</t>
+  </si>
+  <si>
+    <t>přiřadí uživatele ze souboru k příslušné skupině dle oddělení</t>
+  </si>
+  <si>
+    <t>Add-ADGroupMember -Identity $_.Department -Members $_.SAMAccountName</t>
+  </si>
+  <si>
+    <t>Get-ADGroup -Identity "Sales and Marketing" | Get-ADGroupMember</t>
+  </si>
+  <si>
+    <t>vyhledá všechny účty, které patří do skupiny "Sales and Marketing"</t>
+  </si>
+  <si>
+    <t>Get-ADPrincipalGroupMembership -Identity Administrator</t>
+  </si>
+  <si>
+    <t>vyhledá všechny skupiny, do kterých patří uživatel Administrator nebo Marek.B</t>
+  </si>
+  <si>
+    <t>Get-ADPrincipalGroupMembership -Identity Marek.B</t>
+  </si>
+  <si>
+    <t>Práce s Group Policy</t>
+  </si>
+  <si>
+    <t>Remove-GPLink -Name "MyCoolGPO" -Target "OU=West Region,DC=globomantics,DC=com"</t>
+  </si>
+  <si>
+    <t>odstraní odkazované GPO na OU</t>
+  </si>
+  <si>
+    <t>Troubleshooting of GPOs</t>
+  </si>
+  <si>
+    <t>- rsop.msc</t>
+  </si>
+  <si>
+    <t>resultant set of policy (výsledná sada zásad)</t>
+  </si>
+  <si>
+    <t>- zobrazí souhrn všech zásad, které jsou aplikovány</t>
+  </si>
+  <si>
+    <t>- gpresult /r</t>
+  </si>
+  <si>
+    <t>- zobrazí souhrn zásad</t>
+  </si>
+  <si>
+    <t>Opravit narušený vztah důveryhodnosti mezi klientem a doménou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Kerberos login errors, etc.</t>
+  </si>
+  <si>
+    <t>Test-ComputerSecureChannel -Server "controller.domain.com" -Repair</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/cs-cz/powershell/azure/?view=azps-4.2.0</t>
+  </si>
+  <si>
+    <t>Intro</t>
+  </si>
+  <si>
+    <t>Připojení k Azure přes PowerShell</t>
+  </si>
+  <si>
+    <t>Zjištění jaká prostředí jsou mi k dispozici</t>
+  </si>
+  <si>
+    <t>Zjištění jaké předplatné máme k dispozici</t>
+  </si>
+  <si>
+    <t># připojení k Azure účtu</t>
+  </si>
+  <si>
+    <t># zjistí jaká prostředí jsou mi k dispozici</t>
+  </si>
+  <si>
+    <t># zjistí jaké máme dostupné předplatné</t>
+  </si>
+  <si>
+    <t>Connect-AzAccount</t>
+  </si>
+  <si>
+    <t>Get-AzEnvironment</t>
+  </si>
+  <si>
+    <t>Get-AzSubscription</t>
+  </si>
+  <si>
+    <t># připojí účet k určitému prostředí</t>
+  </si>
+  <si>
+    <t>Connect-AzAccount -Environment AzureChinaCloud</t>
+  </si>
+  <si>
+    <t>Vyhledávání příkazů</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Rutiny Azure PowerShellu využívají standardní konvenci PowerShellu pro tvorbu názvů, </t>
     </r>
@@ -3224,79 +3242,74 @@
     </r>
   </si>
   <si>
-    <t>otevře okno s nápovědou, ve které můžeme vyhledávát a filtrovat</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Get-Help Get-Service </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>-ShowWindow</t>
-    </r>
-  </si>
-  <si>
-    <t>[] znamená, že typ může nabrat více hodnot oddělené čárkou</t>
-  </si>
-  <si>
-    <t>bez [] znamená, že typ může nabrat pouze jedné hodnoty</t>
-  </si>
-  <si>
-    <t>Data types</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>[] znamená, že parametr je dobrovolný, není povinný</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Get-Help Get-Service </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>-Detailed</t>
-    </r>
-  </si>
-  <si>
-    <t>dokumentace detailněji</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - používá se převážně v pipelines, znamená aktuální objekt procházející přes pipeline</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>property</t>
-  </si>
-  <si>
-    <t>tečka</t>
-  </si>
-  <si>
-    <t>get-service | where {$_.status -eq "Running"}</t>
+    <t>Typ prostředku</t>
+  </si>
+  <si>
+    <t>Modul Azure PowerShellu</t>
+  </si>
+  <si>
+    <t>Předpona podstatného jména</t>
+  </si>
+  <si>
+    <t>Skupina prostředků</t>
+  </si>
+  <si>
+    <t>Az.Resources</t>
+  </si>
+  <si>
+    <t>AzResourceGroup</t>
+  </si>
+  <si>
+    <t>Virtual Machines</t>
+  </si>
+  <si>
+    <t>Az.Compute</t>
+  </si>
+  <si>
+    <t>AzVM</t>
+  </si>
+  <si>
+    <t>Účty úložiště</t>
+  </si>
+  <si>
+    <t>Az.Storage</t>
+  </si>
+  <si>
+    <t>AzStorageAccount</t>
+  </si>
+  <si>
+    <t>Key Vault</t>
+  </si>
+  <si>
+    <t>Az.KeyVault</t>
+  </si>
+  <si>
+    <t>AzKeyVault</t>
+  </si>
+  <si>
+    <t>Webové aplikace</t>
+  </si>
+  <si>
+    <t>Az.Websites</t>
+  </si>
+  <si>
+    <t>AzWebApp</t>
+  </si>
+  <si>
+    <t>Databáze SQL</t>
+  </si>
+  <si>
+    <t>Az.Sql</t>
+  </si>
+  <si>
+    <t>AzSqlDatabase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3701,56 +3714,56 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4089,39 +4102,39 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="12.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -4129,7 +4142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -4137,74 +4150,74 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>544</v>
+        <v>10</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="B24" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -4224,38 +4237,38 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="12.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
@@ -4266,9 +4279,9 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -4279,9 +4292,9 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -4292,9 +4305,9 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -4305,31 +4318,31 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A7" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -4340,12 +4353,12 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A10" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -4353,9 +4366,9 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -4366,9 +4379,9 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -4379,9 +4392,9 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -4392,9 +4405,9 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -4405,9 +4418,9 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -4418,9 +4431,9 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>545</v>
+        <v>34</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -4428,31 +4441,31 @@
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12" t="s">
-        <v>546</v>
+        <v>35</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
+      <c r="D18" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
       <c r="G18" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -4460,19 +4473,19 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="C22" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="C23" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4501,7 +4514,7 @@
       <selection activeCell="I11" sqref="I10:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="3"/>
     <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
@@ -4513,166 +4526,166 @@
     <col min="18" max="16384" width="12.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="63"/>
+    <row r="1" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A1" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="72"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="J1" s="14" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="J2" s="17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="16" t="s">
-        <v>599</v>
+        <v>48</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16" t="s">
-        <v>600</v>
+        <v>49</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="J3" s="5" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>549</v>
+        <v>51</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="J4" s="5" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>593</v>
+        <v>54</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16" t="s">
-        <v>592</v>
+        <v>55</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15.75" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>551</v>
+        <v>56</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="J6" s="5" t="s">
-        <v>552</v>
+        <v>58</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="J7" s="5" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" customHeight="1">
       <c r="A8" s="16" t="s">
-        <v>553</v>
+        <v>65</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="J9" s="5" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -4682,130 +4695,130 @@
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="J10" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="U11" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="O12" s="54" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" customHeight="1">
       <c r="A13" s="16" t="s">
-        <v>554</v>
+        <v>78</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="O13" s="3" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" customHeight="1">
       <c r="A14" s="16" t="s">
-        <v>555</v>
+        <v>81</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="J14" s="18" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" customHeight="1">
       <c r="A15" s="16" t="s">
-        <v>556</v>
+        <v>85</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="J15" s="4" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="O15" s="54" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" customHeight="1">
       <c r="A16" s="16" t="s">
-        <v>557</v>
+        <v>90</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="J16" s="4" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" customHeight="1">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -4815,18 +4828,18 @@
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="J17" s="4" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -4836,87 +4849,87 @@
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
     </row>
-    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="63"/>
+    <row r="23" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A23" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="72"/>
       <c r="U23" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="73" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="63"/>
-      <c r="E25" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="I25" s="63"/>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="58"/>
-      <c r="E26" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="72" t="s">
-        <v>86</v>
-      </c>
-      <c r="I26" s="58"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A25" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="72"/>
+      <c r="C25" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="72"/>
+      <c r="E25" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="72"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A26" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="69"/>
+      <c r="C26" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="69"/>
+      <c r="E26" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" s="69"/>
       <c r="U26" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="63"/>
-      <c r="D28" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="63"/>
-      <c r="K28" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="L28" s="63"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A28" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="72"/>
+      <c r="D28" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="72"/>
+      <c r="K28" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="L28" s="72"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
     </row>
-    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="15.75" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>558</v>
+        <v>113</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>559</v>
+        <v>114</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
@@ -4924,12 +4937,12 @@
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
     </row>
-    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="15.75" customHeight="1">
       <c r="D30" s="5" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
@@ -4938,9 +4951,9 @@
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
     </row>
-    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15.75" customHeight="1">
       <c r="K31" s="10" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
@@ -4949,11 +4962,11 @@
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
     </row>
-    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="63"/>
+    <row r="32" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A32" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="72"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
@@ -4962,41 +4975,41 @@
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
     </row>
-    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="15.75" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>560</v>
+        <v>121</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="17" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
     </row>
-    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="15.75" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
     </row>
-    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="15.75" customHeight="1">
       <c r="K35" s="10" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
@@ -5005,11 +5018,11 @@
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
     </row>
-    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="67" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="63"/>
+    <row r="36" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A36" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="72"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
@@ -5018,39 +5031,39 @@
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
     </row>
-    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="15.75" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>561</v>
+        <v>129</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="17" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
     </row>
-    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="15.75" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>562</v>
+        <v>132</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
     </row>
-    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="15.75" customHeight="1">
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
@@ -5059,28 +5072,28 @@
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
     </row>
-    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="15.75" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>563</v>
+        <v>135</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
-      <c r="K40" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="L40" s="58"/>
+      <c r="K40" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="L40" s="69"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
     </row>
-    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="15.75" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>564</v>
+        <v>137</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -5088,7 +5101,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="K41" s="10" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
@@ -5097,9 +5110,9 @@
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
     </row>
-    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="15.75" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>565</v>
+        <v>139</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -5114,9 +5127,9 @@
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
     </row>
-    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="15.75" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>566</v>
+        <v>140</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -5124,7 +5137,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="K43" s="17" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
@@ -5133,9 +5146,9 @@
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
     </row>
-    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="15.75" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -5143,7 +5156,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="K44" s="10" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
@@ -5152,11 +5165,11 @@
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
     </row>
-    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="B46" s="63"/>
+    <row r="46" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A46" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="72"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -5165,9 +5178,9 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="15.75" customHeight="1">
       <c r="A47" s="10" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -5176,16 +5189,16 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="K47" s="19" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="L47" s="9"/>
       <c r="N47" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="15.75" customHeight="1">
       <c r="A48" s="10" t="s">
-        <v>567</v>
+        <v>148</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -5196,10 +5209,10 @@
       <c r="K48" s="19"/>
       <c r="L48" s="9"/>
       <c r="N48" s="5" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" ht="15.75" customHeight="1">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -5208,30 +5221,30 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="K49" s="3" t="s">
-        <v>602</v>
+        <v>150</v>
       </c>
       <c r="L49" s="21" t="s">
-        <v>604</v>
+        <v>151</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" ht="15.75" customHeight="1">
       <c r="A50" s="20" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="9"/>
       <c r="L50" s="21" t="s">
-        <v>605</v>
+        <v>155</v>
       </c>
       <c r="R50" s="9"/>
       <c r="U50" s="5"/>
@@ -5241,25 +5254,25 @@
       <c r="Z50" s="9"/>
       <c r="AA50" s="9"/>
     </row>
-    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" ht="15.75" customHeight="1">
       <c r="A51" s="20" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="9"/>
       <c r="K51" s="19" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="L51" s="9"/>
       <c r="N51" s="5" t="s">
-        <v>568</v>
+        <v>159</v>
       </c>
       <c r="R51" s="9"/>
       <c r="U51" s="5"/>
@@ -5269,14 +5282,14 @@
       <c r="Z51" s="9"/>
       <c r="AA51" s="9"/>
     </row>
-    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" ht="15.75" customHeight="1">
       <c r="A52" s="20" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -5284,14 +5297,14 @@
       <c r="H52" s="9"/>
       <c r="K52" s="19"/>
       <c r="L52" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="M52" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="N52" s="58"/>
+        <v>162</v>
+      </c>
+      <c r="M52" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="N52" s="69"/>
       <c r="O52" s="22" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="P52" s="23"/>
       <c r="R52" s="9"/>
@@ -5302,7 +5315,7 @@
       <c r="Z52" s="9"/>
       <c r="AA52" s="9"/>
     </row>
-    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" ht="15.75" customHeight="1">
       <c r="A53" s="20"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -5321,14 +5334,14 @@
       <c r="Z53" s="9"/>
       <c r="AA53" s="9"/>
     </row>
-    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" ht="15.75" customHeight="1">
       <c r="A54" s="20" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
@@ -5336,10 +5349,10 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
       <c r="K54" s="19" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>569</v>
+        <v>168</v>
       </c>
       <c r="R54" s="9"/>
       <c r="U54" s="5"/>
@@ -5349,14 +5362,14 @@
       <c r="Z54" s="9"/>
       <c r="AA54" s="9"/>
     </row>
-    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" ht="15.75" customHeight="1">
       <c r="A55" s="20" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
@@ -5372,7 +5385,7 @@
       <c r="Z55" s="9"/>
       <c r="AA55" s="9"/>
     </row>
-    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" ht="15.75" customHeight="1">
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
       <c r="Q56" s="9"/>
@@ -5384,7 +5397,7 @@
       <c r="Z56" s="9"/>
       <c r="AA56" s="9"/>
     </row>
-    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" ht="15.75" customHeight="1">
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
       <c r="Q57" s="9"/>
@@ -5396,19 +5409,19 @@
       <c r="Z57" s="9"/>
       <c r="AA57" s="9"/>
     </row>
-    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="B58" s="63"/>
-      <c r="C58" s="63"/>
-      <c r="D58" s="63"/>
-      <c r="G58" s="75" t="s">
-        <v>132</v>
-      </c>
-      <c r="H58" s="63"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="63"/>
+    <row r="58" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A58" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="72"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="72"/>
+      <c r="G58" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="H58" s="72"/>
+      <c r="I58" s="72"/>
+      <c r="J58" s="72"/>
       <c r="Q58" s="9"/>
       <c r="R58" s="9"/>
       <c r="U58" s="5"/>
@@ -5418,9 +5431,9 @@
       <c r="Z58" s="9"/>
       <c r="AA58" s="9"/>
     </row>
-    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" ht="15.75" customHeight="1">
       <c r="A59" s="17" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="B59" s="24"/>
       <c r="C59" s="24"/>
@@ -5428,14 +5441,14 @@
       <c r="E59" s="24"/>
       <c r="F59" s="9"/>
       <c r="G59" s="17" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
       <c r="L59" s="17" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="M59" s="8"/>
       <c r="N59" s="12"/>
@@ -5450,9 +5463,9 @@
       <c r="Z59" s="9"/>
       <c r="AA59" s="9"/>
     </row>
-    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" ht="15.75" customHeight="1">
       <c r="A60" s="24" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="B60" s="24"/>
       <c r="C60" s="24"/>
@@ -5460,14 +5473,14 @@
       <c r="E60" s="24"/>
       <c r="F60" s="9"/>
       <c r="G60" s="12" t="s">
-        <v>570</v>
+        <v>177</v>
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
       <c r="L60" s="12" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="M60" s="12"/>
       <c r="N60" s="12"/>
@@ -5482,7 +5495,7 @@
       <c r="Z60" s="9"/>
       <c r="AA60" s="9"/>
     </row>
-    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" ht="15.75" customHeight="1">
       <c r="A61" s="24"/>
       <c r="B61" s="24"/>
       <c r="C61" s="24"/>
@@ -5490,14 +5503,14 @@
       <c r="E61" s="24"/>
       <c r="F61" s="9"/>
       <c r="G61" s="12" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
       <c r="L61" s="12" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M61" s="12"/>
       <c r="N61" s="12"/>
@@ -5512,9 +5525,9 @@
       <c r="Z61" s="9"/>
       <c r="AA61" s="9"/>
     </row>
-    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" ht="15.75" customHeight="1">
       <c r="A62" s="17" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="24"/>
@@ -5522,7 +5535,7 @@
       <c r="E62" s="24"/>
       <c r="F62" s="9"/>
       <c r="G62" s="12" t="s">
-        <v>571</v>
+        <v>182</v>
       </c>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
@@ -5542,9 +5555,9 @@
       <c r="Z62" s="9"/>
       <c r="AA62" s="9"/>
     </row>
-    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" ht="15.75" customHeight="1">
       <c r="A63" s="24" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
@@ -5556,14 +5569,14 @@
       <c r="I63" s="12"/>
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
-      <c r="L63" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="M63" s="63"/>
-      <c r="N63" s="63"/>
-      <c r="O63" s="63"/>
-      <c r="P63" s="63"/>
-      <c r="Q63" s="63"/>
+      <c r="L63" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="M63" s="72"/>
+      <c r="N63" s="72"/>
+      <c r="O63" s="72"/>
+      <c r="P63" s="72"/>
+      <c r="Q63" s="72"/>
       <c r="R63" s="9"/>
       <c r="U63" s="5"/>
       <c r="W63" s="9"/>
@@ -5572,9 +5585,9 @@
       <c r="Z63" s="9"/>
       <c r="AA63" s="9"/>
     </row>
-    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" ht="15.75" customHeight="1">
       <c r="A64" s="24" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="B64" s="24"/>
       <c r="C64" s="24"/>
@@ -5583,19 +5596,19 @@
       <c r="F64" s="9"/>
       <c r="G64" s="12"/>
       <c r="H64" s="25" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="I64" s="12"/>
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
       <c r="L64" s="4" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="Q64" s="9"/>
       <c r="R64" s="9"/>
@@ -5606,7 +5619,7 @@
       <c r="Z64" s="9"/>
       <c r="AA64" s="9"/>
     </row>
-    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" ht="15.75" customHeight="1">
       <c r="A65" s="24"/>
       <c r="B65" s="24"/>
       <c r="C65" s="24"/>
@@ -5615,21 +5628,21 @@
       <c r="F65" s="9"/>
       <c r="G65" s="12"/>
       <c r="H65" s="26" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="I65" s="12"/>
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
       <c r="L65" s="17" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="M65" s="8"/>
       <c r="N65" s="8" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c r="P65" s="17" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="Q65" s="8"/>
       <c r="R65" s="9"/>
@@ -5640,10 +5653,10 @@
       <c r="Z65" s="9"/>
       <c r="AA65" s="9"/>
     </row>
-    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" ht="15.75" customHeight="1">
       <c r="A66" s="24"/>
       <c r="B66" s="27" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="C66" s="24"/>
       <c r="D66" s="24"/>
@@ -5651,19 +5664,19 @@
       <c r="F66" s="9"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
       <c r="L66" s="4" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="P66" s="4" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="Q66" s="9"/>
       <c r="R66" s="9"/>
@@ -5674,10 +5687,10 @@
       <c r="Z66" s="9"/>
       <c r="AA66" s="9"/>
     </row>
-    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" ht="15.75" customHeight="1">
       <c r="A67" s="24"/>
       <c r="B67" s="28" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="C67" s="24"/>
       <c r="D67" s="24"/>
@@ -5685,21 +5698,21 @@
       <c r="F67" s="9"/>
       <c r="G67" s="12"/>
       <c r="H67" s="29" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
       <c r="K67" s="12"/>
       <c r="L67" s="17" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="M67" s="8"/>
       <c r="N67" s="8" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c r="P67" s="17" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="Q67" s="8"/>
       <c r="R67" s="9"/>
@@ -5710,10 +5723,10 @@
       <c r="Z67" s="9"/>
       <c r="AA67" s="9"/>
     </row>
-    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" ht="15.75" customHeight="1">
       <c r="A68" s="24"/>
       <c r="B68" s="24" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="24"/>
@@ -5725,13 +5738,13 @@
       <c r="J68" s="12"/>
       <c r="K68" s="12"/>
       <c r="L68" s="4" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="N68" s="5" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="Q68" s="9"/>
       <c r="R68" s="9"/>
@@ -5742,7 +5755,7 @@
       <c r="Z68" s="9"/>
       <c r="AA68" s="9"/>
     </row>
-    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" ht="15.75" customHeight="1">
       <c r="A69" s="24"/>
       <c r="B69" s="24"/>
       <c r="C69" s="24"/>
@@ -5751,21 +5764,21 @@
       <c r="F69" s="9"/>
       <c r="G69" s="12"/>
       <c r="H69" s="26" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
       <c r="K69" s="12"/>
       <c r="L69" s="17" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="M69" s="8"/>
       <c r="N69" s="8" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c r="P69" s="17" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="Q69" s="8"/>
       <c r="R69" s="9"/>
@@ -5776,10 +5789,10 @@
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
     </row>
-    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" ht="15.75" customHeight="1">
       <c r="A70" s="24"/>
       <c r="B70" s="28" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="C70" s="24"/>
       <c r="D70" s="24"/>
@@ -5787,19 +5800,19 @@
       <c r="F70" s="9"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
       <c r="K70" s="12"/>
       <c r="L70" s="4" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="Q70" s="9"/>
       <c r="R70" s="9"/>
@@ -5810,10 +5823,10 @@
       <c r="Z70" s="9"/>
       <c r="AA70" s="9"/>
     </row>
-    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" ht="15.75" customHeight="1">
       <c r="A71" s="24"/>
       <c r="B71" s="24" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="C71" s="24"/>
       <c r="D71" s="24"/>
@@ -5821,7 +5834,7 @@
       <c r="F71" s="9"/>
       <c r="G71" s="12"/>
       <c r="H71" s="29" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="I71" s="12"/>
       <c r="J71" s="12"/>
@@ -5840,7 +5853,7 @@
       <c r="Z71" s="9"/>
       <c r="AA71" s="9"/>
     </row>
-    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" ht="15.75" customHeight="1">
       <c r="A72" s="24"/>
       <c r="B72" s="24"/>
       <c r="C72" s="24"/>
@@ -5853,12 +5866,12 @@
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
       <c r="L72" s="26" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="M72" s="12"/>
       <c r="N72" s="12"/>
       <c r="O72" s="12" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="P72" s="12"/>
       <c r="Q72" s="12"/>
@@ -5870,10 +5883,10 @@
       <c r="Z72" s="9"/>
       <c r="AA72" s="9"/>
     </row>
-    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" ht="15.75" customHeight="1">
       <c r="A73" s="24"/>
       <c r="B73" s="28" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="C73" s="24"/>
       <c r="D73" s="24"/>
@@ -5881,18 +5894,18 @@
       <c r="F73" s="9"/>
       <c r="G73" s="12"/>
       <c r="H73" s="26" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="I73" s="12"/>
       <c r="J73" s="12"/>
       <c r="K73" s="12"/>
       <c r="L73" s="12" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="M73" s="12"/>
       <c r="N73" s="12"/>
       <c r="O73" s="12" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="P73" s="12"/>
       <c r="Q73" s="12"/>
@@ -5904,10 +5917,10 @@
       <c r="Z73" s="9"/>
       <c r="AA73" s="9"/>
     </row>
-    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" ht="15.75" customHeight="1">
       <c r="A74" s="24"/>
       <c r="B74" s="24" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="C74" s="24"/>
       <c r="D74" s="24"/>
@@ -5915,7 +5928,7 @@
       <c r="F74" s="9"/>
       <c r="G74" s="12"/>
       <c r="H74" s="12" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="I74" s="12"/>
       <c r="J74" s="12"/>
@@ -5934,7 +5947,7 @@
       <c r="Z74" s="9"/>
       <c r="AA74" s="9"/>
     </row>
-    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" ht="15.75" customHeight="1">
       <c r="A75" s="24"/>
       <c r="B75" s="24"/>
       <c r="C75" s="24"/>
@@ -5942,18 +5955,18 @@
       <c r="E75" s="24"/>
       <c r="G75" s="12"/>
       <c r="H75" s="29" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
       <c r="K75" s="12"/>
       <c r="L75" s="26" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="M75" s="12"/>
       <c r="N75" s="12"/>
       <c r="O75" s="12" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="P75" s="12"/>
       <c r="Q75" s="12"/>
@@ -5965,13 +5978,13 @@
       <c r="Z75" s="9"/>
       <c r="AA75" s="9"/>
     </row>
-    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" ht="15.75" customHeight="1">
       <c r="A76" s="28" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B76" s="24"/>
       <c r="C76" s="24" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="D76" s="24"/>
       <c r="E76" s="24"/>
@@ -5981,12 +5994,12 @@
       <c r="J76" s="12"/>
       <c r="K76" s="12"/>
       <c r="L76" s="12" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="M76" s="12"/>
       <c r="N76" s="12"/>
       <c r="O76" s="12" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="P76" s="12"/>
       <c r="Q76" s="12"/>
@@ -5998,22 +6011,22 @@
       <c r="Z76" s="9"/>
       <c r="AA76" s="9"/>
     </row>
-    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" ht="15.75" customHeight="1">
       <c r="A77" s="28" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
       <c r="B77" s="24"/>
       <c r="C77" s="24" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="D77" s="24"/>
       <c r="E77" s="24"/>
       <c r="G77" s="26" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="H77" s="12"/>
       <c r="I77" s="12" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="J77" s="12"/>
       <c r="K77" s="12"/>
@@ -6031,7 +6044,7 @@
       <c r="Z77" s="9"/>
       <c r="AA77" s="9"/>
     </row>
-    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" ht="15.75" customHeight="1">
       <c r="A78" s="24"/>
       <c r="B78" s="24"/>
       <c r="C78" s="24"/>
@@ -6043,7 +6056,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="12"/>
       <c r="L78" s="26" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="M78" s="26"/>
       <c r="N78" s="26"/>
@@ -6058,7 +6071,7 @@
       <c r="Z78" s="9"/>
       <c r="AA78" s="9"/>
     </row>
-    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" ht="15.75" customHeight="1">
       <c r="A79" s="5"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
@@ -6067,7 +6080,7 @@
       <c r="K79" s="12"/>
       <c r="L79" s="12"/>
       <c r="M79" s="12" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="N79" s="12"/>
       <c r="O79" s="12"/>
@@ -6081,7 +6094,7 @@
       <c r="Z79" s="9"/>
       <c r="AA79" s="9"/>
     </row>
-    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" ht="15.75" customHeight="1">
       <c r="A80" s="5"/>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
@@ -6090,7 +6103,7 @@
       <c r="K80" s="12"/>
       <c r="L80" s="12"/>
       <c r="M80" s="12" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="N80" s="12"/>
       <c r="O80" s="12"/>
@@ -6104,10 +6117,10 @@
       <c r="Z80" s="9"/>
       <c r="AA80" s="9"/>
     </row>
-    <row r="81" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="12:27" ht="15.75" customHeight="1">
       <c r="L81" s="12"/>
       <c r="M81" s="12" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="N81" s="12"/>
       <c r="O81" s="12"/>
@@ -6121,10 +6134,10 @@
       <c r="Z81" s="9"/>
       <c r="AA81" s="9"/>
     </row>
-    <row r="82" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="12:27" ht="15.75" customHeight="1">
       <c r="L82" s="12"/>
       <c r="M82" s="12" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
       <c r="N82" s="12"/>
       <c r="O82" s="12"/>
@@ -6138,7 +6151,7 @@
       <c r="Z82" s="9"/>
       <c r="AA82" s="9"/>
     </row>
-    <row r="83" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="12:27" ht="15.75" customHeight="1">
       <c r="L83" s="12"/>
       <c r="M83" s="12"/>
       <c r="N83" s="12"/>
@@ -6153,10 +6166,10 @@
       <c r="Z83" s="9"/>
       <c r="AA83" s="9"/>
     </row>
-    <row r="84" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="12:27" ht="15.75" customHeight="1">
       <c r="L84" s="8"/>
       <c r="M84" s="8" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
@@ -6170,10 +6183,10 @@
       <c r="Z84" s="9"/>
       <c r="AA84" s="9"/>
     </row>
-    <row r="85" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="12:27" ht="15.75" customHeight="1">
       <c r="L85" s="8"/>
       <c r="M85" s="17" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
@@ -6187,10 +6200,10 @@
       <c r="Z85" s="9"/>
       <c r="AA85" s="9"/>
     </row>
-    <row r="86" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="12:27" ht="15.75" customHeight="1">
       <c r="L86" s="8"/>
       <c r="M86" s="8" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
@@ -6204,10 +6217,10 @@
       <c r="Z86" s="9"/>
       <c r="AA86" s="9"/>
     </row>
-    <row r="87" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="12:27" ht="15.75" customHeight="1">
       <c r="L87" s="8"/>
       <c r="M87" s="17" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="N87" s="8"/>
       <c r="O87" s="8"/>
@@ -6220,10 +6233,10 @@
       <c r="Z87" s="9"/>
       <c r="AA87" s="9"/>
     </row>
-    <row r="88" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="12:27" ht="15.75" customHeight="1">
       <c r="L88" s="8"/>
       <c r="M88" s="8" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="N88" s="8"/>
       <c r="O88" s="8"/>
@@ -6236,7 +6249,7 @@
       <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
     </row>
-    <row r="89" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="12:27" ht="15.75" customHeight="1">
       <c r="L89" s="12"/>
       <c r="M89" s="12"/>
       <c r="N89" s="12"/>
@@ -6250,14 +6263,14 @@
       <c r="Z89" s="9"/>
       <c r="AA89" s="9"/>
     </row>
-    <row r="90" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="12:27" ht="15.75" customHeight="1">
       <c r="L90" s="26" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="M90" s="12"/>
       <c r="N90" s="12"/>
       <c r="O90" s="12" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="P90" s="12"/>
       <c r="Q90" s="12"/>
@@ -6268,14 +6281,14 @@
       <c r="Z90" s="9"/>
       <c r="AA90" s="9"/>
     </row>
-    <row r="91" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="12:27" ht="15.75" customHeight="1">
       <c r="L91" s="26" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="M91" s="12"/>
       <c r="N91" s="12"/>
       <c r="O91" s="12" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="P91" s="12"/>
       <c r="Q91" s="12"/>
@@ -6286,14 +6299,14 @@
       <c r="Z91" s="9"/>
       <c r="AA91" s="9"/>
     </row>
-    <row r="92" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="12:27" ht="15.75" customHeight="1">
       <c r="L92" s="26" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="M92" s="12"/>
       <c r="N92" s="12"/>
       <c r="O92" s="12" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="P92" s="12"/>
       <c r="Q92" s="12"/>
@@ -6305,7 +6318,7 @@
       <c r="Z92" s="9"/>
       <c r="AA92" s="9"/>
     </row>
-    <row r="93" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="12:27" ht="15.75" customHeight="1">
       <c r="R93" s="9"/>
       <c r="U93" s="5"/>
       <c r="W93" s="9"/>
@@ -6314,7 +6327,7 @@
       <c r="Z93" s="9"/>
       <c r="AA93" s="9"/>
     </row>
-    <row r="94" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="12:27" ht="15.75" customHeight="1">
       <c r="R94" s="9"/>
       <c r="U94" s="5"/>
       <c r="W94" s="9"/>
@@ -6323,7 +6336,7 @@
       <c r="Z94" s="9"/>
       <c r="AA94" s="9"/>
     </row>
-    <row r="95" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="12:27" ht="15.75" customHeight="1">
       <c r="R95" s="9"/>
       <c r="U95" s="5"/>
       <c r="W95" s="9"/>
@@ -6332,7 +6345,7 @@
       <c r="Z95" s="9"/>
       <c r="AA95" s="9"/>
     </row>
-    <row r="96" spans="12:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="12:27" ht="15.75" customHeight="1">
       <c r="R96" s="9"/>
       <c r="U96" s="5"/>
       <c r="W96" s="9"/>
@@ -6341,7 +6354,7 @@
       <c r="Z96" s="9"/>
       <c r="AA96" s="9"/>
     </row>
-    <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" ht="15.75" customHeight="1">
       <c r="R97" s="9"/>
       <c r="U97" s="5"/>
       <c r="W97" s="9"/>
@@ -6350,11 +6363,11 @@
       <c r="Z97" s="9"/>
       <c r="AA97" s="9"/>
     </row>
-    <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="70" t="s">
-        <v>210</v>
-      </c>
-      <c r="B98" s="63"/>
+    <row r="98" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A98" s="77" t="s">
+        <v>252</v>
+      </c>
+      <c r="B98" s="72"/>
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
       <c r="N98" s="9"/>
@@ -6369,13 +6382,13 @@
       <c r="Z98" s="9"/>
       <c r="AA98" s="9"/>
     </row>
-    <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" ht="15.75" customHeight="1">
       <c r="A99" s="30" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="B99" s="31"/>
       <c r="E99" s="30" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="F99" s="31"/>
       <c r="G99" s="9"/>
@@ -6397,12 +6410,12 @@
       <c r="Z99" s="9"/>
       <c r="AA99" s="9"/>
     </row>
-    <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" ht="15.75" customHeight="1">
       <c r="A100" s="5" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
@@ -6423,7 +6436,7 @@
       <c r="Z100" s="9"/>
       <c r="AA100" s="9"/>
     </row>
-    <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" ht="15.75" customHeight="1">
       <c r="A101" s="5"/>
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
@@ -6444,19 +6457,19 @@
       <c r="Z101" s="9"/>
       <c r="AA101" s="9"/>
     </row>
-    <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" ht="15.75" customHeight="1">
       <c r="A102" s="17" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="C102" s="8"/>
       <c r="E102" s="32" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="G102" s="8"/>
       <c r="H102" s="9"/>
@@ -6476,18 +6489,18 @@
       <c r="Z102" s="9"/>
       <c r="AA102" s="9"/>
     </row>
-    <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" ht="15.75" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="E103" s="33" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
@@ -6507,19 +6520,19 @@
       <c r="Z103" s="9"/>
       <c r="AA103" s="9"/>
     </row>
-    <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" ht="15.75" customHeight="1">
       <c r="A104" s="17" t="s">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="C104" s="8"/>
       <c r="E104" s="32" t="s">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="G104" s="8"/>
       <c r="H104" s="9"/>
@@ -6539,18 +6552,18 @@
       <c r="Z104" s="9"/>
       <c r="AA104" s="9"/>
     </row>
-    <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" ht="15.75" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="E105" s="33" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
@@ -6571,19 +6584,19 @@
       <c r="Z105" s="9"/>
       <c r="AA105" s="9"/>
     </row>
-    <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" ht="15.75" customHeight="1">
       <c r="A106" s="17" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="C106" s="8"/>
       <c r="E106" s="32" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>234</v>
+        <v>276</v>
       </c>
       <c r="G106" s="8"/>
       <c r="H106" s="9"/>
@@ -6604,13 +6617,13 @@
       <c r="Z106" s="9"/>
       <c r="AA106" s="9"/>
     </row>
-    <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" ht="15.75" customHeight="1">
       <c r="A107" s="5"/>
       <c r="E107" s="33" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>236</v>
+        <v>278</v>
       </c>
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
@@ -6631,7 +6644,7 @@
       <c r="Z107" s="9"/>
       <c r="AA107" s="9"/>
     </row>
-    <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" ht="15.75" customHeight="1">
       <c r="A108" s="5"/>
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
@@ -6652,13 +6665,13 @@
       <c r="Z108" s="9"/>
       <c r="AA108" s="9"/>
     </row>
-    <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" ht="15.75" customHeight="1">
       <c r="A109" s="30" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
       <c r="B109" s="31"/>
       <c r="G109" s="30" t="s">
-        <v>238</v>
+        <v>280</v>
       </c>
       <c r="H109" s="31"/>
       <c r="I109" s="9"/>
@@ -6678,9 +6691,9 @@
       <c r="Z109" s="9"/>
       <c r="AA109" s="9"/>
     </row>
-    <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" ht="15.75" customHeight="1">
       <c r="A110" s="5" t="s">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="L110" s="9"/>
       <c r="M110" s="9"/>
@@ -6696,13 +6709,13 @@
       <c r="Z110" s="9"/>
       <c r="AA110" s="9"/>
     </row>
-    <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" ht="15.75" customHeight="1">
       <c r="A111" s="5"/>
       <c r="G111" s="17" t="s">
-        <v>240</v>
+        <v>282</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
@@ -6721,21 +6734,21 @@
       <c r="Z111" s="9"/>
       <c r="AA111" s="9"/>
     </row>
-    <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" ht="15.75" customHeight="1">
       <c r="A112" s="17" t="s">
-        <v>242</v>
+        <v>284</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="G112" s="19" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -6754,20 +6767,20 @@
       <c r="Z112" s="9"/>
       <c r="AA112" s="9"/>
     </row>
-    <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27" ht="15.75" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="G113" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="H113" s="61" t="s">
-        <v>249</v>
-      </c>
-      <c r="I113" s="58"/>
+        <v>290</v>
+      </c>
+      <c r="H113" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="I113" s="69"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c r="L113" s="9"/>
@@ -6784,21 +6797,21 @@
       <c r="Z113" s="9"/>
       <c r="AA113" s="9"/>
     </row>
-    <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27" ht="15.75" customHeight="1">
       <c r="A114" s="17" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="G114" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="H114" s="58"/>
-      <c r="I114" s="58"/>
+        <v>294</v>
+      </c>
+      <c r="H114" s="69"/>
+      <c r="I114" s="69"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
@@ -6815,12 +6828,12 @@
       <c r="Z114" s="9"/>
       <c r="AA114" s="9"/>
     </row>
-    <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27" ht="15.75" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>253</v>
+        <v>295</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
@@ -6841,18 +6854,18 @@
       <c r="Z115" s="9"/>
       <c r="AA115" s="9"/>
     </row>
-    <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" ht="15.75" customHeight="1">
       <c r="A116" s="17" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="G116" s="30" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="H116" s="31"/>
       <c r="I116" s="9"/>
@@ -6872,15 +6885,15 @@
       <c r="Z116" s="9"/>
       <c r="AA116" s="9"/>
     </row>
-    <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" ht="15.75" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
@@ -6900,7 +6913,7 @@
       <c r="Z117" s="9"/>
       <c r="AA117" s="9"/>
     </row>
-    <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" ht="15.75" customHeight="1">
       <c r="A118" s="4"/>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
@@ -6921,21 +6934,21 @@
       <c r="Z118" s="9"/>
       <c r="AA118" s="9"/>
     </row>
-    <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" ht="15.75" customHeight="1">
       <c r="A119" s="17" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="G119" s="17" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="9"/>
@@ -6954,18 +6967,18 @@
       <c r="Z119" s="9"/>
       <c r="AA119" s="9"/>
     </row>
-    <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" ht="15.75" customHeight="1">
       <c r="A120" s="4" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="G120" s="19" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -6984,13 +6997,13 @@
       <c r="Z120" s="9"/>
       <c r="AA120" s="9"/>
     </row>
-    <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" ht="15.75" customHeight="1">
       <c r="A121" s="4"/>
       <c r="G121" s="17" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="9"/>
@@ -7009,12 +7022,12 @@
       <c r="Z121" s="9"/>
       <c r="AA121" s="9"/>
     </row>
-    <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" ht="15.75" customHeight="1">
       <c r="A122" s="17" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
@@ -7038,12 +7051,12 @@
       <c r="Z122" s="9"/>
       <c r="AA122" s="9"/>
     </row>
-    <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" ht="15.75" customHeight="1">
       <c r="A123" s="4" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
@@ -7064,10 +7077,10 @@
       <c r="Z123" s="9"/>
       <c r="AA123" s="9"/>
     </row>
-    <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" ht="15.75" customHeight="1">
       <c r="A124" s="5"/>
       <c r="G124" s="30" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="H124" s="31"/>
       <c r="I124" s="9"/>
@@ -7087,13 +7100,13 @@
       <c r="Z124" s="9"/>
       <c r="AA124" s="9"/>
     </row>
-    <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27" ht="15.75" customHeight="1">
       <c r="A125" s="30" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="B125" s="31"/>
       <c r="G125" s="9" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="H125" s="9"/>
       <c r="I125" s="9"/>
@@ -7113,7 +7126,7 @@
       <c r="Z125" s="9"/>
       <c r="AA125" s="9"/>
     </row>
-    <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" ht="15.75" customHeight="1">
       <c r="A126" s="5"/>
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
@@ -7134,20 +7147,20 @@
       <c r="Z126" s="9"/>
       <c r="AA126" s="9"/>
     </row>
-    <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27" ht="15.75" customHeight="1">
       <c r="A127" s="17" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
       <c r="G127" s="17" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="9"/>
@@ -7166,18 +7179,18 @@
       <c r="Z127" s="9"/>
       <c r="AA127" s="9"/>
     </row>
-    <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" ht="15.75" customHeight="1">
       <c r="A128" s="4" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="G128" s="19" t="s">
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -7196,12 +7209,12 @@
       <c r="Z128" s="9"/>
       <c r="AA128" s="9"/>
     </row>
-    <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27" ht="15.75" customHeight="1">
       <c r="A129" s="17" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
@@ -7224,7 +7237,7 @@
       <c r="Z129" s="9"/>
       <c r="AA129" s="9"/>
     </row>
-    <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27" ht="15.75" customHeight="1">
       <c r="A130" s="5"/>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
@@ -7245,7 +7258,7 @@
       <c r="Z130" s="9"/>
       <c r="AA130" s="9"/>
     </row>
-    <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:27" ht="15.75" customHeight="1">
       <c r="A131" s="5"/>
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
@@ -7266,9 +7279,9 @@
       <c r="Z131" s="9"/>
       <c r="AA131" s="9"/>
     </row>
-    <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27" ht="15.75" customHeight="1">
       <c r="A132" s="30" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="B132" s="31"/>
       <c r="G132" s="9"/>
@@ -7290,7 +7303,7 @@
       <c r="Z132" s="9"/>
       <c r="AA132" s="9"/>
     </row>
-    <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27" ht="15.75" customHeight="1">
       <c r="A133" s="5"/>
       <c r="G133" s="9"/>
       <c r="H133" s="9"/>
@@ -7311,12 +7324,12 @@
       <c r="Z133" s="9"/>
       <c r="AA133" s="9"/>
     </row>
-    <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27" ht="15.75" customHeight="1">
       <c r="A134" s="17" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
@@ -7340,12 +7353,12 @@
       <c r="Z134" s="9"/>
       <c r="AA134" s="9"/>
     </row>
-    <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27" ht="15.75" customHeight="1">
       <c r="A135" s="4" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
@@ -7366,12 +7379,12 @@
       <c r="Z135" s="9"/>
       <c r="AA135" s="9"/>
     </row>
-    <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27" ht="15.75" customHeight="1">
       <c r="A136" s="17" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
@@ -7395,12 +7408,12 @@
       <c r="Z136" s="9"/>
       <c r="AA136" s="9"/>
     </row>
-    <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:27" ht="15.75" customHeight="1">
       <c r="A137" s="4" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
@@ -7421,12 +7434,12 @@
       <c r="Z137" s="9"/>
       <c r="AA137" s="9"/>
     </row>
-    <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27" ht="15.75" customHeight="1">
       <c r="A138" s="17" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
@@ -7450,12 +7463,12 @@
       <c r="Z138" s="9"/>
       <c r="AA138" s="9"/>
     </row>
-    <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27" ht="15.75" customHeight="1">
       <c r="A139" s="4" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
@@ -7476,12 +7489,12 @@
       <c r="Z139" s="9"/>
       <c r="AA139" s="9"/>
     </row>
-    <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27" ht="15.75" customHeight="1">
       <c r="A140" s="17" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
@@ -7505,7 +7518,7 @@
       <c r="Z140" s="9"/>
       <c r="AA140" s="9"/>
     </row>
-    <row r="141" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27" ht="15.75" customHeight="1">
       <c r="A141" s="5"/>
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
@@ -7526,7 +7539,7 @@
       <c r="Z141" s="9"/>
       <c r="AA141" s="9"/>
     </row>
-    <row r="142" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27" ht="15.75" customHeight="1">
       <c r="A142" s="5"/>
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
@@ -7547,7 +7560,7 @@
       <c r="Z142" s="9"/>
       <c r="AA142" s="9"/>
     </row>
-    <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:27" ht="15.75" customHeight="1">
       <c r="A143" s="5"/>
       <c r="G143" s="9"/>
       <c r="H143" s="9"/>
@@ -7568,11 +7581,11 @@
       <c r="Z143" s="9"/>
       <c r="AA143" s="9"/>
     </row>
-    <row r="144" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="62" t="s">
-        <v>302</v>
-      </c>
-      <c r="B144" s="63"/>
+    <row r="144" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A144" s="78" t="s">
+        <v>344</v>
+      </c>
+      <c r="B144" s="72"/>
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
       <c r="I144" s="9"/>
@@ -7592,7 +7605,7 @@
       <c r="Z144" s="9"/>
       <c r="AA144" s="9"/>
     </row>
-    <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:27" ht="15.75" customHeight="1">
       <c r="G145" s="9"/>
       <c r="H145" s="9"/>
       <c r="I145" s="9"/>
@@ -7612,13 +7625,13 @@
       <c r="Z145" s="9"/>
       <c r="AA145" s="9"/>
     </row>
-    <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="64" t="s">
-        <v>303</v>
-      </c>
-      <c r="B146" s="58"/>
+    <row r="146" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A146" s="74" t="s">
+        <v>345</v>
+      </c>
+      <c r="B146" s="69"/>
       <c r="D146" s="5" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
@@ -7626,10 +7639,10 @@
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
       <c r="L146" s="17" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="O146" s="5" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="Q146" s="9"/>
       <c r="R146" s="9"/>
@@ -7640,13 +7653,13 @@
       <c r="Z146" s="9"/>
       <c r="AA146" s="9"/>
     </row>
-    <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="64" t="s">
-        <v>307</v>
-      </c>
-      <c r="B147" s="58"/>
+    <row r="147" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A147" s="74" t="s">
+        <v>349</v>
+      </c>
+      <c r="B147" s="69"/>
       <c r="D147" s="5" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
@@ -7654,7 +7667,7 @@
       <c r="J147" s="9"/>
       <c r="K147" s="9"/>
       <c r="L147" s="34" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="Q147" s="9"/>
       <c r="R147" s="9"/>
@@ -7665,7 +7678,7 @@
       <c r="Z147" s="9"/>
       <c r="AA147" s="9"/>
     </row>
-    <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:27" ht="15.75" customHeight="1">
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
       <c r="I148" s="9"/>
@@ -7674,7 +7687,7 @@
       <c r="Q148" s="9"/>
       <c r="R148" s="9"/>
       <c r="U148" s="5" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="W148" s="9"/>
       <c r="X148" s="9"/>
@@ -7682,9 +7695,9 @@
       <c r="Z148" s="9"/>
       <c r="AA148" s="9"/>
     </row>
-    <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:27" ht="15.75" customHeight="1">
       <c r="A149" s="14" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
@@ -7692,13 +7705,13 @@
       <c r="J149" s="9"/>
       <c r="K149" s="9"/>
       <c r="L149" s="4" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="N149" s="5" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="P149" s="5" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="Q149" s="9"/>
       <c r="R149" s="9"/>
@@ -7712,9 +7725,9 @@
       <c r="Z149" s="9"/>
       <c r="AA149" s="9"/>
     </row>
-    <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:27" ht="15.75" customHeight="1">
       <c r="A150" s="4" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
@@ -7722,190 +7735,190 @@
       <c r="J150" s="9"/>
       <c r="K150" s="9"/>
       <c r="L150" s="4" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="P150" s="5" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="Q150" s="9"/>
     </row>
-    <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:27" ht="15.75" customHeight="1">
       <c r="A151" s="5" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="G151" s="9"/>
       <c r="L151" s="4" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="P151" s="5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="152" spans="1:27" ht="15.75" customHeight="1">
       <c r="A152" s="5" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="G152" s="9"/>
       <c r="L152" s="4" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="P152" s="5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27" ht="15.75" customHeight="1">
       <c r="G153" s="9"/>
       <c r="M153" s="5" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="P153" s="5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="154" spans="1:27" ht="15.75" customHeight="1">
       <c r="A154" s="4" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="G154" s="9"/>
     </row>
-    <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:27" ht="15.75" customHeight="1">
       <c r="A155" s="5" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="G155" s="9"/>
     </row>
-    <row r="156" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:27" ht="15.75" customHeight="1">
       <c r="G156" s="9"/>
     </row>
-    <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:27" ht="15.75" customHeight="1">
       <c r="A157" s="4" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="G157" s="9"/>
     </row>
-    <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:27" ht="15.75" customHeight="1">
       <c r="A158" s="65" t="s">
-        <v>329</v>
-      </c>
-      <c r="B158" s="58"/>
-      <c r="C158" s="58"/>
-      <c r="D158" s="58"/>
-      <c r="E158" s="58"/>
-      <c r="F158" s="58"/>
+        <v>371</v>
+      </c>
+      <c r="B158" s="69"/>
+      <c r="C158" s="69"/>
+      <c r="D158" s="69"/>
+      <c r="E158" s="69"/>
+      <c r="F158" s="69"/>
       <c r="G158" s="9"/>
     </row>
-    <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="58"/>
-      <c r="B159" s="58"/>
-      <c r="C159" s="58"/>
-      <c r="D159" s="58"/>
-      <c r="E159" s="58"/>
-      <c r="F159" s="58"/>
+    <row r="159" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A159" s="69"/>
+      <c r="B159" s="69"/>
+      <c r="C159" s="69"/>
+      <c r="D159" s="69"/>
+      <c r="E159" s="69"/>
+      <c r="F159" s="69"/>
       <c r="G159" s="9"/>
     </row>
-    <row r="160" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:27" ht="15.75" customHeight="1">
       <c r="G160" s="9"/>
     </row>
-    <row r="161" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" ht="15.75" customHeight="1">
       <c r="A161" s="20" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="G161" s="9"/>
       <c r="L161" s="20" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" ht="15.75" customHeight="1">
       <c r="A162" s="5" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="G162" s="9"/>
       <c r="L162" s="8" t="s">
-        <v>572</v>
+        <v>375</v>
       </c>
       <c r="M162" s="8"/>
       <c r="N162" s="5" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="O162" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" ht="15.75" customHeight="1">
       <c r="G163" s="9"/>
       <c r="M163" s="5" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="O163" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="64" t="s">
-        <v>337</v>
-      </c>
-      <c r="B164" s="58"/>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A164" s="74" t="s">
+        <v>380</v>
+      </c>
+      <c r="B164" s="69"/>
       <c r="G164" s="9"/>
       <c r="M164" s="5" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="O164" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" ht="15.75" customHeight="1">
       <c r="A165" s="4" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="G165" s="9"/>
       <c r="N165" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" ht="15.75" customHeight="1">
       <c r="A166" s="5" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="G166" s="9"/>
       <c r="N166" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" ht="15.75" customHeight="1">
       <c r="A167" s="5" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="G167" s="9"/>
       <c r="M167" s="5" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="O167" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" ht="15.75" customHeight="1">
       <c r="A168" s="5" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="G168" s="9"/>
     </row>
-    <row r="169" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" ht="15.75" customHeight="1">
       <c r="G169" s="9"/>
       <c r="L169" s="8" t="s">
-        <v>573</v>
+        <v>391</v>
       </c>
       <c r="M169" s="8"/>
       <c r="N169" s="5" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="O169" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" ht="15.75" customHeight="1">
       <c r="G170" s="9"/>
     </row>
-    <row r="171" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" ht="15.75" customHeight="1">
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
@@ -7914,7 +7927,7 @@
       <c r="F171" s="9"/>
       <c r="G171" s="9"/>
     </row>
-    <row r="172" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" ht="15.75" customHeight="1">
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
@@ -7923,9 +7936,9 @@
       <c r="F172" s="9"/>
       <c r="G172" s="9"/>
     </row>
-    <row r="173" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" ht="15.75" customHeight="1">
       <c r="A173" s="35" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="B173" s="36"/>
       <c r="C173" s="9"/>
@@ -7934,12 +7947,12 @@
       <c r="F173" s="9"/>
       <c r="G173" s="9"/>
       <c r="L173" s="20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" ht="15.75" customHeight="1">
       <c r="A174" s="9" t="s">
-        <v>574</v>
+        <v>396</v>
       </c>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
@@ -7948,11 +7961,11 @@
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
       <c r="L174" s="17" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="M174" s="8"/>
     </row>
-    <row r="175" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" ht="15.75" customHeight="1">
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
@@ -7961,12 +7974,12 @@
       <c r="F175" s="9"/>
       <c r="G175" s="9"/>
       <c r="L175" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" ht="15.75" customHeight="1">
       <c r="A176" s="17" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
@@ -7975,12 +7988,12 @@
       <c r="F176" s="9"/>
       <c r="G176" s="9"/>
       <c r="L176" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" ht="15.75" customHeight="1">
       <c r="A177" s="9" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
@@ -7989,9 +8002,9 @@
       <c r="F177" s="9"/>
       <c r="G177" s="9"/>
     </row>
-    <row r="178" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" ht="15.75" customHeight="1">
       <c r="A178" s="9" t="s">
-        <v>575</v>
+        <v>402</v>
       </c>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
@@ -8000,299 +8013,300 @@
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
     </row>
-    <row r="179" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" ht="15.75" customHeight="1">
       <c r="A179" s="9"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
-      <c r="F179" s="66"/>
-      <c r="G179" s="58"/>
+      <c r="F179" s="63"/>
+      <c r="G179" s="69"/>
       <c r="L179" s="17" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="M179" s="8"/>
     </row>
-    <row r="180" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" ht="15.75" customHeight="1">
       <c r="A180" s="19" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="B180" s="9"/>
       <c r="C180" s="9" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
-      <c r="F180" s="58"/>
-      <c r="G180" s="58"/>
+      <c r="F180" s="69"/>
+      <c r="G180" s="69"/>
       <c r="L180" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" ht="15.75" customHeight="1">
       <c r="A181" s="19" t="s">
-        <v>576</v>
+        <v>407</v>
       </c>
       <c r="B181" s="9"/>
       <c r="C181" s="9" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
       <c r="G181" s="9"/>
     </row>
-    <row r="182" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" ht="15.75" customHeight="1">
       <c r="A182" s="5" t="s">
-        <v>577</v>
+        <v>409</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" ht="15.75" customHeight="1">
       <c r="A183" s="4" t="s">
-        <v>578</v>
+        <v>411</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="15.75" customHeight="1">
       <c r="A185" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="15.75" customHeight="1">
       <c r="A187" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" ht="15.75" customHeight="1">
       <c r="A189" s="5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" ht="15.75" customHeight="1">
       <c r="A191" s="4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15.75" customHeight="1">
       <c r="A193" s="17" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="15.75" customHeight="1">
       <c r="A194" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15.75" customHeight="1">
       <c r="A195" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="15.75" customHeight="1">
       <c r="A197" s="4" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="15.75" customHeight="1">
       <c r="A199" s="4" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="15.75" customHeight="1">
       <c r="A200" s="4" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15.75" customHeight="1">
       <c r="A202" s="5" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="15.75" customHeight="1">
       <c r="A203" s="5" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="15.75" customHeight="1">
       <c r="A205" s="5" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="15.75" customHeight="1">
       <c r="A207" s="5" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="15.75" customHeight="1">
       <c r="A209" s="17" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="B209" s="8"/>
     </row>
-    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="15.75" customHeight="1">
       <c r="A210" s="5" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="15.75" customHeight="1">
       <c r="A211" s="5" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="15.75" customHeight="1">
       <c r="A213" s="5" t="s">
-        <v>581</v>
+        <v>433</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="15.75" customHeight="1">
       <c r="A214" s="5" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="15.75" customHeight="1">
       <c r="A217" s="4" t="s">
-        <v>583</v>
+        <v>436</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="15.75" customHeight="1">
       <c r="A218" s="4" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="15.75" customHeight="1">
       <c r="A219" s="4" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="15.75" customHeight="1">
       <c r="A220" s="4" t="s">
-        <v>388</v>
+        <v>442</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="15.75" customHeight="1">
       <c r="A224" s="37" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="15.75" customHeight="1">
       <c r="A225" s="17" t="s">
-        <v>391</v>
+        <v>445</v>
       </c>
       <c r="B225" s="8"/>
       <c r="D225" s="5" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="15.75" customHeight="1">
       <c r="A226" s="34" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="15.75" customHeight="1">
       <c r="A227" s="5" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="15.75" customHeight="1">
       <c r="A229" s="17" t="s">
-        <v>395</v>
+        <v>449</v>
       </c>
       <c r="B229" s="8"/>
       <c r="D229" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="15.75" customHeight="1">
       <c r="A230" s="5" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="15.75" customHeight="1">
       <c r="A231" s="34" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="15.75" customHeight="1">
       <c r="A233" s="17" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="15.75" customHeight="1">
       <c r="A234" s="34" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="15.75" customHeight="1">
       <c r="A236" s="17" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="15.75" customHeight="1">
       <c r="A237" s="34" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="15.75" customHeight="1">
       <c r="A252" s="15" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="B252" s="16"/>
     </row>
-    <row r="255" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" ht="15.75" customHeight="1">
       <c r="A255" s="4" t="s">
-        <v>584</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="H113:I114"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A158:F159"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="F179:G180"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A98:B98"/>
     <mergeCell ref="L63:Q63"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:G26"/>
@@ -8301,17 +8315,16 @@
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="K40:L40"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="F179:G180"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="H113:I114"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A158:F159"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8330,57 +8343,57 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="12.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>404</v>
+        <v>459</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>412</v>
+        <v>467</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>413</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -8399,20 +8412,20 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="12.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="40" t="s">
-        <v>414</v>
+        <v>469</v>
       </c>
       <c r="B1" s="41"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="42" t="s">
-        <v>415</v>
+        <v>470</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="44"/>
@@ -8420,56 +8433,56 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>411</v>
+        <v>466</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>417</v>
+        <v>472</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>419</v>
+        <v>474</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="42" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="44"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="42" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="44"/>
@@ -8479,9 +8492,9 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -8490,12 +8503,12 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="A14" s="42" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="B14" s="43"/>
       <c r="C14" s="44"/>
@@ -8508,13 +8521,13 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -8525,7 +8538,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -8538,30 +8551,30 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="4" t="s">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>433</v>
+        <v>488</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -8570,7 +8583,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -8579,9 +8592,9 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>434</v>
+        <v>489</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -8590,46 +8603,46 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="9" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1">
       <c r="A24" s="5"/>
       <c r="B24" s="4" t="s">
-        <v>437</v>
+        <v>492</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="9" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.75" customHeight="1">
       <c r="A25" s="5"/>
       <c r="B25" s="4" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="9" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -8638,7 +8651,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.75" customHeight="1">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -8647,9 +8660,9 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1">
       <c r="A28" s="42" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="B28" s="43"/>
       <c r="C28" s="44"/>
@@ -8658,20 +8671,20 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.75" customHeight="1">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -8680,35 +8693,35 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5" t="s">
-        <v>447</v>
+        <v>502</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1">
       <c r="A37" s="45" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="B37" s="46"/>
       <c r="C37" s="46"/>
@@ -8724,9 +8737,9 @@
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1">
       <c r="A38" s="42" t="s">
-        <v>449</v>
+        <v>504</v>
       </c>
       <c r="B38" s="42"/>
       <c r="C38" s="5"/>
@@ -8742,9 +8755,9 @@
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -8759,16 +8772,16 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -8782,7 +8795,7 @@
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -8798,9 +8811,9 @@
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -8812,16 +8825,16 @@
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1">
       <c r="A43" s="5"/>
       <c r="B43" s="4" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -8836,10 +8849,10 @@
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1">
       <c r="A44" s="5"/>
       <c r="B44" s="4" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -8854,10 +8867,10 @@
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="A45" s="5"/>
       <c r="B45" s="4" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -8872,10 +8885,10 @@
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="A46" s="5"/>
       <c r="B46" s="4" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -8890,10 +8903,10 @@
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1">
       <c r="A47" s="5"/>
       <c r="B47" s="4" t="s">
-        <v>460</v>
+        <v>515</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -8908,11 +8921,11 @@
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="38" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -8926,7 +8939,7 @@
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -8942,16 +8955,16 @@
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5" t="s">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -8962,29 +8975,29 @@
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>464</v>
+        <v>519</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="34" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -9000,38 +9013,38 @@
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="39" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -9042,7 +9055,7 @@
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -9054,13 +9067,13 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="34" t="s">
-        <v>472</v>
+        <v>527</v>
       </c>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -9072,13 +9085,13 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="34" t="s">
-        <v>473</v>
+        <v>528</v>
       </c>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -9090,13 +9103,13 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="34" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -9108,13 +9121,13 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="34" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -9125,22 +9138,22 @@
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="34" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
@@ -9151,16 +9164,16 @@
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1">
       <c r="A61" s="5" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -9171,7 +9184,7 @@
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -9187,9 +9200,9 @@
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>481</v>
+        <v>536</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -9200,14 +9213,14 @@
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5" t="s">
-        <v>482</v>
+        <v>537</v>
       </c>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -9223,9 +9236,9 @@
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
     </row>
-    <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="15.75" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>483</v>
+        <v>538</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -9236,16 +9249,16 @@
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
     </row>
-    <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="15.75" customHeight="1">
       <c r="A66" s="5" t="s">
-        <v>585</v>
+        <v>540</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -9261,7 +9274,7 @@
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
     </row>
-    <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="15.75" customHeight="1">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -9277,16 +9290,16 @@
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
     </row>
-    <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="15.75" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>485</v>
+        <v>541</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
@@ -9297,7 +9310,7 @@
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
     </row>
-    <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="15.75" customHeight="1">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -9313,7 +9326,7 @@
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
     </row>
-    <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="15.75" customHeight="1">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -9329,7 +9342,7 @@
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
     </row>
-    <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="15.75" customHeight="1">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -9345,9 +9358,9 @@
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
     </row>
-    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="15.75" customHeight="1">
       <c r="A72" s="42" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
       <c r="B72" s="42"/>
       <c r="C72" s="5"/>
@@ -9363,9 +9376,9 @@
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
     </row>
-    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="15.75" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -9377,13 +9390,13 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
     </row>
-    <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" ht="15.75" customHeight="1">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -9399,9 +9412,9 @@
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
     </row>
-    <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="15.75" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -9413,16 +9426,16 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5" t="s">
-        <v>490</v>
+        <v>546</v>
       </c>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
     </row>
-    <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="15.75" customHeight="1">
       <c r="A76" s="5"/>
       <c r="B76" s="4" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -9437,11 +9450,11 @@
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
     </row>
-    <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="15.75" customHeight="1">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="38" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -9455,7 +9468,7 @@
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
     </row>
-    <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="15.75" customHeight="1">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -9471,7 +9484,7 @@
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
     </row>
-    <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="15.75" customHeight="1">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -9487,9 +9500,9 @@
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
     </row>
-    <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="15.75" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -9497,7 +9510,7 @@
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
@@ -9507,7 +9520,7 @@
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
     </row>
-    <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="15.75" customHeight="1">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -9523,53 +9536,53 @@
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
     </row>
-    <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="15.75" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>494</v>
+        <v>550</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="77" t="s">
-        <v>495</v>
-      </c>
-      <c r="H82" s="58"/>
-      <c r="I82" s="58"/>
-      <c r="J82" s="58"/>
-      <c r="K82" s="58"/>
+      <c r="G82" s="66" t="s">
+        <v>551</v>
+      </c>
+      <c r="H82" s="69"/>
+      <c r="I82" s="69"/>
+      <c r="J82" s="69"/>
+      <c r="K82" s="69"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
     </row>
-    <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="15.75" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>496</v>
+        <v>552</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="58"/>
-      <c r="H83" s="58"/>
-      <c r="I83" s="58"/>
-      <c r="J83" s="58"/>
-      <c r="K83" s="58"/>
+      <c r="G83" s="69"/>
+      <c r="H83" s="69"/>
+      <c r="I83" s="69"/>
+      <c r="J83" s="69"/>
+      <c r="K83" s="69"/>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
     </row>
-    <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="15.75" customHeight="1">
       <c r="A92" s="45" t="s">
-        <v>497</v>
+        <v>553</v>
       </c>
       <c r="B92" s="46"/>
     </row>
-    <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="15.75" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -9578,11 +9591,11 @@
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5" t="s">
-        <v>499</v>
+        <v>555</v>
       </c>
       <c r="I94" s="5"/>
     </row>
-    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="15.75" customHeight="1">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -9593,7 +9606,7 @@
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
     </row>
-    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="15.75" customHeight="1">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -9604,9 +9617,9 @@
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="15.75" customHeight="1">
       <c r="A97" s="47" t="s">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="B97" s="48"/>
       <c r="C97" s="5"/>
@@ -9617,14 +9630,14 @@
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="15.75" customHeight="1">
       <c r="A98" s="4" t="s">
-        <v>501</v>
+        <v>557</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5" t="s">
-        <v>502</v>
+        <v>558</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -9632,9 +9645,9 @@
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
     </row>
-    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="15.75" customHeight="1">
       <c r="A99" s="5" t="s">
-        <v>503</v>
+        <v>559</v>
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -9645,7 +9658,7 @@
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="15.75" customHeight="1">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -9656,9 +9669,9 @@
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="15.75" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>504</v>
+        <v>560</v>
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -9669,9 +9682,9 @@
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
     </row>
-    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="15.75" customHeight="1">
       <c r="A102" s="5" t="s">
-        <v>505</v>
+        <v>561</v>
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -9682,23 +9695,23 @@
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
     </row>
-    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="15.75" customHeight="1">
       <c r="A105" s="45" t="s">
-        <v>506</v>
+        <v>562</v>
       </c>
       <c r="B105" s="46"/>
       <c r="C105" s="46"/>
       <c r="D105" s="46"/>
       <c r="E105" s="46"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="15.75" customHeight="1">
       <c r="A106" s="5" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15.75" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>508</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -9720,140 +9733,140 @@
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="12.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A1" s="67"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>511</v>
+        <v>567</v>
       </c>
       <c r="B7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>512</v>
+        <v>568</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>514</v>
+        <v>570</v>
       </c>
       <c r="B9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>515</v>
+        <v>571</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>516</v>
+        <v>572</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>517</v>
+        <v>573</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>518</v>
+        <v>574</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="D12" s="8" t="s">
-        <v>520</v>
+        <v>576</v>
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="D13" s="4" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="20" t="s">
-        <v>522</v>
+        <v>578</v>
       </c>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15.75" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -9862,14 +9875,14 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -9884,96 +9897,96 @@
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15.75" customHeight="1">
       <c r="A27" s="49" t="s">
-        <v>523</v>
+        <v>585</v>
       </c>
       <c r="B27" s="50"/>
       <c r="C27" s="49" t="s">
-        <v>524</v>
+        <v>586</v>
       </c>
       <c r="D27" s="50"/>
       <c r="E27" s="49" t="s">
-        <v>525</v>
+        <v>587</v>
       </c>
       <c r="F27" s="51"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15.75" customHeight="1">
       <c r="A28" s="52" t="s">
-        <v>526</v>
+        <v>588</v>
       </c>
       <c r="B28" s="53"/>
       <c r="C28" s="52" t="s">
-        <v>527</v>
+        <v>589</v>
       </c>
       <c r="D28" s="53"/>
       <c r="E28" s="53" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1">
       <c r="A29" s="52" t="s">
-        <v>529</v>
+        <v>591</v>
       </c>
       <c r="B29" s="53"/>
       <c r="C29" s="52" t="s">
-        <v>530</v>
+        <v>592</v>
       </c>
       <c r="D29" s="53"/>
       <c r="E29" s="53" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1">
       <c r="A30" s="52" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="B30" s="53"/>
       <c r="C30" s="52" t="s">
-        <v>533</v>
+        <v>595</v>
       </c>
       <c r="D30" s="53"/>
       <c r="E30" s="53" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1">
       <c r="A31" s="52" t="s">
-        <v>535</v>
+        <v>597</v>
       </c>
       <c r="B31" s="53"/>
       <c r="C31" s="52" t="s">
-        <v>536</v>
+        <v>598</v>
       </c>
       <c r="D31" s="53"/>
       <c r="E31" s="53" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1">
       <c r="A32" s="52" t="s">
-        <v>538</v>
+        <v>600</v>
       </c>
       <c r="B32" s="53"/>
       <c r="C32" s="52" t="s">
-        <v>539</v>
+        <v>601</v>
       </c>
       <c r="D32" s="53"/>
       <c r="E32" s="53" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="52" t="s">
-        <v>541</v>
+        <v>603</v>
       </c>
       <c r="B33" s="53"/>
       <c r="C33" s="52" t="s">
-        <v>542</v>
+        <v>604</v>
       </c>
       <c r="D33" s="53"/>
       <c r="E33" s="53" t="s">
-        <v>543</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>

--- a/MS_PowerShell.xlsx
+++ b/MS_PowerShell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c26969d82fe7094/Dokumenty/Personal/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c26969d82fe7094/Dokumenty/Personal/personalNotes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{741F57A5-2D69-490B-BBEF-7F93FBD128F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDA7CC5E-1262-4453-A38A-FE83EA827E56}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{741F57A5-2D69-490B-BBEF-7F93FBD128F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{467E2656-46B7-434B-B574-BB2981C7C9EC}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cmd" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="715">
   <si>
     <t>Síť</t>
   </si>
@@ -2526,6 +2524,9 @@
     </r>
   </si>
   <si>
+    <t>PowerShell general</t>
+  </si>
+  <si>
     <t>Stop-Computer</t>
   </si>
   <si>
@@ -2544,22 +2545,836 @@
     <t>vzdálené restartování počítače</t>
   </si>
   <si>
-    <t>Instalace ADDS role a nástrojů pro správu</t>
+    <t>PowerShell Remoting</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Commands are run on the remoted machine, not ours - only results come back</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Profile scripts on a remote computer does not load when remoting into</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - PowerShell uses protocol </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Web Services for Management (WS-MAN)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> - You are restricted by the computer's execution policy</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Microsoft implementation of WS-MAN comes in the form of a background service, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Windows Remote Management (WinRM)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - WS-MAN operates entirely over </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>TCP port 5985 for HTTP, and 5986 for HTTPS</t>
+    </r>
+  </si>
+  <si>
+    <t>Enable-PSRemoting</t>
+  </si>
+  <si>
+    <t>enable PowerShell remoting</t>
+  </si>
+  <si>
+    <t>One-to-One remoting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Accessing a shell prompt on a single remote computer</t>
+  </si>
+  <si>
+    <t>Enter-PSSession -computerName Server-R2</t>
+  </si>
+  <si>
+    <t>enters powershell session on computer Server-R2</t>
+  </si>
+  <si>
+    <t>Exit-PSSession</t>
+  </si>
+  <si>
+    <t>close session</t>
+  </si>
+  <si>
+    <t>One-to-many remoting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Issuing a command to 1:N machines</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - By default, PowerShell can talk to up to 32 computers at once - can be modified with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-throttleLimit</t>
+    </r>
+  </si>
+  <si>
+    <t>Invoke-Command -computerName (Get-Content servers.txt) -command { Get-EventLog Security -newest 200 }</t>
+  </si>
+  <si>
+    <t>example usage for Invoke-Command to severs listed in a file at once</t>
+  </si>
+  <si>
+    <t>Set Keyboard language with PowerShell</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">$LanguageList </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>= Get-WinUserLanguageList</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>$LanguageList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.Add("lt-LT")</t>
+    </r>
+  </si>
+  <si>
+    <t>lt-LT nahradime jazykem co chceme pridat</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Set-WinUserLanguageList </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>$LanguageList</t>
+    </r>
+  </si>
+  <si>
+    <t>aktualizovat změny</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>$LanguageList</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>[1]</t>
+    </r>
+  </si>
+  <si>
+    <t>zjistíme index jazyka, kterého se chcem zbavit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>$LanguageList</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.Remove(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>$LanguageList</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>[1])</t>
+    </r>
+  </si>
+  <si>
+    <t>smažeme jazyk s indexem 1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Set-WinUserLanguageList </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>$LanguageList</t>
+    </r>
+  </si>
+  <si>
+    <t>Set Windows Language with PowerShell</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Install-Language</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ja-JP</t>
+    </r>
+  </si>
+  <si>
+    <t>ja-JP nahradime jazykem co chceme pridat</t>
+  </si>
+  <si>
+    <t>Windows Management Instrumentation &amp; Common Information Model</t>
+  </si>
+  <si>
+    <t>WMI &amp; CIM</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Windows Management Instrumentation (WMI)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> se skládá ze sady rozšíření modelu</t>
+    </r>
+  </si>
+  <si>
+    <t>Windows Driver Model, která poskytuje rozhraní operačního systému, jehož</t>
+  </si>
+  <si>
+    <t>prostřednictvím instrumentované součásti poskytují informace a upozornění.</t>
+  </si>
+  <si>
+    <r>
+      <t>Na nejvyšší úrovni je WMI organizováno do jmenných prostorů (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>namespaces</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">). </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Představte si jmenný prostor jako druh složky, která se váže ke konkrétnímu produktu nebo technologii. </t>
+  </si>
+  <si>
+    <t>Například:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>root\CIMv2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> obsahuje všechny informace o operačním systému Windows a hardwaru počítače</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> - root\MicrosoftDNS obsahuje všechny informace o serveru DNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - root\SecurityCenter obsahuje informace o firewallu, antiviru a antispywarových nástrojích</t>
+  </si>
+  <si>
+    <t>atd.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">V rámci jmenného prostoru je WMI rozděleno do řady tříd </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(class)</t>
+    </r>
+  </si>
+  <si>
+    <t>Třída představuje komponentu správy, kterou WMI ví, jak se dotazovat.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  - třída</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Win32_LogicalDisk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> v </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>root\CIMv2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> je navržena tak, aby uchovávala informace o logických discích</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Počínaje PowerShell v3 si všimnete mnoha příkazů </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CIM (Common Information Model)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ve většině případů se jedná o "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">obaly" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>kolem části WMI, což vám poskytuje způsob interakce s WMI více zaměřený na PowerShell</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Novější rutiny CIM, jako jsou</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Get-CimInstance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Invoke-CimMethod</t>
+    </r>
+  </si>
+  <si>
+    <t>Jsou víceméně ekvivalentní starým rutinám WMI, i když komunikují přes WS-MAN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(implementované službou Windows Remote Management neboli </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>WinRM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>) namísto použití RPC.</t>
+    </r>
+  </si>
+  <si>
+    <t>Get-CimInstance -ClassName win32_operatingsystem | select caption,version,installdate,LastBootUpTime | Format-Table -AutoSize</t>
+  </si>
+  <si>
+    <t>Get-CimInstance -Namespace root/CIMV2 -ClassName win32_BIOS</t>
+  </si>
+  <si>
+    <t>Background commands</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Příkazy spuštěné na pozadí = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>jobs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Every job has at least one </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>child job</t>
+    </r>
+  </si>
+  <si>
+    <t>job1, job2 / job3</t>
+  </si>
+  <si>
+    <t>Synchronní příkazy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Po zadání příkazu musíme počkat na jeho dokončení - nelze dále používat shell</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Produkují error zprávy, které lze ihned vidět</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Po spuštění můžeme reagovat na požadavky (input)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Výsledky jdou vidět hned jak se příkaz dokončí</t>
+  </si>
+  <si>
+    <t>Asynchronní příkazy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Spuštění příkazů na pozadí, lze nadále používat shell</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - V případě error zpráv je potřeba je udělat opatření k jejich zachycení</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Pro zobrazení výsledků je potřeba vyčkat na dokončení příkazu</t>
+  </si>
+  <si>
+    <t>Local Jobs</t>
+  </si>
+  <si>
+    <t>Start-job</t>
+  </si>
+  <si>
+    <t>spustí příkaz (job object) na pozadí</t>
+  </si>
+  <si>
+    <t>Receive-Job</t>
+  </si>
+  <si>
+    <t>zobrazí výsledek job</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -scriptblock {}</t>
+  </si>
+  <si>
+    <t>lze specifikovat příkaz v {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Id</t>
+  </si>
+  <si>
+    <t>specifikujeme který job</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -FilePath</t>
+  </si>
+  <si>
+    <t>lze specifikovat soubor k spuštění</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Keep</t>
+  </si>
+  <si>
+    <t>ve výchozím režimu se výsledky po prvním zobrazení smažou, -Keep je uloží do mezipaměti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -JobName</t>
+  </si>
+  <si>
+    <t>vlastní název job</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Sloupec HasMoreData nám říka, zda jsou data z jednolivých jobs v mezipaměti</t>
+  </si>
+  <si>
+    <t>Stop-Job</t>
+  </si>
+  <si>
+    <t>terminuje job, zbytek výsledků z jobs lze vidět</t>
+  </si>
+  <si>
+    <t>Get-Job</t>
+  </si>
+  <si>
+    <t>zjistí stav jobs</t>
+  </si>
+  <si>
+    <t>Remove-Job</t>
+  </si>
+  <si>
+    <t>smaže job + výsledky z mezipaměti</t>
+  </si>
+  <si>
+    <t>Wait-Job</t>
+  </si>
+  <si>
+    <t>hodí se když ve skriptu začínáme job a chceme přinutit shell, aby</t>
+  </si>
+  <si>
+    <t>počkal, než se dokončí job a pak mohl pokračovat</t>
+  </si>
+  <si>
+    <t>Příklad použití remote job</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Příkazy WMI lze spustit ve formě </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>jobs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pomocí parametru </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-AsJob</t>
+    </r>
+  </si>
+  <si>
+    <t>Invoke-Command -Command { yes } -ComputerName blabla1 -AsJob</t>
+  </si>
+  <si>
+    <t>Get-WmiObject -Class WIN32_BIOS -AsJob</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Příkazy CIM lze spustit ve formě </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">jobs pomocí </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Start-Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> anebo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Invoke-Command</t>
+    </r>
+  </si>
+  <si>
+    <t>Scheduled Jobs</t>
+  </si>
+  <si>
+    <t>Register-ScheduledJob</t>
+  </si>
+  <si>
+    <t>zaregistruje job s Task Scheduler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Příkaz vytvoří job definici v Task Scheduler XML formátu, na disku a vytvoří hierarchii složek, která bude obsahovat výsledky úlohy při každém jejím spuštění </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Trigger (New-JobTrigger)</t>
+  </si>
+  <si>
+    <t>určuje, kdy bude úloha spuštěna</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -ScheduledJobOption (New-ScheduledJobOption)</t>
+  </si>
+  <si>
+    <t>nastaví možnosti pro úlohu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -MaxResultCount</t>
+  </si>
+  <si>
+    <t>řídí počet uložených výsledků</t>
+  </si>
+  <si>
+    <t>Obecné</t>
+  </si>
+  <si>
+    <t>Instalace Active Directory role</t>
   </si>
   <si>
     <t>Install-WindowsFeature AD-Domain-Services -IncludeManagementTools</t>
-  </si>
-  <si>
-    <t>Import ADDSDeployment modulu</t>
-  </si>
-  <si>
-    <t>Import-Module ADDSDeployment</t>
-  </si>
-  <si>
-    <t>Obecné</t>
-  </si>
-  <si>
-    <t>Instalace Active Directory role</t>
   </si>
   <si>
     <t>Instalace ADDS role</t>
@@ -3309,7 +4124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3467,8 +4282,105 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3619,6 +4531,18 @@
         <bgColor rgb="FFC9DAF8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3641,7 +4565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3711,6 +4635,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3720,29 +4662,29 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3857,6 +4799,292 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>112138</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69946F1E-15D9-F4E1-726C-B00FA67ACFEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9229725" y="9372600"/>
+          <a:ext cx="4293613" cy="4838700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>154237</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91699FB1-461A-18EE-85CB-813E6313280E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15001875"/>
+          <a:ext cx="10715625" cy="954337"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>187200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B24D1F26-88EE-9052-F978-6452B9A578AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16630650"/>
+          <a:ext cx="6600825" cy="1358775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>305895</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>171576</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77180102-8A5B-BBA8-C812-DE5E9AE3B071}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="24669750"/>
+          <a:ext cx="7849695" cy="905001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>391045</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>143058</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A88EFC33-CA24-E0FF-BE31-037AB87053E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9239250" y="22631400"/>
+          <a:ext cx="3724795" cy="1314633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>196483</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{277199C2-CC5A-B680-A1A3-24977B9154BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10086975" y="26399758"/>
+          <a:ext cx="5334000" cy="3927841"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -4243,28 +5471,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -4319,28 +5547,28 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="69"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="9"/>
@@ -4354,11 +5582,11 @@
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -4452,11 +5680,11 @@
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
       <c r="G18" s="12" t="s">
         <v>38</v>
       </c>
@@ -4510,8 +5738,8 @@
   </sheetPr>
   <dimension ref="A1:AA255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I10:I11"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="D192" sqref="D192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4527,10 +5755,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="72"/>
+      <c r="B1" s="86"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -4850,68 +6078,68 @@
       <c r="H18" s="16"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="72"/>
+      <c r="B23" s="86"/>
       <c r="U23" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="58" t="s">
+      <c r="B25" s="86"/>
+      <c r="C25" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="72"/>
-      <c r="E25" s="58" t="s">
+      <c r="D25" s="86"/>
+      <c r="E25" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="58" t="s">
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="I25" s="72"/>
+      <c r="I25" s="86"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="59" t="s">
+      <c r="B26" s="83"/>
+      <c r="C26" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="59" t="s">
+      <c r="D26" s="83"/>
+      <c r="E26" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="59" t="s">
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="I26" s="69"/>
+      <c r="I26" s="83"/>
       <c r="U26" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="D28" s="62" t="s">
+      <c r="B28" s="86"/>
+      <c r="D28" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="72"/>
-      <c r="K28" s="73" t="s">
+      <c r="E28" s="86"/>
+      <c r="K28" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="L28" s="72"/>
+      <c r="L28" s="86"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
@@ -4963,10 +6191,10 @@
       <c r="Q31" s="10"/>
     </row>
     <row r="32" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="72"/>
+      <c r="B32" s="86"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
@@ -5019,10 +6247,10 @@
       <c r="Q35" s="10"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="72"/>
+      <c r="B36" s="86"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
@@ -5081,10 +6309,10 @@
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
-      <c r="K40" s="74" t="s">
+      <c r="K40" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="L40" s="69"/>
+      <c r="L40" s="83"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
@@ -5166,10 +6394,10 @@
       <c r="Q44" s="10"/>
     </row>
     <row r="46" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A46" s="73" t="s">
+      <c r="A46" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="B46" s="72"/>
+      <c r="B46" s="86"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -5299,10 +6527,10 @@
       <c r="L52" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="M52" s="60" t="s">
+      <c r="M52" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="N52" s="69"/>
+      <c r="N52" s="83"/>
       <c r="O52" s="22" t="s">
         <v>164</v>
       </c>
@@ -5410,18 +6638,18 @@
       <c r="AA57" s="9"/>
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A58" s="75" t="s">
+      <c r="A58" s="89" t="s">
         <v>171</v>
       </c>
-      <c r="B58" s="72"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="72"/>
-      <c r="G58" s="76" t="s">
+      <c r="B58" s="86"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="86"/>
+      <c r="G58" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="H58" s="72"/>
-      <c r="I58" s="72"/>
-      <c r="J58" s="72"/>
+      <c r="H58" s="86"/>
+      <c r="I58" s="86"/>
+      <c r="J58" s="86"/>
       <c r="Q58" s="9"/>
       <c r="R58" s="9"/>
       <c r="U58" s="5"/>
@@ -5569,14 +6797,14 @@
       <c r="I63" s="12"/>
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
-      <c r="L63" s="61" t="s">
+      <c r="L63" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="M63" s="72"/>
-      <c r="N63" s="72"/>
-      <c r="O63" s="72"/>
-      <c r="P63" s="72"/>
-      <c r="Q63" s="72"/>
+      <c r="M63" s="86"/>
+      <c r="N63" s="86"/>
+      <c r="O63" s="86"/>
+      <c r="P63" s="86"/>
+      <c r="Q63" s="86"/>
       <c r="R63" s="9"/>
       <c r="U63" s="5"/>
       <c r="W63" s="9"/>
@@ -6364,10 +7592,10 @@
       <c r="AA97" s="9"/>
     </row>
     <row r="98" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A98" s="77" t="s">
+      <c r="A98" s="91" t="s">
         <v>252</v>
       </c>
-      <c r="B98" s="72"/>
+      <c r="B98" s="86"/>
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
       <c r="N98" s="9"/>
@@ -6777,10 +8005,10 @@
       <c r="G113" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="H113" s="64" t="s">
+      <c r="H113" s="72" t="s">
         <v>291</v>
       </c>
-      <c r="I113" s="69"/>
+      <c r="I113" s="83"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c r="L113" s="9"/>
@@ -6810,8 +8038,8 @@
       <c r="G114" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="H114" s="69"/>
-      <c r="I114" s="69"/>
+      <c r="H114" s="83"/>
+      <c r="I114" s="83"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
@@ -7582,10 +8810,10 @@
       <c r="AA143" s="9"/>
     </row>
     <row r="144" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A144" s="78" t="s">
+      <c r="A144" s="92" t="s">
         <v>344</v>
       </c>
-      <c r="B144" s="72"/>
+      <c r="B144" s="86"/>
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
       <c r="I144" s="9"/>
@@ -7626,10 +8854,10 @@
       <c r="AA145" s="9"/>
     </row>
     <row r="146" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A146" s="74" t="s">
+      <c r="A146" s="88" t="s">
         <v>345</v>
       </c>
-      <c r="B146" s="69"/>
+      <c r="B146" s="83"/>
       <c r="D146" s="5" t="s">
         <v>346</v>
       </c>
@@ -7654,10 +8882,10 @@
       <c r="AA146" s="9"/>
     </row>
     <row r="147" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A147" s="74" t="s">
+      <c r="A147" s="88" t="s">
         <v>349</v>
       </c>
-      <c r="B147" s="69"/>
+      <c r="B147" s="83"/>
       <c r="D147" s="5" t="s">
         <v>350</v>
       </c>
@@ -7797,23 +9025,23 @@
       <c r="G157" s="9"/>
     </row>
     <row r="158" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A158" s="65" t="s">
+      <c r="A158" s="73" t="s">
         <v>371</v>
       </c>
-      <c r="B158" s="69"/>
-      <c r="C158" s="69"/>
-      <c r="D158" s="69"/>
-      <c r="E158" s="69"/>
-      <c r="F158" s="69"/>
+      <c r="B158" s="83"/>
+      <c r="C158" s="83"/>
+      <c r="D158" s="83"/>
+      <c r="E158" s="83"/>
+      <c r="F158" s="83"/>
       <c r="G158" s="9"/>
     </row>
     <row r="159" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A159" s="69"/>
-      <c r="B159" s="69"/>
-      <c r="C159" s="69"/>
-      <c r="D159" s="69"/>
-      <c r="E159" s="69"/>
-      <c r="F159" s="69"/>
+      <c r="A159" s="83"/>
+      <c r="B159" s="83"/>
+      <c r="C159" s="83"/>
+      <c r="D159" s="83"/>
+      <c r="E159" s="83"/>
+      <c r="F159" s="83"/>
       <c r="G159" s="9"/>
     </row>
     <row r="160" spans="1:27" ht="15.75" customHeight="1">
@@ -7854,10 +9082,10 @@
       </c>
     </row>
     <row r="164" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A164" s="74" t="s">
+      <c r="A164" s="88" t="s">
         <v>380</v>
       </c>
-      <c r="B164" s="69"/>
+      <c r="B164" s="83"/>
       <c r="G164" s="9"/>
       <c r="M164" s="5" t="s">
         <v>381</v>
@@ -8019,8 +9247,8 @@
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
-      <c r="F179" s="63"/>
-      <c r="G179" s="69"/>
+      <c r="F179" s="74"/>
+      <c r="G179" s="83"/>
       <c r="L179" s="17" t="s">
         <v>403</v>
       </c>
@@ -8036,8 +9264,8 @@
       </c>
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
-      <c r="F180" s="69"/>
-      <c r="G180" s="69"/>
+      <c r="F180" s="83"/>
+      <c r="G180" s="83"/>
       <c r="L180" s="5" t="s">
         <v>406</v>
       </c>
@@ -8296,17 +9524,16 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="H113:I114"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A158:F159"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="F179:G180"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="G58:J58"/>
     <mergeCell ref="L63:Q63"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:G26"/>
@@ -8315,16 +9542,17 @@
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="K40:L40"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="G58:J58"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="F179:G180"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="H113:I114"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A158:F159"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8337,10 +9565,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A3:D11"/>
+  <dimension ref="A1:O141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K124" sqref="K124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -8348,56 +9576,597 @@
     <col min="1" max="16384" width="12.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A1" s="61" t="s">
         <v>459</v>
       </c>
+      <c r="B1" s="62"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A3" s="66" t="s">
+        <v>460</v>
+      </c>
       <c r="C3" s="5" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A4" s="4" t="s">
         <v>461</v>
       </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A4" s="66" t="s">
+        <v>462</v>
+      </c>
       <c r="C4" s="5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A8" s="61" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A10" s="1" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="K8" s="54" t="s">
         <v>467</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A11" s="5" t="s">
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A9" s="3" t="s">
         <v>468</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A14" s="66" t="s">
+        <v>474</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A16" s="56" t="s">
+        <v>476</v>
+      </c>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A19" s="66" t="s">
+        <v>478</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A20" s="66" t="s">
+        <v>480</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A23" s="56" t="s">
+        <v>482</v>
+      </c>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A27" s="66" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E28" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A31" s="61" t="s">
+        <v>487</v>
+      </c>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A33" s="66" t="s">
+        <v>488</v>
+      </c>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A34" s="66" t="s">
+        <v>489</v>
+      </c>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="F34" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A35" s="66" t="s">
+        <v>491</v>
+      </c>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="F35" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A36" s="66"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A37" s="66" t="s">
+        <v>493</v>
+      </c>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="60"/>
+      <c r="F37" s="60" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A38" s="66" t="s">
+        <v>495</v>
+      </c>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="60"/>
+      <c r="F38" s="60" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A39" s="66" t="s">
+        <v>497</v>
+      </c>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="60"/>
+      <c r="F39" s="60" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A40" s="58"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A41" s="58"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A42" s="61" t="s">
+        <v>498</v>
+      </c>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A43" s="58"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A44" s="66" t="s">
+        <v>499</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A48" s="64" t="s">
+        <v>501</v>
+      </c>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="63" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A49" s="59" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A50" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A51" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A53" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A54" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A55" s="54" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B56" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B57" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B58" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B59" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A62" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A63" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A64" s="54" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A65" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A68" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A69" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A71" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A72" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A73" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A75" s="66" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A83" s="66" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A92" s="64" t="s">
+        <v>523</v>
+      </c>
+      <c r="B92" s="65"/>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A93" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A94" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D94" s="68" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A96" s="55" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A97" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A98" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A99" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A100" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A102" s="55" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A103" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A104" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A105" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A107" s="56" t="s">
+        <v>536</v>
+      </c>
+      <c r="B107" s="57"/>
+    </row>
+    <row r="108" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A108" s="66" t="s">
+        <v>537</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="L108" s="66" t="s">
+        <v>539</v>
+      </c>
+      <c r="M108" s="67"/>
+      <c r="O108" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A109" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B109" s="67" t="s">
+        <v>542</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="L109" s="67"/>
+      <c r="M109" s="67" t="s">
+        <v>544</v>
+      </c>
+      <c r="O109" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="15.75" customHeight="1">
+      <c r="B110" s="67" t="s">
+        <v>546</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="M110" s="67" t="s">
+        <v>548</v>
+      </c>
+      <c r="O110" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="15.75" customHeight="1">
+      <c r="B111" s="67" t="s">
+        <v>550</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="15.75" customHeight="1">
+      <c r="L112" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A113" s="66" t="s">
+        <v>553</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A115" s="66" t="s">
+        <v>555</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="15.75" customHeight="1">
+      <c r="B116" s="67" t="s">
+        <v>544</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A118" s="66" t="s">
+        <v>557</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A120" s="66" t="s">
+        <v>559</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="15.75" customHeight="1">
+      <c r="E121" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="15.75" customHeight="1">
+      <c r="L122" s="54" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A123" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="L123" s="66" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A125" s="66" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A130" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="15.75" customHeight="1">
+      <c r="M131"/>
+    </row>
+    <row r="133" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A133" s="56" t="s">
+        <v>567</v>
+      </c>
+      <c r="B133" s="57"/>
+    </row>
+    <row r="135" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A135" s="66" t="s">
+        <v>568</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A136" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B138" s="67" t="s">
+        <v>571</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B139" s="67" t="s">
+        <v>573</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B141" s="67" t="s">
+        <v>575</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>576</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8419,13 +10188,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="40" t="s">
-        <v>469</v>
+        <v>577</v>
       </c>
       <c r="B1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="42" t="s">
-        <v>470</v>
+        <v>578</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="44"/>
@@ -8435,46 +10204,46 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>466</v>
+        <v>579</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>471</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>472</v>
+        <v>581</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>473</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>474</v>
+        <v>583</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>475</v>
+        <v>584</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="42" t="s">
-        <v>476</v>
+        <v>585</v>
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="44"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>477</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
@@ -8482,7 +10251,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="42" t="s">
-        <v>478</v>
+        <v>587</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="44"/>
@@ -8494,7 +10263,7 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>479</v>
+        <v>588</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -8503,12 +10272,12 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>480</v>
+        <v>589</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="A14" s="42" t="s">
-        <v>481</v>
+        <v>590</v>
       </c>
       <c r="B14" s="43"/>
       <c r="C14" s="44"/>
@@ -8523,11 +10292,11 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>482</v>
+        <v>591</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>483</v>
+        <v>592</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -8553,28 +10322,28 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>484</v>
+        <v>593</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>485</v>
+        <v>594</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="4" t="s">
-        <v>486</v>
+        <v>595</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
-        <v>487</v>
+        <v>596</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>488</v>
+        <v>597</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -8594,7 +10363,7 @@
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>489</v>
+        <v>598</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -8606,11 +10375,11 @@
     <row r="23" spans="1:11" ht="15.75" customHeight="1">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
-        <v>490</v>
+        <v>599</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="9" t="s">
-        <v>491</v>
+        <v>600</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -8619,11 +10388,11 @@
     <row r="24" spans="1:11" ht="15.75" customHeight="1">
       <c r="A24" s="5"/>
       <c r="B24" s="4" t="s">
-        <v>492</v>
+        <v>601</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="9" t="s">
-        <v>493</v>
+        <v>602</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -8632,11 +10401,11 @@
     <row r="25" spans="1:11" ht="15.75" customHeight="1">
       <c r="A25" s="5"/>
       <c r="B25" s="4" t="s">
-        <v>494</v>
+        <v>603</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="9" t="s">
-        <v>495</v>
+        <v>604</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -8662,7 +10431,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1">
       <c r="A28" s="42" t="s">
-        <v>496</v>
+        <v>605</v>
       </c>
       <c r="B28" s="43"/>
       <c r="C28" s="44"/>
@@ -8673,11 +10442,11 @@
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>497</v>
+        <v>606</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
-        <v>498</v>
+        <v>607</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -8695,11 +10464,11 @@
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>499</v>
+        <v>608</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
-        <v>500</v>
+        <v>609</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -8708,11 +10477,11 @@
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5" t="s">
-        <v>502</v>
+        <v>611</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -8721,7 +10490,7 @@
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1">
       <c r="A37" s="45" t="s">
-        <v>503</v>
+        <v>612</v>
       </c>
       <c r="B37" s="46"/>
       <c r="C37" s="46"/>
@@ -8739,7 +10508,7 @@
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
       <c r="A38" s="42" t="s">
-        <v>504</v>
+        <v>613</v>
       </c>
       <c r="B38" s="42"/>
       <c r="C38" s="5"/>
@@ -8757,7 +10526,7 @@
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>505</v>
+        <v>614</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -8772,16 +10541,16 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5" t="s">
-        <v>506</v>
+        <v>615</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>507</v>
+        <v>616</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
-        <v>508</v>
+        <v>617</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -8813,7 +10582,7 @@
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>509</v>
+        <v>618</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -8825,7 +10594,7 @@
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5" t="s">
-        <v>510</v>
+        <v>619</v>
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -8834,7 +10603,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1">
       <c r="A43" s="5"/>
       <c r="B43" s="4" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -8852,7 +10621,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1">
       <c r="A44" s="5"/>
       <c r="B44" s="4" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -8870,7 +10639,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="A45" s="5"/>
       <c r="B45" s="4" t="s">
-        <v>513</v>
+        <v>622</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -8888,7 +10657,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="A46" s="5"/>
       <c r="B46" s="4" t="s">
-        <v>514</v>
+        <v>623</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -8906,7 +10675,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1">
       <c r="A47" s="5"/>
       <c r="B47" s="4" t="s">
-        <v>515</v>
+        <v>624</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -8925,7 +10694,7 @@
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="38" t="s">
-        <v>516</v>
+        <v>625</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -8957,14 +10726,14 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>517</v>
+        <v>626</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5" t="s">
-        <v>518</v>
+        <v>627</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -8977,21 +10746,21 @@
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>519</v>
+        <v>628</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5" t="s">
-        <v>520</v>
+        <v>629</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="34" t="s">
-        <v>521</v>
+        <v>630</v>
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
@@ -9015,21 +10784,21 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5" t="s">
-        <v>523</v>
+        <v>632</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="39" t="s">
-        <v>524</v>
+        <v>633</v>
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
@@ -9037,14 +10806,14 @@
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>525</v>
+        <v>634</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5" t="s">
-        <v>526</v>
+        <v>635</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -9067,7 +10836,7 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="34" t="s">
-        <v>527</v>
+        <v>636</v>
       </c>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
@@ -9085,7 +10854,7 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="34" t="s">
-        <v>528</v>
+        <v>637</v>
       </c>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
@@ -9103,7 +10872,7 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="34" t="s">
-        <v>529</v>
+        <v>638</v>
       </c>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
@@ -9121,7 +10890,7 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="34" t="s">
-        <v>530</v>
+        <v>639</v>
       </c>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
@@ -9138,7 +10907,7 @@
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="34" t="s">
-        <v>531</v>
+        <v>640</v>
       </c>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
@@ -9146,14 +10915,14 @@
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>532</v>
+        <v>641</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5" t="s">
-        <v>533</v>
+        <v>642</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
@@ -9166,14 +10935,14 @@
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1">
       <c r="A61" s="5" t="s">
-        <v>534</v>
+        <v>643</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5" t="s">
-        <v>535</v>
+        <v>644</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -9202,7 +10971,7 @@
     </row>
     <row r="63" spans="1:14" ht="15.75" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>536</v>
+        <v>645</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -9213,7 +10982,7 @@
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5" t="s">
-        <v>537</v>
+        <v>646</v>
       </c>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
@@ -9238,7 +11007,7 @@
     </row>
     <row r="65" spans="1:14" ht="15.75" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>538</v>
+        <v>647</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -9249,7 +11018,7 @@
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5" t="s">
-        <v>539</v>
+        <v>648</v>
       </c>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
@@ -9258,7 +11027,7 @@
     </row>
     <row r="66" spans="1:14" ht="15.75" customHeight="1">
       <c r="A66" s="5" t="s">
-        <v>540</v>
+        <v>649</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -9292,14 +11061,14 @@
     </row>
     <row r="68" spans="1:14" ht="15.75" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>541</v>
+        <v>650</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
-        <v>542</v>
+        <v>651</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
@@ -9360,7 +11129,7 @@
     </row>
     <row r="72" spans="1:14" ht="15.75" customHeight="1">
       <c r="A72" s="42" t="s">
-        <v>543</v>
+        <v>652</v>
       </c>
       <c r="B72" s="42"/>
       <c r="C72" s="5"/>
@@ -9378,7 +11147,7 @@
     </row>
     <row r="73" spans="1:14" ht="15.75" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>544</v>
+        <v>653</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -9390,7 +11159,7 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5" t="s">
-        <v>545</v>
+        <v>654</v>
       </c>
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
@@ -9414,7 +11183,7 @@
     </row>
     <row r="75" spans="1:14" ht="15.75" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>509</v>
+        <v>618</v>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -9426,7 +11195,7 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5" t="s">
-        <v>546</v>
+        <v>655</v>
       </c>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
@@ -9435,7 +11204,7 @@
     <row r="76" spans="1:14" ht="15.75" customHeight="1">
       <c r="A76" s="5"/>
       <c r="B76" s="4" t="s">
-        <v>547</v>
+        <v>656</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -9454,7 +11223,7 @@
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="38" t="s">
-        <v>516</v>
+        <v>625</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -9502,7 +11271,7 @@
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>548</v>
+        <v>657</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -9510,7 +11279,7 @@
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5" t="s">
-        <v>549</v>
+        <v>658</v>
       </c>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
@@ -9538,51 +11307,51 @@
     </row>
     <row r="82" spans="1:14" ht="15.75" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>550</v>
+        <v>659</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="66" t="s">
-        <v>551</v>
-      </c>
-      <c r="H82" s="69"/>
-      <c r="I82" s="69"/>
-      <c r="J82" s="69"/>
-      <c r="K82" s="69"/>
+      <c r="G82" s="80" t="s">
+        <v>660</v>
+      </c>
+      <c r="H82" s="83"/>
+      <c r="I82" s="83"/>
+      <c r="J82" s="83"/>
+      <c r="K82" s="83"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
     </row>
     <row r="83" spans="1:14" ht="15.75" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>552</v>
+        <v>661</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="69"/>
-      <c r="H83" s="69"/>
-      <c r="I83" s="69"/>
-      <c r="J83" s="69"/>
-      <c r="K83" s="69"/>
+      <c r="G83" s="83"/>
+      <c r="H83" s="83"/>
+      <c r="I83" s="83"/>
+      <c r="J83" s="83"/>
+      <c r="K83" s="83"/>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
     </row>
     <row r="92" spans="1:14" ht="15.75" customHeight="1">
       <c r="A92" s="45" t="s">
-        <v>553</v>
+        <v>662</v>
       </c>
       <c r="B92" s="46"/>
     </row>
     <row r="94" spans="1:14" ht="15.75" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>554</v>
+        <v>663</v>
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -9591,7 +11360,7 @@
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5" t="s">
-        <v>555</v>
+        <v>664</v>
       </c>
       <c r="I94" s="5"/>
     </row>
@@ -9619,7 +11388,7 @@
     </row>
     <row r="97" spans="1:9" ht="15.75" customHeight="1">
       <c r="A97" s="47" t="s">
-        <v>556</v>
+        <v>665</v>
       </c>
       <c r="B97" s="48"/>
       <c r="C97" s="5"/>
@@ -9632,12 +11401,12 @@
     </row>
     <row r="98" spans="1:9" ht="15.75" customHeight="1">
       <c r="A98" s="4" t="s">
-        <v>557</v>
+        <v>666</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5" t="s">
-        <v>558</v>
+        <v>667</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -9647,7 +11416,7 @@
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1">
       <c r="A99" s="5" t="s">
-        <v>559</v>
+        <v>668</v>
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -9671,7 +11440,7 @@
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>560</v>
+        <v>669</v>
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -9684,7 +11453,7 @@
     </row>
     <row r="102" spans="1:9" ht="15.75" customHeight="1">
       <c r="A102" s="5" t="s">
-        <v>561</v>
+        <v>670</v>
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -9697,7 +11466,7 @@
     </row>
     <row r="105" spans="1:9" ht="15.75" customHeight="1">
       <c r="A105" s="45" t="s">
-        <v>562</v>
+        <v>671</v>
       </c>
       <c r="B105" s="46"/>
       <c r="C105" s="46"/>
@@ -9706,12 +11475,12 @@
     </row>
     <row r="106" spans="1:9" ht="15.75" customHeight="1">
       <c r="A106" s="5" t="s">
-        <v>563</v>
+        <v>672</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>564</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -9739,134 +11508,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A1" s="67"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>565</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>566</v>
+        <v>675</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>567</v>
+        <v>676</v>
       </c>
       <c r="B7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>568</v>
+        <v>677</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>569</v>
+        <v>678</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>570</v>
+        <v>679</v>
       </c>
       <c r="B9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>571</v>
+        <v>680</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>572</v>
+        <v>681</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>573</v>
+        <v>682</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>574</v>
+        <v>683</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>575</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="D12" s="8" t="s">
-        <v>576</v>
+        <v>685</v>
       </c>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="D13" s="4" t="s">
-        <v>577</v>
+        <v>686</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="20" t="s">
-        <v>578</v>
+        <v>687</v>
       </c>
       <c r="B16" s="10"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>579</v>
+        <v>688</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>580</v>
+        <v>689</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>581</v>
+        <v>690</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>582</v>
+        <v>691</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -9877,12 +11646,12 @@
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>583</v>
+        <v>692</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>584</v>
+        <v>693</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -9899,94 +11668,94 @@
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1">
       <c r="A27" s="49" t="s">
-        <v>585</v>
+        <v>694</v>
       </c>
       <c r="B27" s="50"/>
       <c r="C27" s="49" t="s">
-        <v>586</v>
+        <v>695</v>
       </c>
       <c r="D27" s="50"/>
       <c r="E27" s="49" t="s">
-        <v>587</v>
+        <v>696</v>
       </c>
       <c r="F27" s="51"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1">
       <c r="A28" s="52" t="s">
-        <v>588</v>
+        <v>697</v>
       </c>
       <c r="B28" s="53"/>
       <c r="C28" s="52" t="s">
-        <v>589</v>
+        <v>698</v>
       </c>
       <c r="D28" s="53"/>
       <c r="E28" s="53" t="s">
-        <v>590</v>
+        <v>699</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1">
       <c r="A29" s="52" t="s">
-        <v>591</v>
+        <v>700</v>
       </c>
       <c r="B29" s="53"/>
       <c r="C29" s="52" t="s">
-        <v>592</v>
+        <v>701</v>
       </c>
       <c r="D29" s="53"/>
       <c r="E29" s="53" t="s">
-        <v>593</v>
+        <v>702</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
       <c r="A30" s="52" t="s">
-        <v>594</v>
+        <v>703</v>
       </c>
       <c r="B30" s="53"/>
       <c r="C30" s="52" t="s">
-        <v>595</v>
+        <v>704</v>
       </c>
       <c r="D30" s="53"/>
       <c r="E30" s="53" t="s">
-        <v>596</v>
+        <v>705</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1">
       <c r="A31" s="52" t="s">
-        <v>597</v>
+        <v>706</v>
       </c>
       <c r="B31" s="53"/>
       <c r="C31" s="52" t="s">
-        <v>598</v>
+        <v>707</v>
       </c>
       <c r="D31" s="53"/>
       <c r="E31" s="53" t="s">
-        <v>599</v>
+        <v>708</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1">
       <c r="A32" s="52" t="s">
-        <v>600</v>
+        <v>709</v>
       </c>
       <c r="B32" s="53"/>
       <c r="C32" s="52" t="s">
-        <v>601</v>
+        <v>710</v>
       </c>
       <c r="D32" s="53"/>
       <c r="E32" s="53" t="s">
-        <v>602</v>
+        <v>711</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="52" t="s">
-        <v>603</v>
+        <v>712</v>
       </c>
       <c r="B33" s="53"/>
       <c r="C33" s="52" t="s">
-        <v>604</v>
+        <v>713</v>
       </c>
       <c r="D33" s="53"/>
       <c r="E33" s="53" t="s">
-        <v>605</v>
+        <v>714</v>
       </c>
     </row>
   </sheetData>

--- a/MS_PowerShell.xlsx
+++ b/MS_PowerShell.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c26969d82fe7094/Dokumenty/Personal/personalNotes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{741F57A5-2D69-490B-BBEF-7F93FBD128F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{467E2656-46B7-434B-B574-BB2981C7C9EC}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{741F57A5-2D69-490B-BBEF-7F93FBD128F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4758EE1E-682B-45BA-A340-5194AB1BA9FE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4656,35 +4656,46 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4692,20 +4703,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5123,6 +5123,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -5474,25 +5478,25 @@
       <c r="A1" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -5547,28 +5551,28 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="83"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="9"/>
@@ -5582,11 +5586,11 @@
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -5680,11 +5684,11 @@
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
       <c r="G18" s="12" t="s">
         <v>38</v>
       </c>
@@ -5755,10 +5759,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="86"/>
+      <c r="B1" s="76"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -6078,10 +6082,10 @@
       <c r="H18" s="16"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="86"/>
+      <c r="B23" s="76"/>
       <c r="U23" s="5" t="s">
         <v>101</v>
       </c>
@@ -6090,56 +6094,56 @@
       <c r="A25" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="86"/>
+      <c r="B25" s="76"/>
       <c r="C25" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="86"/>
+      <c r="D25" s="76"/>
       <c r="E25" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
       <c r="H25" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="I25" s="86"/>
+      <c r="I25" s="76"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="83"/>
-      <c r="C26" s="77" t="s">
+      <c r="B26" s="72"/>
+      <c r="C26" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="83"/>
-      <c r="E26" s="77" t="s">
+      <c r="D26" s="72"/>
+      <c r="E26" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="77" t="s">
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="I26" s="83"/>
+      <c r="I26" s="72"/>
       <c r="U26" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A28" s="75" t="s">
+      <c r="A28" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="86"/>
-      <c r="D28" s="75" t="s">
+      <c r="B28" s="76"/>
+      <c r="D28" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="86"/>
-      <c r="K28" s="87" t="s">
+      <c r="E28" s="76"/>
+      <c r="K28" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="L28" s="86"/>
+      <c r="L28" s="76"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
@@ -6191,10 +6195,10 @@
       <c r="Q31" s="10"/>
     </row>
     <row r="32" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="86"/>
+      <c r="B32" s="76"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
@@ -6247,10 +6251,10 @@
       <c r="Q35" s="10"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A36" s="75" t="s">
+      <c r="A36" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="86"/>
+      <c r="B36" s="76"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
@@ -6309,10 +6313,10 @@
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
-      <c r="K40" s="88" t="s">
+      <c r="K40" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="L40" s="83"/>
+      <c r="L40" s="72"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
@@ -6394,10 +6398,10 @@
       <c r="Q44" s="10"/>
     </row>
     <row r="46" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A46" s="87" t="s">
+      <c r="A46" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="B46" s="86"/>
+      <c r="B46" s="76"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -6527,10 +6531,10 @@
       <c r="L52" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="M52" s="79" t="s">
+      <c r="M52" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="N52" s="83"/>
+      <c r="N52" s="72"/>
       <c r="O52" s="22" t="s">
         <v>164</v>
       </c>
@@ -6638,18 +6642,18 @@
       <c r="AA57" s="9"/>
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A58" s="89" t="s">
+      <c r="A58" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="B58" s="86"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="86"/>
-      <c r="G58" s="90" t="s">
+      <c r="B58" s="76"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="76"/>
+      <c r="G58" s="81" t="s">
         <v>172</v>
       </c>
-      <c r="H58" s="86"/>
-      <c r="I58" s="86"/>
-      <c r="J58" s="86"/>
+      <c r="H58" s="76"/>
+      <c r="I58" s="76"/>
+      <c r="J58" s="76"/>
       <c r="Q58" s="9"/>
       <c r="R58" s="9"/>
       <c r="U58" s="5"/>
@@ -6797,14 +6801,14 @@
       <c r="I63" s="12"/>
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
-      <c r="L63" s="76" t="s">
+      <c r="L63" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="M63" s="86"/>
-      <c r="N63" s="86"/>
-      <c r="O63" s="86"/>
-      <c r="P63" s="86"/>
-      <c r="Q63" s="86"/>
+      <c r="M63" s="76"/>
+      <c r="N63" s="76"/>
+      <c r="O63" s="76"/>
+      <c r="P63" s="76"/>
+      <c r="Q63" s="76"/>
       <c r="R63" s="9"/>
       <c r="U63" s="5"/>
       <c r="W63" s="9"/>
@@ -7592,10 +7596,10 @@
       <c r="AA97" s="9"/>
     </row>
     <row r="98" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A98" s="91" t="s">
+      <c r="A98" s="87" t="s">
         <v>252</v>
       </c>
-      <c r="B98" s="86"/>
+      <c r="B98" s="76"/>
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
       <c r="N98" s="9"/>
@@ -8005,10 +8009,10 @@
       <c r="G113" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="H113" s="72" t="s">
+      <c r="H113" s="88" t="s">
         <v>291</v>
       </c>
-      <c r="I113" s="83"/>
+      <c r="I113" s="72"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c r="L113" s="9"/>
@@ -8038,8 +8042,8 @@
       <c r="G114" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="H114" s="83"/>
-      <c r="I114" s="83"/>
+      <c r="H114" s="72"/>
+      <c r="I114" s="72"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
@@ -8810,10 +8814,10 @@
       <c r="AA143" s="9"/>
     </row>
     <row r="144" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A144" s="92" t="s">
+      <c r="A144" s="89" t="s">
         <v>344</v>
       </c>
-      <c r="B144" s="86"/>
+      <c r="B144" s="76"/>
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
       <c r="I144" s="9"/>
@@ -8854,10 +8858,10 @@
       <c r="AA145" s="9"/>
     </row>
     <row r="146" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A146" s="88" t="s">
+      <c r="A146" s="84" t="s">
         <v>345</v>
       </c>
-      <c r="B146" s="83"/>
+      <c r="B146" s="72"/>
       <c r="D146" s="5" t="s">
         <v>346</v>
       </c>
@@ -8882,10 +8886,10 @@
       <c r="AA146" s="9"/>
     </row>
     <row r="147" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A147" s="88" t="s">
+      <c r="A147" s="84" t="s">
         <v>349</v>
       </c>
-      <c r="B147" s="83"/>
+      <c r="B147" s="72"/>
       <c r="D147" s="5" t="s">
         <v>350</v>
       </c>
@@ -9025,23 +9029,23 @@
       <c r="G157" s="9"/>
     </row>
     <row r="158" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A158" s="73" t="s">
+      <c r="A158" s="90" t="s">
         <v>371</v>
       </c>
-      <c r="B158" s="83"/>
-      <c r="C158" s="83"/>
-      <c r="D158" s="83"/>
-      <c r="E158" s="83"/>
-      <c r="F158" s="83"/>
+      <c r="B158" s="72"/>
+      <c r="C158" s="72"/>
+      <c r="D158" s="72"/>
+      <c r="E158" s="72"/>
+      <c r="F158" s="72"/>
       <c r="G158" s="9"/>
     </row>
     <row r="159" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A159" s="83"/>
-      <c r="B159" s="83"/>
-      <c r="C159" s="83"/>
-      <c r="D159" s="83"/>
-      <c r="E159" s="83"/>
-      <c r="F159" s="83"/>
+      <c r="A159" s="72"/>
+      <c r="B159" s="72"/>
+      <c r="C159" s="72"/>
+      <c r="D159" s="72"/>
+      <c r="E159" s="72"/>
+      <c r="F159" s="72"/>
       <c r="G159" s="9"/>
     </row>
     <row r="160" spans="1:27" ht="15.75" customHeight="1">
@@ -9082,10 +9086,10 @@
       </c>
     </row>
     <row r="164" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A164" s="88" t="s">
+      <c r="A164" s="84" t="s">
         <v>380</v>
       </c>
-      <c r="B164" s="83"/>
+      <c r="B164" s="72"/>
       <c r="G164" s="9"/>
       <c r="M164" s="5" t="s">
         <v>381</v>
@@ -9247,8 +9251,8 @@
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
-      <c r="F179" s="74"/>
-      <c r="G179" s="83"/>
+      <c r="F179" s="85"/>
+      <c r="G179" s="72"/>
       <c r="L179" s="17" t="s">
         <v>403</v>
       </c>
@@ -9264,8 +9268,8 @@
       </c>
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
-      <c r="F180" s="83"/>
-      <c r="G180" s="83"/>
+      <c r="F180" s="72"/>
+      <c r="G180" s="72"/>
       <c r="L180" s="5" t="s">
         <v>406</v>
       </c>
@@ -9524,16 +9528,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="H113:I114"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A158:F159"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="F179:G180"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A98:B98"/>
     <mergeCell ref="L63:Q63"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:G26"/>
@@ -9542,17 +9547,16 @@
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="K40:L40"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="F179:G180"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="H113:I114"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A158:F159"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9567,8 +9571,8 @@
   </sheetPr>
   <dimension ref="A1:O141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K124" sqref="K124"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -9612,16 +9616,13 @@
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="62"/>
-      <c r="K8" s="54" t="s">
-        <v>467</v>
-      </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>469</v>
+      <c r="K9" s="54" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
@@ -9629,12 +9630,15 @@
         <v>470</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>472</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
@@ -11314,13 +11318,13 @@
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="80" t="s">
+      <c r="G82" s="91" t="s">
         <v>660</v>
       </c>
-      <c r="H82" s="83"/>
-      <c r="I82" s="83"/>
-      <c r="J82" s="83"/>
-      <c r="K82" s="83"/>
+      <c r="H82" s="72"/>
+      <c r="I82" s="72"/>
+      <c r="J82" s="72"/>
+      <c r="K82" s="72"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
@@ -11334,11 +11338,11 @@
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="83"/>
-      <c r="H83" s="83"/>
-      <c r="I83" s="83"/>
-      <c r="J83" s="83"/>
-      <c r="K83" s="83"/>
+      <c r="G83" s="72"/>
+      <c r="H83" s="72"/>
+      <c r="I83" s="72"/>
+      <c r="J83" s="72"/>
+      <c r="K83" s="72"/>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
@@ -11508,49 +11512,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A1" s="81"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="13" t="s">
